--- a/INTLINE/output/INTLINE_databasetest.xlsx
+++ b/INTLINE/output/INTLINE_databasetest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N173"/>
+  <dimension ref="A1:Y173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,6 +430,61 @@
       <c r="N1" s="1" t="inlineStr">
         <is>
           <t>data013</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>data014</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>data015</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>data016</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>data017</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>data018</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>data019</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>data020</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>data021</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>data022</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>data023</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>data024</t>
         </is>
       </c>
     </row>
@@ -450,6 +505,17 @@
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
+      <c r="O2" t="inlineStr"/>
+      <c r="P2" t="inlineStr"/>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="inlineStr"/>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
+      <c r="V2" t="inlineStr"/>
+      <c r="W2" t="inlineStr"/>
+      <c r="X2" t="inlineStr"/>
+      <c r="Y2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -468,6 +534,17 @@
       <c r="L3" t="inlineStr"/>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="inlineStr"/>
+      <c r="O3" t="inlineStr"/>
+      <c r="P3" t="inlineStr"/>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="inlineStr"/>
+      <c r="S3" t="inlineStr"/>
+      <c r="T3" t="inlineStr"/>
+      <c r="U3" t="inlineStr"/>
+      <c r="V3" t="inlineStr"/>
+      <c r="W3" t="inlineStr"/>
+      <c r="X3" t="inlineStr"/>
+      <c r="Y3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -486,6 +563,17 @@
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr"/>
+      <c r="O4" t="inlineStr"/>
+      <c r="P4" t="inlineStr"/>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="inlineStr"/>
+      <c r="S4" t="inlineStr"/>
+      <c r="T4" t="inlineStr"/>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
+      <c r="W4" t="inlineStr"/>
+      <c r="X4" t="inlineStr"/>
+      <c r="Y4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -504,6 +592,17 @@
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
       <c r="N5" t="inlineStr"/>
+      <c r="O5" t="inlineStr"/>
+      <c r="P5" t="inlineStr"/>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="inlineStr"/>
+      <c r="S5" t="inlineStr"/>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr"/>
+      <c r="X5" t="inlineStr"/>
+      <c r="Y5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -522,6 +621,17 @@
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
+      <c r="O6" t="inlineStr"/>
+      <c r="P6" t="inlineStr"/>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
+      <c r="T6" t="inlineStr"/>
+      <c r="U6" t="inlineStr"/>
+      <c r="V6" t="inlineStr"/>
+      <c r="W6" t="inlineStr"/>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -540,6 +650,17 @@
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
+      <c r="P7" t="inlineStr"/>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
+      <c r="T7" t="inlineStr"/>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -558,6 +679,17 @@
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
+      <c r="P8" t="inlineStr"/>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="inlineStr"/>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
+      <c r="V8" t="inlineStr"/>
+      <c r="W8" t="inlineStr"/>
+      <c r="X8" t="inlineStr"/>
+      <c r="Y8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -576,6 +708,17 @@
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
+      <c r="P9" t="inlineStr"/>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="inlineStr"/>
+      <c r="S9" t="inlineStr"/>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -594,6 +737,17 @@
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
+      <c r="P10" t="inlineStr"/>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="inlineStr"/>
+      <c r="S10" t="inlineStr"/>
+      <c r="T10" t="inlineStr"/>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -612,6 +766,17 @@
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
+      <c r="P11" t="inlineStr"/>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="inlineStr"/>
+      <c r="S11" t="inlineStr"/>
+      <c r="T11" t="inlineStr"/>
+      <c r="U11" t="inlineStr"/>
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr"/>
+      <c r="X11" t="inlineStr"/>
+      <c r="Y11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -630,6 +795,17 @@
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
+      <c r="P12" t="inlineStr"/>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="inlineStr"/>
+      <c r="S12" t="inlineStr"/>
+      <c r="T12" t="inlineStr"/>
+      <c r="U12" t="inlineStr"/>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -648,6 +824,17 @@
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
+      <c r="P13" t="inlineStr"/>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="inlineStr"/>
+      <c r="S13" t="inlineStr"/>
+      <c r="T13" t="inlineStr"/>
+      <c r="U13" t="inlineStr"/>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr"/>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -666,6 +853,17 @@
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
+      <c r="P14" t="inlineStr"/>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
+      <c r="T14" t="inlineStr"/>
+      <c r="U14" t="inlineStr"/>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr"/>
+      <c r="X14" t="inlineStr"/>
+      <c r="Y14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -684,6 +882,17 @@
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
+      <c r="P15" t="inlineStr"/>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="inlineStr"/>
+      <c r="S15" t="inlineStr"/>
+      <c r="T15" t="inlineStr"/>
+      <c r="U15" t="inlineStr"/>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr"/>
+      <c r="X15" t="inlineStr"/>
+      <c r="Y15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -702,6 +911,17 @@
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr"/>
+      <c r="O16" t="inlineStr"/>
+      <c r="P16" t="inlineStr"/>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr"/>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr"/>
+      <c r="X16" t="inlineStr"/>
+      <c r="Y16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -720,6 +940,17 @@
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="inlineStr"/>
+      <c r="O17" t="inlineStr"/>
+      <c r="P17" t="inlineStr"/>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
+      <c r="T17" t="inlineStr"/>
+      <c r="U17" t="inlineStr"/>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr"/>
+      <c r="X17" t="inlineStr"/>
+      <c r="Y17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -738,6 +969,17 @@
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="inlineStr"/>
       <c r="N18" t="inlineStr"/>
+      <c r="O18" t="inlineStr"/>
+      <c r="P18" t="inlineStr"/>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="inlineStr"/>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr"/>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr"/>
+      <c r="X18" t="inlineStr"/>
+      <c r="Y18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -756,6 +998,17 @@
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="inlineStr"/>
+      <c r="O19" t="inlineStr"/>
+      <c r="P19" t="inlineStr"/>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr"/>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr"/>
+      <c r="X19" t="inlineStr"/>
+      <c r="Y19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -774,6 +1027,17 @@
       <c r="L20" t="inlineStr"/>
       <c r="M20" t="inlineStr"/>
       <c r="N20" t="inlineStr"/>
+      <c r="O20" t="inlineStr"/>
+      <c r="P20" t="inlineStr"/>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="inlineStr"/>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="inlineStr"/>
+      <c r="W20" t="inlineStr"/>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -792,6 +1056,17 @@
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="inlineStr"/>
+      <c r="O21" t="inlineStr"/>
+      <c r="P21" t="inlineStr"/>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="inlineStr"/>
+      <c r="S21" t="inlineStr"/>
+      <c r="T21" t="inlineStr"/>
+      <c r="U21" t="inlineStr"/>
+      <c r="V21" t="inlineStr"/>
+      <c r="W21" t="inlineStr"/>
+      <c r="X21" t="inlineStr"/>
+      <c r="Y21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -810,6 +1085,17 @@
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="inlineStr"/>
       <c r="N22" t="inlineStr"/>
+      <c r="O22" t="inlineStr"/>
+      <c r="P22" t="inlineStr"/>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="inlineStr"/>
+      <c r="S22" t="inlineStr"/>
+      <c r="T22" t="inlineStr"/>
+      <c r="U22" t="inlineStr"/>
+      <c r="V22" t="inlineStr"/>
+      <c r="W22" t="inlineStr"/>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -828,6 +1114,17 @@
       <c r="L23" t="inlineStr"/>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="inlineStr"/>
+      <c r="O23" t="inlineStr"/>
+      <c r="P23" t="inlineStr"/>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="inlineStr"/>
+      <c r="S23" t="inlineStr"/>
+      <c r="T23" t="inlineStr"/>
+      <c r="U23" t="inlineStr"/>
+      <c r="V23" t="inlineStr"/>
+      <c r="W23" t="inlineStr"/>
+      <c r="X23" t="inlineStr"/>
+      <c r="Y23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -846,6 +1143,17 @@
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="inlineStr"/>
       <c r="N24" t="inlineStr"/>
+      <c r="O24" t="inlineStr"/>
+      <c r="P24" t="inlineStr"/>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="inlineStr"/>
+      <c r="S24" t="inlineStr"/>
+      <c r="T24" t="inlineStr"/>
+      <c r="U24" t="inlineStr"/>
+      <c r="V24" t="inlineStr"/>
+      <c r="W24" t="inlineStr"/>
+      <c r="X24" t="inlineStr"/>
+      <c r="Y24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -864,6 +1172,17 @@
       <c r="L25" t="inlineStr"/>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="inlineStr"/>
+      <c r="O25" t="inlineStr"/>
+      <c r="P25" t="inlineStr"/>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="inlineStr"/>
+      <c r="S25" t="inlineStr"/>
+      <c r="T25" t="inlineStr"/>
+      <c r="U25" t="inlineStr"/>
+      <c r="V25" t="inlineStr"/>
+      <c r="W25" t="inlineStr"/>
+      <c r="X25" t="inlineStr"/>
+      <c r="Y25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -882,6 +1201,17 @@
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr"/>
       <c r="N26" t="inlineStr"/>
+      <c r="O26" t="inlineStr"/>
+      <c r="P26" t="inlineStr"/>
+      <c r="Q26" t="inlineStr"/>
+      <c r="R26" t="inlineStr"/>
+      <c r="S26" t="inlineStr"/>
+      <c r="T26" t="inlineStr"/>
+      <c r="U26" t="inlineStr"/>
+      <c r="V26" t="inlineStr"/>
+      <c r="W26" t="inlineStr"/>
+      <c r="X26" t="inlineStr"/>
+      <c r="Y26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -900,6 +1230,17 @@
       <c r="L27" t="inlineStr"/>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="inlineStr"/>
+      <c r="O27" t="inlineStr"/>
+      <c r="P27" t="inlineStr"/>
+      <c r="Q27" t="inlineStr"/>
+      <c r="R27" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
+      <c r="T27" t="inlineStr"/>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
+      <c r="X27" t="inlineStr"/>
+      <c r="Y27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -918,6 +1259,17 @@
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr"/>
       <c r="N28" t="inlineStr"/>
+      <c r="O28" t="inlineStr"/>
+      <c r="P28" t="inlineStr"/>
+      <c r="Q28" t="inlineStr"/>
+      <c r="R28" t="inlineStr"/>
+      <c r="S28" t="inlineStr"/>
+      <c r="T28" t="inlineStr"/>
+      <c r="U28" t="inlineStr"/>
+      <c r="V28" t="inlineStr"/>
+      <c r="W28" t="inlineStr"/>
+      <c r="X28" t="inlineStr"/>
+      <c r="Y28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -936,6 +1288,17 @@
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="inlineStr"/>
+      <c r="O29" t="inlineStr"/>
+      <c r="P29" t="inlineStr"/>
+      <c r="Q29" t="inlineStr"/>
+      <c r="R29" t="inlineStr"/>
+      <c r="S29" t="inlineStr"/>
+      <c r="T29" t="inlineStr"/>
+      <c r="U29" t="inlineStr"/>
+      <c r="V29" t="inlineStr"/>
+      <c r="W29" t="inlineStr"/>
+      <c r="X29" t="inlineStr"/>
+      <c r="Y29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -954,6 +1317,17 @@
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr"/>
       <c r="N30" t="inlineStr"/>
+      <c r="O30" t="inlineStr"/>
+      <c r="P30" t="inlineStr"/>
+      <c r="Q30" t="inlineStr"/>
+      <c r="R30" t="inlineStr"/>
+      <c r="S30" t="inlineStr"/>
+      <c r="T30" t="inlineStr"/>
+      <c r="U30" t="inlineStr"/>
+      <c r="V30" t="inlineStr"/>
+      <c r="W30" t="inlineStr"/>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -972,6 +1346,17 @@
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="inlineStr"/>
+      <c r="O31" t="inlineStr"/>
+      <c r="P31" t="inlineStr"/>
+      <c r="Q31" t="inlineStr"/>
+      <c r="R31" t="inlineStr"/>
+      <c r="S31" t="inlineStr"/>
+      <c r="T31" t="inlineStr"/>
+      <c r="U31" t="inlineStr"/>
+      <c r="V31" t="inlineStr"/>
+      <c r="W31" t="inlineStr"/>
+      <c r="X31" t="inlineStr"/>
+      <c r="Y31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -990,6 +1375,17 @@
       <c r="L32" t="inlineStr"/>
       <c r="M32" t="inlineStr"/>
       <c r="N32" t="inlineStr"/>
+      <c r="O32" t="inlineStr"/>
+      <c r="P32" t="inlineStr"/>
+      <c r="Q32" t="inlineStr"/>
+      <c r="R32" t="inlineStr"/>
+      <c r="S32" t="inlineStr"/>
+      <c r="T32" t="inlineStr"/>
+      <c r="U32" t="inlineStr"/>
+      <c r="V32" t="inlineStr"/>
+      <c r="W32" t="inlineStr"/>
+      <c r="X32" t="inlineStr"/>
+      <c r="Y32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1008,6 +1404,17 @@
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="inlineStr"/>
       <c r="N33" t="inlineStr"/>
+      <c r="O33" t="inlineStr"/>
+      <c r="P33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
+      <c r="T33" t="inlineStr"/>
+      <c r="U33" t="inlineStr"/>
+      <c r="V33" t="inlineStr"/>
+      <c r="W33" t="inlineStr"/>
+      <c r="X33" t="inlineStr"/>
+      <c r="Y33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1026,6 +1433,17 @@
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="inlineStr"/>
       <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
+      <c r="P34" t="inlineStr"/>
+      <c r="Q34" t="inlineStr"/>
+      <c r="R34" t="inlineStr"/>
+      <c r="S34" t="inlineStr"/>
+      <c r="T34" t="inlineStr"/>
+      <c r="U34" t="inlineStr"/>
+      <c r="V34" t="inlineStr"/>
+      <c r="W34" t="inlineStr"/>
+      <c r="X34" t="inlineStr"/>
+      <c r="Y34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1044,6 +1462,17 @@
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="inlineStr"/>
+      <c r="O35" t="inlineStr"/>
+      <c r="P35" t="inlineStr"/>
+      <c r="Q35" t="inlineStr"/>
+      <c r="R35" t="inlineStr"/>
+      <c r="S35" t="inlineStr"/>
+      <c r="T35" t="inlineStr"/>
+      <c r="U35" t="inlineStr"/>
+      <c r="V35" t="inlineStr"/>
+      <c r="W35" t="inlineStr"/>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1062,6 +1491,17 @@
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
       <c r="N36" t="inlineStr"/>
+      <c r="O36" t="inlineStr"/>
+      <c r="P36" t="inlineStr"/>
+      <c r="Q36" t="inlineStr"/>
+      <c r="R36" t="inlineStr"/>
+      <c r="S36" t="inlineStr"/>
+      <c r="T36" t="inlineStr"/>
+      <c r="U36" t="inlineStr"/>
+      <c r="V36" t="inlineStr"/>
+      <c r="W36" t="inlineStr"/>
+      <c r="X36" t="inlineStr"/>
+      <c r="Y36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1080,6 +1520,17 @@
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr"/>
+      <c r="R37" t="inlineStr"/>
+      <c r="S37" t="inlineStr"/>
+      <c r="T37" t="inlineStr"/>
+      <c r="U37" t="inlineStr"/>
+      <c r="V37" t="inlineStr"/>
+      <c r="W37" t="inlineStr"/>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1098,6 +1549,17 @@
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr"/>
+      <c r="O38" t="inlineStr"/>
+      <c r="P38" t="inlineStr"/>
+      <c r="Q38" t="inlineStr"/>
+      <c r="R38" t="inlineStr"/>
+      <c r="S38" t="inlineStr"/>
+      <c r="T38" t="inlineStr"/>
+      <c r="U38" t="inlineStr"/>
+      <c r="V38" t="inlineStr"/>
+      <c r="W38" t="inlineStr"/>
+      <c r="X38" t="inlineStr"/>
+      <c r="Y38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1116,6 +1578,17 @@
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr"/>
+      <c r="O39" t="inlineStr"/>
+      <c r="P39" t="inlineStr"/>
+      <c r="Q39" t="inlineStr"/>
+      <c r="R39" t="inlineStr"/>
+      <c r="S39" t="inlineStr"/>
+      <c r="T39" t="inlineStr"/>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
+      <c r="W39" t="inlineStr"/>
+      <c r="X39" t="inlineStr"/>
+      <c r="Y39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1134,6 +1607,17 @@
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr"/>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr"/>
+      <c r="R40" t="inlineStr"/>
+      <c r="S40" t="inlineStr"/>
+      <c r="T40" t="inlineStr"/>
+      <c r="U40" t="inlineStr"/>
+      <c r="V40" t="inlineStr"/>
+      <c r="W40" t="inlineStr"/>
+      <c r="X40" t="inlineStr"/>
+      <c r="Y40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1152,6 +1636,17 @@
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr"/>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr"/>
+      <c r="R41" t="inlineStr"/>
+      <c r="S41" t="inlineStr"/>
+      <c r="T41" t="inlineStr"/>
+      <c r="U41" t="inlineStr"/>
+      <c r="V41" t="inlineStr"/>
+      <c r="W41" t="inlineStr"/>
+      <c r="X41" t="inlineStr"/>
+      <c r="Y41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1170,6 +1665,17 @@
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
+      <c r="O42" t="inlineStr"/>
+      <c r="P42" t="inlineStr"/>
+      <c r="Q42" t="inlineStr"/>
+      <c r="R42" t="inlineStr"/>
+      <c r="S42" t="inlineStr"/>
+      <c r="T42" t="inlineStr"/>
+      <c r="U42" t="inlineStr"/>
+      <c r="V42" t="inlineStr"/>
+      <c r="W42" t="inlineStr"/>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1188,6 +1694,17 @@
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr"/>
+      <c r="O43" t="inlineStr"/>
+      <c r="P43" t="inlineStr"/>
+      <c r="Q43" t="inlineStr"/>
+      <c r="R43" t="inlineStr"/>
+      <c r="S43" t="inlineStr"/>
+      <c r="T43" t="inlineStr"/>
+      <c r="U43" t="inlineStr"/>
+      <c r="V43" t="inlineStr"/>
+      <c r="W43" t="inlineStr"/>
+      <c r="X43" t="inlineStr"/>
+      <c r="Y43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1206,6 +1723,17 @@
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr"/>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr"/>
+      <c r="R44" t="inlineStr"/>
+      <c r="S44" t="inlineStr"/>
+      <c r="T44" t="inlineStr"/>
+      <c r="U44" t="inlineStr"/>
+      <c r="V44" t="inlineStr"/>
+      <c r="W44" t="inlineStr"/>
+      <c r="X44" t="inlineStr"/>
+      <c r="Y44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1224,6 +1752,17 @@
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr"/>
+      <c r="O45" t="inlineStr"/>
+      <c r="P45" t="inlineStr"/>
+      <c r="Q45" t="inlineStr"/>
+      <c r="R45" t="inlineStr"/>
+      <c r="S45" t="inlineStr"/>
+      <c r="T45" t="inlineStr"/>
+      <c r="U45" t="inlineStr"/>
+      <c r="V45" t="inlineStr"/>
+      <c r="W45" t="inlineStr"/>
+      <c r="X45" t="inlineStr"/>
+      <c r="Y45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1242,6 +1781,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr"/>
+      <c r="O46" t="inlineStr"/>
+      <c r="P46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
+      <c r="T46" t="inlineStr"/>
+      <c r="U46" t="inlineStr"/>
+      <c r="V46" t="inlineStr"/>
+      <c r="W46" t="inlineStr"/>
+      <c r="X46" t="inlineStr"/>
+      <c r="Y46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1263,27 +1813,58 @@
         <v>4952.32946498135</v>
       </c>
       <c r="G47" t="n">
+        <v>315047.361130292</v>
+      </c>
+      <c r="H47" t="n">
+        <v>42198.221102371</v>
+      </c>
+      <c r="I47" t="n">
+        <v>73755.1434503889</v>
+      </c>
+      <c r="J47" t="n">
+        <v>102126.905412381</v>
+      </c>
+      <c r="K47" t="n">
         <v>633.502027381198</v>
       </c>
-      <c r="H47" t="n">
+      <c r="L47" t="n">
         <v>286.832911908475</v>
       </c>
-      <c r="I47" t="n">
+      <c r="M47" t="n">
+        <v>32073.4452831137</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-1904.74704132432</v>
+      </c>
+      <c r="O47" t="n">
+        <v>18519.2666902706</v>
+      </c>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="n">
+        <v>447430.391483226</v>
+      </c>
+      <c r="R47" t="n">
+        <v>-500.020584992148</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3055.28678260414</v>
+      </c>
+      <c r="T47" t="n">
         <v>786</v>
       </c>
-      <c r="J47" t="n">
+      <c r="U47" t="n">
         <v>573</v>
       </c>
-      <c r="K47" t="n">
+      <c r="V47" t="n">
         <v>70</v>
       </c>
-      <c r="L47" t="n">
+      <c r="W47" t="n">
         <v>143</v>
       </c>
-      <c r="M47" t="n">
+      <c r="X47" t="n">
         <v>218</v>
       </c>
-      <c r="N47" t="n">
+      <c r="Y47" t="n">
         <v>490.885474392109</v>
       </c>
     </row>
@@ -1307,27 +1888,58 @@
         <v>6020.61568314971</v>
       </c>
       <c r="G48" t="n">
+        <v>422743.936888273</v>
+      </c>
+      <c r="H48" t="n">
+        <v>84653.0828593332</v>
+      </c>
+      <c r="I48" t="n">
+        <v>137573.197468347</v>
+      </c>
+      <c r="J48" t="n">
+        <v>170000.767377806</v>
+      </c>
+      <c r="K48" t="n">
         <v>1600.87924780677</v>
       </c>
-      <c r="H48" t="n">
+      <c r="L48" t="n">
         <v>445.021384455412</v>
       </c>
-      <c r="I48" t="n">
+      <c r="M48" t="n">
+        <v>42052.8494216578</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-2596.5405848053</v>
+      </c>
+      <c r="O48" t="n">
+        <v>97079.2296163421</v>
+      </c>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="n">
+        <v>619325.455986721</v>
+      </c>
+      <c r="R48" t="n">
+        <v>-8706.8801864937</v>
+      </c>
+      <c r="S48" t="n">
+        <v>13474.2920998441</v>
+      </c>
+      <c r="T48" t="n">
         <v>1326</v>
       </c>
-      <c r="J48" t="n">
+      <c r="U48" t="n">
         <v>952</v>
       </c>
-      <c r="K48" t="n">
+      <c r="V48" t="n">
         <v>189</v>
       </c>
-      <c r="L48" t="n">
+      <c r="W48" t="n">
         <v>185</v>
       </c>
-      <c r="M48" t="n">
+      <c r="X48" t="n">
         <v>287</v>
       </c>
-      <c r="N48" t="n">
+      <c r="Y48" t="n">
         <v>1264.48241282458</v>
       </c>
     </row>
@@ -1351,27 +1963,58 @@
         <v>6529.60855954593</v>
       </c>
       <c r="G49" t="n">
+        <v>485328.051606434</v>
+      </c>
+      <c r="H49" t="n">
+        <v>106169.191880219</v>
+      </c>
+      <c r="I49" t="n">
+        <v>162945.172100537</v>
+      </c>
+      <c r="J49" t="n">
+        <v>204581.213019871</v>
+      </c>
+      <c r="K49" t="n">
         <v>1491.31784985802</v>
       </c>
-      <c r="H49" t="n">
+      <c r="L49" t="n">
         <v>525.168024800375</v>
       </c>
-      <c r="I49" t="n">
+      <c r="M49" t="n">
+        <v>44547.700456294</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-3723.51591758886</v>
+      </c>
+      <c r="O49" t="n">
+        <v>140946.685300792</v>
+      </c>
+      <c r="P49" t="inlineStr"/>
+      <c r="Q49" t="n">
+        <v>718008.192486626</v>
+      </c>
+      <c r="R49" t="n">
+        <v>-12304.8543958937</v>
+      </c>
+      <c r="S49" t="n">
+        <v>15804.5450072794</v>
+      </c>
+      <c r="T49" t="n">
         <v>1540</v>
       </c>
-      <c r="J49" t="n">
+      <c r="U49" t="n">
         <v>1147</v>
       </c>
-      <c r="K49" t="n">
+      <c r="V49" t="n">
         <v>212</v>
       </c>
-      <c r="L49" t="n">
+      <c r="W49" t="n">
         <v>181</v>
       </c>
-      <c r="M49" t="n">
+      <c r="X49" t="n">
         <v>210</v>
       </c>
-      <c r="N49" t="n">
+      <c r="Y49" t="n">
         <v>1352.85877296719</v>
       </c>
     </row>
@@ -1395,27 +2038,58 @@
         <v>6819.67027313633</v>
       </c>
       <c r="G50" t="n">
+        <v>558802.653404017</v>
+      </c>
+      <c r="H50" t="n">
+        <v>118505.520855152</v>
+      </c>
+      <c r="I50" t="n">
+        <v>129118.010979036</v>
+      </c>
+      <c r="J50" t="n">
+        <v>143797.302038193</v>
+      </c>
+      <c r="K50" t="n">
         <v>1507.42746076443</v>
       </c>
-      <c r="H50" t="n">
+      <c r="L50" t="n">
         <v>541.828315090456</v>
       </c>
-      <c r="I50" t="n">
+      <c r="M50" t="n">
+        <v>47514.5503353204</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-2089.26941095261</v>
+      </c>
+      <c r="O50" t="n">
+        <v>104705.127113057</v>
+      </c>
+      <c r="P50" t="inlineStr"/>
+      <c r="Q50" t="n">
+        <v>765855.399434031</v>
+      </c>
+      <c r="R50" t="n">
+        <v>-15359.3279694327</v>
+      </c>
+      <c r="S50" t="n">
+        <v>15741.887758808</v>
+      </c>
+      <c r="T50" t="n">
         <v>1217</v>
       </c>
-      <c r="J50" t="n">
+      <c r="U50" t="n">
         <v>807</v>
       </c>
-      <c r="K50" t="n">
+      <c r="V50" t="n">
         <v>212</v>
       </c>
-      <c r="L50" t="n">
+      <c r="W50" t="n">
         <v>198</v>
       </c>
-      <c r="M50" t="n">
+      <c r="X50" t="n">
         <v>115</v>
       </c>
-      <c r="N50" t="n">
+      <c r="Y50" t="n">
         <v>933.432143247608</v>
       </c>
     </row>
@@ -1439,27 +2113,58 @@
         <v>7344.17731240596</v>
       </c>
       <c r="G51" t="n">
+        <v>607446.12035829</v>
+      </c>
+      <c r="H51" t="n">
+        <v>130511.999860516</v>
+      </c>
+      <c r="I51" t="n">
+        <v>116056.736553969</v>
+      </c>
+      <c r="J51" t="n">
+        <v>133399.459910756</v>
+      </c>
+      <c r="K51" t="n">
         <v>954.7463960519081</v>
       </c>
-      <c r="H51" t="n">
+      <c r="L51" t="n">
         <v>588.695363935286</v>
       </c>
-      <c r="I51" t="n">
+      <c r="M51" t="n">
+        <v>51043.3036005263</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-2715.58727488807</v>
+      </c>
+      <c r="O51" t="n">
+        <v>106413.986643634</v>
+      </c>
+      <c r="P51" t="inlineStr"/>
+      <c r="Q51" t="n">
+        <v>824339.7146758439</v>
+      </c>
+      <c r="R51" t="n">
+        <v>-7435.08869857889</v>
+      </c>
+      <c r="S51" t="n">
+        <v>11946.648708542</v>
+      </c>
+      <c r="T51" t="n">
         <v>1150</v>
       </c>
-      <c r="J51" t="n">
+      <c r="U51" t="n">
         <v>800</v>
       </c>
-      <c r="K51" t="n">
+      <c r="V51" t="n">
         <v>145</v>
       </c>
-      <c r="L51" t="n">
+      <c r="W51" t="n">
         <v>205</v>
       </c>
-      <c r="M51" t="n">
+      <c r="X51" t="n">
         <v>147</v>
       </c>
-      <c r="N51" t="n">
+      <c r="Y51" t="n">
         <v>984.106227849191</v>
       </c>
     </row>
@@ -1483,27 +2188,58 @@
         <v>8071.65750453501</v>
       </c>
       <c r="G52" t="n">
+        <v>653988.598226542</v>
+      </c>
+      <c r="H52" t="n">
+        <v>132937.94784263</v>
+      </c>
+      <c r="I52" t="n">
+        <v>124492.677550513</v>
+      </c>
+      <c r="J52" t="n">
+        <v>154014.508471778</v>
+      </c>
+      <c r="K52" t="n">
         <v>1294.15998518427</v>
       </c>
-      <c r="H52" t="n">
+      <c r="L52" t="n">
         <v>640.742361293858</v>
       </c>
-      <c r="I52" t="n">
+      <c r="M52" t="n">
+        <v>55268.8170645948</v>
+      </c>
+      <c r="N52" t="n">
+        <v>-2081.33296494709</v>
+      </c>
+      <c r="O52" t="n">
+        <v>122454.248831836</v>
+      </c>
+      <c r="P52" t="inlineStr"/>
+      <c r="Q52" t="n">
+        <v>911752.742689086</v>
+      </c>
+      <c r="R52" t="n">
+        <v>-13750.5660872841</v>
+      </c>
+      <c r="S52" t="n">
+        <v>9861.05743799481</v>
+      </c>
+      <c r="T52" t="n">
         <v>1273</v>
       </c>
-      <c r="J52" t="n">
+      <c r="U52" t="n">
         <v>900</v>
       </c>
-      <c r="K52" t="n">
+      <c r="V52" t="n">
         <v>154</v>
       </c>
-      <c r="L52" t="n">
+      <c r="W52" t="n">
         <v>219</v>
       </c>
-      <c r="M52" t="n">
+      <c r="X52" t="n">
         <v>118</v>
       </c>
-      <c r="N52" t="n">
+      <c r="Y52" t="n">
         <v>1178.47309981984</v>
       </c>
     </row>
@@ -1527,27 +2263,58 @@
         <v>8548.300500247609</v>
       </c>
       <c r="G53" t="n">
+        <v>715210.310285594</v>
+      </c>
+      <c r="H53" t="n">
+        <v>146483.87108883</v>
+      </c>
+      <c r="I53" t="n">
+        <v>119341.300653004</v>
+      </c>
+      <c r="J53" t="n">
+        <v>141268.402324245</v>
+      </c>
+      <c r="K53" t="n">
         <v>1140.81574003245</v>
       </c>
-      <c r="H53" t="n">
+      <c r="L53" t="n">
         <v>702.901379156853</v>
       </c>
-      <c r="I53" t="n">
+      <c r="M53" t="n">
+        <v>57696.2396928893</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-2101.17407996089</v>
+      </c>
+      <c r="O53" t="n">
+        <v>142902.349088254</v>
+      </c>
+      <c r="P53" t="inlineStr"/>
+      <c r="Q53" t="n">
+        <v>970049.651550223</v>
+      </c>
+      <c r="R53" t="n">
+        <v>-8489.47993214929</v>
+      </c>
+      <c r="S53" t="n">
+        <v>10511.4993506976</v>
+      </c>
+      <c r="T53" t="n">
         <v>1207</v>
       </c>
-      <c r="J53" t="n">
+      <c r="U53" t="n">
         <v>819</v>
       </c>
-      <c r="K53" t="n">
+      <c r="V53" t="n">
         <v>174</v>
       </c>
-      <c r="L53" t="n">
+      <c r="W53" t="n">
         <v>214</v>
       </c>
-      <c r="M53" t="n">
+      <c r="X53" t="n">
         <v>115</v>
       </c>
-      <c r="N53" t="n">
+      <c r="Y53" t="n">
         <v>1093.94015493447</v>
       </c>
     </row>
@@ -1571,27 +2338,58 @@
         <v>8793.15357096341</v>
       </c>
       <c r="G54" t="n">
+        <v>806260.764385406</v>
+      </c>
+      <c r="H54" t="n">
+        <v>152262.703539517</v>
+      </c>
+      <c r="I54" t="n">
+        <v>145200.827768644</v>
+      </c>
+      <c r="J54" t="n">
+        <v>165812.27722658</v>
+      </c>
+      <c r="K54" t="n">
         <v>1174.0459868023</v>
       </c>
-      <c r="H54" t="n">
+      <c r="L54" t="n">
         <v>743.755655462612</v>
       </c>
-      <c r="I54" t="n">
+      <c r="M54" t="n">
+        <v>63157.9406065519</v>
+      </c>
+      <c r="N54" t="n">
+        <v>-3177.22388420904</v>
+      </c>
+      <c r="O54" t="n">
+        <v>141232.871951285</v>
+      </c>
+      <c r="P54" t="inlineStr"/>
+      <c r="Q54" t="n">
+        <v>1056526.09604217</v>
+      </c>
+      <c r="R54" t="n">
+        <v>-26946.7615259899</v>
+      </c>
+      <c r="S54" t="n">
+        <v>15327.1564474976</v>
+      </c>
+      <c r="T54" t="n">
         <v>1444</v>
       </c>
-      <c r="J54" t="n">
+      <c r="U54" t="n">
         <v>983</v>
       </c>
-      <c r="K54" t="n">
+      <c r="V54" t="n">
         <v>241</v>
       </c>
-      <c r="L54" t="n">
+      <c r="W54" t="n">
         <v>220</v>
       </c>
-      <c r="M54" t="n">
+      <c r="X54" t="n">
         <v>172</v>
       </c>
-      <c r="N54" t="n">
+      <c r="Y54" t="n">
         <v>1268.43288238755</v>
       </c>
     </row>
@@ -1615,27 +2413,58 @@
         <v>9102.050746748409</v>
       </c>
       <c r="G55" t="n">
+        <v>881222.383975813</v>
+      </c>
+      <c r="H55" t="n">
+        <v>159980.143580351</v>
+      </c>
+      <c r="I55" t="n">
+        <v>143199.296520795</v>
+      </c>
+      <c r="J55" t="n">
+        <v>139970.083274674</v>
+      </c>
+      <c r="K55" t="n">
         <v>1262.00589241825</v>
       </c>
-      <c r="H55" t="n">
+      <c r="L55" t="n">
         <v>769.268305472293</v>
       </c>
-      <c r="I55" t="n">
+      <c r="M55" t="n">
+        <v>70058.1141888334</v>
+      </c>
+      <c r="N55" t="n">
+        <v>-4761.8676033108</v>
+      </c>
+      <c r="O55" t="n">
+        <v>149832.33812099</v>
+      </c>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="n">
+        <v>1138778.10428568</v>
+      </c>
+      <c r="R55" t="n">
+        <v>-27729.4024416297</v>
+      </c>
+      <c r="S55" t="n">
+        <v>20309.8995402211</v>
+      </c>
+      <c r="T55" t="n">
         <v>1309</v>
       </c>
-      <c r="J55" t="n">
+      <c r="U55" t="n">
         <v>794</v>
       </c>
-      <c r="K55" t="n">
+      <c r="V55" t="n">
         <v>285</v>
       </c>
-      <c r="L55" t="n">
+      <c r="W55" t="n">
         <v>230</v>
       </c>
-      <c r="M55" t="n">
+      <c r="X55" t="n">
         <v>270</v>
       </c>
-      <c r="N55" t="n">
+      <c r="Y55" t="n">
         <v>1230.33660443047</v>
       </c>
     </row>
@@ -1659,27 +2488,58 @@
         <v>9648.27044440232</v>
       </c>
       <c r="G56" t="n">
+        <v>944206.994257443</v>
+      </c>
+      <c r="H56" t="n">
+        <v>166603.385387305</v>
+      </c>
+      <c r="I56" t="n">
+        <v>150698.623535973</v>
+      </c>
+      <c r="J56" t="n">
+        <v>142228.029447842</v>
+      </c>
+      <c r="K56" t="n">
         <v>1438.26005945193</v>
       </c>
-      <c r="H56" t="n">
+      <c r="L56" t="n">
         <v>829.628717976855</v>
       </c>
-      <c r="I56" t="n">
+      <c r="M56" t="n">
+        <v>71833.72888916011</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-5269.13877716349</v>
+      </c>
+      <c r="O56" t="n">
+        <v>164885.79341438</v>
+      </c>
+      <c r="P56" t="inlineStr"/>
+      <c r="Q56" t="n">
+        <v>1216418.00098023</v>
+      </c>
+      <c r="R56" t="n">
+        <v>-32968.7485713301</v>
+      </c>
+      <c r="S56" t="n">
+        <v>22965.373404008</v>
+      </c>
+      <c r="T56" t="n">
         <v>1350</v>
       </c>
-      <c r="J56" t="n">
+      <c r="U56" t="n">
         <v>793</v>
       </c>
-      <c r="K56" t="n">
+      <c r="V56" t="n">
         <v>311</v>
       </c>
-      <c r="L56" t="n">
+      <c r="W56" t="n">
         <v>246</v>
       </c>
-      <c r="M56" t="n">
+      <c r="X56" t="n">
         <v>286</v>
       </c>
-      <c r="N56" t="n">
+      <c r="Y56" t="n">
         <v>1252.53774250435</v>
       </c>
     </row>
@@ -1703,27 +2563,58 @@
         <v>10599.3377125796</v>
       </c>
       <c r="G57" t="n">
+        <v>988238.212658354</v>
+      </c>
+      <c r="H57" t="n">
+        <v>172114.699660834</v>
+      </c>
+      <c r="I57" t="n">
+        <v>177494.764632979</v>
+      </c>
+      <c r="J57" t="n">
+        <v>170508.805266769</v>
+      </c>
+      <c r="K57" t="n">
         <v>1349.12848713061</v>
       </c>
-      <c r="H57" t="n">
+      <c r="L57" t="n">
         <v>903.164429496869</v>
       </c>
-      <c r="I57" t="n">
+      <c r="M57" t="n">
+        <v>73137.34474509599</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-2304.87619410252</v>
+      </c>
+      <c r="O57" t="n">
+        <v>143538.462310807</v>
+      </c>
+      <c r="P57" t="inlineStr"/>
+      <c r="Q57" t="n">
+        <v>1297882.68688808</v>
+      </c>
+      <c r="R57" t="n">
+        <v>-31436.076778202</v>
+      </c>
+      <c r="S57" t="n">
+        <v>27781.0305008079</v>
+      </c>
+      <c r="T57" t="n">
         <v>1603</v>
       </c>
-      <c r="J57" t="n">
+      <c r="U57" t="n">
         <v>976</v>
       </c>
-      <c r="K57" t="n">
+      <c r="V57" t="n">
         <v>382</v>
       </c>
-      <c r="L57" t="n">
+      <c r="W57" t="n">
         <v>245</v>
       </c>
-      <c r="M57" t="n">
+      <c r="X57" t="n">
         <v>207</v>
       </c>
-      <c r="N57" t="n">
+      <c r="Y57" t="n">
         <v>1150.23554550291</v>
       </c>
     </row>
@@ -1747,27 +2638,58 @@
         <v>11623.3083592482</v>
       </c>
       <c r="G58" t="n">
+        <v>1025098.42356912</v>
+      </c>
+      <c r="H58" t="n">
+        <v>177258.807796453</v>
+      </c>
+      <c r="I58" t="n">
+        <v>209493.603941541</v>
+      </c>
+      <c r="J58" t="n">
+        <v>204163.492977835</v>
+      </c>
+      <c r="K58" t="n">
         <v>1622.48198408614</v>
       </c>
-      <c r="H58" t="n">
+      <c r="L58" t="n">
         <v>965.2824212429711</v>
       </c>
-      <c r="I58" t="n">
+      <c r="M58" t="n">
+        <v>75115.24466444719</v>
+      </c>
+      <c r="N58" t="n">
+        <v>-2784.3698069359</v>
+      </c>
+      <c r="O58" t="n">
+        <v>148331.32909183</v>
+      </c>
+      <c r="P58" t="inlineStr"/>
+      <c r="Q58" t="n">
+        <v>1367048.35217215</v>
+      </c>
+      <c r="R58" t="n">
+        <v>-29675.1347180123</v>
+      </c>
+      <c r="S58" t="n">
+        <v>33506.709539692</v>
+      </c>
+      <c r="T58" t="n">
         <v>1926</v>
       </c>
-      <c r="J58" t="n">
+      <c r="U58" t="n">
         <v>1183</v>
       </c>
-      <c r="K58" t="n">
+      <c r="V58" t="n">
         <v>476</v>
       </c>
-      <c r="L58" t="n">
+      <c r="W58" t="n">
         <v>267</v>
       </c>
-      <c r="M58" t="n">
+      <c r="X58" t="n">
         <v>261</v>
       </c>
-      <c r="N58" t="n">
+      <c r="Y58" t="n">
         <v>1095.71736560781</v>
       </c>
     </row>
@@ -1791,27 +2713,58 @@
         <v>12433.0027321194</v>
       </c>
       <c r="G59" t="n">
+        <v>1070026.52430726</v>
+      </c>
+      <c r="H59" t="n">
+        <v>184914.391192486</v>
+      </c>
+      <c r="I59" t="n">
+        <v>202667.869173235</v>
+      </c>
+      <c r="J59" t="n">
+        <v>188132.075148344</v>
+      </c>
+      <c r="K59" t="n">
         <v>1465.63335108556</v>
       </c>
-      <c r="H59" t="n">
+      <c r="L59" t="n">
         <v>1040.5476970786</v>
       </c>
-      <c r="I59" t="n">
+      <c r="M59" t="n">
+        <v>78351.80816883971</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-3400.105742864</v>
+      </c>
+      <c r="O59" t="n">
+        <v>153935.489004116</v>
+      </c>
+      <c r="P59" t="inlineStr"/>
+      <c r="Q59" t="n">
+        <v>1415482.22773063</v>
+      </c>
+      <c r="R59" t="n">
+        <v>-21674.8053581379</v>
+      </c>
+      <c r="S59" t="n">
+        <v>34139.249381403</v>
+      </c>
+      <c r="T59" t="n">
         <v>1877</v>
       </c>
-      <c r="J59" t="n">
+      <c r="U59" t="n">
         <v>1103</v>
       </c>
-      <c r="K59" t="n">
+      <c r="V59" t="n">
         <v>498</v>
       </c>
-      <c r="L59" t="n">
+      <c r="W59" t="n">
         <v>276</v>
       </c>
-      <c r="M59" t="n">
+      <c r="X59" t="n">
         <v>329</v>
       </c>
-      <c r="N59" t="n">
+      <c r="Y59" t="n">
         <v>1166.25702895966</v>
       </c>
     </row>
@@ -1835,27 +2788,58 @@
         <v>13454.0902932524</v>
       </c>
       <c r="G60" t="n">
+        <v>1117082.68850095</v>
+      </c>
+      <c r="H60" t="n">
+        <v>189914.693690279</v>
+      </c>
+      <c r="I60" t="n">
+        <v>231285.916918924</v>
+      </c>
+      <c r="J60" t="n">
+        <v>209277.741060061</v>
+      </c>
+      <c r="K60" t="n">
         <v>1552.0959261151</v>
       </c>
-      <c r="H60" t="n">
+      <c r="L60" t="n">
         <v>1117.12918299634</v>
       </c>
-      <c r="I60" t="n">
+      <c r="M60" t="n">
+        <v>83274.0818317704</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-3841.90123717117</v>
+      </c>
+      <c r="O60" t="n">
+        <v>149572.939087574</v>
+      </c>
+      <c r="P60" t="inlineStr"/>
+      <c r="Q60" t="n">
+        <v>1511569.3901351</v>
+      </c>
+      <c r="R60" t="n">
+        <v>-29751.2248070328</v>
+      </c>
+      <c r="S60" t="n">
+        <v>41207.5837446737</v>
+      </c>
+      <c r="T60" t="n">
         <v>2181</v>
       </c>
-      <c r="J60" t="n">
+      <c r="U60" t="n">
         <v>1263</v>
       </c>
-      <c r="K60" t="n">
+      <c r="V60" t="n">
         <v>617</v>
       </c>
-      <c r="L60" t="n">
+      <c r="W60" t="n">
         <v>301</v>
       </c>
-      <c r="M60" t="n">
+      <c r="X60" t="n">
         <v>377</v>
       </c>
-      <c r="N60" t="n">
+      <c r="Y60" t="n">
         <v>1231.35699366922</v>
       </c>
     </row>
@@ -1879,27 +2863,58 @@
         <v>14324.9397963112</v>
       </c>
       <c r="G61" t="n">
+        <v>1158297.31738794</v>
+      </c>
+      <c r="H61" t="n">
+        <v>205759.692649577</v>
+      </c>
+      <c r="I61" t="n">
+        <v>205869.036136943</v>
+      </c>
+      <c r="J61" t="n">
+        <v>187838.542145832</v>
+      </c>
+      <c r="K61" t="n">
         <v>1595.6648201728</v>
       </c>
-      <c r="H61" t="n">
+      <c r="L61" t="n">
         <v>1242.35353138559</v>
       </c>
-      <c r="I61" t="n">
+      <c r="M61" t="n">
+        <v>82824.55912282709</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-3468.22690441137</v>
+      </c>
+      <c r="O61" t="n">
+        <v>159723.169726942</v>
+      </c>
+      <c r="P61" t="inlineStr"/>
+      <c r="Q61" t="n">
+        <v>1533325.33447399</v>
+      </c>
+      <c r="R61" t="n">
+        <v>-34294.890122831</v>
+      </c>
+      <c r="S61" t="n">
+        <v>35111.9285719586</v>
+      </c>
+      <c r="T61" t="n">
         <v>2155</v>
       </c>
-      <c r="J61" t="n">
+      <c r="U61" t="n">
         <v>1209</v>
       </c>
-      <c r="K61" t="n">
+      <c r="V61" t="n">
         <v>632</v>
       </c>
-      <c r="L61" t="n">
+      <c r="W61" t="n">
         <v>314</v>
       </c>
-      <c r="M61" t="n">
+      <c r="X61" t="n">
         <v>355</v>
       </c>
-      <c r="N61" t="n">
+      <c r="Y61" t="n">
         <v>1442.969864259</v>
       </c>
     </row>
@@ -1923,27 +2938,58 @@
         <v>15935.0220927976</v>
       </c>
       <c r="G62" t="n">
+        <v>1214915.24189604</v>
+      </c>
+      <c r="H62" t="n">
+        <v>217865.861230672</v>
+      </c>
+      <c r="I62" t="n">
+        <v>236488.615130482</v>
+      </c>
+      <c r="J62" t="n">
+        <v>230175.032892729</v>
+      </c>
+      <c r="K62" t="n">
         <v>2140.35416245204</v>
       </c>
-      <c r="H62" t="n">
+      <c r="L62" t="n">
         <v>1425.68541171372</v>
       </c>
-      <c r="I62" t="n">
+      <c r="M62" t="n">
+        <v>88376.1645782782</v>
+      </c>
+      <c r="N62" t="n">
+        <v>-4393.48423455467</v>
+      </c>
+      <c r="O62" t="n">
+        <v>164987.53275136</v>
+      </c>
+      <c r="P62" t="inlineStr"/>
+      <c r="Q62" t="n">
+        <v>1620655.43350984</v>
+      </c>
+      <c r="R62" t="n">
+        <v>-17805.0808308073</v>
+      </c>
+      <c r="S62" t="n">
+        <v>37427.2630869008</v>
+      </c>
+      <c r="T62" t="n">
         <v>2574</v>
       </c>
-      <c r="J62" t="n">
+      <c r="U62" t="n">
         <v>1490</v>
       </c>
-      <c r="K62" t="n">
+      <c r="V62" t="n">
         <v>743</v>
       </c>
-      <c r="L62" t="n">
+      <c r="W62" t="n">
         <v>341</v>
       </c>
-      <c r="M62" t="n">
+      <c r="X62" t="n">
         <v>471</v>
       </c>
-      <c r="N62" t="n">
+      <c r="Y62" t="n">
         <v>1668.629866249</v>
       </c>
     </row>
@@ -1967,27 +3013,58 @@
         <v>18029.278189902</v>
       </c>
       <c r="G63" t="n">
+        <v>1285273.58984158</v>
+      </c>
+      <c r="H63" t="n">
+        <v>223988.072498066</v>
+      </c>
+      <c r="I63" t="n">
+        <v>225550.760074125</v>
+      </c>
+      <c r="J63" t="n">
+        <v>215148.401110297</v>
+      </c>
+      <c r="K63" t="n">
         <v>3138.69155793726</v>
       </c>
-      <c r="H63" t="n">
+      <c r="L63" t="n">
         <v>1609.65876667758</v>
       </c>
-      <c r="I63" t="n">
+      <c r="M63" t="n">
+        <v>92399.3928233219</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-5248.63629164923</v>
+      </c>
+      <c r="O63" t="n">
+        <v>191371.600358997</v>
+      </c>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="n">
+        <v>1699197.16359452</v>
+      </c>
+      <c r="R63" t="n">
+        <v>-8402.519830411529</v>
+      </c>
+      <c r="S63" t="n">
+        <v>35777.2888771546</v>
+      </c>
+      <c r="T63" t="n">
         <v>2750</v>
       </c>
-      <c r="J63" t="n">
+      <c r="U63" t="n">
         <v>1470</v>
       </c>
-      <c r="K63" t="n">
+      <c r="V63" t="n">
         <v>896</v>
       </c>
-      <c r="L63" t="n">
+      <c r="W63" t="n">
         <v>384</v>
       </c>
-      <c r="M63" t="n">
+      <c r="X63" t="n">
         <v>592</v>
       </c>
-      <c r="N63" t="n">
+      <c r="Y63" t="n">
         <v>2558.38115268368</v>
       </c>
     </row>
@@ -2011,27 +3088,58 @@
         <v>20995.2686675675</v>
       </c>
       <c r="G64" t="n">
+        <v>1360297.73792792</v>
+      </c>
+      <c r="H64" t="n">
+        <v>240794.157534401</v>
+      </c>
+      <c r="I64" t="n">
+        <v>268333.490496902</v>
+      </c>
+      <c r="J64" t="n">
+        <v>265782.844043586</v>
+      </c>
+      <c r="K64" t="n">
         <v>3260.03874825237</v>
       </c>
-      <c r="H64" t="n">
+      <c r="L64" t="n">
         <v>1961.78850818407</v>
       </c>
-      <c r="I64" t="n">
+      <c r="M64" t="n">
+        <v>98939.9482384491</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-6023.76251818816</v>
+      </c>
+      <c r="O64" t="n">
+        <v>227558.893006129</v>
+      </c>
+      <c r="P64" t="inlineStr"/>
+      <c r="Q64" t="n">
+        <v>1818417.34259984</v>
+      </c>
+      <c r="R64" t="n">
+        <v>-9185.16074605141</v>
+      </c>
+      <c r="S64" t="n">
+        <v>41425.3922750742</v>
+      </c>
+      <c r="T64" t="n">
         <v>3484</v>
       </c>
-      <c r="J64" t="n">
+      <c r="U64" t="n">
         <v>1915</v>
       </c>
-      <c r="K64" t="n">
+      <c r="V64" t="n">
         <v>1110</v>
       </c>
-      <c r="L64" t="n">
+      <c r="W64" t="n">
         <v>459</v>
       </c>
-      <c r="M64" t="n">
+      <c r="X64" t="n">
         <v>745</v>
       </c>
-      <c r="N64" t="n">
+      <c r="Y64" t="n">
         <v>3234.80090455453</v>
       </c>
     </row>
@@ -2055,27 +3163,58 @@
         <v>22648.5555095492</v>
       </c>
       <c r="G65" t="n">
+        <v>1410998.31587779</v>
+      </c>
+      <c r="H65" t="n">
+        <v>249930.560493467</v>
+      </c>
+      <c r="I65" t="n">
+        <v>311674.340209941</v>
+      </c>
+      <c r="J65" t="n">
+        <v>304100.190602244</v>
+      </c>
+      <c r="K65" t="n">
         <v>3939.62507290927</v>
       </c>
-      <c r="H65" t="n">
+      <c r="L65" t="n">
         <v>2163.12946817092</v>
       </c>
-      <c r="I65" t="n">
+      <c r="M65" t="n">
+        <v>99277.09027015659</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-5294.27085618097</v>
+      </c>
+      <c r="O65" t="n">
+        <v>240573.31086875</v>
+      </c>
+      <c r="P65" t="inlineStr"/>
+      <c r="Q65" t="n">
+        <v>1880288.89154859</v>
+      </c>
+      <c r="R65" t="n">
+        <v>-11467.8634166678</v>
+      </c>
+      <c r="S65" t="n">
+        <v>51411.7642100118</v>
+      </c>
+      <c r="T65" t="n">
         <v>4181</v>
       </c>
-      <c r="J65" t="n">
+      <c r="U65" t="n">
         <v>2269</v>
       </c>
-      <c r="K65" t="n">
+      <c r="V65" t="n">
         <v>1429</v>
       </c>
-      <c r="L65" t="n">
+      <c r="W65" t="n">
         <v>483</v>
       </c>
-      <c r="M65" t="n">
+      <c r="X65" t="n">
         <v>686</v>
       </c>
-      <c r="N65" t="n">
+      <c r="Y65" t="n">
         <v>3430.13461923565</v>
       </c>
     </row>
@@ -2099,27 +3238,58 @@
         <v>24704.9153019379</v>
       </c>
       <c r="G66" t="n">
+        <v>1478269.92663502</v>
+      </c>
+      <c r="H66" t="n">
+        <v>260051.73853156</v>
+      </c>
+      <c r="I66" t="n">
+        <v>330926.248141977</v>
+      </c>
+      <c r="J66" t="n">
+        <v>335079.212098106</v>
+      </c>
+      <c r="K66" t="n">
         <v>4280.11426470003</v>
       </c>
-      <c r="H66" t="n">
+      <c r="L66" t="n">
         <v>2403.47771919262</v>
       </c>
-      <c r="I66" t="n">
+      <c r="M66" t="n">
+        <v>106581.834290487</v>
+      </c>
+      <c r="N66" t="n">
+        <v>-5661.33148393617</v>
+      </c>
+      <c r="O66" t="n">
+        <v>272938.502516873</v>
+      </c>
+      <c r="P66" t="inlineStr"/>
+      <c r="Q66" t="n">
+        <v>1980792.0124233</v>
+      </c>
+      <c r="R66" t="n">
+        <v>-14978.8775243299</v>
+      </c>
+      <c r="S66" t="n">
+        <v>51208.8740721045</v>
+      </c>
+      <c r="T66" t="n">
         <v>4552</v>
       </c>
-      <c r="J66" t="n">
+      <c r="U66" t="n">
         <v>2557</v>
       </c>
-      <c r="K66" t="n">
+      <c r="V66" t="n">
         <v>1455</v>
       </c>
-      <c r="L66" t="n">
+      <c r="W66" t="n">
         <v>540</v>
       </c>
-      <c r="M66" t="n">
+      <c r="X66" t="n">
         <v>749</v>
       </c>
-      <c r="N66" t="n">
+      <c r="Y66" t="n">
         <v>4109.09084269257</v>
       </c>
     </row>
@@ -2143,27 +3313,58 @@
         <v>27138.6443475115</v>
       </c>
       <c r="G67" t="n">
+        <v>1556840.96474469</v>
+      </c>
+      <c r="H67" t="n">
+        <v>260668.012187027</v>
+      </c>
+      <c r="I67" t="n">
+        <v>326923.18564628</v>
+      </c>
+      <c r="J67" t="n">
+        <v>317455.942216532</v>
+      </c>
+      <c r="K67" t="n">
         <v>4561.42324109902</v>
       </c>
-      <c r="H67" t="n">
+      <c r="L67" t="n">
         <v>2606.57149551365</v>
       </c>
-      <c r="I67" t="n">
+      <c r="M67" t="n">
+        <v>110650.014806425</v>
+      </c>
+      <c r="N67" t="n">
+        <v>-6099.82012574104</v>
+      </c>
+      <c r="O67" t="n">
+        <v>290178.319133409</v>
+      </c>
+      <c r="P67" t="inlineStr"/>
+      <c r="Q67" t="n">
+        <v>2068762.12587275</v>
+      </c>
+      <c r="R67" t="n">
+        <v>-17207.2301313602</v>
+      </c>
+      <c r="S67" t="n">
+        <v>53464.535017074</v>
+      </c>
+      <c r="T67" t="n">
         <v>4683</v>
       </c>
-      <c r="J67" t="n">
+      <c r="U67" t="n">
         <v>2523</v>
       </c>
-      <c r="K67" t="n">
+      <c r="V67" t="n">
         <v>1567</v>
       </c>
-      <c r="L67" t="n">
+      <c r="W67" t="n">
         <v>593</v>
       </c>
-      <c r="M67" t="n">
+      <c r="X67" t="n">
         <v>843</v>
       </c>
-      <c r="N67" t="n">
+      <c r="Y67" t="n">
         <v>4785.62945596524</v>
       </c>
     </row>
@@ -2187,27 +3388,58 @@
         <v>28717.0270423834</v>
       </c>
       <c r="G68" t="n">
+        <v>1632356.48932622</v>
+      </c>
+      <c r="H68" t="n">
+        <v>289083.486887405</v>
+      </c>
+      <c r="I68" t="n">
+        <v>380926.03835267</v>
+      </c>
+      <c r="J68" t="n">
+        <v>350636.461231234</v>
+      </c>
+      <c r="K68" t="n">
         <v>5494.1393435323</v>
       </c>
-      <c r="H68" t="n">
+      <c r="L68" t="n">
         <v>2900.95967281311</v>
       </c>
-      <c r="I68" t="n">
+      <c r="M68" t="n">
+        <v>113347.151060086</v>
+      </c>
+      <c r="N68" t="n">
+        <v>-4702.34425826942</v>
+      </c>
+      <c r="O68" t="n">
+        <v>247877.73518116</v>
+      </c>
+      <c r="P68" t="inlineStr"/>
+      <c r="Q68" t="n">
+        <v>2176807.10871761</v>
+      </c>
+      <c r="R68" t="n">
+        <v>-34240.5400592449</v>
+      </c>
+      <c r="S68" t="n">
+        <v>69454.0680912689</v>
+      </c>
+      <c r="T68" t="n">
         <v>5614</v>
       </c>
-      <c r="J68" t="n">
+      <c r="U68" t="n">
         <v>2855</v>
       </c>
-      <c r="K68" t="n">
+      <c r="V68" t="n">
         <v>2116</v>
       </c>
-      <c r="L68" t="n">
+      <c r="W68" t="n">
         <v>643</v>
       </c>
-      <c r="M68" t="n">
+      <c r="X68" t="n">
         <v>674</v>
       </c>
-      <c r="N68" t="n">
+      <c r="Y68" t="n">
         <v>4998.84842645925</v>
       </c>
     </row>
@@ -2231,27 +3463,58 @@
         <v>32004.1001336891</v>
       </c>
       <c r="G69" t="n">
+        <v>1709982.13145624</v>
+      </c>
+      <c r="H69" t="n">
+        <v>309732.232784</v>
+      </c>
+      <c r="I69" t="n">
+        <v>381580.385106775</v>
+      </c>
+      <c r="J69" t="n">
+        <v>316236.651283022</v>
+      </c>
+      <c r="K69" t="n">
         <v>5789.11964138741</v>
       </c>
-      <c r="H69" t="n">
+      <c r="L69" t="n">
         <v>3208.1786354027</v>
       </c>
-      <c r="I69" t="n">
+      <c r="M69" t="n">
+        <v>111459.155682523</v>
+      </c>
+      <c r="N69" t="n">
+        <v>-4941.76037943587</v>
+      </c>
+      <c r="O69" t="n">
+        <v>220184.588385434</v>
+      </c>
+      <c r="P69" t="inlineStr"/>
+      <c r="Q69" t="n">
+        <v>2286478.12063671</v>
+      </c>
+      <c r="R69" t="n">
+        <v>-38773.3353623259</v>
+      </c>
+      <c r="S69" t="n">
+        <v>79100.3006773619</v>
+      </c>
+      <c r="T69" t="n">
         <v>6014</v>
       </c>
-      <c r="J69" t="n">
+      <c r="U69" t="n">
         <v>2773</v>
       </c>
-      <c r="K69" t="n">
+      <c r="V69" t="n">
         <v>2544</v>
       </c>
-      <c r="L69" t="n">
+      <c r="W69" t="n">
         <v>697</v>
       </c>
-      <c r="M69" t="n">
+      <c r="X69" t="n">
         <v>724</v>
       </c>
-      <c r="N69" t="n">
+      <c r="Y69" t="n">
         <v>4714.3995280591</v>
       </c>
     </row>
@@ -2275,27 +3538,58 @@
         <v>35737.6837829792</v>
       </c>
       <c r="G70" t="n">
+        <v>1778278.11122434</v>
+      </c>
+      <c r="H70" t="n">
+        <v>328232.999804919</v>
+      </c>
+      <c r="I70" t="n">
+        <v>394128.446391367</v>
+      </c>
+      <c r="J70" t="n">
+        <v>338737.084898637</v>
+      </c>
+      <c r="K70" t="n">
         <v>5839.81458290288</v>
       </c>
-      <c r="H70" t="n">
+      <c r="L70" t="n">
         <v>3522.45238854447</v>
       </c>
-      <c r="I70" t="n">
+      <c r="M70" t="n">
+        <v>115752.097552933</v>
+      </c>
+      <c r="N70" t="n">
+        <v>-5654.05640843111</v>
+      </c>
+      <c r="O70" t="n">
+        <v>210616.824006391</v>
+      </c>
+      <c r="P70" t="inlineStr"/>
+      <c r="Q70" t="n">
+        <v>2393701.90480357</v>
+      </c>
+      <c r="R70" t="n">
+        <v>-31533.906892657</v>
+      </c>
+      <c r="S70" t="n">
+        <v>78420.0219796727</v>
+      </c>
+      <c r="T70" t="n">
         <v>6540</v>
       </c>
-      <c r="J70" t="n">
+      <c r="U70" t="n">
         <v>3047</v>
       </c>
-      <c r="K70" t="n">
+      <c r="V70" t="n">
         <v>2701</v>
       </c>
-      <c r="L70" t="n">
+      <c r="W70" t="n">
         <v>792</v>
       </c>
-      <c r="M70" t="n">
+      <c r="X70" t="n">
         <v>860</v>
       </c>
-      <c r="N70" t="n">
+      <c r="Y70" t="n">
         <v>4543.15707708818</v>
       </c>
     </row>
@@ -2319,27 +3613,58 @@
         <v>41580.5649105614</v>
       </c>
       <c r="G71" t="n">
+        <v>1828938.03322639</v>
+      </c>
+      <c r="H71" t="n">
+        <v>349053.266167982</v>
+      </c>
+      <c r="I71" t="n">
+        <v>362873.766136492</v>
+      </c>
+      <c r="J71" t="n">
+        <v>278495.08099852</v>
+      </c>
+      <c r="K71" t="n">
         <v>8321.165859493931</v>
       </c>
-      <c r="H71" t="n">
+      <c r="L71" t="n">
         <v>3994.8355735916</v>
       </c>
-      <c r="I71" t="n">
+      <c r="M71" t="n">
+        <v>112110.963610492</v>
+      </c>
+      <c r="N71" t="n">
+        <v>-7057.48461040688</v>
+      </c>
+      <c r="O71" t="n">
+        <v>239783.556860373</v>
+      </c>
+      <c r="P71" t="inlineStr"/>
+      <c r="Q71" t="n">
+        <v>2482089.0480896</v>
+      </c>
+      <c r="R71" t="n">
+        <v>-69187.63094510919</v>
+      </c>
+      <c r="S71" t="n">
+        <v>80287.8047198194</v>
+      </c>
+      <c r="T71" t="n">
         <v>7144</v>
       </c>
-      <c r="J71" t="n">
+      <c r="U71" t="n">
         <v>2902</v>
       </c>
-      <c r="K71" t="n">
+      <c r="V71" t="n">
         <v>3473</v>
       </c>
-      <c r="L71" t="n">
+      <c r="W71" t="n">
         <v>769</v>
       </c>
-      <c r="M71" t="n">
+      <c r="X71" t="n">
         <v>1288</v>
       </c>
-      <c r="N71" t="n">
+      <c r="Y71" t="n">
         <v>7906.78004941635</v>
       </c>
     </row>
@@ -2363,27 +3688,58 @@
         <v>51169.2453401941</v>
       </c>
       <c r="G72" t="n">
+        <v>1886595.34497576</v>
+      </c>
+      <c r="H72" t="n">
+        <v>381304.077742182</v>
+      </c>
+      <c r="I72" t="n">
+        <v>392351.445892475</v>
+      </c>
+      <c r="J72" t="n">
+        <v>275412.984472146</v>
+      </c>
+      <c r="K72" t="n">
         <v>9731.121100204889</v>
       </c>
-      <c r="H72" t="n">
+      <c r="L72" t="n">
         <v>4854.89581765433</v>
       </c>
-      <c r="I72" t="n">
+      <c r="M72" t="n">
+        <v>123506.364282207</v>
+      </c>
+      <c r="N72" t="n">
+        <v>-6575.34551557166</v>
+      </c>
+      <c r="O72" t="n">
+        <v>246165.713653853</v>
+      </c>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="n">
+        <v>2615849.03578337</v>
+      </c>
+      <c r="R72" t="n">
+        <v>-44480.0920388667</v>
+      </c>
+      <c r="S72" t="n">
+        <v>93299.6266523747</v>
+      </c>
+      <c r="T72" t="n">
         <v>8654</v>
       </c>
-      <c r="J72" t="n">
+      <c r="U72" t="n">
         <v>3186</v>
       </c>
-      <c r="K72" t="n">
+      <c r="V72" t="n">
         <v>4474</v>
       </c>
-      <c r="L72" t="n">
+      <c r="W72" t="n">
         <v>994</v>
       </c>
-      <c r="M72" t="n">
+      <c r="X72" t="n">
         <v>1361</v>
       </c>
-      <c r="N72" t="n">
+      <c r="Y72" t="n">
         <v>9089.80217307641</v>
       </c>
     </row>
@@ -2407,27 +3763,58 @@
         <v>57588.9470318493</v>
       </c>
       <c r="G73" t="n">
+        <v>1936258.20600494</v>
+      </c>
+      <c r="H73" t="n">
+        <v>428260.01251971</v>
+      </c>
+      <c r="I73" t="n">
+        <v>403359.867755645</v>
+      </c>
+      <c r="J73" t="n">
+        <v>320007.421392212</v>
+      </c>
+      <c r="K73" t="n">
         <v>10426.3413276499</v>
       </c>
-      <c r="H73" t="n">
+      <c r="L73" t="n">
         <v>5977.68882223709</v>
       </c>
-      <c r="I73" t="n">
+      <c r="M73" t="n">
+        <v>117370.379305129</v>
+      </c>
+      <c r="N73" t="n">
+        <v>-7148.09236896987</v>
+      </c>
+      <c r="O73" t="n">
+        <v>289577.456224015</v>
+      </c>
+      <c r="P73" t="inlineStr"/>
+      <c r="Q73" t="n">
+        <v>2757899.77469646</v>
+      </c>
+      <c r="R73" t="n">
+        <v>-43001.7703093247</v>
+      </c>
+      <c r="S73" t="n">
+        <v>87448.6331165478</v>
+      </c>
+      <c r="T73" t="n">
         <v>9446</v>
       </c>
-      <c r="J73" t="n">
+      <c r="U73" t="n">
         <v>3917</v>
       </c>
-      <c r="K73" t="n">
+      <c r="V73" t="n">
         <v>4456</v>
       </c>
-      <c r="L73" t="n">
+      <c r="W73" t="n">
         <v>1073</v>
       </c>
-      <c r="M73" t="n">
+      <c r="X73" t="n">
         <v>1659</v>
       </c>
-      <c r="N73" t="n">
+      <c r="Y73" t="n">
         <v>9853.496443275561</v>
       </c>
     </row>
@@ -2451,27 +3838,58 @@
         <v>74900.07119538409</v>
       </c>
       <c r="G74" t="n">
+        <v>2038963.33263406</v>
+      </c>
+      <c r="H74" t="n">
+        <v>476605.486759508</v>
+      </c>
+      <c r="I74" t="n">
+        <v>423099.328171132</v>
+      </c>
+      <c r="J74" t="n">
+        <v>337732.298851578</v>
+      </c>
+      <c r="K74" t="n">
         <v>13619.4018575041</v>
       </c>
-      <c r="H74" t="n">
+      <c r="L74" t="n">
         <v>7113.4661611745</v>
       </c>
-      <c r="I74" t="n">
+      <c r="M74" t="n">
+        <v>129619.873123838</v>
+      </c>
+      <c r="N74" t="n">
+        <v>-10887.4811785697</v>
+      </c>
+      <c r="O74" t="n">
+        <v>338116.882943315</v>
+      </c>
+      <c r="P74" t="inlineStr"/>
+      <c r="Q74" t="n">
+        <v>3000098.78451861</v>
+      </c>
+      <c r="R74" t="n">
+        <v>-12794.0049681686</v>
+      </c>
+      <c r="S74" t="n">
+        <v>90318.9318322365</v>
+      </c>
+      <c r="T74" t="n">
         <v>11645</v>
       </c>
-      <c r="J74" t="n">
+      <c r="U74" t="n">
         <v>4833</v>
       </c>
-      <c r="K74" t="n">
+      <c r="V74" t="n">
         <v>5509</v>
       </c>
-      <c r="L74" t="n">
+      <c r="W74" t="n">
         <v>1303</v>
       </c>
-      <c r="M74" t="n">
+      <c r="X74" t="n">
         <v>3215</v>
       </c>
-      <c r="N74" t="n">
+      <c r="Y74" t="n">
         <v>15925.459387691</v>
       </c>
     </row>
@@ -2495,27 +3913,58 @@
         <v>104608.313309399</v>
       </c>
       <c r="G75" t="n">
+        <v>2127884.31763927</v>
+      </c>
+      <c r="H75" t="n">
+        <v>543988.59797421</v>
+      </c>
+      <c r="I75" t="n">
+        <v>494468.030518316</v>
+      </c>
+      <c r="J75" t="n">
+        <v>372199.847184986</v>
+      </c>
+      <c r="K75" t="n">
         <v>25375.9216296696</v>
       </c>
-      <c r="H75" t="n">
+      <c r="L75" t="n">
         <v>10042.5214563226</v>
       </c>
-      <c r="I75" t="n">
+      <c r="M75" t="n">
+        <v>133395.863878963</v>
+      </c>
+      <c r="N75" t="n">
+        <v>-14874.2225553416</v>
+      </c>
+      <c r="O75" t="n">
+        <v>298036.122297953</v>
+      </c>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="n">
+        <v>3101940.32916768</v>
+      </c>
+      <c r="R75" t="n">
+        <v>16076.7488087692</v>
+      </c>
+      <c r="S75" t="n">
+        <v>113901.926685462</v>
+      </c>
+      <c r="T75" t="n">
         <v>18586</v>
       </c>
-      <c r="J75" t="n">
+      <c r="U75" t="n">
         <v>8231</v>
       </c>
-      <c r="K75" t="n">
+      <c r="V75" t="n">
         <v>8538</v>
       </c>
-      <c r="L75" t="n">
+      <c r="W75" t="n">
         <v>1817</v>
       </c>
-      <c r="M75" t="n">
+      <c r="X75" t="n">
         <v>6621</v>
       </c>
-      <c r="N75" t="n">
+      <c r="Y75" t="n">
         <v>21797.3785428736</v>
       </c>
     </row>
@@ -2539,27 +3988,58 @@
         <v>118511.542163056</v>
       </c>
       <c r="G76" t="n">
+        <v>2226485.19822352</v>
+      </c>
+      <c r="H76" t="n">
+        <v>584931.147091659</v>
+      </c>
+      <c r="I76" t="n">
+        <v>652621.074919677</v>
+      </c>
+      <c r="J76" t="n">
+        <v>572310.326781983</v>
+      </c>
+      <c r="K76" t="n">
         <v>28690.926294791</v>
       </c>
-      <c r="H76" t="n">
+      <c r="L76" t="n">
         <v>12375.6414495577</v>
       </c>
-      <c r="I76" t="n">
+      <c r="M76" t="n">
+        <v>121438.559821068</v>
+      </c>
+      <c r="N76" t="n">
+        <v>-14427.7974675312</v>
+      </c>
+      <c r="O76" t="n">
+        <v>308081.023875499</v>
+      </c>
+      <c r="P76" t="inlineStr"/>
+      <c r="Q76" t="n">
+        <v>3271030.28752545</v>
+      </c>
+      <c r="R76" t="n">
+        <v>-16576.7693937614</v>
+      </c>
+      <c r="S76" t="n">
+        <v>136160.168285294</v>
+      </c>
+      <c r="T76" t="n">
         <v>26598</v>
       </c>
-      <c r="J76" t="n">
+      <c r="U76" t="n">
         <v>12735</v>
       </c>
-      <c r="K76" t="n">
+      <c r="V76" t="n">
         <v>12125</v>
       </c>
-      <c r="L76" t="n">
+      <c r="W76" t="n">
         <v>1738</v>
       </c>
-      <c r="M76" t="n">
+      <c r="X76" t="n">
         <v>6708</v>
       </c>
-      <c r="N76" t="n">
+      <c r="Y76" t="n">
         <v>20887.4780699195</v>
       </c>
     </row>
@@ -2583,27 +4063,58 @@
         <v>137196.244403496</v>
       </c>
       <c r="G77" t="n">
+        <v>2341724.61339423</v>
+      </c>
+      <c r="H77" t="n">
+        <v>598253.037882405</v>
+      </c>
+      <c r="I77" t="n">
+        <v>778512.258277981</v>
+      </c>
+      <c r="J77" t="n">
+        <v>806041.6248974541</v>
+      </c>
+      <c r="K77" t="n">
         <v>31359.504349887</v>
       </c>
-      <c r="H77" t="n">
+      <c r="L77" t="n">
         <v>14598.1173564868</v>
       </c>
-      <c r="I77" t="n">
+      <c r="M77" t="n">
+        <v>128001.591371642</v>
+      </c>
+      <c r="N77" t="n">
+        <v>-16864.2863912253</v>
+      </c>
+      <c r="O77" t="n">
+        <v>348190.49954178</v>
+      </c>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="n">
+        <v>3558174.51917946</v>
+      </c>
+      <c r="R77" t="n">
+        <v>-52110.8409663556</v>
+      </c>
+      <c r="S77" t="n">
+        <v>132069.545063663</v>
+      </c>
+      <c r="T77" t="n">
         <v>33499</v>
       </c>
-      <c r="J77" t="n">
+      <c r="U77" t="n">
         <v>19133</v>
       </c>
-      <c r="K77" t="n">
+      <c r="V77" t="n">
         <v>12490</v>
       </c>
-      <c r="L77" t="n">
+      <c r="W77" t="n">
         <v>1876</v>
       </c>
-      <c r="M77" t="n">
+      <c r="X77" t="n">
         <v>8300</v>
       </c>
-      <c r="N77" t="n">
+      <c r="Y77" t="n">
         <v>22540.8174703969</v>
       </c>
     </row>
@@ -2627,27 +4138,58 @@
         <v>157656.600591284</v>
       </c>
       <c r="G78" t="n">
+        <v>2467531.04070298</v>
+      </c>
+      <c r="H78" t="n">
+        <v>604389.372262011</v>
+      </c>
+      <c r="I78" t="n">
+        <v>802171.38405384</v>
+      </c>
+      <c r="J78" t="n">
+        <v>856145.450480046</v>
+      </c>
+      <c r="K78" t="n">
         <v>34518.2627334741</v>
       </c>
-      <c r="H78" t="n">
+      <c r="L78" t="n">
         <v>16029.5980571072</v>
       </c>
-      <c r="I78" t="n">
+      <c r="M78" t="n">
+        <v>135441.192204655</v>
+      </c>
+      <c r="N78" t="n">
+        <v>-15369.5890601861</v>
+      </c>
+      <c r="O78" t="n">
+        <v>405718.107973532</v>
+      </c>
+      <c r="P78" t="inlineStr"/>
+      <c r="Q78" t="n">
+        <v>3756114.70919645</v>
+      </c>
+      <c r="R78" t="n">
+        <v>-44284.4318099567</v>
+      </c>
+      <c r="S78" t="n">
+        <v>128844.188606635</v>
+      </c>
+      <c r="T78" t="n">
         <v>36619</v>
       </c>
-      <c r="J78" t="n">
+      <c r="U78" t="n">
         <v>21916</v>
       </c>
-      <c r="K78" t="n">
+      <c r="V78" t="n">
         <v>12615</v>
       </c>
-      <c r="L78" t="n">
+      <c r="W78" t="n">
         <v>2088</v>
       </c>
-      <c r="M78" t="n">
+      <c r="X78" t="n">
         <v>7929</v>
       </c>
-      <c r="N78" t="n">
+      <c r="Y78" t="n">
         <v>28292.7259343006</v>
       </c>
     </row>
@@ -2671,27 +4213,58 @@
         <v>182090.077832601</v>
       </c>
       <c r="G79" t="n">
+        <v>2595443.94625313</v>
+      </c>
+      <c r="H79" t="n">
+        <v>622381.205390104</v>
+      </c>
+      <c r="I79" t="n">
+        <v>865604.528216442</v>
+      </c>
+      <c r="J79" t="n">
+        <v>888603.426719334</v>
+      </c>
+      <c r="K79" t="n">
         <v>40952.9133356955</v>
       </c>
-      <c r="H79" t="n">
+      <c r="L79" t="n">
         <v>17984.6077296712</v>
       </c>
-      <c r="I79" t="n">
+      <c r="M79" t="n">
+        <v>147510.876939786</v>
+      </c>
+      <c r="N79" t="n">
+        <v>-16767.0649276577</v>
+      </c>
+      <c r="O79" t="n">
+        <v>426132.254030325</v>
+      </c>
+      <c r="P79" t="inlineStr"/>
+      <c r="Q79" t="n">
+        <v>3951146.62828656</v>
+      </c>
+      <c r="R79" t="n">
+        <v>-37327.6236709356</v>
+      </c>
+      <c r="S79" t="n">
+        <v>148166.490563808</v>
+      </c>
+      <c r="T79" t="n">
         <v>42436</v>
       </c>
-      <c r="J79" t="n">
+      <c r="U79" t="n">
         <v>24655</v>
       </c>
-      <c r="K79" t="n">
+      <c r="V79" t="n">
         <v>15391</v>
       </c>
-      <c r="L79" t="n">
+      <c r="W79" t="n">
         <v>2390</v>
       </c>
-      <c r="M79" t="n">
+      <c r="X79" t="n">
         <v>9043</v>
       </c>
-      <c r="N79" t="n">
+      <c r="Y79" t="n">
         <v>31655.5282104816</v>
       </c>
     </row>
@@ -2715,27 +4288,58 @@
         <v>224440.753507156</v>
       </c>
       <c r="G80" t="n">
+        <v>2716612.68979326</v>
+      </c>
+      <c r="H80" t="n">
+        <v>644272.5539383671</v>
+      </c>
+      <c r="I80" t="n">
+        <v>896589.7715725671</v>
+      </c>
+      <c r="J80" t="n">
+        <v>872120.41965521</v>
+      </c>
+      <c r="K80" t="n">
         <v>53062.1758818614</v>
       </c>
-      <c r="H80" t="n">
+      <c r="L80" t="n">
         <v>20359.2615722242</v>
       </c>
-      <c r="I80" t="n">
+      <c r="M80" t="n">
+        <v>158209.51741264</v>
+      </c>
+      <c r="N80" t="n">
+        <v>-18190.3342446472</v>
+      </c>
+      <c r="O80" t="n">
+        <v>444461.090921889</v>
+      </c>
+      <c r="P80" t="inlineStr"/>
+      <c r="Q80" t="n">
+        <v>4172235.84620551</v>
+      </c>
+      <c r="R80" t="n">
+        <v>-3619.71423483446</v>
+      </c>
+      <c r="S80" t="n">
+        <v>165513.597354883</v>
+      </c>
+      <c r="T80" t="n">
         <v>51174</v>
       </c>
-      <c r="J80" t="n">
+      <c r="U80" t="n">
         <v>28086</v>
       </c>
-      <c r="K80" t="n">
+      <c r="V80" t="n">
         <v>20239</v>
       </c>
-      <c r="L80" t="n">
+      <c r="W80" t="n">
         <v>2849</v>
       </c>
-      <c r="M80" t="n">
+      <c r="X80" t="n">
         <v>11381</v>
       </c>
-      <c r="N80" t="n">
+      <c r="Y80" t="n">
         <v>40054.0011768364</v>
       </c>
     </row>
@@ -2759,27 +4363,58 @@
         <v>264875.429633926</v>
       </c>
       <c r="G81" t="n">
+        <v>2819538.77085764</v>
+      </c>
+      <c r="H81" t="n">
+        <v>663771.153646801</v>
+      </c>
+      <c r="I81" t="n">
+        <v>966874.311160501</v>
+      </c>
+      <c r="J81" t="n">
+        <v>900446.354397599</v>
+      </c>
+      <c r="K81" t="n">
         <v>68363.2892083964</v>
       </c>
-      <c r="H81" t="n">
+      <c r="L81" t="n">
         <v>23708.2440176466</v>
       </c>
-      <c r="I81" t="n">
+      <c r="M81" t="n">
+        <v>244585.30593612</v>
+      </c>
+      <c r="N81" t="n">
+        <v>-6847.83016176111</v>
+      </c>
+      <c r="O81" t="n">
+        <v>616760.312885727</v>
+      </c>
+      <c r="P81" t="inlineStr"/>
+      <c r="Q81" t="n">
+        <v>4389221.77813463</v>
+      </c>
+      <c r="R81" t="n">
+        <v>-44360.5218989773</v>
+      </c>
+      <c r="S81" t="n">
+        <v>179250.453162607</v>
+      </c>
+      <c r="T81" t="n">
         <v>66350</v>
       </c>
-      <c r="J81" t="n">
+      <c r="U81" t="n">
         <v>37275</v>
       </c>
-      <c r="K81" t="n">
+      <c r="V81" t="n">
         <v>24085</v>
       </c>
-      <c r="L81" t="n">
+      <c r="W81" t="n">
         <v>4990</v>
       </c>
-      <c r="M81" t="n">
+      <c r="X81" t="n">
         <v>4548</v>
       </c>
-      <c r="N81" t="n">
+      <c r="Y81" t="n">
         <v>52262.6427824321</v>
       </c>
     </row>
@@ -2803,27 +4438,58 @@
         <v>305880.544442528</v>
       </c>
       <c r="G82" t="n">
+        <v>2903709.00422339</v>
+      </c>
+      <c r="H82" t="n">
+        <v>645968.6531304891</v>
+      </c>
+      <c r="I82" t="n">
+        <v>1084175.58958012</v>
+      </c>
+      <c r="J82" t="n">
+        <v>1028438.03322362</v>
+      </c>
+      <c r="K82" t="n">
         <v>75581.2460280729</v>
       </c>
-      <c r="H82" t="n">
+      <c r="L82" t="n">
         <v>26529.8378250955</v>
       </c>
-      <c r="I82" t="n">
+      <c r="M82" t="n">
+        <v>251800.145414662</v>
+      </c>
+      <c r="N82" t="n">
+        <v>2228.15721604918</v>
+      </c>
+      <c r="O82" t="n">
+        <v>661882.353059129</v>
+      </c>
+      <c r="P82" t="inlineStr"/>
+      <c r="Q82" t="n">
+        <v>4539430.10929943</v>
+      </c>
+      <c r="R82" t="n">
+        <v>-46969.3249511103</v>
+      </c>
+      <c r="S82" t="n">
+        <v>199023.290573074</v>
+      </c>
+      <c r="T82" t="n">
         <v>78147</v>
       </c>
-      <c r="J82" t="n">
+      <c r="U82" t="n">
         <v>45978</v>
       </c>
-      <c r="K82" t="n">
+      <c r="V82" t="n">
         <v>26809</v>
       </c>
-      <c r="L82" t="n">
+      <c r="W82" t="n">
         <v>5360</v>
       </c>
-      <c r="M82" t="n">
+      <c r="X82" t="n">
         <v>-813</v>
       </c>
-      <c r="N82" t="n">
+      <c r="Y82" t="n">
         <v>59324.7389118518</v>
       </c>
     </row>
@@ -2847,27 +4513,58 @@
         <v>332974.009386667</v>
       </c>
       <c r="G83" t="n">
+        <v>3005368.84865917</v>
+      </c>
+      <c r="H83" t="n">
+        <v>694733.6987081229</v>
+      </c>
+      <c r="I83" t="n">
+        <v>1139557.70260153</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1048601.49255001</v>
+      </c>
+      <c r="K83" t="n">
         <v>81564.5431624935</v>
       </c>
-      <c r="H83" t="n">
+      <c r="L83" t="n">
         <v>30998.9359534559</v>
       </c>
-      <c r="I83" t="n">
+      <c r="M83" t="n">
+        <v>246360.920636447</v>
+      </c>
+      <c r="N83" t="n">
+        <v>-1284.381511893</v>
+      </c>
+      <c r="O83" t="n">
+        <v>592145.240821915</v>
+      </c>
+      <c r="P83" t="inlineStr"/>
+      <c r="Q83" t="n">
+        <v>4707316.66931375</v>
+      </c>
+      <c r="R83" t="n">
+        <v>-129972.742059807</v>
+      </c>
+      <c r="S83" t="n">
+        <v>220174.58744991</v>
+      </c>
+      <c r="T83" t="n">
         <v>87325</v>
       </c>
-      <c r="J83" t="n">
+      <c r="U83" t="n">
         <v>50355</v>
       </c>
-      <c r="K83" t="n">
+      <c r="V83" t="n">
         <v>31367</v>
       </c>
-      <c r="L83" t="n">
+      <c r="W83" t="n">
         <v>5603</v>
       </c>
-      <c r="M83" t="n">
+      <c r="X83" t="n">
         <v>1089</v>
       </c>
-      <c r="N83" t="n">
+      <c r="Y83" t="n">
         <v>57381.3502617613</v>
       </c>
     </row>
@@ -2891,27 +4588,58 @@
         <v>384067.391701337</v>
       </c>
       <c r="G84" t="n">
+        <v>3033216.72290958</v>
+      </c>
+      <c r="H84" t="n">
+        <v>663982.345836323</v>
+      </c>
+      <c r="I84" t="n">
+        <v>1235797.99676895</v>
+      </c>
+      <c r="J84" t="n">
+        <v>1258759.8326176</v>
+      </c>
+      <c r="K84" t="n">
         <v>101661.586866112</v>
       </c>
-      <c r="H84" t="n">
+      <c r="L84" t="n">
         <v>32637.4114337002</v>
       </c>
-      <c r="I84" t="n">
+      <c r="M84" t="n">
+        <v>225503.066941472</v>
+      </c>
+      <c r="N84" t="n">
+        <v>1036.36757422056</v>
+      </c>
+      <c r="O84" t="n">
+        <v>623231.6789638239</v>
+      </c>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="n">
+        <v>4796612.19707133</v>
+      </c>
+      <c r="R84" t="n">
+        <v>-148049.573208545</v>
+      </c>
+      <c r="S84" t="n">
+        <v>212163.41068107</v>
+      </c>
+      <c r="T84" t="n">
         <v>110168</v>
       </c>
-      <c r="J84" t="n">
+      <c r="U84" t="n">
         <v>66699</v>
       </c>
-      <c r="K84" t="n">
+      <c r="V84" t="n">
         <v>37661</v>
       </c>
-      <c r="L84" t="n">
+      <c r="W84" t="n">
         <v>5808</v>
       </c>
-      <c r="M84" t="n">
+      <c r="X84" t="n">
         <v>-940</v>
       </c>
-      <c r="N84" t="n">
+      <c r="Y84" t="n">
         <v>70843.4416636016</v>
       </c>
     </row>
@@ -2935,27 +4663,58 @@
         <v>517003.412875179</v>
       </c>
       <c r="G85" t="n">
+        <v>3070729.32669324</v>
+      </c>
+      <c r="H85" t="n">
+        <v>591294.348152971</v>
+      </c>
+      <c r="I85" t="n">
+        <v>881834.893783936</v>
+      </c>
+      <c r="J85" t="n">
+        <v>940637.796279987</v>
+      </c>
+      <c r="K85" t="n">
         <v>131864.051258426</v>
       </c>
-      <c r="H85" t="n">
+      <c r="L85" t="n">
         <v>40274.4051758402</v>
       </c>
-      <c r="I85" t="n">
+      <c r="M85" t="n">
+        <v>204532.832569261</v>
+      </c>
+      <c r="N85" t="n">
+        <v>11284.9648493462</v>
+      </c>
+      <c r="O85" t="n">
+        <v>657076.348143227</v>
+      </c>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="n">
+        <v>4458960.52369297</v>
+      </c>
+      <c r="R85" t="n">
+        <v>-263793.468621509</v>
+      </c>
+      <c r="S85" t="n">
+        <v>134393.8306141</v>
+      </c>
+      <c r="T85" t="n">
         <v>121003</v>
       </c>
-      <c r="J85" t="n">
+      <c r="U85" t="n">
         <v>75364</v>
       </c>
-      <c r="K85" t="n">
+      <c r="V85" t="n">
         <v>37897</v>
       </c>
-      <c r="L85" t="n">
+      <c r="W85" t="n">
         <v>7742</v>
       </c>
-      <c r="M85" t="n">
+      <c r="X85" t="n">
         <v>-14284</v>
       </c>
-      <c r="N85" t="n">
+      <c r="Y85" t="n">
         <v>116017.130178733</v>
       </c>
     </row>
@@ -2979,27 +4738,58 @@
         <v>570161.693316676</v>
       </c>
       <c r="G86" t="n">
+        <v>3053954.46717571</v>
+      </c>
+      <c r="H86" t="n">
+        <v>588857.938616973</v>
+      </c>
+      <c r="I86" t="n">
+        <v>604103.187652103</v>
+      </c>
+      <c r="J86" t="n">
+        <v>578508.38902733</v>
+      </c>
+      <c r="K86" t="n">
         <v>127186.407968295</v>
       </c>
-      <c r="H86" t="n">
+      <c r="L86" t="n">
         <v>48145.8310351376</v>
       </c>
-      <c r="I86" t="n">
+      <c r="M86" t="n">
+        <v>217231.849096913</v>
+      </c>
+      <c r="N86" t="n">
+        <v>8016.47183607364</v>
+      </c>
+      <c r="O86" t="n">
+        <v>547667.308954656</v>
+      </c>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="n">
+        <v>4153148.19144279</v>
+      </c>
+      <c r="R86" t="n">
+        <v>-222346.110130748</v>
+      </c>
+      <c r="S86" t="n">
+        <v>99240.1305431603</v>
+      </c>
+      <c r="T86" t="n">
         <v>94168</v>
       </c>
-      <c r="J86" t="n">
+      <c r="U86" t="n">
         <v>51242</v>
       </c>
-      <c r="K86" t="n">
+      <c r="V86" t="n">
         <v>33261</v>
       </c>
-      <c r="L86" t="n">
+      <c r="W86" t="n">
         <v>9665</v>
       </c>
-      <c r="M86" t="n">
+      <c r="X86" t="n">
         <v>-12121</v>
       </c>
-      <c r="N86" t="n">
+      <c r="Y86" t="n">
         <v>127091.125514441</v>
       </c>
     </row>
@@ -3023,27 +4813,58 @@
         <v>611033.202169662</v>
       </c>
       <c r="G87" t="n">
+        <v>3148853.90267083</v>
+      </c>
+      <c r="H87" t="n">
+        <v>589642.917489354</v>
+      </c>
+      <c r="I87" t="n">
+        <v>609973.062946276</v>
+      </c>
+      <c r="J87" t="n">
+        <v>539118.518036417</v>
+      </c>
+      <c r="K87" t="n">
         <v>138502.948767562</v>
       </c>
-      <c r="H87" t="n">
+      <c r="L87" t="n">
         <v>53622.1880413615</v>
       </c>
-      <c r="I87" t="n">
+      <c r="M87" t="n">
+        <v>213590.715154471</v>
+      </c>
+      <c r="N87" t="n">
+        <v>3162.67373319893</v>
+      </c>
+      <c r="O87" t="n">
+        <v>638926.555519245</v>
+      </c>
+      <c r="P87" t="inlineStr"/>
+      <c r="Q87" t="n">
+        <v>4298952.10168889</v>
+      </c>
+      <c r="R87" t="n">
+        <v>-216650.223466924</v>
+      </c>
+      <c r="S87" t="n">
+        <v>112863.606567936</v>
+      </c>
+      <c r="T87" t="n">
         <v>97710</v>
       </c>
-      <c r="J87" t="n">
+      <c r="U87" t="n">
         <v>49469</v>
       </c>
-      <c r="K87" t="n">
+      <c r="V87" t="n">
         <v>39091</v>
       </c>
-      <c r="L87" t="n">
+      <c r="W87" t="n">
         <v>9150</v>
       </c>
-      <c r="M87" t="n">
+      <c r="X87" t="n">
         <v>-4933</v>
       </c>
-      <c r="N87" t="n">
+      <c r="Y87" t="n">
         <v>147634.970620656</v>
       </c>
     </row>
@@ -3067,27 +4888,58 @@
         <v>702735.335723612</v>
       </c>
       <c r="G88" t="n">
+        <v>3257876.36189966</v>
+      </c>
+      <c r="H88" t="n">
+        <v>614869.428561049</v>
+      </c>
+      <c r="I88" t="n">
+        <v>651953.89783706</v>
+      </c>
+      <c r="J88" t="n">
+        <v>584187.123652846</v>
+      </c>
+      <c r="K88" t="n">
         <v>180762.1216844</v>
       </c>
-      <c r="H88" t="n">
+      <c r="L88" t="n">
         <v>63043.026910997</v>
       </c>
-      <c r="I88" t="n">
+      <c r="M88" t="n">
+        <v>219322.129693499</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-4271.1306919696</v>
+      </c>
+      <c r="O88" t="n">
+        <v>678864.0784011181</v>
+      </c>
+      <c r="P88" t="inlineStr"/>
+      <c r="Q88" t="n">
+        <v>4486464.21027957</v>
+      </c>
+      <c r="R88" t="n">
+        <v>-174094.123679005</v>
+      </c>
+      <c r="S88" t="n">
+        <v>119717.116079306</v>
+      </c>
+      <c r="T88" t="n">
         <v>112663</v>
       </c>
-      <c r="J88" t="n">
+      <c r="U88" t="n">
         <v>59333</v>
       </c>
-      <c r="K88" t="n">
+      <c r="V88" t="n">
         <v>42112</v>
       </c>
-      <c r="L88" t="n">
+      <c r="W88" t="n">
         <v>11218</v>
       </c>
-      <c r="M88" t="n">
+      <c r="X88" t="n">
         <v>6813</v>
       </c>
-      <c r="N88" t="n">
+      <c r="Y88" t="n">
         <v>165406.319113573</v>
       </c>
     </row>
@@ -3111,27 +4963,58 @@
         <v>832366.325905327</v>
       </c>
       <c r="G89" t="n">
+        <v>3440177.67503525</v>
+      </c>
+      <c r="H89" t="n">
+        <v>666613.215217651</v>
+      </c>
+      <c r="I89" t="n">
+        <v>758606.003591841</v>
+      </c>
+      <c r="J89" t="n">
+        <v>659929.9280317629</v>
+      </c>
+      <c r="K89" t="n">
         <v>217411.438702748</v>
       </c>
-      <c r="H89" t="n">
+      <c r="L89" t="n">
         <v>79385.3194491452</v>
       </c>
-      <c r="I89" t="n">
+      <c r="M89" t="n">
+        <v>228424.964549604</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-3775.10281662473</v>
+      </c>
+      <c r="O89" t="n">
+        <v>779265.745279661</v>
+      </c>
+      <c r="P89" t="inlineStr"/>
+      <c r="Q89" t="n">
+        <v>4786919.62752154</v>
+      </c>
+      <c r="R89" t="n">
+        <v>-156006.42251755</v>
+      </c>
+      <c r="S89" t="n">
+        <v>148094.882279841</v>
+      </c>
+      <c r="T89" t="n">
         <v>142226</v>
       </c>
-      <c r="J89" t="n">
+      <c r="U89" t="n">
         <v>72226</v>
       </c>
-      <c r="K89" t="n">
+      <c r="V89" t="n">
         <v>56951</v>
       </c>
-      <c r="L89" t="n">
+      <c r="W89" t="n">
         <v>13049</v>
       </c>
-      <c r="M89" t="n">
+      <c r="X89" t="n">
         <v>6967</v>
       </c>
-      <c r="N89" t="n">
+      <c r="Y89" t="n">
         <v>208938.51861907</v>
       </c>
     </row>
@@ -3155,27 +5038,58 @@
         <v>963348.861383583</v>
       </c>
       <c r="G90" t="n">
+        <v>3596835.28182143</v>
+      </c>
+      <c r="H90" t="n">
+        <v>710137.559306194</v>
+      </c>
+      <c r="I90" t="n">
+        <v>922526.280659279</v>
+      </c>
+      <c r="J90" t="n">
+        <v>760589.168431583</v>
+      </c>
+      <c r="K90" t="n">
         <v>280781.940656226</v>
       </c>
-      <c r="H90" t="n">
+      <c r="L90" t="n">
         <v>96267.25086994161</v>
       </c>
-      <c r="I90" t="n">
+      <c r="M90" t="n">
+        <v>239910.269763109</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-3641.50597553184</v>
+      </c>
+      <c r="O90" t="n">
+        <v>844564.987523614</v>
+      </c>
+      <c r="P90" t="inlineStr"/>
+      <c r="Q90" t="n">
+        <v>5082938.82174382</v>
+      </c>
+      <c r="R90" t="n">
+        <v>-165408.983517946</v>
+      </c>
+      <c r="S90" t="n">
+        <v>196206.69807036</v>
+      </c>
+      <c r="T90" t="n">
         <v>192665</v>
       </c>
-      <c r="J90" t="n">
+      <c r="U90" t="n">
         <v>98421</v>
       </c>
-      <c r="K90" t="n">
+      <c r="V90" t="n">
         <v>79030</v>
       </c>
-      <c r="L90" t="n">
+      <c r="W90" t="n">
         <v>15214</v>
       </c>
-      <c r="M90" t="n">
+      <c r="X90" t="n">
         <v>7235</v>
       </c>
-      <c r="N90" t="n">
+      <c r="Y90" t="n">
         <v>238907.792678478</v>
       </c>
     </row>
@@ -3199,27 +5113,58 @@
         <v>1175522.42338259</v>
       </c>
       <c r="G91" t="n">
+        <v>3784612.7077898</v>
+      </c>
+      <c r="H91" t="n">
+        <v>756934.965735386</v>
+      </c>
+      <c r="I91" t="n">
+        <v>1060837.22201706</v>
+      </c>
+      <c r="J91" t="n">
+        <v>874310.627443183</v>
+      </c>
+      <c r="K91" t="n">
         <v>357080.88270639</v>
       </c>
-      <c r="H91" t="n">
+      <c r="L91" t="n">
         <v>118051.24459405</v>
       </c>
-      <c r="I91" t="n">
+      <c r="M91" t="n">
+        <v>246001.302469292</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-5017.81798698875</v>
+      </c>
+      <c r="O91" t="n">
+        <v>864263.12456305</v>
+      </c>
+      <c r="P91" t="inlineStr"/>
+      <c r="Q91" t="n">
+        <v>5239629.18042903</v>
+      </c>
+      <c r="R91" t="n">
+        <v>-40882.1178294667</v>
+      </c>
+      <c r="S91" t="n">
+        <v>229671.636111071</v>
+      </c>
+      <c r="T91" t="n">
         <v>248954</v>
       </c>
-      <c r="J91" t="n">
+      <c r="U91" t="n">
         <v>129624</v>
       </c>
-      <c r="K91" t="n">
+      <c r="V91" t="n">
         <v>101968</v>
       </c>
-      <c r="L91" t="n">
+      <c r="W91" t="n">
         <v>17362</v>
       </c>
-      <c r="M91" t="n">
+      <c r="X91" t="n">
         <v>11211</v>
       </c>
-      <c r="N91" t="n">
+      <c r="Y91" t="n">
         <v>273296.182296285</v>
       </c>
     </row>
@@ -3243,27 +5188,58 @@
         <v>1403061.20985353</v>
       </c>
       <c r="G92" t="n">
+        <v>3879183.83077151</v>
+      </c>
+      <c r="H92" t="n">
+        <v>742531.869920986</v>
+      </c>
+      <c r="I92" t="n">
+        <v>910331.053408763</v>
+      </c>
+      <c r="J92" t="n">
+        <v>685659.224675008</v>
+      </c>
+      <c r="K92" t="n">
         <v>408985.750827094</v>
       </c>
-      <c r="H92" t="n">
+      <c r="L92" t="n">
         <v>135676.814061018</v>
       </c>
-      <c r="I92" t="n">
+      <c r="M92" t="n">
+        <v>252811.571509785</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-756.607852526049</v>
+      </c>
+      <c r="O92" t="n">
+        <v>919702.414788203</v>
+      </c>
+      <c r="P92" t="inlineStr"/>
+      <c r="Q92" t="n">
+        <v>5216763.9584308</v>
+      </c>
+      <c r="R92" t="n">
+        <v>40175.5670028474</v>
+      </c>
+      <c r="S92" t="n">
+        <v>208624.767981687</v>
+      </c>
+      <c r="T92" t="n">
         <v>250147</v>
       </c>
-      <c r="J92" t="n">
+      <c r="U92" t="n">
         <v>119858</v>
       </c>
-      <c r="K92" t="n">
+      <c r="V92" t="n">
         <v>109521</v>
       </c>
-      <c r="L92" t="n">
+      <c r="W92" t="n">
         <v>20768</v>
       </c>
-      <c r="M92" t="n">
+      <c r="X92" t="n">
         <v>2180</v>
       </c>
-      <c r="N92" t="n">
+      <c r="Y92" t="n">
         <v>342386.782882469</v>
       </c>
     </row>
@@ -3287,27 +5263,58 @@
         <v>1569683.17499726</v>
       </c>
       <c r="G93" t="n">
+        <v>4004742.59631164</v>
+      </c>
+      <c r="H93" t="n">
+        <v>735870.414377075</v>
+      </c>
+      <c r="I93" t="n">
+        <v>968523.008374274</v>
+      </c>
+      <c r="J93" t="n">
+        <v>717101.1251363721</v>
+      </c>
+      <c r="K93" t="n">
         <v>461291.660112553</v>
       </c>
-      <c r="H93" t="n">
+      <c r="L93" t="n">
         <v>142574.859294468</v>
       </c>
-      <c r="I93" t="n">
+      <c r="M93" t="n">
+        <v>255373.850950763</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-2167.97250050733</v>
+      </c>
+      <c r="O93" t="n">
+        <v>966444.172720985</v>
+      </c>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="n">
+        <v>5238550.68099032</v>
+      </c>
+      <c r="R93" t="n">
+        <v>135386.008392983</v>
+      </c>
+      <c r="S93" t="n">
+        <v>227040.031675273</v>
+      </c>
+      <c r="T93" t="n">
         <v>282783</v>
       </c>
-      <c r="J93" t="n">
+      <c r="U93" t="n">
         <v>132356</v>
       </c>
-      <c r="K93" t="n">
+      <c r="V93" t="n">
         <v>126430</v>
       </c>
-      <c r="L93" t="n">
+      <c r="W93" t="n">
         <v>23997</v>
       </c>
-      <c r="M93" t="n">
+      <c r="X93" t="n">
         <v>5618</v>
       </c>
-      <c r="N93" t="n">
+      <c r="Y93" t="n">
         <v>367634.395107384</v>
       </c>
     </row>
@@ -3331,27 +5338,58 @@
         <v>1742365.83402851</v>
       </c>
       <c r="G94" t="n">
+        <v>4105983.25497422</v>
+      </c>
+      <c r="H94" t="n">
+        <v>777308.019242465</v>
+      </c>
+      <c r="I94" t="n">
+        <v>1052888.83350397</v>
+      </c>
+      <c r="J94" t="n">
+        <v>793193.911172129</v>
+      </c>
+      <c r="K94" t="n">
         <v>585599.574400767</v>
       </c>
-      <c r="H94" t="n">
+      <c r="L94" t="n">
         <v>161962.283673356</v>
       </c>
-      <c r="I94" t="n">
+      <c r="M94" t="n">
+        <v>260161.26780101</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-1502.63377704474</v>
+      </c>
+      <c r="O94" t="n">
+        <v>1023893.74014918</v>
+      </c>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="n">
+        <v>5352850.09373171</v>
+      </c>
+      <c r="R94" t="n">
+        <v>188301.230300412</v>
+      </c>
+      <c r="S94" t="n">
+        <v>245532.871009824</v>
+      </c>
+      <c r="T94" t="n">
         <v>350543</v>
       </c>
-      <c r="J94" t="n">
+      <c r="U94" t="n">
         <v>148860</v>
       </c>
-      <c r="K94" t="n">
+      <c r="V94" t="n">
         <v>176889</v>
       </c>
-      <c r="L94" t="n">
+      <c r="W94" t="n">
         <v>24794</v>
       </c>
-      <c r="M94" t="n">
+      <c r="X94" t="n">
         <v>3052</v>
       </c>
-      <c r="N94" t="n">
+      <c r="Y94" t="n">
         <v>430653.257312365</v>
       </c>
     </row>
@@ -3375,27 +5413,58 @@
         <v>2010485.42355401</v>
       </c>
       <c r="G95" t="n">
+        <v>4225672.43585457</v>
+      </c>
+      <c r="H95" t="n">
+        <v>818508.893683032</v>
+      </c>
+      <c r="I95" t="n">
+        <v>1131557.99277439</v>
+      </c>
+      <c r="J95" t="n">
+        <v>822547.2114233091</v>
+      </c>
+      <c r="K95" t="n">
         <v>679602.588401485</v>
       </c>
-      <c r="H95" t="n">
+      <c r="L95" t="n">
         <v>199101.481825094</v>
       </c>
-      <c r="I95" t="n">
+      <c r="M95" t="n">
+        <v>266836.68002882</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-2915.98253652741</v>
+      </c>
+      <c r="O95" t="n">
+        <v>1216204.47046405</v>
+      </c>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="n">
+        <v>5586965.87386074</v>
+      </c>
+      <c r="R95" t="n">
+        <v>214878.411394017</v>
+      </c>
+      <c r="S95" t="n">
+        <v>273478.003828057</v>
+      </c>
+      <c r="T95" t="n">
         <v>400139</v>
       </c>
-      <c r="J95" t="n">
+      <c r="U95" t="n">
         <v>165202</v>
       </c>
-      <c r="K95" t="n">
+      <c r="V95" t="n">
         <v>207562</v>
       </c>
-      <c r="L95" t="n">
+      <c r="W95" t="n">
         <v>27375</v>
       </c>
-      <c r="M95" t="n">
+      <c r="X95" t="n">
         <v>7228</v>
       </c>
-      <c r="N95" t="n">
+      <c r="Y95" t="n">
         <v>534024.984486788</v>
       </c>
     </row>
@@ -3419,27 +5488,58 @@
         <v>2274899.16948819</v>
       </c>
       <c r="G96" t="n">
+        <v>4351835.77626252</v>
+      </c>
+      <c r="H96" t="n">
+        <v>857145.688629458</v>
+      </c>
+      <c r="I96" t="n">
+        <v>1184669.13764921</v>
+      </c>
+      <c r="J96" t="n">
+        <v>887677.6687883351</v>
+      </c>
+      <c r="K96" t="n">
         <v>844296.117207182</v>
       </c>
-      <c r="H96" t="n">
+      <c r="L96" t="n">
         <v>236998.504924604</v>
       </c>
-      <c r="I96" t="n">
+      <c r="M96" t="n">
+        <v>277333.035282649</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-1629.61691313303</v>
+      </c>
+      <c r="O96" t="n">
+        <v>1351871.95888146</v>
+      </c>
+      <c r="P96" t="inlineStr"/>
+      <c r="Q96" t="n">
+        <v>5845375.62283386</v>
+      </c>
+      <c r="R96" t="n">
+        <v>242412.153606737</v>
+      </c>
+      <c r="S96" t="n">
+        <v>279573.659000773</v>
+      </c>
+      <c r="T96" t="n">
         <v>423197</v>
       </c>
-      <c r="J96" t="n">
+      <c r="U96" t="n">
         <v>183740</v>
       </c>
-      <c r="K96" t="n">
+      <c r="V96" t="n">
         <v>209772</v>
       </c>
-      <c r="L96" t="n">
+      <c r="W96" t="n">
         <v>29685</v>
       </c>
-      <c r="M96" t="n">
+      <c r="X96" t="n">
         <v>4699</v>
       </c>
-      <c r="N96" t="n">
+      <c r="Y96" t="n">
         <v>648147.380030825</v>
       </c>
     </row>
@@ -3463,27 +5563,58 @@
         <v>2683788.34021444</v>
       </c>
       <c r="G97" t="n">
+        <v>4518090.26410724</v>
+      </c>
+      <c r="H97" t="n">
+        <v>885679.873375233</v>
+      </c>
+      <c r="I97" t="n">
+        <v>1327002.38699546</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1028663.82784093</v>
+      </c>
+      <c r="K97" t="n">
         <v>1072412.57531761</v>
       </c>
-      <c r="H97" t="n">
+      <c r="L97" t="n">
         <v>283086.786207987</v>
       </c>
-      <c r="I97" t="n">
+      <c r="M97" t="n">
+        <v>294100.232326239</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-2371.67461464896</v>
+      </c>
+      <c r="O97" t="n">
+        <v>1548378.36187561</v>
+      </c>
+      <c r="P97" t="inlineStr"/>
+      <c r="Q97" t="n">
+        <v>6187934.96874228</v>
+      </c>
+      <c r="R97" t="n">
+        <v>381591.79643803</v>
+      </c>
+      <c r="S97" t="n">
+        <v>306286.532599068</v>
+      </c>
+      <c r="T97" t="n">
         <v>508745</v>
       </c>
-      <c r="J97" t="n">
+      <c r="U97" t="n">
         <v>230508</v>
       </c>
-      <c r="K97" t="n">
+      <c r="V97" t="n">
         <v>245170</v>
       </c>
-      <c r="L97" t="n">
+      <c r="W97" t="n">
         <v>33067</v>
       </c>
-      <c r="M97" t="n">
+      <c r="X97" t="n">
         <v>12860</v>
       </c>
-      <c r="N97" t="n">
+      <c r="Y97" t="n">
         <v>822631.684696695</v>
       </c>
     </row>
@@ -3507,27 +5638,58 @@
         <v>3003845.42770011</v>
       </c>
       <c r="G98" t="n">
+        <v>4713853.94017656</v>
+      </c>
+      <c r="H98" t="n">
+        <v>920925.7150725439</v>
+      </c>
+      <c r="I98" t="n">
+        <v>1479266.31060987</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1178693.06131707</v>
+      </c>
+      <c r="K98" t="n">
         <v>1444550.96839728</v>
       </c>
-      <c r="H98" t="n">
+      <c r="L98" t="n">
         <v>349793.766005027</v>
       </c>
-      <c r="I98" t="n">
+      <c r="M98" t="n">
+        <v>317363.032514061</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-2951.69654355223</v>
+      </c>
+      <c r="O98" t="n">
+        <v>1806843.90009744</v>
+      </c>
+      <c r="P98" t="inlineStr"/>
+      <c r="Q98" t="n">
+        <v>6508866.75025426</v>
+      </c>
+      <c r="R98" t="n">
+        <v>407701.566984793</v>
+      </c>
+      <c r="S98" t="n">
+        <v>334365.93094974</v>
+      </c>
+      <c r="T98" t="n">
         <v>592575</v>
       </c>
-      <c r="J98" t="n">
+      <c r="U98" t="n">
         <v>270446</v>
       </c>
-      <c r="K98" t="n">
+      <c r="V98" t="n">
         <v>284894</v>
       </c>
-      <c r="L98" t="n">
+      <c r="W98" t="n">
         <v>37235</v>
       </c>
-      <c r="M98" t="n">
+      <c r="X98" t="n">
         <v>8669</v>
       </c>
-      <c r="N98" t="n">
+      <c r="Y98" t="n">
         <v>1116790.06542072</v>
       </c>
     </row>
@@ -3551,27 +5713,58 @@
         <v>3378003.29712582</v>
       </c>
       <c r="G99" t="n">
+        <v>4963324.77345319</v>
+      </c>
+      <c r="H99" t="n">
+        <v>919078.033522141</v>
+      </c>
+      <c r="I99" t="n">
+        <v>1340473.56112376</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1115775.39120175</v>
+      </c>
+      <c r="K99" t="n">
         <v>1591480.03862952</v>
       </c>
-      <c r="H99" t="n">
+      <c r="L99" t="n">
         <v>392093</v>
       </c>
-      <c r="I99" t="n">
+      <c r="M99" t="n">
+        <v>318284.554067396</v>
+      </c>
+      <c r="N99" t="n">
+        <v>5314.11197119476</v>
+      </c>
+      <c r="O99" t="n">
+        <v>1447026.25599845</v>
+      </c>
+      <c r="P99" t="inlineStr"/>
+      <c r="Q99" t="n">
+        <v>6475405.27824638</v>
+      </c>
+      <c r="R99" t="n">
+        <v>505040.079456791</v>
+      </c>
+      <c r="S99" t="n">
+        <v>274012.082279314</v>
+      </c>
+      <c r="T99" t="n">
         <v>691829.390242838</v>
       </c>
-      <c r="J99" t="n">
+      <c r="U99" t="n">
         <v>338705.966598078</v>
       </c>
-      <c r="K99" t="n">
+      <c r="V99" t="n">
         <v>255853.668360367</v>
       </c>
-      <c r="L99" t="n">
+      <c r="W99" t="n">
         <v>82433.8827313841</v>
       </c>
-      <c r="M99" t="n">
+      <c r="X99" t="n">
         <v>-1285.77782026745</v>
       </c>
-      <c r="N99" t="n">
+      <c r="Y99" t="n">
         <v>1321780.84381122</v>
       </c>
     </row>
@@ -3595,27 +5788,58 @@
         <v>3691995.24733412</v>
       </c>
       <c r="G100" t="n">
+        <v>5163260.58534125</v>
+      </c>
+      <c r="H100" t="n">
+        <v>885710.682246818</v>
+      </c>
+      <c r="I100" t="n">
+        <v>1261413.37607201</v>
+      </c>
+      <c r="J100" t="n">
+        <v>997451.420170774</v>
+      </c>
+      <c r="K100" t="n">
         <v>1603287.17503625</v>
       </c>
-      <c r="H100" t="n">
+      <c r="L100" t="n">
         <v>396404.899999</v>
       </c>
-      <c r="I100" t="n">
+      <c r="M100" t="n">
+        <v>324040.750918037</v>
+      </c>
+      <c r="N100" t="n">
+        <v>51553.8424566238</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1594145.99894314</v>
+      </c>
+      <c r="P100" t="inlineStr"/>
+      <c r="Q100" t="n">
+        <v>6692101.55483402</v>
+      </c>
+      <c r="R100" t="n">
+        <v>505061.595618377</v>
+      </c>
+      <c r="S100" t="n">
+        <v>264485.434024742</v>
+      </c>
+      <c r="T100" t="n">
         <v>672576.148229704</v>
       </c>
-      <c r="J100" t="n">
+      <c r="U100" t="n">
         <v>306348.975141733</v>
       </c>
-      <c r="K100" t="n">
+      <c r="V100" t="n">
         <v>260337.604349875</v>
       </c>
-      <c r="L100" t="n">
+      <c r="W100" t="n">
         <v>88898.9304687804</v>
       </c>
-      <c r="M100" t="n">
+      <c r="X100" t="n">
         <v>-57534.1722159</v>
       </c>
-      <c r="N100" t="n">
+      <c r="Y100" t="n">
         <v>1475762.88854291</v>
       </c>
     </row>
@@ -3639,27 +5863,60 @@
         <v>4046156.98756</v>
       </c>
       <c r="G101" t="n">
+        <v>5356411.781259</v>
+      </c>
+      <c r="H101" t="n">
+        <v>828733.274</v>
+      </c>
+      <c r="I101" t="n">
+        <v>1277684.042123</v>
+      </c>
+      <c r="J101" t="n">
+        <v>795651.646434</v>
+      </c>
+      <c r="K101" t="n">
         <v>1545916.79203</v>
       </c>
-      <c r="H101" t="n">
+      <c r="L101" t="n">
         <v>409049</v>
       </c>
-      <c r="I101" t="n">
+      <c r="M101" t="n">
+        <v>194269.355919</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-146462.895973</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1770015.015181</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>6985383.240148</v>
+      </c>
+      <c r="R101" t="n">
+        <v>688778.80747</v>
+      </c>
+      <c r="S101" t="n">
+        <v>270526.745035</v>
+      </c>
+      <c r="T101" t="n">
         <v>716186.3384679999</v>
       </c>
-      <c r="J101" t="n">
+      <c r="U101" t="n">
         <v>350830.480388</v>
       </c>
-      <c r="K101" t="n">
+      <c r="V101" t="n">
         <v>255303.920393</v>
       </c>
-      <c r="L101" t="n">
+      <c r="W101" t="n">
         <v>88771.814464</v>
       </c>
-      <c r="M101" t="n">
+      <c r="X101" t="n">
         <v>-136845.78202</v>
       </c>
-      <c r="N101" t="n">
+      <c r="Y101" t="n">
         <v>1602676.867576</v>
       </c>
     </row>
@@ -3683,27 +5940,60 @@
         <v>4409762.599446</v>
       </c>
       <c r="G102" t="n">
+        <v>5567576.769794</v>
+      </c>
+      <c r="H102" t="n">
+        <v>817760.038812</v>
+      </c>
+      <c r="I102" t="n">
+        <v>1219578.357971</v>
+      </c>
+      <c r="J102" t="n">
+        <v>748814.004005</v>
+      </c>
+      <c r="K102" t="n">
         <v>1760468.773488</v>
       </c>
-      <c r="H102" t="n">
+      <c r="L102" t="n">
         <v>432290.721406</v>
       </c>
-      <c r="I102" t="n">
+      <c r="M102" t="n">
+        <v>201021.32588</v>
+      </c>
+      <c r="N102" t="n">
+        <v>143432.331102</v>
+      </c>
+      <c r="O102" t="n">
+        <v>1731638.213289</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>7198383.735413</v>
+      </c>
+      <c r="R102" t="n">
+        <v>714251.9781440001</v>
+      </c>
+      <c r="S102" t="n">
+        <v>253357.911283</v>
+      </c>
+      <c r="T102" t="n">
         <v>736938.2143699999</v>
       </c>
-      <c r="J102" t="n">
+      <c r="U102" t="n">
         <v>354460.901464</v>
       </c>
-      <c r="K102" t="n">
+      <c r="V102" t="n">
         <v>264045.567667</v>
       </c>
-      <c r="L102" t="n">
+      <c r="W102" t="n">
         <v>95654.97926199999</v>
       </c>
-      <c r="M102" t="n">
+      <c r="X102" t="n">
         <v>24650.493728</v>
       </c>
-      <c r="N102" t="n">
+      <c r="Y102" t="n">
         <v>1656261.566494</v>
       </c>
     </row>
@@ -3727,27 +6017,60 @@
         <v>4765325.820572</v>
       </c>
       <c r="G103" t="n">
+        <v>5851522.181594</v>
+      </c>
+      <c r="H103" t="n">
+        <v>787837.208476</v>
+      </c>
+      <c r="I103" t="n">
+        <v>1267315.014162</v>
+      </c>
+      <c r="J103" t="n">
+        <v>767234.44359</v>
+      </c>
+      <c r="K103" t="n">
         <v>1907247.299657</v>
       </c>
-      <c r="H103" t="n">
+      <c r="L103" t="n">
         <v>446804.023958</v>
       </c>
-      <c r="I103" t="n">
+      <c r="M103" t="n">
+        <v>207804.524122</v>
+      </c>
+      <c r="N103" t="n">
+        <v>187538.942355</v>
+      </c>
+      <c r="O103" t="n">
+        <v>1815538.292643</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>7465894.031031</v>
+      </c>
+      <c r="R103" t="n">
+        <v>741059.997431</v>
+      </c>
+      <c r="S103" t="n">
+        <v>275222.335764</v>
+      </c>
+      <c r="T103" t="n">
         <v>798060.776782</v>
       </c>
-      <c r="J103" t="n">
+      <c r="U103" t="n">
         <v>381017.651059</v>
       </c>
-      <c r="K103" t="n">
+      <c r="V103" t="n">
         <v>287914.396148</v>
       </c>
-      <c r="L103" t="n">
+      <c r="W103" t="n">
         <v>105008.70382</v>
       </c>
-      <c r="M103" t="n">
+      <c r="X103" t="n">
         <v>91133.745601</v>
       </c>
-      <c r="N103" t="n">
+      <c r="Y103" t="n">
         <v>1740471.018196</v>
       </c>
     </row>
@@ -3771,27 +6094,60 @@
         <v>5161805.552544</v>
       </c>
       <c r="G104" t="n">
+        <v>6166308.349641</v>
+      </c>
+      <c r="H104" t="n">
+        <v>821027.8393239999</v>
+      </c>
+      <c r="I104" t="n">
+        <v>1388714.173634</v>
+      </c>
+      <c r="J104" t="n">
+        <v>846665.865229</v>
+      </c>
+      <c r="K104" t="n">
         <v>2135734.462352</v>
       </c>
-      <c r="H104" t="n">
+      <c r="L104" t="n">
         <v>468535.669189</v>
       </c>
-      <c r="I104" t="n">
+      <c r="M104" t="n">
+        <v>219823.923501</v>
+      </c>
+      <c r="N104" t="n">
+        <v>57010.773231</v>
+      </c>
+      <c r="O104" t="n">
+        <v>1983171.10303</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>7845677.425757</v>
+      </c>
+      <c r="R104" t="n">
+        <v>772334.374129</v>
+      </c>
+      <c r="S104" t="n">
+        <v>304829.938417</v>
+      </c>
+      <c r="T104" t="n">
         <v>878846.5613159999</v>
       </c>
-      <c r="J104" t="n">
+      <c r="U104" t="n">
         <v>420487.542704</v>
       </c>
-      <c r="K104" t="n">
+      <c r="V104" t="n">
         <v>318358.58109</v>
       </c>
-      <c r="L104" t="n">
+      <c r="W104" t="n">
         <v>114717.573187</v>
       </c>
-      <c r="M104" t="n">
+      <c r="X104" t="n">
         <v>40200.557147</v>
       </c>
-      <c r="N104" t="n">
+      <c r="Y104" t="n">
         <v>1995869.938964</v>
       </c>
     </row>
@@ -3815,27 +6171,60 @@
         <v>5820513.912948</v>
       </c>
       <c r="G105" t="n">
+        <v>6530391.385258</v>
+      </c>
+      <c r="H105" t="n">
+        <v>838402.307029</v>
+      </c>
+      <c r="I105" t="n">
+        <v>1449043.179023</v>
+      </c>
+      <c r="J105" t="n">
+        <v>872541.146296</v>
+      </c>
+      <c r="K105" t="n">
         <v>2411645.74343</v>
       </c>
-      <c r="H105" t="n">
+      <c r="L105" t="n">
         <v>486654.053833</v>
       </c>
-      <c r="I105" t="n">
+      <c r="M105" t="n">
+        <v>239145.785826</v>
+      </c>
+      <c r="N105" t="n">
+        <v>88870.838674</v>
+      </c>
+      <c r="O105" t="n">
+        <v>2112896.967477</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>8361077.904233</v>
+      </c>
+      <c r="R105" t="n">
+        <v>812084.247353</v>
+      </c>
+      <c r="S105" t="n">
+        <v>316995.832931</v>
+      </c>
+      <c r="T105" t="n">
         <v>987296.7703410001</v>
       </c>
-      <c r="J105" t="n">
+      <c r="U105" t="n">
         <v>480412.745791</v>
       </c>
-      <c r="K105" t="n">
+      <c r="V105" t="n">
         <v>345041.9438</v>
       </c>
-      <c r="L105" t="n">
+      <c r="W105" t="n">
         <v>131825.649793</v>
       </c>
-      <c r="M105" t="n">
+      <c r="X105" t="n">
         <v>115195.365414</v>
       </c>
-      <c r="N105" t="n">
+      <c r="Y105" t="n">
         <v>2226820.934722</v>
       </c>
     </row>
@@ -3859,27 +6248,60 @@
         <v>6494795.134541</v>
       </c>
       <c r="G106" t="n">
+        <v>6820632.512449</v>
+      </c>
+      <c r="H106" t="n">
+        <v>863359.171941</v>
+      </c>
+      <c r="I106" t="n">
+        <v>1434709.00501</v>
+      </c>
+      <c r="J106" t="n">
+        <v>821181.4395569999</v>
+      </c>
+      <c r="K106" t="n">
         <v>2521687.448429</v>
       </c>
-      <c r="H106" t="n">
+      <c r="L106" t="n">
         <v>524578.055607</v>
       </c>
-      <c r="I106" t="n">
+      <c r="M106" t="n">
+        <v>242059.696446</v>
+      </c>
+      <c r="N106" t="n">
+        <v>34304.256858</v>
+      </c>
+      <c r="O106" t="n">
+        <v>2376969.139404</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>8774324.607556</v>
+      </c>
+      <c r="R106" t="n">
+        <v>881147.117957</v>
+      </c>
+      <c r="S106" t="n">
+        <v>351331.824657</v>
+      </c>
+      <c r="T106" t="n">
         <v>1075851.758366</v>
       </c>
-      <c r="J106" t="n">
+      <c r="U106" t="n">
         <v>510452.460919</v>
       </c>
-      <c r="K106" t="n">
+      <c r="V106" t="n">
         <v>380864.917224</v>
       </c>
-      <c r="L106" t="n">
+      <c r="W106" t="n">
         <v>154759.733613</v>
       </c>
-      <c r="M106" t="n">
+      <c r="X106" t="n">
         <v>20573.011675</v>
       </c>
-      <c r="N106" t="n">
+      <c r="Y106" t="n">
         <v>2439697.813315</v>
       </c>
     </row>
@@ -3903,27 +6325,60 @@
         <v>7152909.599099</v>
       </c>
       <c r="G107" t="n">
+        <v>7105899.013858</v>
+      </c>
+      <c r="H107" t="n">
+        <v>968395.435921</v>
+      </c>
+      <c r="I107" t="n">
+        <v>1507109.525636</v>
+      </c>
+      <c r="J107" t="n">
+        <v>862018.369496</v>
+      </c>
+      <c r="K107" t="n">
         <v>2594297.892179</v>
       </c>
-      <c r="H107" t="n">
+      <c r="L107" t="n">
         <v>593919.496281</v>
       </c>
-      <c r="I107" t="n">
+      <c r="M107" t="n">
+        <v>262295.203748</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-187146.575599</v>
+      </c>
+      <c r="O107" t="n">
+        <v>2616025.19357</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>9240804.277024001</v>
+      </c>
+      <c r="R107" t="n">
+        <v>872004.660778</v>
+      </c>
+      <c r="S107" t="n">
+        <v>360898.391049</v>
+      </c>
+      <c r="T107" t="n">
         <v>1226166.884126</v>
       </c>
-      <c r="J107" t="n">
+      <c r="U107" t="n">
         <v>593121.380231</v>
       </c>
-      <c r="K107" t="n">
+      <c r="V107" t="n">
         <v>416486.228957</v>
       </c>
-      <c r="L107" t="n">
+      <c r="W107" t="n">
         <v>186539.408157</v>
       </c>
-      <c r="M107" t="n">
+      <c r="X107" t="n">
         <v>-178148.843794</v>
       </c>
-      <c r="N107" t="n">
+      <c r="Y107" t="n">
         <v>2701749.62893</v>
       </c>
     </row>
@@ -3947,27 +6402,60 @@
         <v>7844731.50286</v>
       </c>
       <c r="G108" t="n">
+        <v>7447652.352394</v>
+      </c>
+      <c r="H108" t="n">
+        <v>1037211.955</v>
+      </c>
+      <c r="I108" t="n">
+        <v>1672959.429852</v>
+      </c>
+      <c r="J108" t="n">
+        <v>991409.111901</v>
+      </c>
+      <c r="K108" t="n">
         <v>2564791.782658</v>
       </c>
-      <c r="H108" t="n">
+      <c r="L108" t="n">
         <v>664511.904042</v>
       </c>
-      <c r="I108" t="n">
+      <c r="M108" t="n">
+        <v>275216.570942</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-242543.040752</v>
+      </c>
+      <c r="O108" t="n">
+        <v>2690899.839194</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>9843239.249442</v>
+      </c>
+      <c r="R108" t="n">
+        <v>909001.325175</v>
+      </c>
+      <c r="S108" t="n">
+        <v>385389.759365</v>
+      </c>
+      <c r="T108" t="n">
         <v>1358595.762714</v>
       </c>
-      <c r="J108" t="n">
+      <c r="U108" t="n">
         <v>694538.699255</v>
       </c>
-      <c r="K108" t="n">
+      <c r="V108" t="n">
         <v>430000.675393</v>
       </c>
-      <c r="L108" t="n">
+      <c r="W108" t="n">
         <v>202481.939951</v>
       </c>
-      <c r="M108" t="n">
+      <c r="X108" t="n">
         <v>-198481.639057</v>
       </c>
-      <c r="N108" t="n">
+      <c r="Y108" t="n">
         <v>2736354.224655</v>
       </c>
     </row>
@@ -3991,27 +6479,60 @@
         <v>8804328.938100999</v>
       </c>
       <c r="G109" t="n">
+        <v>7734581.604932</v>
+      </c>
+      <c r="H109" t="n">
+        <v>1042500.452356</v>
+      </c>
+      <c r="I109" t="n">
+        <v>1814189.360764</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1107427.523717</v>
+      </c>
+      <c r="K109" t="n">
         <v>2763169.982635</v>
       </c>
-      <c r="H109" t="n">
+      <c r="L109" t="n">
         <v>709579.528035</v>
       </c>
-      <c r="I109" t="n">
+      <c r="M109" t="n">
+        <v>267480.178034</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-1388.947126</v>
+      </c>
+      <c r="O109" t="n">
+        <v>2575181.775254</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>10270877.529023</v>
+      </c>
+      <c r="R109" t="n">
+        <v>981529.767525</v>
+      </c>
+      <c r="S109" t="n">
+        <v>419542.508327</v>
+      </c>
+      <c r="T109" t="n">
         <v>1536293.593047</v>
       </c>
-      <c r="J109" t="n">
+      <c r="U109" t="n">
         <v>827381.614615</v>
       </c>
-      <c r="K109" t="n">
+      <c r="V109" t="n">
         <v>464821.924534</v>
       </c>
-      <c r="L109" t="n">
+      <c r="W109" t="n">
         <v>213695.130917</v>
       </c>
-      <c r="M109" t="n">
+      <c r="X109" t="n">
         <v>-10934.733317</v>
       </c>
-      <c r="N109" t="n">
+      <c r="Y109" t="n">
         <v>2685291.9968</v>
       </c>
     </row>
@@ -4035,27 +6556,60 @@
         <v>9359393.365277</v>
       </c>
       <c r="G110" t="n">
+        <v>7930378.587788</v>
+      </c>
+      <c r="H110" t="n">
+        <v>1157604.220287</v>
+      </c>
+      <c r="I110" t="n">
+        <v>1852342.863731</v>
+      </c>
+      <c r="J110" t="n">
+        <v>1148198.369049</v>
+      </c>
+      <c r="K110" t="n">
         <v>2573096.01749</v>
       </c>
-      <c r="H110" t="n">
+      <c r="L110" t="n">
         <v>824493.035476</v>
       </c>
-      <c r="I110" t="n">
+      <c r="M110" t="n">
+        <v>274382.607959</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-147551.697635</v>
+      </c>
+      <c r="O110" t="n">
+        <v>2453934.043639</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>10419633.017031</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1243169.803248</v>
+      </c>
+      <c r="S110" t="n">
+        <v>407959.513403</v>
+      </c>
+      <c r="T110" t="n">
         <v>1561912.01242</v>
       </c>
-      <c r="J110" t="n">
+      <c r="U110" t="n">
         <v>888982.869571</v>
       </c>
-      <c r="K110" t="n">
+      <c r="V110" t="n">
         <v>425176.76744</v>
       </c>
-      <c r="L110" t="n">
+      <c r="W110" t="n">
         <v>214150.158935</v>
       </c>
-      <c r="M110" t="n">
+      <c r="X110" t="n">
         <v>-100523.573392</v>
       </c>
-      <c r="N110" t="n">
+      <c r="Y110" t="n">
         <v>2535545.559863</v>
       </c>
     </row>
@@ -4079,27 +6633,60 @@
         <v>10454049.434919</v>
       </c>
       <c r="G111" t="n">
+        <v>8215063.279593</v>
+      </c>
+      <c r="H111" t="n">
+        <v>1205917.116642</v>
+      </c>
+      <c r="I111" t="n">
+        <v>2221695.901738</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1368896.78696</v>
+      </c>
+      <c r="K111" t="n">
         <v>3123385.676595</v>
       </c>
-      <c r="H111" t="n">
+      <c r="L111" t="n">
         <v>913663.758166</v>
       </c>
-      <c r="I111" t="n">
+      <c r="M111" t="n">
+        <v>289216.474788</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2341.528845</v>
+      </c>
+      <c r="O111" t="n">
+        <v>2952272.369611</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>11183860.996541</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1302182.214292</v>
+      </c>
+      <c r="S111" t="n">
+        <v>541148.52357</v>
+      </c>
+      <c r="T111" t="n">
         <v>1917688.743234</v>
       </c>
-      <c r="J111" t="n">
+      <c r="U111" t="n">
         <v>1088491.816165</v>
       </c>
-      <c r="K111" t="n">
+      <c r="V111" t="n">
         <v>567566.954073</v>
       </c>
-      <c r="L111" t="n">
+      <c r="W111" t="n">
         <v>225503.290319</v>
       </c>
-      <c r="M111" t="n">
+      <c r="X111" t="n">
         <v>1856.549183</v>
       </c>
-      <c r="N111" t="n">
+      <c r="Y111" t="n">
         <v>3090053.431327</v>
       </c>
     </row>
@@ -4123,27 +6710,60 @@
         <v>11239557.234367</v>
       </c>
       <c r="G112" t="n">
+        <v>8671174.618996</v>
+      </c>
+      <c r="H112" t="n">
+        <v>1228900.473801</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2129337.80869</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1248052.99396</v>
+      </c>
+      <c r="K112" t="n">
         <v>3214884.546573</v>
       </c>
-      <c r="H112" t="n">
+      <c r="L112" t="n">
         <v>985415.087172</v>
       </c>
-      <c r="I112" t="n">
+      <c r="M112" t="n">
+        <v>290014.870933</v>
+      </c>
+      <c r="N112" t="n">
+        <v>39002.573345</v>
+      </c>
+      <c r="O112" t="n">
+        <v>2929219.183858</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>11615360.392889</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1287860.594069</v>
+      </c>
+      <c r="S112" t="n">
+        <v>566280.6773400001</v>
+      </c>
+      <c r="T112" t="n">
         <v>1924101.257312</v>
       </c>
-      <c r="J112" t="n">
+      <c r="U112" t="n">
         <v>1062692.651013</v>
       </c>
-      <c r="K112" t="n">
+      <c r="V112" t="n">
         <v>581077.498858</v>
       </c>
-      <c r="L112" t="n">
+      <c r="W112" t="n">
         <v>240891.353344</v>
       </c>
-      <c r="M112" t="n">
+      <c r="X112" t="n">
         <v>178559.06557</v>
       </c>
-      <c r="N112" t="n">
+      <c r="Y112" t="n">
         <v>2952647.187364</v>
       </c>
     </row>
@@ -4167,27 +6787,60 @@
         <v>12281136.087367</v>
       </c>
       <c r="G113" t="n">
+        <v>9260725.202391</v>
+      </c>
+      <c r="H113" t="n">
+        <v>1419240.367255</v>
+      </c>
+      <c r="I113" t="n">
+        <v>2402350.615137</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1475935.375298</v>
+      </c>
+      <c r="K113" t="n">
         <v>3359646.297998</v>
       </c>
-      <c r="H113" t="n">
+      <c r="L113" t="n">
         <v>1193675.017672</v>
       </c>
-      <c r="I113" t="n">
+      <c r="M113" t="n">
+        <v>297108.874998</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-116322.464515</v>
+      </c>
+      <c r="O113" t="n">
+        <v>3061251.469013</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>12416466.190196</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1397837.08797</v>
+      </c>
+      <c r="S113" t="n">
+        <v>599950.799134</v>
+      </c>
+      <c r="T113" t="n">
         <v>2204382.537859</v>
       </c>
-      <c r="J113" t="n">
+      <c r="U113" t="n">
         <v>1297704.709371</v>
       </c>
-      <c r="K113" t="n">
+      <c r="V113" t="n">
         <v>615144.652383</v>
       </c>
-      <c r="L113" t="n">
+      <c r="W113" t="n">
         <v>245086.689609</v>
       </c>
-      <c r="M113" t="n">
+      <c r="X113" t="n">
         <v>-42228.645394</v>
       </c>
-      <c r="N113" t="n">
+      <c r="Y113" t="n">
         <v>3038020.103159</v>
       </c>
     </row>
@@ -4211,27 +6864,60 @@
         <v>13467665.698401</v>
       </c>
       <c r="G114" t="n">
+        <v>9799607.099538</v>
+      </c>
+      <c r="H114" t="n">
+        <v>1489352.942263</v>
+      </c>
+      <c r="I114" t="n">
+        <v>2686745.84846</v>
+      </c>
+      <c r="J114" t="n">
+        <v>1667182.232078</v>
+      </c>
+      <c r="K114" t="n">
         <v>3572682.559171</v>
       </c>
-      <c r="H114" t="n">
+      <c r="L114" t="n">
         <v>1303507.114358</v>
       </c>
-      <c r="I114" t="n">
+      <c r="M114" t="n">
+        <v>297695.599531</v>
+      </c>
+      <c r="N114" t="n">
+        <v>21021.002302</v>
+      </c>
+      <c r="O114" t="n">
+        <v>3121668.592071</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>13254643.62694</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1586182.197038</v>
+      </c>
+      <c r="S114" t="n">
+        <v>687636.105337</v>
+      </c>
+      <c r="T114" t="n">
         <v>2504476.267709</v>
       </c>
-      <c r="J114" t="n">
+      <c r="U114" t="n">
         <v>1492103.634338</v>
       </c>
-      <c r="K114" t="n">
+      <c r="V114" t="n">
         <v>713708.803832</v>
       </c>
-      <c r="L114" t="n">
+      <c r="W114" t="n">
         <v>248611.853283</v>
       </c>
-      <c r="M114" t="n">
+      <c r="X114" t="n">
         <v>-18218.399854</v>
       </c>
-      <c r="N114" t="n">
+      <c r="Y114" t="n">
         <v>3154534.053166</v>
       </c>
     </row>
@@ -4255,27 +6941,60 @@
         <v>14728818.043719</v>
       </c>
       <c r="G115" t="n">
+        <v>10366460.980193</v>
+      </c>
+      <c r="H115" t="n">
+        <v>1543340.562175</v>
+      </c>
+      <c r="I115" t="n">
+        <v>2901280.53644</v>
+      </c>
+      <c r="J115" t="n">
+        <v>1827840.068895</v>
+      </c>
+      <c r="K115" t="n">
         <v>3977060.399374</v>
       </c>
-      <c r="H115" t="n">
+      <c r="L115" t="n">
         <v>1394795.937484</v>
       </c>
-      <c r="I115" t="n">
+      <c r="M115" t="n">
+        <v>302828.554976</v>
+      </c>
+      <c r="N115" t="n">
+        <v>30594.739035</v>
+      </c>
+      <c r="O115" t="n">
+        <v>3500548.489232</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>14096046.745228</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1662037.01158</v>
+      </c>
+      <c r="S115" t="n">
+        <v>727528.75674</v>
+      </c>
+      <c r="T115" t="n">
         <v>2755231.402731</v>
       </c>
-      <c r="J115" t="n">
+      <c r="U115" t="n">
         <v>1681421.737679</v>
       </c>
-      <c r="K115" t="n">
+      <c r="V115" t="n">
         <v>780330.664261</v>
       </c>
-      <c r="L115" t="n">
+      <c r="W115" t="n">
         <v>233515.309858</v>
       </c>
-      <c r="M115" t="n">
+      <c r="X115" t="n">
         <v>6863.551006</v>
       </c>
-      <c r="N115" t="n">
+      <c r="Y115" t="n">
         <v>3612662.387647</v>
       </c>
     </row>
@@ -4299,27 +7018,60 @@
         <v>15537710.340871</v>
       </c>
       <c r="G116" t="n">
+        <v>11034535.072208</v>
+      </c>
+      <c r="H116" t="n">
+        <v>1665462.000961</v>
+      </c>
+      <c r="I116" t="n">
+        <v>3301109.708883</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2042715.01149</v>
+      </c>
+      <c r="K116" t="n">
         <v>4452862.380357</v>
       </c>
-      <c r="H116" t="n">
+      <c r="L116" t="n">
         <v>1521536.493477</v>
       </c>
-      <c r="I116" t="n">
+      <c r="M116" t="n">
+        <v>319457.411804</v>
+      </c>
+      <c r="N116" t="n">
+        <v>24185.558667</v>
+      </c>
+      <c r="O116" t="n">
+        <v>3849448.26452</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>14990907.450429</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1731385.600765</v>
+      </c>
+      <c r="S116" t="n">
+        <v>883983.41546</v>
+      </c>
+      <c r="T116" t="n">
         <v>3100015.356274</v>
       </c>
-      <c r="J116" t="n">
+      <c r="U116" t="n">
         <v>1891221.596751</v>
       </c>
-      <c r="K116" t="n">
+      <c r="V116" t="n">
         <v>894029.744085</v>
       </c>
-      <c r="L116" t="n">
+      <c r="W116" t="n">
         <v>248904.025416</v>
       </c>
-      <c r="M116" t="n">
+      <c r="X116" t="n">
         <v>-125424.624524</v>
       </c>
-      <c r="N116" t="n">
+      <c r="Y116" t="n">
         <v>3793934.339868</v>
       </c>
     </row>
@@ -4343,27 +7095,60 @@
         <v>16812934.317134</v>
       </c>
       <c r="G117" t="n">
+        <v>11823461.125398</v>
+      </c>
+      <c r="H117" t="n">
+        <v>1821367.161536</v>
+      </c>
+      <c r="I117" t="n">
+        <v>3990752.913873</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2352688.546808</v>
+      </c>
+      <c r="K117" t="n">
         <v>5311929.313441</v>
       </c>
-      <c r="H117" t="n">
+      <c r="L117" t="n">
         <v>1703598.603707</v>
       </c>
-      <c r="I117" t="n">
+      <c r="M117" t="n">
+        <v>344642.122851</v>
+      </c>
+      <c r="N117" t="n">
+        <v>26552.476233</v>
+      </c>
+      <c r="O117" t="n">
+        <v>4203846.044555</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>16062675.89497</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1800002.566518</v>
+      </c>
+      <c r="S117" t="n">
+        <v>1220272.037326</v>
+      </c>
+      <c r="T117" t="n">
         <v>3782584.487048</v>
       </c>
-      <c r="J117" t="n">
+      <c r="U117" t="n">
         <v>2214527.28802</v>
       </c>
-      <c r="K117" t="n">
+      <c r="V117" t="n">
         <v>1204858.109605</v>
       </c>
-      <c r="L117" t="n">
+      <c r="W117" t="n">
         <v>281928.369233</v>
       </c>
-      <c r="M117" t="n">
+      <c r="X117" t="n">
         <v>-58265.75757</v>
       </c>
-      <c r="N117" t="n">
+      <c r="Y117" t="n">
         <v>4036260.615459</v>
       </c>
     </row>
@@ -4387,27 +7172,60 @@
         <v>18383179.108104</v>
       </c>
       <c r="G118" t="n">
+        <v>12527828.03776</v>
+      </c>
+      <c r="H118" t="n">
+        <v>1939879.737803</v>
+      </c>
+      <c r="I118" t="n">
+        <v>4412035.368126</v>
+      </c>
+      <c r="J118" t="n">
+        <v>2558243.187271</v>
+      </c>
+      <c r="K118" t="n">
         <v>6393529.44349</v>
       </c>
-      <c r="H118" t="n">
+      <c r="L118" t="n">
         <v>1874770.250058</v>
       </c>
-      <c r="I118" t="n">
+      <c r="M118" t="n">
+        <v>368250.283481</v>
+      </c>
+      <c r="N118" t="n">
+        <v>42766.420686</v>
+      </c>
+      <c r="O118" t="n">
+        <v>4935390.133081</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>17175978.086072</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1908246.050513</v>
+      </c>
+      <c r="S118" t="n">
+        <v>1388078.584121</v>
+      </c>
+      <c r="T118" t="n">
         <v>4245610.147898</v>
       </c>
-      <c r="J118" t="n">
+      <c r="U118" t="n">
         <v>2421829.516435</v>
       </c>
-      <c r="K118" t="n">
+      <c r="V118" t="n">
         <v>1393962.824097</v>
       </c>
-      <c r="L118" t="n">
+      <c r="W118" t="n">
         <v>326781.657199</v>
       </c>
-      <c r="M118" t="n">
+      <c r="X118" t="n">
         <v>-15471.546119</v>
       </c>
-      <c r="N118" t="n">
+      <c r="Y118" t="n">
         <v>4892869.683927</v>
       </c>
     </row>
@@ -4431,7 +7249,7 @@
         <v>20212348.916169</v>
       </c>
       <c r="G119" t="n">
-        <v>7662209.490849</v>
+        <v>13250084.431221</v>
       </c>
       <c r="H119" t="n">
         <v>2199637.346353</v>
@@ -4443,15 +7261,48 @@
         <v>2939785.849495</v>
       </c>
       <c r="K119" t="n">
+        <v>7662209.490849</v>
+      </c>
+      <c r="L119" t="n">
+        <v>2199637.346353</v>
+      </c>
+      <c r="M119" t="n">
+        <v>397760.164699</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-26943.784996</v>
+      </c>
+      <c r="O119" t="n">
+        <v>5518572.505292</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>18265190.258162</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1947158.658007</v>
+      </c>
+      <c r="S119" t="n">
         <v>1527020.103857</v>
       </c>
-      <c r="L119" t="n">
+      <c r="T119" t="n">
+        <v>4983346.471415</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2939785.849495</v>
+      </c>
+      <c r="V119" t="n">
+        <v>1527020.103857</v>
+      </c>
+      <c r="W119" t="n">
         <v>397760.164699</v>
       </c>
-      <c r="M119" t="n">
+      <c r="X119" t="n">
         <v>-26943.784996</v>
       </c>
-      <c r="N119" t="n">
+      <c r="Y119" t="n">
         <v>5518572.505292</v>
       </c>
     </row>
@@ -4475,27 +7326,60 @@
         <v>21472060.352801</v>
       </c>
       <c r="G120" t="n">
+        <v>14027455.562031</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2399867.44381</v>
+      </c>
+      <c r="I120" t="n">
+        <v>5175519.970453</v>
+      </c>
+      <c r="J120" t="n">
+        <v>3205990.712428</v>
+      </c>
+      <c r="K120" t="n">
         <v>7896717.084855</v>
       </c>
-      <c r="H120" t="n">
+      <c r="L120" t="n">
         <v>2433439.250318</v>
       </c>
-      <c r="I120" t="n">
+      <c r="M120" t="n">
+        <v>403626.950017</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-44600.24077</v>
+      </c>
+      <c r="O120" t="n">
+        <v>5664043.029503</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>19382750.611423</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1916281.822659</v>
+      </c>
+      <c r="S120" t="n">
+        <v>1424524.97497</v>
+      </c>
+      <c r="T120" t="n">
         <v>5300100.183172</v>
       </c>
-      <c r="J120" t="n">
+      <c r="U120" t="n">
         <v>3290529.09461</v>
       </c>
-      <c r="K120" t="n">
+      <c r="V120" t="n">
         <v>1451964.55455</v>
       </c>
-      <c r="L120" t="n">
+      <c r="W120" t="n">
         <v>418118.77176</v>
       </c>
-      <c r="M120" t="n">
+      <c r="X120" t="n">
         <v>-148526.29995</v>
       </c>
-      <c r="N120" t="n">
+      <c r="Y120" t="n">
         <v>5539739.492234</v>
       </c>
     </row>
@@ -4519,27 +7403,60 @@
         <v>19312000.510024</v>
       </c>
       <c r="G121" t="n">
+        <v>12911356.953432</v>
+      </c>
+      <c r="H121" t="n">
+        <v>2651875.451303</v>
+      </c>
+      <c r="I121" t="n">
+        <v>3761791.285832</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2242533.866288</v>
+      </c>
+      <c r="K121" t="n">
         <v>5918045.172462</v>
       </c>
-      <c r="H121" t="n">
+      <c r="L121" t="n">
         <v>2739671.248126</v>
       </c>
-      <c r="I121" t="n">
+      <c r="M121" t="n">
+        <v>389874.7894</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-386663.32381</v>
+      </c>
+      <c r="O121" t="n">
+        <v>4749668.274655</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>17537843.279373</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1320172.554167</v>
+      </c>
+      <c r="S121" t="n">
+        <v>1001577.58086</v>
+      </c>
+      <c r="T121" t="n">
         <v>3824091.246522</v>
       </c>
-      <c r="J121" t="n">
+      <c r="U121" t="n">
         <v>2331973.079895</v>
       </c>
-      <c r="K121" t="n">
+      <c r="V121" t="n">
         <v>943928.0143170001</v>
       </c>
-      <c r="L121" t="n">
+      <c r="W121" t="n">
         <v>421946.176072</v>
       </c>
-      <c r="M121" t="n">
+      <c r="X121" t="n">
         <v>-695464.3206419999</v>
       </c>
-      <c r="N121" t="n">
+      <c r="Y121" t="n">
         <v>4524306.240468</v>
       </c>
     </row>
@@ -4563,27 +7480,60 @@
         <v>20104437.201391</v>
       </c>
       <c r="G122" t="n">
+        <v>13456531.51353</v>
+      </c>
+      <c r="H122" t="n">
+        <v>2839962.458796</v>
+      </c>
+      <c r="I122" t="n">
+        <v>4136014.94738</v>
+      </c>
+      <c r="J122" t="n">
+        <v>2491427.931977</v>
+      </c>
+      <c r="K122" t="n">
         <v>7329292.110777</v>
       </c>
-      <c r="H122" t="n">
+      <c r="L122" t="n">
         <v>3021100.219322</v>
       </c>
-      <c r="I122" t="n">
+      <c r="M122" t="n">
+        <v>376942.85805</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-75780.401101</v>
+      </c>
+      <c r="O122" t="n">
+        <v>5128006.17448</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>18538053.835091</v>
+      </c>
+      <c r="R122" t="n">
+        <v>642515.1533</v>
+      </c>
+      <c r="S122" t="n">
+        <v>1123295.80764</v>
+      </c>
+      <c r="T122" t="n">
         <v>4327283.232211</v>
       </c>
-      <c r="J122" t="n">
+      <c r="U122" t="n">
         <v>2682152.780755</v>
       </c>
-      <c r="K122" t="n">
+      <c r="V122" t="n">
         <v>1072946.774528</v>
       </c>
-      <c r="L122" t="n">
+      <c r="W122" t="n">
         <v>427892.17056</v>
       </c>
-      <c r="M122" t="n">
+      <c r="X122" t="n">
         <v>-216438.322977</v>
       </c>
-      <c r="N122" t="n">
+      <c r="Y122" t="n">
         <v>4996723.533584</v>
       </c>
     </row>
@@ -4604,6 +7554,17 @@
       <c r="L123" t="inlineStr"/>
       <c r="M123" t="inlineStr"/>
       <c r="N123" t="inlineStr"/>
+      <c r="O123" t="inlineStr"/>
+      <c r="P123" t="inlineStr"/>
+      <c r="Q123" t="inlineStr"/>
+      <c r="R123" t="inlineStr"/>
+      <c r="S123" t="inlineStr"/>
+      <c r="T123" t="inlineStr"/>
+      <c r="U123" t="inlineStr"/>
+      <c r="V123" t="inlineStr"/>
+      <c r="W123" t="inlineStr"/>
+      <c r="X123" t="inlineStr"/>
+      <c r="Y123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4622,6 +7583,17 @@
       <c r="L124" t="inlineStr"/>
       <c r="M124" t="inlineStr"/>
       <c r="N124" t="inlineStr"/>
+      <c r="O124" t="inlineStr"/>
+      <c r="P124" t="inlineStr"/>
+      <c r="Q124" t="inlineStr"/>
+      <c r="R124" t="inlineStr"/>
+      <c r="S124" t="inlineStr"/>
+      <c r="T124" t="inlineStr"/>
+      <c r="U124" t="inlineStr"/>
+      <c r="V124" t="inlineStr"/>
+      <c r="W124" t="inlineStr"/>
+      <c r="X124" t="inlineStr"/>
+      <c r="Y124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4640,6 +7612,17 @@
       <c r="L125" t="inlineStr"/>
       <c r="M125" t="inlineStr"/>
       <c r="N125" t="inlineStr"/>
+      <c r="O125" t="inlineStr"/>
+      <c r="P125" t="inlineStr"/>
+      <c r="Q125" t="inlineStr"/>
+      <c r="R125" t="inlineStr"/>
+      <c r="S125" t="inlineStr"/>
+      <c r="T125" t="inlineStr"/>
+      <c r="U125" t="inlineStr"/>
+      <c r="V125" t="inlineStr"/>
+      <c r="W125" t="inlineStr"/>
+      <c r="X125" t="inlineStr"/>
+      <c r="Y125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4658,6 +7641,17 @@
       <c r="L126" t="inlineStr"/>
       <c r="M126" t="inlineStr"/>
       <c r="N126" t="inlineStr"/>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr"/>
+      <c r="R126" t="inlineStr"/>
+      <c r="S126" t="inlineStr"/>
+      <c r="T126" t="inlineStr"/>
+      <c r="U126" t="inlineStr"/>
+      <c r="V126" t="inlineStr"/>
+      <c r="W126" t="inlineStr"/>
+      <c r="X126" t="inlineStr"/>
+      <c r="Y126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4676,6 +7670,17 @@
       <c r="L127" t="inlineStr"/>
       <c r="M127" t="inlineStr"/>
       <c r="N127" t="inlineStr"/>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr"/>
+      <c r="R127" t="inlineStr"/>
+      <c r="S127" t="inlineStr"/>
+      <c r="T127" t="inlineStr"/>
+      <c r="U127" t="inlineStr"/>
+      <c r="V127" t="inlineStr"/>
+      <c r="W127" t="inlineStr"/>
+      <c r="X127" t="inlineStr"/>
+      <c r="Y127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4694,6 +7699,17 @@
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
       <c r="N128" t="inlineStr"/>
+      <c r="O128" t="inlineStr"/>
+      <c r="P128" t="inlineStr"/>
+      <c r="Q128" t="inlineStr"/>
+      <c r="R128" t="inlineStr"/>
+      <c r="S128" t="inlineStr"/>
+      <c r="T128" t="inlineStr"/>
+      <c r="U128" t="inlineStr"/>
+      <c r="V128" t="inlineStr"/>
+      <c r="W128" t="inlineStr"/>
+      <c r="X128" t="inlineStr"/>
+      <c r="Y128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -4712,6 +7728,17 @@
       <c r="L129" t="inlineStr"/>
       <c r="M129" t="inlineStr"/>
       <c r="N129" t="inlineStr"/>
+      <c r="O129" t="inlineStr"/>
+      <c r="P129" t="inlineStr"/>
+      <c r="Q129" t="inlineStr"/>
+      <c r="R129" t="inlineStr"/>
+      <c r="S129" t="inlineStr"/>
+      <c r="T129" t="inlineStr"/>
+      <c r="U129" t="inlineStr"/>
+      <c r="V129" t="inlineStr"/>
+      <c r="W129" t="inlineStr"/>
+      <c r="X129" t="inlineStr"/>
+      <c r="Y129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -4730,6 +7757,17 @@
       <c r="L130" t="inlineStr"/>
       <c r="M130" t="inlineStr"/>
       <c r="N130" t="inlineStr"/>
+      <c r="O130" t="inlineStr"/>
+      <c r="P130" t="inlineStr"/>
+      <c r="Q130" t="inlineStr"/>
+      <c r="R130" t="inlineStr"/>
+      <c r="S130" t="inlineStr"/>
+      <c r="T130" t="inlineStr"/>
+      <c r="U130" t="inlineStr"/>
+      <c r="V130" t="inlineStr"/>
+      <c r="W130" t="inlineStr"/>
+      <c r="X130" t="inlineStr"/>
+      <c r="Y130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -4748,6 +7786,17 @@
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr"/>
       <c r="N131" t="inlineStr"/>
+      <c r="O131" t="inlineStr"/>
+      <c r="P131" t="inlineStr"/>
+      <c r="Q131" t="inlineStr"/>
+      <c r="R131" t="inlineStr"/>
+      <c r="S131" t="inlineStr"/>
+      <c r="T131" t="inlineStr"/>
+      <c r="U131" t="inlineStr"/>
+      <c r="V131" t="inlineStr"/>
+      <c r="W131" t="inlineStr"/>
+      <c r="X131" t="inlineStr"/>
+      <c r="Y131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -4766,6 +7815,17 @@
       <c r="L132" t="inlineStr"/>
       <c r="M132" t="inlineStr"/>
       <c r="N132" t="inlineStr"/>
+      <c r="O132" t="inlineStr"/>
+      <c r="P132" t="inlineStr"/>
+      <c r="Q132" t="inlineStr"/>
+      <c r="R132" t="inlineStr"/>
+      <c r="S132" t="inlineStr"/>
+      <c r="T132" t="inlineStr"/>
+      <c r="U132" t="inlineStr"/>
+      <c r="V132" t="inlineStr"/>
+      <c r="W132" t="inlineStr"/>
+      <c r="X132" t="inlineStr"/>
+      <c r="Y132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -4784,6 +7844,17 @@
       <c r="L133" t="inlineStr"/>
       <c r="M133" t="inlineStr"/>
       <c r="N133" t="inlineStr"/>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr"/>
+      <c r="R133" t="inlineStr"/>
+      <c r="S133" t="inlineStr"/>
+      <c r="T133" t="inlineStr"/>
+      <c r="U133" t="inlineStr"/>
+      <c r="V133" t="inlineStr"/>
+      <c r="W133" t="inlineStr"/>
+      <c r="X133" t="inlineStr"/>
+      <c r="Y133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -4802,6 +7873,17 @@
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
       <c r="N134" t="inlineStr"/>
+      <c r="O134" t="inlineStr"/>
+      <c r="P134" t="inlineStr"/>
+      <c r="Q134" t="inlineStr"/>
+      <c r="R134" t="inlineStr"/>
+      <c r="S134" t="inlineStr"/>
+      <c r="T134" t="inlineStr"/>
+      <c r="U134" t="inlineStr"/>
+      <c r="V134" t="inlineStr"/>
+      <c r="W134" t="inlineStr"/>
+      <c r="X134" t="inlineStr"/>
+      <c r="Y134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -4820,6 +7902,17 @@
       <c r="L135" t="inlineStr"/>
       <c r="M135" t="inlineStr"/>
       <c r="N135" t="inlineStr"/>
+      <c r="O135" t="inlineStr"/>
+      <c r="P135" t="inlineStr"/>
+      <c r="Q135" t="inlineStr"/>
+      <c r="R135" t="inlineStr"/>
+      <c r="S135" t="inlineStr"/>
+      <c r="T135" t="inlineStr"/>
+      <c r="U135" t="inlineStr"/>
+      <c r="V135" t="inlineStr"/>
+      <c r="W135" t="inlineStr"/>
+      <c r="X135" t="inlineStr"/>
+      <c r="Y135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -4838,6 +7931,17 @@
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
       <c r="N136" t="inlineStr"/>
+      <c r="O136" t="inlineStr"/>
+      <c r="P136" t="inlineStr"/>
+      <c r="Q136" t="inlineStr"/>
+      <c r="R136" t="inlineStr"/>
+      <c r="S136" t="inlineStr"/>
+      <c r="T136" t="inlineStr"/>
+      <c r="U136" t="inlineStr"/>
+      <c r="V136" t="inlineStr"/>
+      <c r="W136" t="inlineStr"/>
+      <c r="X136" t="inlineStr"/>
+      <c r="Y136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -4856,6 +7960,17 @@
       <c r="L137" t="inlineStr"/>
       <c r="M137" t="inlineStr"/>
       <c r="N137" t="inlineStr"/>
+      <c r="O137" t="inlineStr"/>
+      <c r="P137" t="inlineStr"/>
+      <c r="Q137" t="inlineStr"/>
+      <c r="R137" t="inlineStr"/>
+      <c r="S137" t="inlineStr"/>
+      <c r="T137" t="inlineStr"/>
+      <c r="U137" t="inlineStr"/>
+      <c r="V137" t="inlineStr"/>
+      <c r="W137" t="inlineStr"/>
+      <c r="X137" t="inlineStr"/>
+      <c r="Y137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -4874,6 +7989,17 @@
       <c r="L138" t="inlineStr"/>
       <c r="M138" t="inlineStr"/>
       <c r="N138" t="inlineStr"/>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr"/>
+      <c r="R138" t="inlineStr"/>
+      <c r="S138" t="inlineStr"/>
+      <c r="T138" t="inlineStr"/>
+      <c r="U138" t="inlineStr"/>
+      <c r="V138" t="inlineStr"/>
+      <c r="W138" t="inlineStr"/>
+      <c r="X138" t="inlineStr"/>
+      <c r="Y138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -4892,6 +8018,17 @@
       <c r="L139" t="inlineStr"/>
       <c r="M139" t="inlineStr"/>
       <c r="N139" t="inlineStr"/>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr"/>
+      <c r="R139" t="inlineStr"/>
+      <c r="S139" t="inlineStr"/>
+      <c r="T139" t="inlineStr"/>
+      <c r="U139" t="inlineStr"/>
+      <c r="V139" t="inlineStr"/>
+      <c r="W139" t="inlineStr"/>
+      <c r="X139" t="inlineStr"/>
+      <c r="Y139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -4910,6 +8047,17 @@
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr"/>
       <c r="N140" t="inlineStr"/>
+      <c r="O140" t="inlineStr"/>
+      <c r="P140" t="inlineStr"/>
+      <c r="Q140" t="inlineStr"/>
+      <c r="R140" t="inlineStr"/>
+      <c r="S140" t="inlineStr"/>
+      <c r="T140" t="inlineStr"/>
+      <c r="U140" t="inlineStr"/>
+      <c r="V140" t="inlineStr"/>
+      <c r="W140" t="inlineStr"/>
+      <c r="X140" t="inlineStr"/>
+      <c r="Y140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -4928,6 +8076,17 @@
       <c r="L141" t="inlineStr"/>
       <c r="M141" t="inlineStr"/>
       <c r="N141" t="inlineStr"/>
+      <c r="O141" t="inlineStr"/>
+      <c r="P141" t="inlineStr"/>
+      <c r="Q141" t="inlineStr"/>
+      <c r="R141" t="inlineStr"/>
+      <c r="S141" t="inlineStr"/>
+      <c r="T141" t="inlineStr"/>
+      <c r="U141" t="inlineStr"/>
+      <c r="V141" t="inlineStr"/>
+      <c r="W141" t="inlineStr"/>
+      <c r="X141" t="inlineStr"/>
+      <c r="Y141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -4946,6 +8105,17 @@
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
       <c r="N142" t="inlineStr"/>
+      <c r="O142" t="inlineStr"/>
+      <c r="P142" t="inlineStr"/>
+      <c r="Q142" t="inlineStr"/>
+      <c r="R142" t="inlineStr"/>
+      <c r="S142" t="inlineStr"/>
+      <c r="T142" t="inlineStr"/>
+      <c r="U142" t="inlineStr"/>
+      <c r="V142" t="inlineStr"/>
+      <c r="W142" t="inlineStr"/>
+      <c r="X142" t="inlineStr"/>
+      <c r="Y142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -4964,6 +8134,17 @@
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
       <c r="N143" t="inlineStr"/>
+      <c r="O143" t="inlineStr"/>
+      <c r="P143" t="inlineStr"/>
+      <c r="Q143" t="inlineStr"/>
+      <c r="R143" t="inlineStr"/>
+      <c r="S143" t="inlineStr"/>
+      <c r="T143" t="inlineStr"/>
+      <c r="U143" t="inlineStr"/>
+      <c r="V143" t="inlineStr"/>
+      <c r="W143" t="inlineStr"/>
+      <c r="X143" t="inlineStr"/>
+      <c r="Y143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -4982,6 +8163,17 @@
       <c r="L144" t="inlineStr"/>
       <c r="M144" t="inlineStr"/>
       <c r="N144" t="inlineStr"/>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr"/>
+      <c r="R144" t="inlineStr"/>
+      <c r="S144" t="inlineStr"/>
+      <c r="T144" t="inlineStr"/>
+      <c r="U144" t="inlineStr"/>
+      <c r="V144" t="inlineStr"/>
+      <c r="W144" t="inlineStr"/>
+      <c r="X144" t="inlineStr"/>
+      <c r="Y144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5000,6 +8192,17 @@
       <c r="L145" t="inlineStr"/>
       <c r="M145" t="inlineStr"/>
       <c r="N145" t="inlineStr"/>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr"/>
+      <c r="R145" t="inlineStr"/>
+      <c r="S145" t="inlineStr"/>
+      <c r="T145" t="inlineStr"/>
+      <c r="U145" t="inlineStr"/>
+      <c r="V145" t="inlineStr"/>
+      <c r="W145" t="inlineStr"/>
+      <c r="X145" t="inlineStr"/>
+      <c r="Y145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5018,6 +8221,17 @@
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
       <c r="N146" t="inlineStr"/>
+      <c r="O146" t="inlineStr"/>
+      <c r="P146" t="inlineStr"/>
+      <c r="Q146" t="inlineStr"/>
+      <c r="R146" t="inlineStr"/>
+      <c r="S146" t="inlineStr"/>
+      <c r="T146" t="inlineStr"/>
+      <c r="U146" t="inlineStr"/>
+      <c r="V146" t="inlineStr"/>
+      <c r="W146" t="inlineStr"/>
+      <c r="X146" t="inlineStr"/>
+      <c r="Y146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5036,6 +8250,17 @@
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
       <c r="N147" t="inlineStr"/>
+      <c r="O147" t="inlineStr"/>
+      <c r="P147" t="inlineStr"/>
+      <c r="Q147" t="inlineStr"/>
+      <c r="R147" t="inlineStr"/>
+      <c r="S147" t="inlineStr"/>
+      <c r="T147" t="inlineStr"/>
+      <c r="U147" t="inlineStr"/>
+      <c r="V147" t="inlineStr"/>
+      <c r="W147" t="inlineStr"/>
+      <c r="X147" t="inlineStr"/>
+      <c r="Y147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5054,6 +8279,17 @@
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
       <c r="N148" t="inlineStr"/>
+      <c r="O148" t="inlineStr"/>
+      <c r="P148" t="inlineStr"/>
+      <c r="Q148" t="inlineStr"/>
+      <c r="R148" t="inlineStr"/>
+      <c r="S148" t="inlineStr"/>
+      <c r="T148" t="inlineStr"/>
+      <c r="U148" t="inlineStr"/>
+      <c r="V148" t="inlineStr"/>
+      <c r="W148" t="inlineStr"/>
+      <c r="X148" t="inlineStr"/>
+      <c r="Y148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5072,6 +8308,17 @@
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
       <c r="N149" t="inlineStr"/>
+      <c r="O149" t="inlineStr"/>
+      <c r="P149" t="inlineStr"/>
+      <c r="Q149" t="inlineStr"/>
+      <c r="R149" t="inlineStr"/>
+      <c r="S149" t="inlineStr"/>
+      <c r="T149" t="inlineStr"/>
+      <c r="U149" t="inlineStr"/>
+      <c r="V149" t="inlineStr"/>
+      <c r="W149" t="inlineStr"/>
+      <c r="X149" t="inlineStr"/>
+      <c r="Y149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5090,6 +8337,17 @@
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
       <c r="N150" t="inlineStr"/>
+      <c r="O150" t="inlineStr"/>
+      <c r="P150" t="inlineStr"/>
+      <c r="Q150" t="inlineStr"/>
+      <c r="R150" t="inlineStr"/>
+      <c r="S150" t="inlineStr"/>
+      <c r="T150" t="inlineStr"/>
+      <c r="U150" t="inlineStr"/>
+      <c r="V150" t="inlineStr"/>
+      <c r="W150" t="inlineStr"/>
+      <c r="X150" t="inlineStr"/>
+      <c r="Y150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5108,6 +8366,17 @@
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr"/>
       <c r="N151" t="inlineStr"/>
+      <c r="O151" t="inlineStr"/>
+      <c r="P151" t="inlineStr"/>
+      <c r="Q151" t="inlineStr"/>
+      <c r="R151" t="inlineStr"/>
+      <c r="S151" t="inlineStr"/>
+      <c r="T151" t="inlineStr"/>
+      <c r="U151" t="inlineStr"/>
+      <c r="V151" t="inlineStr"/>
+      <c r="W151" t="inlineStr"/>
+      <c r="X151" t="inlineStr"/>
+      <c r="Y151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5126,6 +8395,17 @@
       <c r="L152" t="inlineStr"/>
       <c r="M152" t="inlineStr"/>
       <c r="N152" t="inlineStr"/>
+      <c r="O152" t="inlineStr"/>
+      <c r="P152" t="inlineStr"/>
+      <c r="Q152" t="inlineStr"/>
+      <c r="R152" t="inlineStr"/>
+      <c r="S152" t="inlineStr"/>
+      <c r="T152" t="inlineStr"/>
+      <c r="U152" t="inlineStr"/>
+      <c r="V152" t="inlineStr"/>
+      <c r="W152" t="inlineStr"/>
+      <c r="X152" t="inlineStr"/>
+      <c r="Y152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5144,6 +8424,17 @@
       <c r="L153" t="inlineStr"/>
       <c r="M153" t="inlineStr"/>
       <c r="N153" t="inlineStr"/>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr"/>
+      <c r="R153" t="inlineStr"/>
+      <c r="S153" t="inlineStr"/>
+      <c r="T153" t="inlineStr"/>
+      <c r="U153" t="inlineStr"/>
+      <c r="V153" t="inlineStr"/>
+      <c r="W153" t="inlineStr"/>
+      <c r="X153" t="inlineStr"/>
+      <c r="Y153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5162,6 +8453,17 @@
       <c r="L154" t="inlineStr"/>
       <c r="M154" t="inlineStr"/>
       <c r="N154" t="inlineStr"/>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr"/>
+      <c r="R154" t="inlineStr"/>
+      <c r="S154" t="inlineStr"/>
+      <c r="T154" t="inlineStr"/>
+      <c r="U154" t="inlineStr"/>
+      <c r="V154" t="inlineStr"/>
+      <c r="W154" t="inlineStr"/>
+      <c r="X154" t="inlineStr"/>
+      <c r="Y154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5180,6 +8482,17 @@
       <c r="L155" t="inlineStr"/>
       <c r="M155" t="inlineStr"/>
       <c r="N155" t="inlineStr"/>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr"/>
+      <c r="R155" t="inlineStr"/>
+      <c r="S155" t="inlineStr"/>
+      <c r="T155" t="inlineStr"/>
+      <c r="U155" t="inlineStr"/>
+      <c r="V155" t="inlineStr"/>
+      <c r="W155" t="inlineStr"/>
+      <c r="X155" t="inlineStr"/>
+      <c r="Y155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -5198,6 +8511,17 @@
       <c r="L156" t="inlineStr"/>
       <c r="M156" t="inlineStr"/>
       <c r="N156" t="inlineStr"/>
+      <c r="O156" t="inlineStr"/>
+      <c r="P156" t="inlineStr"/>
+      <c r="Q156" t="inlineStr"/>
+      <c r="R156" t="inlineStr"/>
+      <c r="S156" t="inlineStr"/>
+      <c r="T156" t="inlineStr"/>
+      <c r="U156" t="inlineStr"/>
+      <c r="V156" t="inlineStr"/>
+      <c r="W156" t="inlineStr"/>
+      <c r="X156" t="inlineStr"/>
+      <c r="Y156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -5216,6 +8540,17 @@
       <c r="L157" t="inlineStr"/>
       <c r="M157" t="inlineStr"/>
       <c r="N157" t="inlineStr"/>
+      <c r="O157" t="inlineStr"/>
+      <c r="P157" t="inlineStr"/>
+      <c r="Q157" t="inlineStr"/>
+      <c r="R157" t="inlineStr"/>
+      <c r="S157" t="inlineStr"/>
+      <c r="T157" t="inlineStr"/>
+      <c r="U157" t="inlineStr"/>
+      <c r="V157" t="inlineStr"/>
+      <c r="W157" t="inlineStr"/>
+      <c r="X157" t="inlineStr"/>
+      <c r="Y157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -5234,6 +8569,17 @@
       <c r="L158" t="inlineStr"/>
       <c r="M158" t="inlineStr"/>
       <c r="N158" t="inlineStr"/>
+      <c r="O158" t="inlineStr"/>
+      <c r="P158" t="inlineStr"/>
+      <c r="Q158" t="inlineStr"/>
+      <c r="R158" t="inlineStr"/>
+      <c r="S158" t="inlineStr"/>
+      <c r="T158" t="inlineStr"/>
+      <c r="U158" t="inlineStr"/>
+      <c r="V158" t="inlineStr"/>
+      <c r="W158" t="inlineStr"/>
+      <c r="X158" t="inlineStr"/>
+      <c r="Y158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -5252,6 +8598,17 @@
       <c r="L159" t="inlineStr"/>
       <c r="M159" t="inlineStr"/>
       <c r="N159" t="inlineStr"/>
+      <c r="O159" t="inlineStr"/>
+      <c r="P159" t="inlineStr"/>
+      <c r="Q159" t="inlineStr"/>
+      <c r="R159" t="inlineStr"/>
+      <c r="S159" t="inlineStr"/>
+      <c r="T159" t="inlineStr"/>
+      <c r="U159" t="inlineStr"/>
+      <c r="V159" t="inlineStr"/>
+      <c r="W159" t="inlineStr"/>
+      <c r="X159" t="inlineStr"/>
+      <c r="Y159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -5270,6 +8627,17 @@
       <c r="L160" t="inlineStr"/>
       <c r="M160" t="inlineStr"/>
       <c r="N160" t="inlineStr"/>
+      <c r="O160" t="inlineStr"/>
+      <c r="P160" t="inlineStr"/>
+      <c r="Q160" t="inlineStr"/>
+      <c r="R160" t="inlineStr"/>
+      <c r="S160" t="inlineStr"/>
+      <c r="T160" t="inlineStr"/>
+      <c r="U160" t="inlineStr"/>
+      <c r="V160" t="inlineStr"/>
+      <c r="W160" t="inlineStr"/>
+      <c r="X160" t="inlineStr"/>
+      <c r="Y160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -5288,6 +8656,17 @@
       <c r="L161" t="inlineStr"/>
       <c r="M161" t="inlineStr"/>
       <c r="N161" t="inlineStr"/>
+      <c r="O161" t="inlineStr"/>
+      <c r="P161" t="inlineStr"/>
+      <c r="Q161" t="inlineStr"/>
+      <c r="R161" t="inlineStr"/>
+      <c r="S161" t="inlineStr"/>
+      <c r="T161" t="inlineStr"/>
+      <c r="U161" t="inlineStr"/>
+      <c r="V161" t="inlineStr"/>
+      <c r="W161" t="inlineStr"/>
+      <c r="X161" t="inlineStr"/>
+      <c r="Y161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -5306,6 +8685,17 @@
       <c r="L162" t="inlineStr"/>
       <c r="M162" t="inlineStr"/>
       <c r="N162" t="inlineStr"/>
+      <c r="O162" t="inlineStr"/>
+      <c r="P162" t="inlineStr"/>
+      <c r="Q162" t="inlineStr"/>
+      <c r="R162" t="inlineStr"/>
+      <c r="S162" t="inlineStr"/>
+      <c r="T162" t="inlineStr"/>
+      <c r="U162" t="inlineStr"/>
+      <c r="V162" t="inlineStr"/>
+      <c r="W162" t="inlineStr"/>
+      <c r="X162" t="inlineStr"/>
+      <c r="Y162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -5324,6 +8714,17 @@
       <c r="L163" t="inlineStr"/>
       <c r="M163" t="inlineStr"/>
       <c r="N163" t="inlineStr"/>
+      <c r="O163" t="inlineStr"/>
+      <c r="P163" t="inlineStr"/>
+      <c r="Q163" t="inlineStr"/>
+      <c r="R163" t="inlineStr"/>
+      <c r="S163" t="inlineStr"/>
+      <c r="T163" t="inlineStr"/>
+      <c r="U163" t="inlineStr"/>
+      <c r="V163" t="inlineStr"/>
+      <c r="W163" t="inlineStr"/>
+      <c r="X163" t="inlineStr"/>
+      <c r="Y163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -5342,6 +8743,17 @@
       <c r="L164" t="inlineStr"/>
       <c r="M164" t="inlineStr"/>
       <c r="N164" t="inlineStr"/>
+      <c r="O164" t="inlineStr"/>
+      <c r="P164" t="inlineStr"/>
+      <c r="Q164" t="inlineStr"/>
+      <c r="R164" t="inlineStr"/>
+      <c r="S164" t="inlineStr"/>
+      <c r="T164" t="inlineStr"/>
+      <c r="U164" t="inlineStr"/>
+      <c r="V164" t="inlineStr"/>
+      <c r="W164" t="inlineStr"/>
+      <c r="X164" t="inlineStr"/>
+      <c r="Y164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -5360,6 +8772,17 @@
       <c r="L165" t="inlineStr"/>
       <c r="M165" t="inlineStr"/>
       <c r="N165" t="inlineStr"/>
+      <c r="O165" t="inlineStr"/>
+      <c r="P165" t="inlineStr"/>
+      <c r="Q165" t="inlineStr"/>
+      <c r="R165" t="inlineStr"/>
+      <c r="S165" t="inlineStr"/>
+      <c r="T165" t="inlineStr"/>
+      <c r="U165" t="inlineStr"/>
+      <c r="V165" t="inlineStr"/>
+      <c r="W165" t="inlineStr"/>
+      <c r="X165" t="inlineStr"/>
+      <c r="Y165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -5378,6 +8801,17 @@
       <c r="L166" t="inlineStr"/>
       <c r="M166" t="inlineStr"/>
       <c r="N166" t="inlineStr"/>
+      <c r="O166" t="inlineStr"/>
+      <c r="P166" t="inlineStr"/>
+      <c r="Q166" t="inlineStr"/>
+      <c r="R166" t="inlineStr"/>
+      <c r="S166" t="inlineStr"/>
+      <c r="T166" t="inlineStr"/>
+      <c r="U166" t="inlineStr"/>
+      <c r="V166" t="inlineStr"/>
+      <c r="W166" t="inlineStr"/>
+      <c r="X166" t="inlineStr"/>
+      <c r="Y166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -5396,6 +8830,17 @@
       <c r="L167" t="inlineStr"/>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
+      <c r="O167" t="inlineStr"/>
+      <c r="P167" t="inlineStr"/>
+      <c r="Q167" t="inlineStr"/>
+      <c r="R167" t="inlineStr"/>
+      <c r="S167" t="inlineStr"/>
+      <c r="T167" t="inlineStr"/>
+      <c r="U167" t="inlineStr"/>
+      <c r="V167" t="inlineStr"/>
+      <c r="W167" t="inlineStr"/>
+      <c r="X167" t="inlineStr"/>
+      <c r="Y167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -5414,6 +8859,17 @@
       <c r="L168" t="inlineStr"/>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
+      <c r="O168" t="inlineStr"/>
+      <c r="P168" t="inlineStr"/>
+      <c r="Q168" t="inlineStr"/>
+      <c r="R168" t="inlineStr"/>
+      <c r="S168" t="inlineStr"/>
+      <c r="T168" t="inlineStr"/>
+      <c r="U168" t="inlineStr"/>
+      <c r="V168" t="inlineStr"/>
+      <c r="W168" t="inlineStr"/>
+      <c r="X168" t="inlineStr"/>
+      <c r="Y168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -5432,6 +8888,17 @@
       <c r="L169" t="inlineStr"/>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
+      <c r="O169" t="inlineStr"/>
+      <c r="P169" t="inlineStr"/>
+      <c r="Q169" t="inlineStr"/>
+      <c r="R169" t="inlineStr"/>
+      <c r="S169" t="inlineStr"/>
+      <c r="T169" t="inlineStr"/>
+      <c r="U169" t="inlineStr"/>
+      <c r="V169" t="inlineStr"/>
+      <c r="W169" t="inlineStr"/>
+      <c r="X169" t="inlineStr"/>
+      <c r="Y169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -5450,6 +8917,17 @@
       <c r="L170" t="inlineStr"/>
       <c r="M170" t="inlineStr"/>
       <c r="N170" t="inlineStr"/>
+      <c r="O170" t="inlineStr"/>
+      <c r="P170" t="inlineStr"/>
+      <c r="Q170" t="inlineStr"/>
+      <c r="R170" t="inlineStr"/>
+      <c r="S170" t="inlineStr"/>
+      <c r="T170" t="inlineStr"/>
+      <c r="U170" t="inlineStr"/>
+      <c r="V170" t="inlineStr"/>
+      <c r="W170" t="inlineStr"/>
+      <c r="X170" t="inlineStr"/>
+      <c r="Y170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -5468,6 +8946,17 @@
       <c r="L171" t="inlineStr"/>
       <c r="M171" t="inlineStr"/>
       <c r="N171" t="inlineStr"/>
+      <c r="O171" t="inlineStr"/>
+      <c r="P171" t="inlineStr"/>
+      <c r="Q171" t="inlineStr"/>
+      <c r="R171" t="inlineStr"/>
+      <c r="S171" t="inlineStr"/>
+      <c r="T171" t="inlineStr"/>
+      <c r="U171" t="inlineStr"/>
+      <c r="V171" t="inlineStr"/>
+      <c r="W171" t="inlineStr"/>
+      <c r="X171" t="inlineStr"/>
+      <c r="Y171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -5486,6 +8975,17 @@
       <c r="L172" t="inlineStr"/>
       <c r="M172" t="inlineStr"/>
       <c r="N172" t="inlineStr"/>
+      <c r="O172" t="inlineStr"/>
+      <c r="P172" t="inlineStr"/>
+      <c r="Q172" t="inlineStr"/>
+      <c r="R172" t="inlineStr"/>
+      <c r="S172" t="inlineStr"/>
+      <c r="T172" t="inlineStr"/>
+      <c r="U172" t="inlineStr"/>
+      <c r="V172" t="inlineStr"/>
+      <c r="W172" t="inlineStr"/>
+      <c r="X172" t="inlineStr"/>
+      <c r="Y172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -5504,6 +9004,17 @@
       <c r="L173" t="inlineStr"/>
       <c r="M173" t="inlineStr"/>
       <c r="N173" t="inlineStr"/>
+      <c r="O173" t="inlineStr"/>
+      <c r="P173" t="inlineStr"/>
+      <c r="Q173" t="inlineStr"/>
+      <c r="R173" t="inlineStr"/>
+      <c r="S173" t="inlineStr"/>
+      <c r="T173" t="inlineStr"/>
+      <c r="U173" t="inlineStr"/>
+      <c r="V173" t="inlineStr"/>
+      <c r="W173" t="inlineStr"/>
+      <c r="X173" t="inlineStr"/>
+      <c r="Y173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INTLINE/output/INTLINE_databasetest.xlsx
+++ b/INTLINE/output/INTLINE_databasetest.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y173"/>
+  <dimension ref="A1:AM173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,6 +485,76 @@
       <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>data024</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>data025</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>data026</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>data027</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>data028</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>data029</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>data030</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>data031</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>data032</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>data033</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>data034</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>data035</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>data036</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>data037</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>data038</t>
         </is>
       </c>
     </row>
@@ -516,6 +586,20 @@
       <c r="W2" t="inlineStr"/>
       <c r="X2" t="inlineStr"/>
       <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="inlineStr"/>
+      <c r="AI2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="inlineStr"/>
+      <c r="AM2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -545,6 +629,20 @@
       <c r="W3" t="inlineStr"/>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="inlineStr"/>
+      <c r="AI3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="inlineStr"/>
+      <c r="AM3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -574,6 +672,20 @@
       <c r="W4" t="inlineStr"/>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="inlineStr"/>
+      <c r="AI4" t="inlineStr"/>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="inlineStr"/>
+      <c r="AM4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -603,6 +715,20 @@
       <c r="W5" t="inlineStr"/>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="inlineStr"/>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="inlineStr"/>
+      <c r="AM5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -632,6 +758,20 @@
       <c r="W6" t="inlineStr"/>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="inlineStr"/>
+      <c r="AI6" t="inlineStr"/>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="inlineStr"/>
+      <c r="AM6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -661,6 +801,20 @@
       <c r="W7" t="inlineStr"/>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
+      <c r="Z7" t="inlineStr"/>
+      <c r="AA7" t="inlineStr"/>
+      <c r="AB7" t="inlineStr"/>
+      <c r="AC7" t="inlineStr"/>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
+      <c r="AG7" t="inlineStr"/>
+      <c r="AH7" t="inlineStr"/>
+      <c r="AI7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="inlineStr"/>
+      <c r="AM7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -690,6 +844,20 @@
       <c r="W8" t="inlineStr"/>
       <c r="X8" t="inlineStr"/>
       <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="inlineStr"/>
+      <c r="AH8" t="inlineStr"/>
+      <c r="AI8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="inlineStr"/>
+      <c r="AM8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -719,6 +887,20 @@
       <c r="W9" t="inlineStr"/>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
+      <c r="AH9" t="inlineStr"/>
+      <c r="AI9" t="inlineStr"/>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="inlineStr"/>
+      <c r="AM9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -748,6 +930,20 @@
       <c r="W10" t="inlineStr"/>
       <c r="X10" t="inlineStr"/>
       <c r="Y10" t="inlineStr"/>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
+      <c r="AG10" t="inlineStr"/>
+      <c r="AH10" t="inlineStr"/>
+      <c r="AI10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="inlineStr"/>
+      <c r="AM10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -777,6 +973,20 @@
       <c r="W11" t="inlineStr"/>
       <c r="X11" t="inlineStr"/>
       <c r="Y11" t="inlineStr"/>
+      <c r="Z11" t="inlineStr"/>
+      <c r="AA11" t="inlineStr"/>
+      <c r="AB11" t="inlineStr"/>
+      <c r="AC11" t="inlineStr"/>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="inlineStr"/>
+      <c r="AH11" t="inlineStr"/>
+      <c r="AI11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="inlineStr"/>
+      <c r="AM11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -806,6 +1016,20 @@
       <c r="W12" t="inlineStr"/>
       <c r="X12" t="inlineStr"/>
       <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
+      <c r="AH12" t="inlineStr"/>
+      <c r="AI12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="inlineStr"/>
+      <c r="AM12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -835,6 +1059,20 @@
       <c r="W13" t="inlineStr"/>
       <c r="X13" t="inlineStr"/>
       <c r="Y13" t="inlineStr"/>
+      <c r="Z13" t="inlineStr"/>
+      <c r="AA13" t="inlineStr"/>
+      <c r="AB13" t="inlineStr"/>
+      <c r="AC13" t="inlineStr"/>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="inlineStr"/>
+      <c r="AH13" t="inlineStr"/>
+      <c r="AI13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="inlineStr"/>
+      <c r="AM13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -864,6 +1102,20 @@
       <c r="W14" t="inlineStr"/>
       <c r="X14" t="inlineStr"/>
       <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
+      <c r="AH14" t="inlineStr"/>
+      <c r="AI14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="inlineStr"/>
+      <c r="AM14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -893,6 +1145,20 @@
       <c r="W15" t="inlineStr"/>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
+      <c r="AH15" t="inlineStr"/>
+      <c r="AI15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="inlineStr"/>
+      <c r="AM15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -922,6 +1188,20 @@
       <c r="W16" t="inlineStr"/>
       <c r="X16" t="inlineStr"/>
       <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="inlineStr"/>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="inlineStr"/>
+      <c r="AH16" t="inlineStr"/>
+      <c r="AI16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="inlineStr"/>
+      <c r="AM16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -951,6 +1231,20 @@
       <c r="W17" t="inlineStr"/>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="inlineStr"/>
+      <c r="Z17" t="inlineStr"/>
+      <c r="AA17" t="inlineStr"/>
+      <c r="AB17" t="inlineStr"/>
+      <c r="AC17" t="inlineStr"/>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="inlineStr"/>
+      <c r="AH17" t="inlineStr"/>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="inlineStr"/>
+      <c r="AM17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -980,6 +1274,20 @@
       <c r="W18" t="inlineStr"/>
       <c r="X18" t="inlineStr"/>
       <c r="Y18" t="inlineStr"/>
+      <c r="Z18" t="inlineStr"/>
+      <c r="AA18" t="inlineStr"/>
+      <c r="AB18" t="inlineStr"/>
+      <c r="AC18" t="inlineStr"/>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="inlineStr"/>
+      <c r="AH18" t="inlineStr"/>
+      <c r="AI18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="inlineStr"/>
+      <c r="AM18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1009,6 +1317,20 @@
       <c r="W19" t="inlineStr"/>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="inlineStr"/>
+      <c r="Z19" t="inlineStr"/>
+      <c r="AA19" t="inlineStr"/>
+      <c r="AB19" t="inlineStr"/>
+      <c r="AC19" t="inlineStr"/>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
+      <c r="AG19" t="inlineStr"/>
+      <c r="AH19" t="inlineStr"/>
+      <c r="AI19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="inlineStr"/>
+      <c r="AM19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1038,6 +1360,20 @@
       <c r="W20" t="inlineStr"/>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
+      <c r="Z20" t="inlineStr"/>
+      <c r="AA20" t="inlineStr"/>
+      <c r="AB20" t="inlineStr"/>
+      <c r="AC20" t="inlineStr"/>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="inlineStr"/>
+      <c r="AH20" t="inlineStr"/>
+      <c r="AI20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="inlineStr"/>
+      <c r="AM20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1067,6 +1403,20 @@
       <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
+      <c r="AH21" t="inlineStr"/>
+      <c r="AI21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="inlineStr"/>
+      <c r="AM21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1096,6 +1446,20 @@
       <c r="W22" t="inlineStr"/>
       <c r="X22" t="inlineStr"/>
       <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
+      <c r="AB22" t="inlineStr"/>
+      <c r="AC22" t="inlineStr"/>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="inlineStr"/>
+      <c r="AH22" t="inlineStr"/>
+      <c r="AI22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="inlineStr"/>
+      <c r="AM22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1125,6 +1489,20 @@
       <c r="W23" t="inlineStr"/>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
+      <c r="Z23" t="inlineStr"/>
+      <c r="AA23" t="inlineStr"/>
+      <c r="AB23" t="inlineStr"/>
+      <c r="AC23" t="inlineStr"/>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="inlineStr"/>
+      <c r="AH23" t="inlineStr"/>
+      <c r="AI23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="inlineStr"/>
+      <c r="AM23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1154,6 +1532,20 @@
       <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
+      <c r="Z24" t="inlineStr"/>
+      <c r="AA24" t="inlineStr"/>
+      <c r="AB24" t="inlineStr"/>
+      <c r="AC24" t="inlineStr"/>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="inlineStr"/>
+      <c r="AH24" t="inlineStr"/>
+      <c r="AI24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="inlineStr"/>
+      <c r="AM24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1183,6 +1575,20 @@
       <c r="W25" t="inlineStr"/>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
+      <c r="AH25" t="inlineStr"/>
+      <c r="AI25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="inlineStr"/>
+      <c r="AM25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1212,6 +1618,20 @@
       <c r="W26" t="inlineStr"/>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
+      <c r="Z26" t="inlineStr"/>
+      <c r="AA26" t="inlineStr"/>
+      <c r="AB26" t="inlineStr"/>
+      <c r="AC26" t="inlineStr"/>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="inlineStr"/>
+      <c r="AH26" t="inlineStr"/>
+      <c r="AI26" t="inlineStr"/>
+      <c r="AJ26" t="inlineStr"/>
+      <c r="AK26" t="inlineStr"/>
+      <c r="AL26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1241,6 +1661,20 @@
       <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
+      <c r="Z27" t="inlineStr"/>
+      <c r="AA27" t="inlineStr"/>
+      <c r="AB27" t="inlineStr"/>
+      <c r="AC27" t="inlineStr"/>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
+      <c r="AG27" t="inlineStr"/>
+      <c r="AH27" t="inlineStr"/>
+      <c r="AI27" t="inlineStr"/>
+      <c r="AJ27" t="inlineStr"/>
+      <c r="AK27" t="inlineStr"/>
+      <c r="AL27" t="inlineStr"/>
+      <c r="AM27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1270,6 +1704,20 @@
       <c r="W28" t="inlineStr"/>
       <c r="X28" t="inlineStr"/>
       <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
+      <c r="AH28" t="inlineStr"/>
+      <c r="AI28" t="inlineStr"/>
+      <c r="AJ28" t="inlineStr"/>
+      <c r="AK28" t="inlineStr"/>
+      <c r="AL28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1299,6 +1747,20 @@
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
+      <c r="AH29" t="inlineStr"/>
+      <c r="AI29" t="inlineStr"/>
+      <c r="AJ29" t="inlineStr"/>
+      <c r="AK29" t="inlineStr"/>
+      <c r="AL29" t="inlineStr"/>
+      <c r="AM29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1328,6 +1790,20 @@
       <c r="W30" t="inlineStr"/>
       <c r="X30" t="inlineStr"/>
       <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
+      <c r="AH30" t="inlineStr"/>
+      <c r="AI30" t="inlineStr"/>
+      <c r="AJ30" t="inlineStr"/>
+      <c r="AK30" t="inlineStr"/>
+      <c r="AL30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1357,6 +1833,20 @@
       <c r="W31" t="inlineStr"/>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="inlineStr"/>
+      <c r="AH31" t="inlineStr"/>
+      <c r="AI31" t="inlineStr"/>
+      <c r="AJ31" t="inlineStr"/>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
+      <c r="AM31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1386,6 +1876,20 @@
       <c r="W32" t="inlineStr"/>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="inlineStr"/>
+      <c r="AH32" t="inlineStr"/>
+      <c r="AI32" t="inlineStr"/>
+      <c r="AJ32" t="inlineStr"/>
+      <c r="AK32" t="inlineStr"/>
+      <c r="AL32" t="inlineStr"/>
+      <c r="AM32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1415,6 +1919,20 @@
       <c r="W33" t="inlineStr"/>
       <c r="X33" t="inlineStr"/>
       <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="inlineStr"/>
+      <c r="AJ33" t="inlineStr"/>
+      <c r="AK33" t="inlineStr"/>
+      <c r="AL33" t="inlineStr"/>
+      <c r="AM33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1444,6 +1962,20 @@
       <c r="W34" t="inlineStr"/>
       <c r="X34" t="inlineStr"/>
       <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="inlineStr"/>
+      <c r="AA34" t="inlineStr"/>
+      <c r="AB34" t="inlineStr"/>
+      <c r="AC34" t="inlineStr"/>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="inlineStr"/>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="inlineStr"/>
+      <c r="AH34" t="inlineStr"/>
+      <c r="AI34" t="inlineStr"/>
+      <c r="AJ34" t="inlineStr"/>
+      <c r="AK34" t="inlineStr"/>
+      <c r="AL34" t="inlineStr"/>
+      <c r="AM34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1473,6 +2005,20 @@
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="inlineStr"/>
+      <c r="AH35" t="inlineStr"/>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="inlineStr"/>
+      <c r="AK35" t="inlineStr"/>
+      <c r="AL35" t="inlineStr"/>
+      <c r="AM35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1502,6 +2048,20 @@
       <c r="W36" t="inlineStr"/>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
+      <c r="AH36" t="inlineStr"/>
+      <c r="AI36" t="inlineStr"/>
+      <c r="AJ36" t="inlineStr"/>
+      <c r="AK36" t="inlineStr"/>
+      <c r="AL36" t="inlineStr"/>
+      <c r="AM36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1531,6 +2091,20 @@
       <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
+      <c r="AG37" t="inlineStr"/>
+      <c r="AH37" t="inlineStr"/>
+      <c r="AI37" t="inlineStr"/>
+      <c r="AJ37" t="inlineStr"/>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
+      <c r="AM37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1560,6 +2134,20 @@
       <c r="W38" t="inlineStr"/>
       <c r="X38" t="inlineStr"/>
       <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="inlineStr"/>
+      <c r="AH38" t="inlineStr"/>
+      <c r="AI38" t="inlineStr"/>
+      <c r="AJ38" t="inlineStr"/>
+      <c r="AK38" t="inlineStr"/>
+      <c r="AL38" t="inlineStr"/>
+      <c r="AM38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1589,6 +2177,20 @@
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="inlineStr"/>
+      <c r="AI39" t="inlineStr"/>
+      <c r="AJ39" t="inlineStr"/>
+      <c r="AK39" t="inlineStr"/>
+      <c r="AL39" t="inlineStr"/>
+      <c r="AM39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1618,6 +2220,20 @@
       <c r="W40" t="inlineStr"/>
       <c r="X40" t="inlineStr"/>
       <c r="Y40" t="inlineStr"/>
+      <c r="Z40" t="inlineStr"/>
+      <c r="AA40" t="inlineStr"/>
+      <c r="AB40" t="inlineStr"/>
+      <c r="AC40" t="inlineStr"/>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="inlineStr"/>
+      <c r="AH40" t="inlineStr"/>
+      <c r="AI40" t="inlineStr"/>
+      <c r="AJ40" t="inlineStr"/>
+      <c r="AK40" t="inlineStr"/>
+      <c r="AL40" t="inlineStr"/>
+      <c r="AM40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1647,6 +2263,20 @@
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="inlineStr"/>
+      <c r="AA41" t="inlineStr"/>
+      <c r="AB41" t="inlineStr"/>
+      <c r="AC41" t="inlineStr"/>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="inlineStr"/>
+      <c r="AH41" t="inlineStr"/>
+      <c r="AI41" t="inlineStr"/>
+      <c r="AJ41" t="inlineStr"/>
+      <c r="AK41" t="inlineStr"/>
+      <c r="AL41" t="inlineStr"/>
+      <c r="AM41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1676,6 +2306,20 @@
       <c r="W42" t="inlineStr"/>
       <c r="X42" t="inlineStr"/>
       <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="inlineStr"/>
+      <c r="AB42" t="inlineStr"/>
+      <c r="AC42" t="inlineStr"/>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="inlineStr"/>
+      <c r="AH42" t="inlineStr"/>
+      <c r="AI42" t="inlineStr"/>
+      <c r="AJ42" t="inlineStr"/>
+      <c r="AK42" t="inlineStr"/>
+      <c r="AL42" t="inlineStr"/>
+      <c r="AM42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1705,6 +2349,20 @@
       <c r="W43" t="inlineStr"/>
       <c r="X43" t="inlineStr"/>
       <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="inlineStr"/>
+      <c r="AB43" t="inlineStr"/>
+      <c r="AC43" t="inlineStr"/>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="inlineStr"/>
+      <c r="AH43" t="inlineStr"/>
+      <c r="AI43" t="inlineStr"/>
+      <c r="AJ43" t="inlineStr"/>
+      <c r="AK43" t="inlineStr"/>
+      <c r="AL43" t="inlineStr"/>
+      <c r="AM43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1734,6 +2392,20 @@
       <c r="W44" t="inlineStr"/>
       <c r="X44" t="inlineStr"/>
       <c r="Y44" t="inlineStr"/>
+      <c r="Z44" t="inlineStr"/>
+      <c r="AA44" t="inlineStr"/>
+      <c r="AB44" t="inlineStr"/>
+      <c r="AC44" t="inlineStr"/>
+      <c r="AD44" t="inlineStr"/>
+      <c r="AE44" t="inlineStr"/>
+      <c r="AF44" t="inlineStr"/>
+      <c r="AG44" t="inlineStr"/>
+      <c r="AH44" t="inlineStr"/>
+      <c r="AI44" t="inlineStr"/>
+      <c r="AJ44" t="inlineStr"/>
+      <c r="AK44" t="inlineStr"/>
+      <c r="AL44" t="inlineStr"/>
+      <c r="AM44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1763,6 +2435,20 @@
       <c r="W45" t="inlineStr"/>
       <c r="X45" t="inlineStr"/>
       <c r="Y45" t="inlineStr"/>
+      <c r="Z45" t="inlineStr"/>
+      <c r="AA45" t="inlineStr"/>
+      <c r="AB45" t="inlineStr"/>
+      <c r="AC45" t="inlineStr"/>
+      <c r="AD45" t="inlineStr"/>
+      <c r="AE45" t="inlineStr"/>
+      <c r="AF45" t="inlineStr"/>
+      <c r="AG45" t="inlineStr"/>
+      <c r="AH45" t="inlineStr"/>
+      <c r="AI45" t="inlineStr"/>
+      <c r="AJ45" t="inlineStr"/>
+      <c r="AK45" t="inlineStr"/>
+      <c r="AL45" t="inlineStr"/>
+      <c r="AM45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1792,6 +2478,20 @@
       <c r="W46" t="inlineStr"/>
       <c r="X46" t="inlineStr"/>
       <c r="Y46" t="inlineStr"/>
+      <c r="Z46" t="inlineStr"/>
+      <c r="AA46" t="inlineStr"/>
+      <c r="AB46" t="inlineStr"/>
+      <c r="AC46" t="inlineStr"/>
+      <c r="AD46" t="inlineStr"/>
+      <c r="AE46" t="inlineStr"/>
+      <c r="AF46" t="inlineStr"/>
+      <c r="AG46" t="inlineStr"/>
+      <c r="AH46" t="inlineStr"/>
+      <c r="AI46" t="inlineStr"/>
+      <c r="AJ46" t="inlineStr"/>
+      <c r="AK46" t="inlineStr"/>
+      <c r="AL46" t="inlineStr"/>
+      <c r="AM46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1850,21 +2550,59 @@
         <v>3055.28678260414</v>
       </c>
       <c r="T47" t="n">
+        <v>10</v>
+      </c>
+      <c r="U47" t="n">
+        <v>550</v>
+      </c>
+      <c r="V47" t="n">
+        <v>444</v>
+      </c>
+      <c r="W47" t="n">
+        <v>67</v>
+      </c>
+      <c r="X47" t="n">
+        <v>2002.463594</v>
+      </c>
+      <c r="Y47" t="n">
         <v>786</v>
       </c>
-      <c r="U47" t="n">
+      <c r="Z47" t="inlineStr"/>
+      <c r="AA47" t="n">
+        <v>1223</v>
+      </c>
+      <c r="AB47" t="n">
         <v>573</v>
       </c>
-      <c r="V47" t="n">
+      <c r="AC47" t="n">
+        <v>26164.214381202</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>64198.5920388097</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>9432.011795287921</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>213482.867237221</v>
+      </c>
+      <c r="AG47" t="inlineStr"/>
+      <c r="AH47" t="n">
+        <v>143999.06295321</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>957.692491990189</v>
+      </c>
+      <c r="AJ47" t="n">
         <v>70</v>
       </c>
-      <c r="W47" t="n">
+      <c r="AK47" t="n">
         <v>143</v>
       </c>
-      <c r="X47" t="n">
+      <c r="AL47" t="n">
         <v>218</v>
       </c>
-      <c r="Y47" t="n">
+      <c r="AM47" t="n">
         <v>490.885474392109</v>
       </c>
     </row>
@@ -1925,21 +2663,59 @@
         <v>13474.2920998441</v>
       </c>
       <c r="T48" t="n">
+        <v>10</v>
+      </c>
+      <c r="U48" t="n">
+        <v>654</v>
+      </c>
+      <c r="V48" t="n">
+        <v>757</v>
+      </c>
+      <c r="W48" t="n">
+        <v>70</v>
+      </c>
+      <c r="X48" t="n">
+        <v>2224.09277187731</v>
+      </c>
+      <c r="Y48" t="n">
         <v>1326</v>
       </c>
-      <c r="U48" t="n">
+      <c r="Z48" t="inlineStr"/>
+      <c r="AA48" t="n">
+        <v>1304</v>
+      </c>
+      <c r="AB48" t="n">
         <v>952</v>
       </c>
-      <c r="V48" t="n">
+      <c r="AC48" t="n">
+        <v>52832.7412929273</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>110797.193530267</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>9944.293586086311</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>274926.408374352</v>
+      </c>
+      <c r="AG48" t="inlineStr"/>
+      <c r="AH48" t="n">
+        <v>181875.512504101</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>977.237236724682</v>
+      </c>
+      <c r="AJ48" t="n">
         <v>189</v>
       </c>
-      <c r="W48" t="n">
+      <c r="AK48" t="n">
         <v>185</v>
       </c>
-      <c r="X48" t="n">
+      <c r="AL48" t="n">
         <v>287</v>
       </c>
-      <c r="Y48" t="n">
+      <c r="AM48" t="n">
         <v>1264.48241282458</v>
       </c>
     </row>
@@ -2000,21 +2776,59 @@
         <v>15804.5450072794</v>
       </c>
       <c r="T49" t="n">
+        <v>19</v>
+      </c>
+      <c r="U49" t="n">
+        <v>757</v>
+      </c>
+      <c r="V49" t="n">
+        <v>963</v>
+      </c>
+      <c r="W49" t="n">
+        <v>73</v>
+      </c>
+      <c r="X49" t="n">
+        <v>2462.17341935732</v>
+      </c>
+      <c r="Y49" t="n">
         <v>1540</v>
       </c>
-      <c r="U49" t="n">
+      <c r="Z49" t="inlineStr"/>
+      <c r="AA49" t="n">
+        <v>1408</v>
+      </c>
+      <c r="AB49" t="n">
         <v>1147</v>
       </c>
-      <c r="V49" t="n">
+      <c r="AC49" t="n">
+        <v>83547.7758900428</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>139052.011952562</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>10305.904261944</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>306621.827503095</v>
+      </c>
+      <c r="AG49" t="inlineStr"/>
+      <c r="AH49" t="n">
+        <v>198842.790809704</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>2431.36624497101</v>
+      </c>
+      <c r="AJ49" t="n">
         <v>212</v>
       </c>
-      <c r="W49" t="n">
+      <c r="AK49" t="n">
         <v>181</v>
       </c>
-      <c r="X49" t="n">
+      <c r="AL49" t="n">
         <v>210</v>
       </c>
-      <c r="Y49" t="n">
+      <c r="AM49" t="n">
         <v>1352.85877296719</v>
       </c>
     </row>
@@ -2075,21 +2889,59 @@
         <v>15741.887758808</v>
       </c>
       <c r="T50" t="n">
+        <v>28</v>
+      </c>
+      <c r="U50" t="n">
+        <v>919</v>
+      </c>
+      <c r="V50" t="n">
+        <v>704</v>
+      </c>
+      <c r="W50" t="n">
+        <v>77</v>
+      </c>
+      <c r="X50" t="n">
+        <v>2677.82967549137</v>
+      </c>
+      <c r="Y50" t="n">
         <v>1217</v>
       </c>
-      <c r="U50" t="n">
+      <c r="Z50" t="inlineStr"/>
+      <c r="AA50" t="n">
+        <v>1497</v>
+      </c>
+      <c r="AB50" t="n">
         <v>807</v>
       </c>
-      <c r="V50" t="n">
+      <c r="AC50" t="n">
+        <v>103576.187816543</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>102885.100579503</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>10750.3840510191</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>344615.562064938</v>
+      </c>
+      <c r="AG50" t="inlineStr"/>
+      <c r="AH50" t="n">
+        <v>220454.647318155</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>3048.98017858102</v>
+      </c>
+      <c r="AJ50" t="n">
         <v>212</v>
       </c>
-      <c r="W50" t="n">
+      <c r="AK50" t="n">
         <v>198</v>
       </c>
-      <c r="X50" t="n">
+      <c r="AL50" t="n">
         <v>115</v>
       </c>
-      <c r="Y50" t="n">
+      <c r="AM50" t="n">
         <v>933.432143247608</v>
       </c>
     </row>
@@ -2150,21 +3002,59 @@
         <v>11946.648708542</v>
       </c>
       <c r="T51" t="n">
+        <v>41</v>
+      </c>
+      <c r="U51" t="n">
+        <v>1083</v>
+      </c>
+      <c r="V51" t="n">
+        <v>620</v>
+      </c>
+      <c r="W51" t="n">
+        <v>80</v>
+      </c>
+      <c r="X51" t="n">
+        <v>2887.86733758664</v>
+      </c>
+      <c r="Y51" t="n">
         <v>1150</v>
       </c>
-      <c r="U51" t="n">
+      <c r="Z51" t="inlineStr"/>
+      <c r="AA51" t="n">
+        <v>1574</v>
+      </c>
+      <c r="AB51" t="n">
         <v>800</v>
       </c>
-      <c r="V51" t="n">
+      <c r="AC51" t="n">
+        <v>123598.596022443</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>89980.30032608259</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>11044.1927251534</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>372062.466071143</v>
+      </c>
+      <c r="AG51" t="inlineStr"/>
+      <c r="AH51" t="n">
+        <v>236967.751002446</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>4006.67267057121</v>
+      </c>
+      <c r="AJ51" t="n">
         <v>145</v>
       </c>
-      <c r="W51" t="n">
+      <c r="AK51" t="n">
         <v>205</v>
       </c>
-      <c r="X51" t="n">
+      <c r="AL51" t="n">
         <v>147</v>
       </c>
-      <c r="Y51" t="n">
+      <c r="AM51" t="n">
         <v>984.106227849191</v>
       </c>
     </row>
@@ -2225,21 +3115,59 @@
         <v>9861.05743799481</v>
       </c>
       <c r="T52" t="n">
+        <v>62</v>
+      </c>
+      <c r="U52" t="n">
+        <v>1287</v>
+      </c>
+      <c r="V52" t="n">
+        <v>706</v>
+      </c>
+      <c r="W52" t="n">
+        <v>86</v>
+      </c>
+      <c r="X52" t="n">
+        <v>3205.00341303212</v>
+      </c>
+      <c r="Y52" t="n">
         <v>1273</v>
       </c>
-      <c r="U52" t="n">
+      <c r="Z52" t="inlineStr"/>
+      <c r="AA52" t="n">
+        <v>1728</v>
+      </c>
+      <c r="AB52" t="n">
         <v>900</v>
       </c>
-      <c r="V52" t="n">
+      <c r="AC52" t="n">
+        <v>144893.792995853</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>101834.493642445</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>11481.1389584815</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>405706.813676541</v>
+      </c>
+      <c r="AG52" t="inlineStr"/>
+      <c r="AH52" t="n">
+        <v>260644.816637993</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>5163.72155885324</v>
+      </c>
+      <c r="AJ52" t="n">
         <v>154</v>
       </c>
-      <c r="W52" t="n">
+      <c r="AK52" t="n">
         <v>219</v>
       </c>
-      <c r="X52" t="n">
+      <c r="AL52" t="n">
         <v>118</v>
       </c>
-      <c r="Y52" t="n">
+      <c r="AM52" t="n">
         <v>1178.47309981984</v>
       </c>
     </row>
@@ -2300,21 +3228,59 @@
         <v>10511.4993506976</v>
       </c>
       <c r="T53" t="n">
+        <v>79</v>
+      </c>
+      <c r="U53" t="n">
+        <v>1517</v>
+      </c>
+      <c r="V53" t="n">
+        <v>627</v>
+      </c>
+      <c r="W53" t="n">
+        <v>90</v>
+      </c>
+      <c r="X53" t="n">
+        <v>3451.56789211737</v>
+      </c>
+      <c r="Y53" t="n">
         <v>1207</v>
       </c>
-      <c r="U53" t="n">
+      <c r="Z53" t="inlineStr"/>
+      <c r="AA53" t="n">
+        <v>1794</v>
+      </c>
+      <c r="AB53" t="n">
         <v>819</v>
       </c>
-      <c r="V53" t="n">
+      <c r="AC53" t="n">
+        <v>153443.091132345</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>90138.35623696751</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>11918.0851918095</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>451478.778032084</v>
+      </c>
+      <c r="AG53" t="inlineStr"/>
+      <c r="AH53" t="n">
+        <v>283165.022389066</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>6516.2178944802</v>
+      </c>
+      <c r="AJ53" t="n">
         <v>174</v>
       </c>
-      <c r="W53" t="n">
+      <c r="AK53" t="n">
         <v>214</v>
       </c>
-      <c r="X53" t="n">
+      <c r="AL53" t="n">
         <v>115</v>
       </c>
-      <c r="Y53" t="n">
+      <c r="AM53" t="n">
         <v>1093.94015493447</v>
       </c>
     </row>
@@ -2375,21 +3341,59 @@
         <v>15327.1564474976</v>
       </c>
       <c r="T54" t="n">
+        <v>86</v>
+      </c>
+      <c r="U54" t="n">
+        <v>1676</v>
+      </c>
+      <c r="V54" t="n">
+        <v>704</v>
+      </c>
+      <c r="W54" t="n">
+        <v>95</v>
+      </c>
+      <c r="X54" t="n">
+        <v>3619.01120183726</v>
+      </c>
+      <c r="Y54" t="n">
         <v>1444</v>
       </c>
-      <c r="U54" t="n">
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="n">
+        <v>1839</v>
+      </c>
+      <c r="AB54" t="n">
         <v>983</v>
       </c>
-      <c r="V54" t="n">
+      <c r="AC54" t="n">
+        <v>172468.881718401</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>99975.01233791759</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>12211.8938659439</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>482742.593190559</v>
+      </c>
+      <c r="AG54" t="inlineStr"/>
+      <c r="AH54" t="n">
+        <v>298624.098178616</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>6914.93068706386</v>
+      </c>
+      <c r="AJ54" t="n">
         <v>241</v>
       </c>
-      <c r="W54" t="n">
+      <c r="AK54" t="n">
         <v>220</v>
       </c>
-      <c r="X54" t="n">
+      <c r="AL54" t="n">
         <v>172</v>
       </c>
-      <c r="Y54" t="n">
+      <c r="AM54" t="n">
         <v>1268.43288238755</v>
       </c>
     </row>
@@ -2450,21 +3454,59 @@
         <v>20309.8995402211</v>
       </c>
       <c r="T55" t="n">
+        <v>83</v>
+      </c>
+      <c r="U55" t="n">
+        <v>1795</v>
+      </c>
+      <c r="V55" t="n">
+        <v>560</v>
+      </c>
+      <c r="W55" t="n">
+        <v>100</v>
+      </c>
+      <c r="X55" t="n">
+        <v>3856.4243416102</v>
+      </c>
+      <c r="Y55" t="n">
         <v>1309</v>
       </c>
-      <c r="U55" t="n">
+      <c r="Z55" t="inlineStr"/>
+      <c r="AA55" t="n">
+        <v>1938</v>
+      </c>
+      <c r="AB55" t="n">
         <v>794</v>
       </c>
-      <c r="V55" t="n">
+      <c r="AC55" t="n">
+        <v>193908.167986246</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>80524.8378925607</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>12648.8400992719</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>522694.065594189</v>
+      </c>
+      <c r="AG55" t="inlineStr"/>
+      <c r="AH55" t="n">
+        <v>324066.446304543</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>6316.86149818836</v>
+      </c>
+      <c r="AJ55" t="n">
         <v>285</v>
       </c>
-      <c r="W55" t="n">
+      <c r="AK55" t="n">
         <v>230</v>
       </c>
-      <c r="X55" t="n">
+      <c r="AL55" t="n">
         <v>270</v>
       </c>
-      <c r="Y55" t="n">
+      <c r="AM55" t="n">
         <v>1230.33660443047</v>
       </c>
     </row>
@@ -2525,21 +3567,59 @@
         <v>22965.373404008</v>
       </c>
       <c r="T56" t="n">
+        <v>94</v>
+      </c>
+      <c r="U56" t="n">
+        <v>1903</v>
+      </c>
+      <c r="V56" t="n">
+        <v>549</v>
+      </c>
+      <c r="W56" t="n">
+        <v>105</v>
+      </c>
+      <c r="X56" t="n">
+        <v>4156.03445694797</v>
+      </c>
+      <c r="Y56" t="n">
         <v>1350</v>
       </c>
-      <c r="U56" t="n">
+      <c r="Z56" t="inlineStr"/>
+      <c r="AA56" t="n">
+        <v>2058</v>
+      </c>
+      <c r="AB56" t="n">
         <v>793</v>
       </c>
-      <c r="V56" t="n">
+      <c r="AC56" t="n">
+        <v>218943.682894372</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>78730.4384336917</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>13085.7863325999</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>567362.516014381</v>
+      </c>
+      <c r="AG56" t="inlineStr"/>
+      <c r="AH56" t="n">
+        <v>353947.708653855</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>6754.66378024102</v>
+      </c>
+      <c r="AJ56" t="n">
         <v>311</v>
       </c>
-      <c r="W56" t="n">
+      <c r="AK56" t="n">
         <v>246</v>
       </c>
-      <c r="X56" t="n">
+      <c r="AL56" t="n">
         <v>286</v>
       </c>
-      <c r="Y56" t="n">
+      <c r="AM56" t="n">
         <v>1252.53774250435</v>
       </c>
     </row>
@@ -2600,21 +3680,59 @@
         <v>27781.0305008079</v>
       </c>
       <c r="T57" t="n">
+        <v>108</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2153</v>
+      </c>
+      <c r="V57" t="n">
+        <v>653</v>
+      </c>
+      <c r="W57" t="n">
+        <v>120</v>
+      </c>
+      <c r="X57" t="n">
+        <v>4567.31886060059</v>
+      </c>
+      <c r="Y57" t="n">
         <v>1603</v>
       </c>
-      <c r="U57" t="n">
+      <c r="Z57" t="inlineStr"/>
+      <c r="AA57" t="n">
+        <v>2240</v>
+      </c>
+      <c r="AB57" t="n">
         <v>976</v>
       </c>
-      <c r="V57" t="n">
+      <c r="AC57" t="n">
+        <v>249112.378916754</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>93792.237000364</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>14622.6317049951</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>597374.596008984</v>
+      </c>
+      <c r="AG57" t="inlineStr"/>
+      <c r="AH57" t="n">
+        <v>372174.678833661</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>8052.4348306114</v>
+      </c>
+      <c r="AJ57" t="n">
         <v>382</v>
       </c>
-      <c r="W57" t="n">
+      <c r="AK57" t="n">
         <v>245</v>
       </c>
-      <c r="X57" t="n">
+      <c r="AL57" t="n">
         <v>207</v>
       </c>
-      <c r="Y57" t="n">
+      <c r="AM57" t="n">
         <v>1150.23554550291</v>
       </c>
     </row>
@@ -2675,21 +3793,59 @@
         <v>33506.709539692</v>
       </c>
       <c r="T58" t="n">
+        <v>117</v>
+      </c>
+      <c r="U58" t="n">
+        <v>2431</v>
+      </c>
+      <c r="V58" t="n">
+        <v>741</v>
+      </c>
+      <c r="W58" t="n">
+        <v>130</v>
+      </c>
+      <c r="X58" t="n">
+        <v>4971.41952573292</v>
+      </c>
+      <c r="Y58" t="n">
         <v>1926</v>
       </c>
-      <c r="U58" t="n">
+      <c r="Z58" t="inlineStr"/>
+      <c r="AA58" t="n">
+        <v>2407</v>
+      </c>
+      <c r="AB58" t="n">
         <v>1183</v>
       </c>
-      <c r="V58" t="n">
+      <c r="AC58" t="n">
+        <v>263857.516713961</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>106538.981342899</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>15353.3866124575</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>630817.745141321</v>
+      </c>
+      <c r="AG58" t="inlineStr"/>
+      <c r="AH58" t="n">
+        <v>396400.181747772</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>9186.030025212031</v>
+      </c>
+      <c r="AJ58" t="n">
         <v>476</v>
       </c>
-      <c r="W58" t="n">
+      <c r="AK58" t="n">
         <v>267</v>
       </c>
-      <c r="X58" t="n">
+      <c r="AL58" t="n">
         <v>261</v>
       </c>
-      <c r="Y58" t="n">
+      <c r="AM58" t="n">
         <v>1095.71736560781</v>
       </c>
     </row>
@@ -2750,21 +3906,59 @@
         <v>34139.249381403</v>
       </c>
       <c r="T59" t="n">
+        <v>102</v>
+      </c>
+      <c r="U59" t="n">
+        <v>2781</v>
+      </c>
+      <c r="V59" t="n">
+        <v>657</v>
+      </c>
+      <c r="W59" t="n">
+        <v>139</v>
+      </c>
+      <c r="X59" t="n">
+        <v>5250.9990504567</v>
+      </c>
+      <c r="Y59" t="n">
         <v>1877</v>
       </c>
-      <c r="U59" t="n">
+      <c r="Z59" t="inlineStr"/>
+      <c r="AA59" t="n">
+        <v>2506</v>
+      </c>
+      <c r="AB59" t="n">
         <v>1103</v>
       </c>
-      <c r="V59" t="n">
+      <c r="AC59" t="n">
+        <v>283333.586345127</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>91700.32053277059</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>16159.4770773903</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>652139.889024592</v>
+      </c>
+      <c r="AG59" t="inlineStr"/>
+      <c r="AH59" t="n">
+        <v>407300.37265925</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>9107.851046274051</v>
+      </c>
+      <c r="AJ59" t="n">
         <v>498</v>
       </c>
-      <c r="W59" t="n">
+      <c r="AK59" t="n">
         <v>276</v>
       </c>
-      <c r="X59" t="n">
+      <c r="AL59" t="n">
         <v>329</v>
       </c>
-      <c r="Y59" t="n">
+      <c r="AM59" t="n">
         <v>1166.25702895966</v>
       </c>
     </row>
@@ -2825,21 +4019,59 @@
         <v>41207.5837446737</v>
       </c>
       <c r="T60" t="n">
+        <v>113</v>
+      </c>
+      <c r="U60" t="n">
+        <v>3067</v>
+      </c>
+      <c r="V60" t="n">
+        <v>708</v>
+      </c>
+      <c r="W60" t="n">
+        <v>145</v>
+      </c>
+      <c r="X60" t="n">
+        <v>5698.728195041</v>
+      </c>
+      <c r="Y60" t="n">
         <v>2181</v>
       </c>
-      <c r="U60" t="n">
+      <c r="Z60" t="inlineStr"/>
+      <c r="AA60" t="n">
+        <v>2726</v>
+      </c>
+      <c r="AB60" t="n">
         <v>1263</v>
       </c>
-      <c r="V60" t="n">
+      <c r="AC60" t="n">
+        <v>308495.179385885</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>98041.1517812091</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>16453.2857515246</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>691041.745869412</v>
+      </c>
+      <c r="AG60" t="inlineStr"/>
+      <c r="AH60" t="n">
+        <v>433651.070027801</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>10104.6330277332</v>
+      </c>
+      <c r="AJ60" t="n">
         <v>617</v>
       </c>
-      <c r="W60" t="n">
+      <c r="AK60" t="n">
         <v>301</v>
       </c>
-      <c r="X60" t="n">
+      <c r="AL60" t="n">
         <v>377</v>
       </c>
-      <c r="Y60" t="n">
+      <c r="AM60" t="n">
         <v>1231.35699366922</v>
       </c>
     </row>
@@ -2900,21 +4132,59 @@
         <v>35111.9285719586</v>
       </c>
       <c r="T61" t="n">
+        <v>113</v>
+      </c>
+      <c r="U61" t="n">
+        <v>3302</v>
+      </c>
+      <c r="V61" t="n">
+        <v>659</v>
+      </c>
+      <c r="W61" t="n">
+        <v>151</v>
+      </c>
+      <c r="X61" t="n">
+        <v>6312.47471214815</v>
+      </c>
+      <c r="Y61" t="n">
         <v>2155</v>
       </c>
-      <c r="U61" t="n">
+      <c r="Z61" t="inlineStr"/>
+      <c r="AA61" t="n">
+        <v>2978</v>
+      </c>
+      <c r="AB61" t="n">
         <v>1209</v>
       </c>
-      <c r="V61" t="n">
+      <c r="AC61" t="n">
+        <v>316546.168712454</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>85136.35152778871</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>16965.567542323</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>718007.5750945</v>
+      </c>
+      <c r="AG61" t="inlineStr"/>
+      <c r="AH61" t="n">
+        <v>448793.080515679</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>9526.10858359222</v>
+      </c>
+      <c r="AJ61" t="n">
         <v>632</v>
       </c>
-      <c r="W61" t="n">
+      <c r="AK61" t="n">
         <v>314</v>
       </c>
-      <c r="X61" t="n">
+      <c r="AL61" t="n">
         <v>355</v>
       </c>
-      <c r="Y61" t="n">
+      <c r="AM61" t="n">
         <v>1442.969864259</v>
       </c>
     </row>
@@ -2975,21 +4245,59 @@
         <v>37427.2630869008</v>
       </c>
       <c r="T62" t="n">
+        <v>121</v>
+      </c>
+      <c r="U62" t="n">
+        <v>3652</v>
+      </c>
+      <c r="V62" t="n">
+        <v>755</v>
+      </c>
+      <c r="W62" t="n">
+        <v>152</v>
+      </c>
+      <c r="X62" t="n">
+        <v>6795.40906595172</v>
+      </c>
+      <c r="Y62" t="n">
         <v>2574</v>
       </c>
-      <c r="U62" t="n">
+      <c r="Z62" t="inlineStr"/>
+      <c r="AA62" t="n">
+        <v>3183</v>
+      </c>
+      <c r="AB62" t="n">
         <v>1490</v>
       </c>
-      <c r="V62" t="n">
+      <c r="AC62" t="n">
+        <v>329778.368918092</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>97139.30334851331</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>16965.567542323</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>755835.625839103</v>
+      </c>
+      <c r="AG62" t="inlineStr"/>
+      <c r="AH62" t="n">
+        <v>471141.899617201</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>9506.56383885773</v>
+      </c>
+      <c r="AJ62" t="n">
         <v>743</v>
       </c>
-      <c r="W62" t="n">
+      <c r="AK62" t="n">
         <v>341</v>
       </c>
-      <c r="X62" t="n">
+      <c r="AL62" t="n">
         <v>471</v>
       </c>
-      <c r="Y62" t="n">
+      <c r="AM62" t="n">
         <v>1668.629866249</v>
       </c>
     </row>
@@ -3050,21 +4358,59 @@
         <v>35777.2888771546</v>
       </c>
       <c r="T63" t="n">
+        <v>155</v>
+      </c>
+      <c r="U63" t="n">
+        <v>4117</v>
+      </c>
+      <c r="V63" t="n">
+        <v>754</v>
+      </c>
+      <c r="W63" t="n">
+        <v>156</v>
+      </c>
+      <c r="X63" t="n">
+        <v>7633.51925271693</v>
+      </c>
+      <c r="Y63" t="n">
         <v>2750</v>
       </c>
-      <c r="U63" t="n">
+      <c r="Z63" t="inlineStr"/>
+      <c r="AA63" t="n">
+        <v>3602</v>
+      </c>
+      <c r="AB63" t="n">
         <v>1470</v>
       </c>
-      <c r="V63" t="n">
+      <c r="AC63" t="n">
+        <v>347483.340971823</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>95577.3390527102</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>17033.3695440463</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>797830.735263151</v>
+      </c>
+      <c r="AG63" t="inlineStr"/>
+      <c r="AH63" t="n">
+        <v>498846.551517209</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>9545.653328326711</v>
+      </c>
+      <c r="AJ63" t="n">
         <v>896</v>
       </c>
-      <c r="W63" t="n">
+      <c r="AK63" t="n">
         <v>384</v>
       </c>
-      <c r="X63" t="n">
+      <c r="AL63" t="n">
         <v>592</v>
       </c>
-      <c r="Y63" t="n">
+      <c r="AM63" t="n">
         <v>2558.38115268368</v>
       </c>
     </row>
@@ -3125,21 +4471,59 @@
         <v>41425.3922750742</v>
       </c>
       <c r="T64" t="n">
+        <v>163</v>
+      </c>
+      <c r="U64" t="n">
+        <v>4832</v>
+      </c>
+      <c r="V64" t="n">
+        <v>986</v>
+      </c>
+      <c r="W64" t="n">
+        <v>162</v>
+      </c>
+      <c r="X64" t="n">
+        <v>8631.393296840961</v>
+      </c>
+      <c r="Y64" t="n">
         <v>3484</v>
       </c>
-      <c r="U64" t="n">
+      <c r="Z64" t="inlineStr"/>
+      <c r="AA64" t="n">
+        <v>4087</v>
+      </c>
+      <c r="AB64" t="n">
         <v>1915</v>
       </c>
-      <c r="V64" t="n">
+      <c r="AC64" t="n">
+        <v>373545.4921028</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>119062.587928892</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>17108.7051015167</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>839020.542503981</v>
+      </c>
+      <c r="AG64" t="inlineStr"/>
+      <c r="AH64" t="n">
+        <v>521589.559912699</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>10042.0898445828</v>
+      </c>
+      <c r="AJ64" t="n">
         <v>1110</v>
       </c>
-      <c r="W64" t="n">
+      <c r="AK64" t="n">
         <v>459</v>
       </c>
-      <c r="X64" t="n">
+      <c r="AL64" t="n">
         <v>745</v>
       </c>
-      <c r="Y64" t="n">
+      <c r="AM64" t="n">
         <v>3234.80090455453</v>
       </c>
     </row>
@@ -3200,21 +4584,59 @@
         <v>51411.7642100118</v>
       </c>
       <c r="T65" t="n">
+        <v>169</v>
+      </c>
+      <c r="U65" t="n">
+        <v>5058</v>
+      </c>
+      <c r="V65" t="n">
+        <v>1123</v>
+      </c>
+      <c r="W65" t="n">
+        <v>173</v>
+      </c>
+      <c r="X65" t="n">
+        <v>9627.908790706681</v>
+      </c>
+      <c r="Y65" t="n">
         <v>4181</v>
       </c>
-      <c r="U65" t="n">
+      <c r="Z65" t="inlineStr"/>
+      <c r="AA65" t="n">
+        <v>4558</v>
+      </c>
+      <c r="AB65" t="n">
         <v>2269</v>
       </c>
-      <c r="V65" t="n">
+      <c r="AC65" t="n">
+        <v>386207.338851299</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>133445.675819411</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>17327.1782181807</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>877334.106155067</v>
+      </c>
+      <c r="AG65" t="inlineStr"/>
+      <c r="AH65" t="n">
+        <v>541830.323224737</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>10163.2672619367</v>
+      </c>
+      <c r="AJ65" t="n">
         <v>1429</v>
       </c>
-      <c r="W65" t="n">
+      <c r="AK65" t="n">
         <v>483</v>
       </c>
-      <c r="X65" t="n">
+      <c r="AL65" t="n">
         <v>686</v>
       </c>
-      <c r="Y65" t="n">
+      <c r="AM65" t="n">
         <v>3430.13461923565</v>
       </c>
     </row>
@@ -3275,21 +4697,59 @@
         <v>51208.8740721045</v>
       </c>
       <c r="T66" t="n">
+        <v>207</v>
+      </c>
+      <c r="U66" t="n">
+        <v>5344</v>
+      </c>
+      <c r="V66" t="n">
+        <v>1288</v>
+      </c>
+      <c r="W66" t="n">
+        <v>197</v>
+      </c>
+      <c r="X66" t="n">
+        <v>10518.5181606693</v>
+      </c>
+      <c r="Y66" t="n">
         <v>4552</v>
       </c>
-      <c r="U66" t="n">
+      <c r="Z66" t="inlineStr"/>
+      <c r="AA66" t="n">
+        <v>4999</v>
+      </c>
+      <c r="AB66" t="n">
         <v>2557</v>
       </c>
-      <c r="V66" t="n">
+      <c r="AC66" t="n">
+        <v>402315.32122504</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>145894.903153223</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>19157.8322647102</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>912577.368698356</v>
+      </c>
+      <c r="AG66" t="inlineStr"/>
+      <c r="AH66" t="n">
+        <v>560571.453353198</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>10659.7037781929</v>
+      </c>
+      <c r="AJ66" t="n">
         <v>1455</v>
       </c>
-      <c r="W66" t="n">
+      <c r="AK66" t="n">
         <v>540</v>
       </c>
-      <c r="X66" t="n">
+      <c r="AL66" t="n">
         <v>749</v>
       </c>
-      <c r="Y66" t="n">
+      <c r="AM66" t="n">
         <v>4109.09084269257</v>
       </c>
     </row>
@@ -3350,21 +4810,59 @@
         <v>53464.535017074</v>
       </c>
       <c r="T67" t="n">
+        <v>283</v>
+      </c>
+      <c r="U67" t="n">
+        <v>5900</v>
+      </c>
+      <c r="V67" t="n">
+        <v>1297</v>
+      </c>
+      <c r="W67" t="n">
+        <v>218</v>
+      </c>
+      <c r="X67" t="n">
+        <v>11626.2157369246</v>
+      </c>
+      <c r="Y67" t="n">
         <v>4683</v>
       </c>
-      <c r="U67" t="n">
+      <c r="Z67" t="inlineStr"/>
+      <c r="AA67" t="n">
+        <v>5462</v>
+      </c>
+      <c r="AB67" t="n">
         <v>2523</v>
       </c>
-      <c r="V67" t="n">
+      <c r="AC67" t="n">
+        <v>431199.221038708</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>138959.037887335</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>19594.7784980382</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>952166.519322151</v>
+      </c>
+      <c r="AG67" t="inlineStr"/>
+      <c r="AH67" t="n">
+        <v>585516.780195427</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>11977.0195732977</v>
+      </c>
+      <c r="AJ67" t="n">
         <v>1567</v>
       </c>
-      <c r="W67" t="n">
+      <c r="AK67" t="n">
         <v>593</v>
       </c>
-      <c r="X67" t="n">
+      <c r="AL67" t="n">
         <v>843</v>
       </c>
-      <c r="Y67" t="n">
+      <c r="AM67" t="n">
         <v>4785.62945596524</v>
       </c>
     </row>
@@ -3425,21 +4923,63 @@
         <v>69454.0680912689</v>
       </c>
       <c r="T68" t="n">
+        <v>298</v>
+      </c>
+      <c r="U68" t="n">
+        <v>6467</v>
+      </c>
+      <c r="V68" t="n">
+        <v>1429</v>
+      </c>
+      <c r="W68" t="n">
+        <v>223</v>
+      </c>
+      <c r="X68" t="n">
+        <v>12251.4327003389</v>
+      </c>
+      <c r="Y68" t="n">
         <v>5614</v>
       </c>
-      <c r="U68" t="n">
+      <c r="Z68" t="n">
+        <v>2632</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>677</v>
+      </c>
+      <c r="AB68" t="n">
         <v>2855</v>
       </c>
-      <c r="V68" t="n">
+      <c r="AC68" t="n">
+        <v>468758.497121498</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>147466.164855548</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>20333.0669612477</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>998813.995654445</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>283648.402839106</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>66866.5013225359</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>13231.7921852522</v>
+      </c>
+      <c r="AJ68" t="n">
         <v>2116</v>
       </c>
-      <c r="W68" t="n">
+      <c r="AK68" t="n">
         <v>643</v>
       </c>
-      <c r="X68" t="n">
+      <c r="AL68" t="n">
         <v>674</v>
       </c>
-      <c r="Y68" t="n">
+      <c r="AM68" t="n">
         <v>4998.84842645925</v>
       </c>
     </row>
@@ -3500,21 +5040,63 @@
         <v>79100.3006773619</v>
       </c>
       <c r="T69" t="n">
+        <v>372</v>
+      </c>
+      <c r="U69" t="n">
+        <v>7065</v>
+      </c>
+      <c r="V69" t="n">
+        <v>1434</v>
+      </c>
+      <c r="W69" t="n">
+        <v>258</v>
+      </c>
+      <c r="X69" t="n">
+        <v>13420.4646998743</v>
+      </c>
+      <c r="Y69" t="n">
         <v>6014</v>
       </c>
-      <c r="U69" t="n">
+      <c r="Z69" t="n">
+        <v>2778</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>832</v>
+      </c>
+      <c r="AB69" t="n">
         <v>2773</v>
       </c>
-      <c r="V69" t="n">
+      <c r="AC69" t="n">
+        <v>498260.780157117</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>133975.627991202</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>23482.0932635084</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>1043332.60634036</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>291849.246163041</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>73156.39136107751</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>15190.1756076485</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>2544</v>
       </c>
-      <c r="W69" t="n">
+      <c r="AK69" t="n">
         <v>697</v>
       </c>
-      <c r="X69" t="n">
+      <c r="AL69" t="n">
         <v>724</v>
       </c>
-      <c r="Y69" t="n">
+      <c r="AM69" t="n">
         <v>4714.3995280591</v>
       </c>
     </row>
@@ -3575,21 +5157,63 @@
         <v>78420.0219796727</v>
       </c>
       <c r="T70" t="n">
+        <v>507</v>
+      </c>
+      <c r="U70" t="n">
+        <v>7561</v>
+      </c>
+      <c r="V70" t="n">
+        <v>1625</v>
+      </c>
+      <c r="W70" t="n">
+        <v>292</v>
+      </c>
+      <c r="X70" t="n">
+        <v>14778.0527592108</v>
+      </c>
+      <c r="Y70" t="n">
         <v>6540</v>
       </c>
-      <c r="U70" t="n">
+      <c r="Z70" t="n">
+        <v>3000</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>1033</v>
+      </c>
+      <c r="AB70" t="n">
         <v>3047</v>
       </c>
-      <c r="V70" t="n">
+      <c r="AC70" t="n">
+        <v>516289.953123328</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>144788.511777029</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>25990.767327271</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>1096801.82401181</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>309382.83905776</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>82582.6570864127</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>17054.7442553192</v>
+      </c>
+      <c r="AJ70" t="n">
         <v>2701</v>
       </c>
-      <c r="W70" t="n">
+      <c r="AK70" t="n">
         <v>792</v>
       </c>
-      <c r="X70" t="n">
+      <c r="AL70" t="n">
         <v>860</v>
       </c>
-      <c r="Y70" t="n">
+      <c r="AM70" t="n">
         <v>4543.15707708818</v>
       </c>
     </row>
@@ -3650,21 +5274,63 @@
         <v>80287.8047198194</v>
       </c>
       <c r="T71" t="n">
+        <v>828</v>
+      </c>
+      <c r="U71" t="n">
+        <v>9833</v>
+      </c>
+      <c r="V71" t="n">
+        <v>1608</v>
+      </c>
+      <c r="W71" t="n">
+        <v>328</v>
+      </c>
+      <c r="X71" t="n">
+        <v>17055.8361453961</v>
+      </c>
+      <c r="Y71" t="n">
         <v>7144</v>
       </c>
-      <c r="U71" t="n">
+      <c r="Z71" t="n">
+        <v>3833</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>1191</v>
+      </c>
+      <c r="AB71" t="n">
         <v>2902</v>
       </c>
-      <c r="V71" t="n">
+      <c r="AC71" t="n">
+        <v>557763.655038276</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>129587.252112517</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>29117.1929622907</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>1143559.53772777</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>328260.114206802</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>85839.0034278922</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>19368.8420318831</v>
+      </c>
+      <c r="AJ71" t="n">
         <v>3473</v>
       </c>
-      <c r="W71" t="n">
+      <c r="AK71" t="n">
         <v>769</v>
       </c>
-      <c r="X71" t="n">
+      <c r="AL71" t="n">
         <v>1288</v>
       </c>
-      <c r="Y71" t="n">
+      <c r="AM71" t="n">
         <v>7906.78004941635</v>
       </c>
     </row>
@@ -3725,21 +5391,63 @@
         <v>93299.6266523747</v>
       </c>
       <c r="T72" t="n">
+        <v>831</v>
+      </c>
+      <c r="U72" t="n">
+        <v>12322</v>
+      </c>
+      <c r="V72" t="n">
+        <v>1891</v>
+      </c>
+      <c r="W72" t="n">
+        <v>375</v>
+      </c>
+      <c r="X72" t="n">
+        <v>19915.7603932693</v>
+      </c>
+      <c r="Y72" t="n">
         <v>8654</v>
       </c>
-      <c r="U72" t="n">
+      <c r="Z72" t="n">
+        <v>4660</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>1376</v>
+      </c>
+      <c r="AB72" t="n">
         <v>3186</v>
       </c>
-      <c r="V72" t="n">
+      <c r="AC72" t="n">
+        <v>595617.113430538</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>140846.411411431</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>32522.3601599505</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>1198182.55089265</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>344245.551460672</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>90295.0563162324</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>21088.7795685187</v>
+      </c>
+      <c r="AJ72" t="n">
         <v>4474</v>
       </c>
-      <c r="W72" t="n">
+      <c r="AK72" t="n">
         <v>994</v>
       </c>
-      <c r="X72" t="n">
+      <c r="AL72" t="n">
         <v>1361</v>
       </c>
-      <c r="Y72" t="n">
+      <c r="AM72" t="n">
         <v>9089.80217307641</v>
       </c>
     </row>
@@ -3800,21 +5508,63 @@
         <v>87448.6331165478</v>
       </c>
       <c r="T73" t="n">
+        <v>927</v>
+      </c>
+      <c r="U73" t="n">
+        <v>14165</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2378</v>
+      </c>
+      <c r="W73" t="n">
+        <v>468</v>
+      </c>
+      <c r="X73" t="n">
+        <v>22145.4855832165</v>
+      </c>
+      <c r="Y73" t="n">
         <v>9446</v>
       </c>
-      <c r="U73" t="n">
+      <c r="Z73" t="n">
+        <v>5313</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>1556</v>
+      </c>
+      <c r="AB73" t="n">
         <v>3917</v>
       </c>
-      <c r="V73" t="n">
+      <c r="AC73" t="n">
+        <v>629946.387829738</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>167009.313366132</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>34624.2222133732</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>1247406.38493479</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>356740.335901682</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>97947.470218709</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>21139.5959048284</v>
+      </c>
+      <c r="AJ73" t="n">
         <v>4456</v>
       </c>
-      <c r="W73" t="n">
+      <c r="AK73" t="n">
         <v>1073</v>
       </c>
-      <c r="X73" t="n">
+      <c r="AL73" t="n">
         <v>1659</v>
       </c>
-      <c r="Y73" t="n">
+      <c r="AM73" t="n">
         <v>9853.496443275561</v>
       </c>
     </row>
@@ -3875,21 +5625,63 @@
         <v>90318.9318322365</v>
       </c>
       <c r="T74" t="n">
+        <v>1639</v>
+      </c>
+      <c r="U74" t="n">
+        <v>18115</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2925</v>
+      </c>
+      <c r="W74" t="n">
+        <v>565</v>
+      </c>
+      <c r="X74" t="n">
+        <v>26918.7199087288</v>
+      </c>
+      <c r="Y74" t="n">
         <v>11645</v>
       </c>
-      <c r="U74" t="n">
+      <c r="Z74" t="n">
+        <v>6723</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>1950</v>
+      </c>
+      <c r="AB74" t="n">
         <v>4833</v>
       </c>
-      <c r="V74" t="n">
+      <c r="AC74" t="n">
+        <v>722775.915769652</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>181401.698663174</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>37125.3627213888</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>1322946.46082604</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>379962.67051443</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>107905.034557654</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>22155.9226310221</v>
+      </c>
+      <c r="AJ74" t="n">
         <v>5509</v>
       </c>
-      <c r="W74" t="n">
+      <c r="AK74" t="n">
         <v>1303</v>
       </c>
-      <c r="X74" t="n">
+      <c r="AL74" t="n">
         <v>3215</v>
       </c>
-      <c r="Y74" t="n">
+      <c r="AM74" t="n">
         <v>15925.459387691</v>
       </c>
     </row>
@@ -3950,21 +5742,63 @@
         <v>113901.926685462</v>
       </c>
       <c r="T75" t="n">
+        <v>2084</v>
+      </c>
+      <c r="U75" t="n">
+        <v>24034</v>
+      </c>
+      <c r="V75" t="n">
+        <v>4858</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1291</v>
+      </c>
+      <c r="X75" t="n">
+        <v>36074.2313684108</v>
+      </c>
+      <c r="Y75" t="n">
         <v>18586</v>
       </c>
-      <c r="U75" t="n">
+      <c r="Z75" t="n">
+        <v>9835</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>2758</v>
+      </c>
+      <c r="AB75" t="n">
         <v>8231</v>
       </c>
-      <c r="V75" t="n">
+      <c r="AC75" t="n">
+        <v>751497.71512708</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>204663.809782812</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>60200.6439745574</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>1385726.81181886</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>401958.164808014</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>112361.087445994</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>21671.2129616067</v>
+      </c>
+      <c r="AJ75" t="n">
         <v>8538</v>
       </c>
-      <c r="W75" t="n">
+      <c r="AK75" t="n">
         <v>1817</v>
       </c>
-      <c r="X75" t="n">
+      <c r="AL75" t="n">
         <v>6621</v>
       </c>
-      <c r="Y75" t="n">
+      <c r="AM75" t="n">
         <v>21797.3785428736</v>
       </c>
     </row>
@@ -4025,21 +5859,63 @@
         <v>136160.168285294</v>
       </c>
       <c r="T76" t="n">
+        <v>1368</v>
+      </c>
+      <c r="U76" t="n">
+        <v>27713</v>
+      </c>
+      <c r="V76" t="n">
+        <v>7233</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1468</v>
+      </c>
+      <c r="X76" t="n">
+        <v>41842.1969816089</v>
+      </c>
+      <c r="Y76" t="n">
         <v>26598</v>
       </c>
-      <c r="U76" t="n">
+      <c r="Z76" t="n">
+        <v>11125</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>3549</v>
+      </c>
+      <c r="AB76" t="n">
         <v>12735</v>
       </c>
-      <c r="V76" t="n">
+      <c r="AC76" t="n">
+        <v>772306.610731771</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>295108.980435027</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>62053.8986883281</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>1455780.13338318</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>415227.02706945</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>130348.116316429</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>22421.7311594112</v>
+      </c>
+      <c r="AJ76" t="n">
         <v>12125</v>
       </c>
-      <c r="W76" t="n">
+      <c r="AK76" t="n">
         <v>1738</v>
       </c>
-      <c r="X76" t="n">
+      <c r="AL76" t="n">
         <v>6708</v>
       </c>
-      <c r="Y76" t="n">
+      <c r="AM76" t="n">
         <v>20887.4780699195</v>
       </c>
     </row>
@@ -4100,21 +5976,63 @@
         <v>132069.545063663</v>
       </c>
       <c r="T77" t="n">
+        <v>1547</v>
+      </c>
+      <c r="U77" t="n">
+        <v>32330</v>
+      </c>
+      <c r="V77" t="n">
+        <v>10410</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1701</v>
+      </c>
+      <c r="X77" t="n">
+        <v>49091.7131170814</v>
+      </c>
+      <c r="Y77" t="n">
         <v>33499</v>
       </c>
-      <c r="U77" t="n">
+      <c r="Z77" t="n">
+        <v>13277</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>4267</v>
+      </c>
+      <c r="AB77" t="n">
         <v>19133</v>
       </c>
-      <c r="V77" t="n">
+      <c r="AC77" t="n">
+        <v>817052.340374521</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>393298.890720597</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>69512.1188778927</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>1543550.29914598</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>441341.199577369</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>146449.892041797</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>23008.0735014459</v>
+      </c>
+      <c r="AJ77" t="n">
         <v>12490</v>
       </c>
-      <c r="W77" t="n">
+      <c r="AK77" t="n">
         <v>1876</v>
       </c>
-      <c r="X77" t="n">
+      <c r="AL77" t="n">
         <v>8300</v>
       </c>
-      <c r="Y77" t="n">
+      <c r="AM77" t="n">
         <v>22540.8174703969</v>
       </c>
     </row>
@@ -4175,21 +6093,63 @@
         <v>128844.188606635</v>
       </c>
       <c r="T78" t="n">
+        <v>2094</v>
+      </c>
+      <c r="U78" t="n">
+        <v>36993</v>
+      </c>
+      <c r="V78" t="n">
+        <v>12521</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1970</v>
+      </c>
+      <c r="X78" t="n">
+        <v>55858.5638261646</v>
+      </c>
+      <c r="Y78" t="n">
         <v>36619</v>
       </c>
-      <c r="U78" t="n">
+      <c r="Z78" t="n">
+        <v>15724</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>4884</v>
+      </c>
+      <c r="AB78" t="n">
         <v>21916</v>
       </c>
-      <c r="V78" t="n">
+      <c r="AC78" t="n">
+        <v>869014.542180234</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>431102.145641641</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>72615.9438456713</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>1613004.42745808</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>471763.91844426</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>157744.272247244</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>27612.8153608927</v>
+      </c>
+      <c r="AJ78" t="n">
         <v>12615</v>
       </c>
-      <c r="W78" t="n">
+      <c r="AK78" t="n">
         <v>2088</v>
       </c>
-      <c r="X78" t="n">
+      <c r="AL78" t="n">
         <v>7929</v>
       </c>
-      <c r="Y78" t="n">
+      <c r="AM78" t="n">
         <v>28292.7259343006</v>
       </c>
     </row>
@@ -4250,21 +6210,63 @@
         <v>148166.490563808</v>
       </c>
       <c r="T79" t="n">
+        <v>2485</v>
+      </c>
+      <c r="U79" t="n">
+        <v>43538</v>
+      </c>
+      <c r="V79" t="n">
+        <v>13367</v>
+      </c>
+      <c r="W79" t="n">
+        <v>2290</v>
+      </c>
+      <c r="X79" t="n">
+        <v>65072.6183457897</v>
+      </c>
+      <c r="Y79" t="n">
         <v>42436</v>
       </c>
-      <c r="U79" t="n">
+      <c r="Z79" t="n">
+        <v>18658</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>5733</v>
+      </c>
+      <c r="AB79" t="n">
         <v>24655</v>
       </c>
-      <c r="V79" t="n">
+      <c r="AC79" t="n">
+        <v>926506.170659902</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>443179.476714547</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>76119.0472680425</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>1703682.47990263</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>506984.459273593</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>166116.510077836</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>28605.6883934049</v>
+      </c>
+      <c r="AJ79" t="n">
         <v>15391</v>
       </c>
-      <c r="W79" t="n">
+      <c r="AK79" t="n">
         <v>2390</v>
       </c>
-      <c r="X79" t="n">
+      <c r="AL79" t="n">
         <v>9043</v>
       </c>
-      <c r="Y79" t="n">
+      <c r="AM79" t="n">
         <v>31655.5282104816</v>
       </c>
     </row>
@@ -4325,21 +6327,63 @@
         <v>165513.597354883</v>
       </c>
       <c r="T80" t="n">
+        <v>4182</v>
+      </c>
+      <c r="U80" t="n">
+        <v>51019</v>
+      </c>
+      <c r="V80" t="n">
+        <v>17894</v>
+      </c>
+      <c r="W80" t="n">
+        <v>2934</v>
+      </c>
+      <c r="X80" t="n">
+        <v>79260.52327989371</v>
+      </c>
+      <c r="Y80" t="n">
         <v>51174</v>
       </c>
-      <c r="U80" t="n">
+      <c r="Z80" t="n">
+        <v>23658</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>7261</v>
+      </c>
+      <c r="AB80" t="n">
         <v>28086</v>
       </c>
-      <c r="V80" t="n">
+      <c r="AC80" t="n">
+        <v>969877.048284915</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>503947.325746503</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>85837.3341817177</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>1794625.9748335</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>546221.441624</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>184651.976226836</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>32241.0109140207</v>
+      </c>
+      <c r="AJ80" t="n">
         <v>20239</v>
       </c>
-      <c r="W80" t="n">
+      <c r="AK80" t="n">
         <v>2849</v>
       </c>
-      <c r="X80" t="n">
+      <c r="AL80" t="n">
         <v>11381</v>
       </c>
-      <c r="Y80" t="n">
+      <c r="AM80" t="n">
         <v>40054.0011768364</v>
       </c>
     </row>
@@ -4400,21 +6444,63 @@
         <v>179250.453162607</v>
       </c>
       <c r="T81" t="n">
+        <v>5460</v>
+      </c>
+      <c r="U81" t="n">
+        <v>62654</v>
+      </c>
+      <c r="V81" t="n">
+        <v>22625</v>
+      </c>
+      <c r="W81" t="n">
+        <v>3806</v>
+      </c>
+      <c r="X81" t="n">
+        <v>97602.9564284787</v>
+      </c>
+      <c r="Y81" t="n">
         <v>66350</v>
       </c>
-      <c r="U81" t="n">
+      <c r="Z81" t="n">
+        <v>29681</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>9457</v>
+      </c>
+      <c r="AB81" t="n">
         <v>37275</v>
       </c>
-      <c r="V81" t="n">
+      <c r="AC81" t="n">
+        <v>1010378.14746242</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>532276.52342098</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>93333.2221500177</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>1902562.30185021</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>579353.432862377</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>205689.687459289</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>35680.8859872917</v>
+      </c>
+      <c r="AJ81" t="n">
         <v>24085</v>
       </c>
-      <c r="W81" t="n">
+      <c r="AK81" t="n">
         <v>4990</v>
       </c>
-      <c r="X81" t="n">
+      <c r="AL81" t="n">
         <v>4548</v>
       </c>
-      <c r="Y81" t="n">
+      <c r="AM81" t="n">
         <v>52262.6427824321</v>
       </c>
     </row>
@@ -4475,21 +6561,63 @@
         <v>199023.290573074</v>
       </c>
       <c r="T82" t="n">
+        <v>5173</v>
+      </c>
+      <c r="U82" t="n">
+        <v>71829</v>
+      </c>
+      <c r="V82" t="n">
+        <v>28362</v>
+      </c>
+      <c r="W82" t="n">
+        <v>4945</v>
+      </c>
+      <c r="X82" t="n">
+        <v>112227.72160852</v>
+      </c>
+      <c r="Y82" t="n">
         <v>78147</v>
       </c>
-      <c r="U82" t="n">
+      <c r="Z82" t="n">
+        <v>33299</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>9253</v>
+      </c>
+      <c r="AB82" t="n">
         <v>45978</v>
       </c>
-      <c r="V82" t="n">
+      <c r="AC82" t="n">
+        <v>1030052.33987344</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>589650.819072172</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>107014.159386633</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>1941549.96397406</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>580638.694149122</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>177985.035559281</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>36548.6726535032</v>
+      </c>
+      <c r="AJ82" t="n">
         <v>26809</v>
       </c>
-      <c r="W82" t="n">
+      <c r="AK82" t="n">
         <v>5360</v>
       </c>
-      <c r="X82" t="n">
+      <c r="AL82" t="n">
         <v>-813</v>
       </c>
-      <c r="Y82" t="n">
+      <c r="AM82" t="n">
         <v>59324.7389118518</v>
       </c>
     </row>
@@ -4550,21 +6678,63 @@
         <v>220174.58744991</v>
       </c>
       <c r="T83" t="n">
+        <v>4882</v>
+      </c>
+      <c r="U83" t="n">
+        <v>79608</v>
+      </c>
+      <c r="V83" t="n">
+        <v>32087</v>
+      </c>
+      <c r="W83" t="n">
+        <v>6577</v>
+      </c>
+      <c r="X83" t="n">
+        <v>132916.375497022</v>
+      </c>
+      <c r="Y83" t="n">
         <v>87325</v>
       </c>
-      <c r="U83" t="n">
+      <c r="Z83" t="n">
+        <v>39683</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>10762</v>
+      </c>
+      <c r="AB83" t="n">
         <v>50355</v>
       </c>
-      <c r="V83" t="n">
+      <c r="AC83" t="n">
+        <v>1046538.55664507</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>596056.73216627</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>130835.262658758</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>2067208.74923609</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>630493.687357056</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>187788.35191363</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>35825.5170983269</v>
+      </c>
+      <c r="AJ83" t="n">
         <v>31367</v>
       </c>
-      <c r="W83" t="n">
+      <c r="AK83" t="n">
         <v>5603</v>
       </c>
-      <c r="X83" t="n">
+      <c r="AL83" t="n">
         <v>1089</v>
       </c>
-      <c r="Y83" t="n">
+      <c r="AM83" t="n">
         <v>57381.3502617613</v>
       </c>
     </row>
@@ -4625,21 +6795,63 @@
         <v>212163.41068107</v>
       </c>
       <c r="T84" t="n">
+        <v>6182</v>
+      </c>
+      <c r="U84" t="n">
+        <v>89472</v>
+      </c>
+      <c r="V84" t="n">
+        <v>40192</v>
+      </c>
+      <c r="W84" t="n">
+        <v>8955</v>
+      </c>
+      <c r="X84" t="n">
+        <v>156848.057877018</v>
+      </c>
+      <c r="Y84" t="n">
         <v>110168</v>
       </c>
-      <c r="U84" t="n">
+      <c r="Z84" t="n">
+        <v>46743</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>13484</v>
+      </c>
+      <c r="AB84" t="n">
         <v>66699</v>
       </c>
-      <c r="V84" t="n">
+      <c r="AC84" t="n">
+        <v>1043182.47682885</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>652715.12751522</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>118902.110355455</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>2170523.96948946</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>655329.901199179</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>213864.830642897</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>36134.3240651319</v>
+      </c>
+      <c r="AJ84" t="n">
         <v>37661</v>
       </c>
-      <c r="W84" t="n">
+      <c r="AK84" t="n">
         <v>5808</v>
       </c>
-      <c r="X84" t="n">
+      <c r="AL84" t="n">
         <v>-940</v>
       </c>
-      <c r="Y84" t="n">
+      <c r="AM84" t="n">
         <v>70843.4416636016</v>
       </c>
     </row>
@@ -4700,21 +6912,63 @@
         <v>134393.8306141</v>
       </c>
       <c r="T85" t="n">
+        <v>8142</v>
+      </c>
+      <c r="U85" t="n">
+        <v>129171</v>
+      </c>
+      <c r="V85" t="n">
+        <v>48727</v>
+      </c>
+      <c r="W85" t="n">
+        <v>12779</v>
+      </c>
+      <c r="X85" t="n">
+        <v>217719.66006772</v>
+      </c>
+      <c r="Y85" t="n">
         <v>121003</v>
       </c>
-      <c r="U85" t="n">
+      <c r="Z85" t="n">
+        <v>70822</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>16335</v>
+      </c>
+      <c r="AB85" t="n">
         <v>75364</v>
       </c>
-      <c r="V85" t="n">
+      <c r="AC85" t="n">
+        <v>937751.1393464539</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>520905.795243794</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>126993.149227771</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>2038610.02371446</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>610769.308178113</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>172329.27612408</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>35020.2736152658</v>
+      </c>
+      <c r="AJ85" t="n">
         <v>37897</v>
       </c>
-      <c r="W85" t="n">
+      <c r="AK85" t="n">
         <v>7742</v>
       </c>
-      <c r="X85" t="n">
+      <c r="AL85" t="n">
         <v>-14284</v>
       </c>
-      <c r="Y85" t="n">
+      <c r="AM85" t="n">
         <v>116017.130178733</v>
       </c>
     </row>
@@ -4775,21 +7029,63 @@
         <v>99240.1305431603</v>
       </c>
       <c r="T86" t="n">
+        <v>11893</v>
+      </c>
+      <c r="U86" t="n">
+        <v>143851</v>
+      </c>
+      <c r="V86" t="n">
+        <v>29037</v>
+      </c>
+      <c r="W86" t="n">
+        <v>15767</v>
+      </c>
+      <c r="X86" t="n">
+        <v>257409.140178224</v>
+      </c>
+      <c r="Y86" t="n">
         <v>94168</v>
       </c>
-      <c r="U86" t="n">
+      <c r="Z86" t="n">
+        <v>82835</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>17123</v>
+      </c>
+      <c r="AB86" t="n">
         <v>51242</v>
       </c>
-      <c r="V86" t="n">
+      <c r="AC86" t="n">
+        <v>863641.212241919</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>269968.793197817</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>118781.573463502</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>1999830.09970121</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>604912.6061782941</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>146732.680013557</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>46489.1298254666</v>
+      </c>
+      <c r="AJ86" t="n">
         <v>33261</v>
       </c>
-      <c r="W86" t="n">
+      <c r="AK86" t="n">
         <v>9665</v>
       </c>
-      <c r="X86" t="n">
+      <c r="AL86" t="n">
         <v>-12121</v>
       </c>
-      <c r="Y86" t="n">
+      <c r="AM86" t="n">
         <v>127091.125514441</v>
       </c>
     </row>
@@ -4850,21 +7146,63 @@
         <v>112863.606567936</v>
       </c>
       <c r="T87" t="n">
+        <v>14144</v>
+      </c>
+      <c r="U87" t="n">
+        <v>149958</v>
+      </c>
+      <c r="V87" t="n">
+        <v>29784</v>
+      </c>
+      <c r="W87" t="n">
+        <v>16642</v>
+      </c>
+      <c r="X87" t="n">
+        <v>281753.059705732</v>
+      </c>
+      <c r="Y87" t="n">
         <v>97710</v>
       </c>
-      <c r="U87" t="n">
+      <c r="Z87" t="n">
+        <v>87825</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>18658</v>
+      </c>
+      <c r="AB87" t="n">
         <v>49469</v>
       </c>
-      <c r="V87" t="n">
+      <c r="AC87" t="n">
+        <v>879262.893246942</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>265413.064001724</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>134481.503640323</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>2084687.44189373</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>634721.904885601</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>158678.329487299</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>48130.8883831641</v>
+      </c>
+      <c r="AJ87" t="n">
         <v>39091</v>
       </c>
-      <c r="W87" t="n">
+      <c r="AK87" t="n">
         <v>9150</v>
       </c>
-      <c r="X87" t="n">
+      <c r="AL87" t="n">
         <v>-4933</v>
       </c>
-      <c r="Y87" t="n">
+      <c r="AM87" t="n">
         <v>147634.970620656</v>
       </c>
     </row>
@@ -4925,21 +7263,63 @@
         <v>119717.116079306</v>
       </c>
       <c r="T88" t="n">
+        <v>14354</v>
+      </c>
+      <c r="U88" t="n">
+        <v>169627</v>
+      </c>
+      <c r="V88" t="n">
+        <v>37104</v>
+      </c>
+      <c r="W88" t="n">
+        <v>14009</v>
+      </c>
+      <c r="X88" t="n">
+        <v>316752.357418726</v>
+      </c>
+      <c r="Y88" t="n">
         <v>112663</v>
       </c>
-      <c r="U88" t="n">
+      <c r="Z88" t="n">
+        <v>96518</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>22446</v>
+      </c>
+      <c r="AB88" t="n">
         <v>59333</v>
       </c>
-      <c r="V88" t="n">
+      <c r="AC88" t="n">
+        <v>928199.219869516</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>295118.27784155</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>119113.049916372</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>2191696.63577004</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>657513.384862453</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>183940.721631197</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>43905.3145715666</v>
+      </c>
+      <c r="AJ88" t="n">
         <v>42112</v>
       </c>
-      <c r="W88" t="n">
+      <c r="AK88" t="n">
         <v>11218</v>
       </c>
-      <c r="X88" t="n">
+      <c r="AL88" t="n">
         <v>6813</v>
       </c>
-      <c r="Y88" t="n">
+      <c r="AM88" t="n">
         <v>165406.319113573</v>
       </c>
     </row>
@@ -5000,21 +7380,63 @@
         <v>148094.882279841</v>
       </c>
       <c r="T89" t="n">
+        <v>15275</v>
+      </c>
+      <c r="U89" t="n">
+        <v>204784</v>
+      </c>
+      <c r="V89" t="n">
+        <v>42814</v>
+      </c>
+      <c r="W89" t="n">
+        <v>18084</v>
+      </c>
+      <c r="X89" t="n">
+        <v>373060.401330865</v>
+      </c>
+      <c r="Y89" t="n">
         <v>142226</v>
       </c>
-      <c r="U89" t="n">
+      <c r="Z89" t="n">
+        <v>114085</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>27125</v>
+      </c>
+      <c r="AB89" t="n">
         <v>72226</v>
       </c>
-      <c r="V89" t="n">
+      <c r="AC89" t="n">
+        <v>1016525.95735833</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>308999.305779847</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>134074.691629983</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>2342877.75362143</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>695063.46177401</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>204335.732927831</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>45750.3384745029</v>
+      </c>
+      <c r="AJ89" t="n">
         <v>56951</v>
       </c>
-      <c r="W89" t="n">
+      <c r="AK89" t="n">
         <v>13049</v>
       </c>
-      <c r="X89" t="n">
+      <c r="AL89" t="n">
         <v>6967</v>
       </c>
-      <c r="Y89" t="n">
+      <c r="AM89" t="n">
         <v>208938.51861907</v>
       </c>
     </row>
@@ -5075,21 +7497,63 @@
         <v>196206.69807036</v>
       </c>
       <c r="T90" t="n">
+        <v>15446</v>
+      </c>
+      <c r="U90" t="n">
+        <v>230163</v>
+      </c>
+      <c r="V90" t="n">
+        <v>57281</v>
+      </c>
+      <c r="W90" t="n">
+        <v>20074</v>
+      </c>
+      <c r="X90" t="n">
+        <v>437604.482196748</v>
+      </c>
+      <c r="Y90" t="n">
         <v>192665</v>
       </c>
-      <c r="U90" t="n">
+      <c r="Z90" t="n">
+        <v>133224</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>34334</v>
+      </c>
+      <c r="AB90" t="n">
         <v>98421</v>
       </c>
-      <c r="V90" t="n">
+      <c r="AC90" t="n">
+        <v>1075578.55319438</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>370761.977309725</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>141299.37159139</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>2501724.88930174</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>750190.94730597</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>233608.572671235</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>44519.0195562296</v>
+      </c>
+      <c r="AJ90" t="n">
         <v>79030</v>
       </c>
-      <c r="W90" t="n">
+      <c r="AK90" t="n">
         <v>15214</v>
       </c>
-      <c r="X90" t="n">
+      <c r="AL90" t="n">
         <v>7235</v>
       </c>
-      <c r="Y90" t="n">
+      <c r="AM90" t="n">
         <v>238907.792678478</v>
       </c>
     </row>
@@ -5150,21 +7614,63 @@
         <v>229671.636111071</v>
       </c>
       <c r="T91" t="n">
+        <v>16659</v>
+      </c>
+      <c r="U91" t="n">
+        <v>267485</v>
+      </c>
+      <c r="V91" t="n">
+        <v>64903</v>
+      </c>
+      <c r="W91" t="n">
+        <v>22300</v>
+      </c>
+      <c r="X91" t="n">
+        <v>523955.99518913</v>
+      </c>
+      <c r="Y91" t="n">
         <v>248954</v>
       </c>
-      <c r="U91" t="n">
+      <c r="Z91" t="n">
+        <v>154592</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>42531</v>
+      </c>
+      <c r="AB91" t="n">
         <v>129624</v>
       </c>
-      <c r="V91" t="n">
+      <c r="AC91" t="n">
+        <v>1104234.31162519</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>389170.842224547</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>140681.620020133</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>2616762.94878578</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>784505.963137826</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>256805.755688037</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>43354.1527700539</v>
+      </c>
+      <c r="AJ91" t="n">
         <v>101968</v>
       </c>
-      <c r="W91" t="n">
+      <c r="AK91" t="n">
         <v>17362</v>
       </c>
-      <c r="X91" t="n">
+      <c r="AL91" t="n">
         <v>11211</v>
       </c>
-      <c r="Y91" t="n">
+      <c r="AM91" t="n">
         <v>273296.182296285</v>
       </c>
     </row>
@@ -5225,21 +7731,63 @@
         <v>208624.767981687</v>
       </c>
       <c r="T92" t="n">
+        <v>17504</v>
+      </c>
+      <c r="U92" t="n">
+        <v>315938</v>
+      </c>
+      <c r="V92" t="n">
+        <v>61962</v>
+      </c>
+      <c r="W92" t="n">
+        <v>29100</v>
+      </c>
+      <c r="X92" t="n">
+        <v>626106.068968397</v>
+      </c>
+      <c r="Y92" t="n">
         <v>250147</v>
       </c>
-      <c r="U92" t="n">
+      <c r="Z92" t="n">
+        <v>180486</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>48572</v>
+      </c>
+      <c r="AB92" t="n">
         <v>119858</v>
       </c>
-      <c r="V92" t="n">
+      <c r="AC92" t="n">
+        <v>1099347.28305559</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>328058.989151253</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>147296.08196603</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>2624349.97718467</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>788697.667561637</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>249487.545752187</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>42099.3801580993</v>
+      </c>
+      <c r="AJ92" t="n">
         <v>109521</v>
       </c>
-      <c r="W92" t="n">
+      <c r="AK92" t="n">
         <v>20768</v>
       </c>
-      <c r="X92" t="n">
+      <c r="AL92" t="n">
         <v>2180</v>
       </c>
-      <c r="Y92" t="n">
+      <c r="AM92" t="n">
         <v>342386.782882469</v>
       </c>
     </row>
@@ -5300,21 +7848,63 @@
         <v>227040.031675273</v>
       </c>
       <c r="T93" t="n">
+        <v>16263</v>
+      </c>
+      <c r="U93" t="n">
+        <v>326839</v>
+      </c>
+      <c r="V93" t="n">
+        <v>67968</v>
+      </c>
+      <c r="W93" t="n">
+        <v>32743</v>
+      </c>
+      <c r="X93" t="n">
+        <v>684974.564758683</v>
+      </c>
+      <c r="Y93" t="n">
         <v>282783</v>
       </c>
-      <c r="U93" t="n">
+      <c r="Z93" t="n">
+        <v>193573</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>53166</v>
+      </c>
+      <c r="AB93" t="n">
         <v>132356</v>
       </c>
-      <c r="V93" t="n">
+      <c r="AC93" t="n">
+        <v>1080351.51107255</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>337133.257917348</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>148267.910657397</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>2651295.21062253</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>801681.727606124</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>250370.186997376</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>44933.3681446008</v>
+      </c>
+      <c r="AJ93" t="n">
         <v>126430</v>
       </c>
-      <c r="W93" t="n">
+      <c r="AK93" t="n">
         <v>23997</v>
       </c>
-      <c r="X93" t="n">
+      <c r="AL93" t="n">
         <v>5618</v>
       </c>
-      <c r="Y93" t="n">
+      <c r="AM93" t="n">
         <v>367634.395107384</v>
       </c>
     </row>
@@ -5375,21 +7965,63 @@
         <v>245532.871009824</v>
       </c>
       <c r="T94" t="n">
+        <v>16621</v>
+      </c>
+      <c r="U94" t="n">
+        <v>349595</v>
+      </c>
+      <c r="V94" t="n">
+        <v>79267</v>
+      </c>
+      <c r="W94" t="n">
+        <v>36417</v>
+      </c>
+      <c r="X94" t="n">
+        <v>753610.7551409299</v>
+      </c>
+      <c r="Y94" t="n">
         <v>350543</v>
       </c>
-      <c r="U94" t="n">
+      <c r="Z94" t="n">
+        <v>207563</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>58557</v>
+      </c>
+      <c r="AB94" t="n">
         <v>148860</v>
       </c>
-      <c r="V94" t="n">
+      <c r="AC94" t="n">
+        <v>1088408.50411972</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>356499.755704</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>152592.171656196</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>2717758.1696512</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>821391.501543169</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>256300.165071861</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>45230.4482645653</v>
+      </c>
+      <c r="AJ94" t="n">
         <v>176889</v>
       </c>
-      <c r="W94" t="n">
+      <c r="AK94" t="n">
         <v>24794</v>
       </c>
-      <c r="X94" t="n">
+      <c r="AL94" t="n">
         <v>3052</v>
       </c>
-      <c r="Y94" t="n">
+      <c r="AM94" t="n">
         <v>430653.257312365</v>
       </c>
     </row>
@@ -5450,21 +8082,63 @@
         <v>273478.003828057</v>
       </c>
       <c r="T95" t="n">
+        <v>16509</v>
+      </c>
+      <c r="U95" t="n">
+        <v>393810</v>
+      </c>
+      <c r="V95" t="n">
+        <v>95495</v>
+      </c>
+      <c r="W95" t="n">
+        <v>44895</v>
+      </c>
+      <c r="X95" t="n">
+        <v>861508.464449655</v>
+      </c>
+      <c r="Y95" t="n">
         <v>400139</v>
       </c>
-      <c r="U95" t="n">
+      <c r="Z95" t="n">
+        <v>230799</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>67368</v>
+      </c>
+      <c r="AB95" t="n">
         <v>165202</v>
       </c>
-      <c r="V95" t="n">
+      <c r="AC95" t="n">
+        <v>1142952.30578406</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>388389.860076645</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>173731.329082376</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>2830637.07567294</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>853844.349033438</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>270328.162337655</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>42072.017515471</v>
+      </c>
+      <c r="AJ95" t="n">
         <v>207562</v>
       </c>
-      <c r="W95" t="n">
+      <c r="AK95" t="n">
         <v>27375</v>
       </c>
-      <c r="X95" t="n">
+      <c r="AL95" t="n">
         <v>7228</v>
       </c>
-      <c r="Y95" t="n">
+      <c r="AM95" t="n">
         <v>534024.984486788</v>
       </c>
     </row>
@@ -5525,21 +8199,63 @@
         <v>279573.659000773</v>
       </c>
       <c r="T96" t="n">
+        <v>16801</v>
+      </c>
+      <c r="U96" t="n">
+        <v>438247</v>
+      </c>
+      <c r="V96" t="n">
+        <v>106639</v>
+      </c>
+      <c r="W96" t="n">
+        <v>49410</v>
+      </c>
+      <c r="X96" t="n">
+        <v>988392.23506807</v>
+      </c>
+      <c r="Y96" t="n">
         <v>423197</v>
       </c>
-      <c r="U96" t="n">
+      <c r="Z96" t="n">
+        <v>261862</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>78232</v>
+      </c>
+      <c r="AB96" t="n">
         <v>183740</v>
       </c>
-      <c r="V96" t="n">
+      <c r="AC96" t="n">
+        <v>1220382.29038121</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>413660.211005173</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>196324.462767735</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>2965482.27905292</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>901362.503538202</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>290089.043030949</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>39226.3026821288</v>
+      </c>
+      <c r="AJ96" t="n">
         <v>209772</v>
       </c>
-      <c r="W96" t="n">
+      <c r="AK96" t="n">
         <v>29685</v>
       </c>
-      <c r="X96" t="n">
+      <c r="AL96" t="n">
         <v>4699</v>
       </c>
-      <c r="Y96" t="n">
+      <c r="AM96" t="n">
         <v>648147.380030825</v>
       </c>
     </row>
@@ -5600,21 +8316,63 @@
         <v>306286.532599068</v>
       </c>
       <c r="T97" t="n">
+        <v>17175</v>
+      </c>
+      <c r="U97" t="n">
+        <v>495389</v>
+      </c>
+      <c r="V97" t="n">
+        <v>127592</v>
+      </c>
+      <c r="W97" t="n">
+        <v>56725</v>
+      </c>
+      <c r="X97" t="n">
+        <v>1149397.54684348</v>
+      </c>
+      <c r="Y97" t="n">
         <v>508745</v>
       </c>
-      <c r="U97" t="n">
+      <c r="Z97" t="n">
+        <v>295092</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>96424</v>
+      </c>
+      <c r="AB97" t="n">
         <v>230508</v>
       </c>
-      <c r="V97" t="n">
+      <c r="AC97" t="n">
+        <v>1288476.48944307</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>458724.740420396</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>210999.829362959</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3150666.69332245</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>951144.470536662</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>330030.701708936</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>39738.3749941725</v>
+      </c>
+      <c r="AJ97" t="n">
         <v>245170</v>
       </c>
-      <c r="W97" t="n">
+      <c r="AK97" t="n">
         <v>33067</v>
       </c>
-      <c r="X97" t="n">
+      <c r="AL97" t="n">
         <v>12860</v>
       </c>
-      <c r="Y97" t="n">
+      <c r="AM97" t="n">
         <v>822631.684696695</v>
       </c>
     </row>
@@ -5675,21 +8433,63 @@
         <v>334365.93094974</v>
       </c>
       <c r="T98" t="n">
+        <v>17311</v>
+      </c>
+      <c r="U98" t="n">
+        <v>540305</v>
+      </c>
+      <c r="V98" t="n">
+        <v>156116</v>
+      </c>
+      <c r="W98" t="n">
+        <v>66054</v>
+      </c>
+      <c r="X98" t="n">
+        <v>1328175.70521267</v>
+      </c>
+      <c r="Y98" t="n">
         <v>592575</v>
       </c>
-      <c r="U98" t="n">
+      <c r="Z98" t="n">
+        <v>317170</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>114459</v>
+      </c>
+      <c r="AB98" t="n">
         <v>270446</v>
       </c>
-      <c r="V98" t="n">
+      <c r="AC98" t="n">
+        <v>1342864.19437178</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>532945.936690609</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>221162.596065708</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>3317791.981217</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>988234.482328533</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>372843.086766911</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>40410.7142130392</v>
+      </c>
+      <c r="AJ98" t="n">
         <v>284894</v>
       </c>
-      <c r="W98" t="n">
+      <c r="AK98" t="n">
         <v>37235</v>
       </c>
-      <c r="X98" t="n">
+      <c r="AL98" t="n">
         <v>8669</v>
       </c>
-      <c r="Y98" t="n">
+      <c r="AM98" t="n">
         <v>1116790.06542072</v>
       </c>
     </row>
@@ -5750,21 +8550,63 @@
         <v>274012.082279314</v>
       </c>
       <c r="T99" t="n">
+        <v>25037.900002</v>
+      </c>
+      <c r="U99" t="n">
+        <v>692597.0692849</v>
+      </c>
+      <c r="V99" t="n">
+        <v>187763.244134032</v>
+      </c>
+      <c r="W99" t="n">
+        <v>110062.602191407</v>
+      </c>
+      <c r="X99" t="n">
+        <v>1534386.99753943</v>
+      </c>
+      <c r="Y99" t="n">
         <v>691829.390242838</v>
       </c>
-      <c r="U99" t="n">
+      <c r="Z99" t="n">
+        <v>432604.300007872</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>160739.7</v>
+      </c>
+      <c r="AB99" t="n">
         <v>338705.966598078</v>
       </c>
-      <c r="V99" t="n">
+      <c r="AC99" t="n">
+        <v>1327728.81473547</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>481521.981213902</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>228379.742471369</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3412728.03937759</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>1012442.67076918</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>389433.314443502</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>41528.6736118522</v>
+      </c>
+      <c r="AJ99" t="n">
         <v>255853.668360367</v>
       </c>
-      <c r="W99" t="n">
+      <c r="AK99" t="n">
         <v>82433.8827313841</v>
       </c>
-      <c r="X99" t="n">
+      <c r="AL99" t="n">
         <v>-1285.77782026745</v>
       </c>
-      <c r="Y99" t="n">
+      <c r="AM99" t="n">
         <v>1321780.84381122</v>
       </c>
     </row>
@@ -5825,21 +8667,63 @@
         <v>264485.434024742</v>
       </c>
       <c r="T100" t="n">
+        <v>21121.999999</v>
+      </c>
+      <c r="U100" t="n">
+        <v>761325.534915009</v>
+      </c>
+      <c r="V100" t="n">
+        <v>172770.997651189</v>
+      </c>
+      <c r="W100" t="n">
+        <v>117179.377321611</v>
+      </c>
+      <c r="X100" t="n">
+        <v>1715803.68299493</v>
+      </c>
+      <c r="Y100" t="n">
         <v>672576.148229704</v>
       </c>
-      <c r="U100" t="n">
+      <c r="Z100" t="n">
+        <v>505836.913706441</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>176770.000001</v>
+      </c>
+      <c r="AB100" t="n">
         <v>306348.975141733</v>
       </c>
-      <c r="V100" t="n">
+      <c r="AC100" t="n">
+        <v>1350270.9322274</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>407973.658639319</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>231648.415654091</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>3568568.59657837</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1101079.42180755</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>404113.279442702</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>41722.1168806183</v>
+      </c>
+      <c r="AJ100" t="n">
         <v>260337.604349875</v>
       </c>
-      <c r="W100" t="n">
+      <c r="AK100" t="n">
         <v>88898.9304687804</v>
       </c>
-      <c r="X100" t="n">
+      <c r="AL100" t="n">
         <v>-57534.1722159</v>
       </c>
-      <c r="Y100" t="n">
+      <c r="AM100" t="n">
         <v>1475762.88854291</v>
       </c>
     </row>
@@ -5902,21 +8786,63 @@
         <v>270526.745035</v>
       </c>
       <c r="T101" t="n">
+        <v>22911.231876</v>
+      </c>
+      <c r="U101" t="n">
+        <v>934726.133614</v>
+      </c>
+      <c r="V101" t="n">
+        <v>201093.671164</v>
+      </c>
+      <c r="W101" t="n">
+        <v>134499.775668</v>
+      </c>
+      <c r="X101" t="n">
+        <v>1888845.562007</v>
+      </c>
+      <c r="Y101" t="n">
         <v>716186.3384679999</v>
       </c>
-      <c r="U101" t="n">
+      <c r="Z101" t="n">
+        <v>576736.167147</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>191405.284373</v>
+      </c>
+      <c r="AB101" t="n">
         <v>350830.480388</v>
       </c>
-      <c r="V101" t="n">
+      <c r="AC101" t="n">
+        <v>1572788.923968</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>376339.275264</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>227751.85595</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3688046.244643</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1260149.625534</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>341019.568119</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>56451.853377</v>
+      </c>
+      <c r="AJ101" t="n">
         <v>255303.920393</v>
       </c>
-      <c r="W101" t="n">
+      <c r="AK101" t="n">
         <v>88771.814464</v>
       </c>
-      <c r="X101" t="n">
+      <c r="AL101" t="n">
         <v>-136845.78202</v>
       </c>
-      <c r="Y101" t="n">
+      <c r="AM101" t="n">
         <v>1602676.867576</v>
       </c>
     </row>
@@ -5979,21 +8905,63 @@
         <v>253357.911283</v>
       </c>
       <c r="T102" t="n">
+        <v>22780.019605</v>
+      </c>
+      <c r="U102" t="n">
+        <v>1018637.584729</v>
+      </c>
+      <c r="V102" t="n">
+        <v>203001.995523</v>
+      </c>
+      <c r="W102" t="n">
+        <v>159999.65874</v>
+      </c>
+      <c r="X102" t="n">
+        <v>2084621.564958</v>
+      </c>
+      <c r="Y102" t="n">
         <v>736938.2143699999</v>
       </c>
-      <c r="U102" t="n">
+      <c r="Z102" t="n">
+        <v>632063.932441</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>215507.959979</v>
+      </c>
+      <c r="AB102" t="n">
         <v>354460.901464</v>
       </c>
-      <c r="V102" t="n">
+      <c r="AC102" t="n">
+        <v>1615140.919635</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>357417.658473</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>236233.398069</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3830053.470401</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1318538.621664</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>357883.579068</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>54420.802195</v>
+      </c>
+      <c r="AJ102" t="n">
         <v>264045.567667</v>
       </c>
-      <c r="W102" t="n">
+      <c r="AK102" t="n">
         <v>95654.97926199999</v>
       </c>
-      <c r="X102" t="n">
+      <c r="AL102" t="n">
         <v>24650.493728</v>
       </c>
-      <c r="Y102" t="n">
+      <c r="AM102" t="n">
         <v>1656261.566494</v>
       </c>
     </row>
@@ -6056,21 +9024,63 @@
         <v>275222.335764</v>
       </c>
       <c r="T103" t="n">
+        <v>41337.14902</v>
+      </c>
+      <c r="U103" t="n">
+        <v>1093530.978492</v>
+      </c>
+      <c r="V103" t="n">
+        <v>213036.689517</v>
+      </c>
+      <c r="W103" t="n">
+        <v>165369.324877</v>
+      </c>
+      <c r="X103" t="n">
+        <v>2252204.366197</v>
+      </c>
+      <c r="Y103" t="n">
         <v>798060.776782</v>
       </c>
-      <c r="U103" t="n">
+      <c r="Z103" t="n">
+        <v>676253.595141</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>234807.872541</v>
+      </c>
+      <c r="AB103" t="n">
         <v>381017.651059</v>
       </c>
-      <c r="V103" t="n">
+      <c r="AC103" t="n">
+        <v>1675907.434909</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>349269.639616</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>240080.703711</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>3974520.6392</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>1361602.148853</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>379993.595611</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>81125.018138</v>
+      </c>
+      <c r="AJ103" t="n">
         <v>287914.396148</v>
       </c>
-      <c r="W103" t="n">
+      <c r="AK103" t="n">
         <v>105008.70382</v>
       </c>
-      <c r="X103" t="n">
+      <c r="AL103" t="n">
         <v>91133.745601</v>
       </c>
-      <c r="Y103" t="n">
+      <c r="AM103" t="n">
         <v>1740471.018196</v>
       </c>
     </row>
@@ -6133,21 +9143,63 @@
         <v>304829.938417</v>
       </c>
       <c r="T104" t="n">
+        <v>52385.898133</v>
+      </c>
+      <c r="U104" t="n">
+        <v>1171756.198192</v>
+      </c>
+      <c r="V104" t="n">
+        <v>230223.10266</v>
+      </c>
+      <c r="W104" t="n">
+        <v>175192.618953</v>
+      </c>
+      <c r="X104" t="n">
+        <v>2467814.53797</v>
+      </c>
+      <c r="Y104" t="n">
         <v>878846.5613159999</v>
       </c>
-      <c r="U104" t="n">
+      <c r="Z104" t="n">
+        <v>734068.933398</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>260031.210879</v>
+      </c>
+      <c r="AB104" t="n">
         <v>420487.542704</v>
       </c>
-      <c r="V104" t="n">
+      <c r="AC104" t="n">
+        <v>1744160.752699</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>366883.203818</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>260147.633819</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>4185435.787886</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1425297.745875</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>407907.103621</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>91679.01016400001</v>
+      </c>
+      <c r="AJ104" t="n">
         <v>318358.58109</v>
       </c>
-      <c r="W104" t="n">
+      <c r="AK104" t="n">
         <v>114717.573187</v>
       </c>
-      <c r="X104" t="n">
+      <c r="AL104" t="n">
         <v>40200.557147</v>
       </c>
-      <c r="Y104" t="n">
+      <c r="AM104" t="n">
         <v>1995869.938964</v>
       </c>
     </row>
@@ -6210,21 +9262,63 @@
         <v>316995.832931</v>
       </c>
       <c r="T105" t="n">
+        <v>55474.59763</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1278375.758348</v>
+      </c>
+      <c r="V105" t="n">
+        <v>260353.732517</v>
+      </c>
+      <c r="W105" t="n">
+        <v>195623.083156</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2789560.753298</v>
+      </c>
+      <c r="Y105" t="n">
         <v>987296.7703410001</v>
       </c>
-      <c r="U105" t="n">
+      <c r="Z105" t="n">
+        <v>828676.023462</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>298287.059877</v>
+      </c>
+      <c r="AB105" t="n">
         <v>480412.745791</v>
       </c>
-      <c r="V105" t="n">
+      <c r="AC105" t="n">
+        <v>1816029.50843</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>388234.323164</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>280209.77736</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>4532562.356355</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1525888.24471</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>444300.139126</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>86932.72563</v>
+      </c>
+      <c r="AJ105" t="n">
         <v>345041.9438</v>
       </c>
-      <c r="W105" t="n">
+      <c r="AK105" t="n">
         <v>131825.649793</v>
       </c>
-      <c r="X105" t="n">
+      <c r="AL105" t="n">
         <v>115195.365414</v>
       </c>
-      <c r="Y105" t="n">
+      <c r="AM105" t="n">
         <v>2226820.934722</v>
       </c>
     </row>
@@ -6287,21 +9381,63 @@
         <v>351331.824657</v>
       </c>
       <c r="T106" t="n">
+        <v>71457.669511</v>
+      </c>
+      <c r="U106" t="n">
+        <v>1436118.566189</v>
+      </c>
+      <c r="V106" t="n">
+        <v>272703.940326</v>
+      </c>
+      <c r="W106" t="n">
+        <v>220570.507389</v>
+      </c>
+      <c r="X106" t="n">
+        <v>3116560.201351</v>
+      </c>
+      <c r="Y106" t="n">
         <v>1075851.758366</v>
       </c>
-      <c r="U106" t="n">
+      <c r="Z106" t="n">
+        <v>939417.755372</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>352560.086177</v>
+      </c>
+      <c r="AB106" t="n">
         <v>510452.460919</v>
       </c>
-      <c r="V106" t="n">
+      <c r="AC106" t="n">
+        <v>1933017.106558</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>384829.689002</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>284094.657353</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>4771970.633589</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1603593.75607</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>489868.289405</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>99343.29672300001</v>
+      </c>
+      <c r="AJ106" t="n">
         <v>380864.917224</v>
       </c>
-      <c r="W106" t="n">
+      <c r="AK106" t="n">
         <v>154759.733613</v>
       </c>
-      <c r="X106" t="n">
+      <c r="AL106" t="n">
         <v>20573.011675</v>
       </c>
-      <c r="Y106" t="n">
+      <c r="AM106" t="n">
         <v>2439697.813315</v>
       </c>
     </row>
@@ -6364,21 +9500,63 @@
         <v>360898.391049</v>
       </c>
       <c r="T107" t="n">
+        <v>79480.281076</v>
+      </c>
+      <c r="U107" t="n">
+        <v>1560911.038038</v>
+      </c>
+      <c r="V107" t="n">
+        <v>313044.998283</v>
+      </c>
+      <c r="W107" t="n">
+        <v>238502.59849</v>
+      </c>
+      <c r="X107" t="n">
+        <v>3483260.64902</v>
+      </c>
+      <c r="Y107" t="n">
         <v>1226166.884126</v>
       </c>
-      <c r="U107" t="n">
+      <c r="Z107" t="n">
+        <v>1062061.311918</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>418982.312224</v>
+      </c>
+      <c r="AB107" t="n">
         <v>593121.380231</v>
       </c>
-      <c r="V107" t="n">
+      <c r="AC107" t="n">
+        <v>1987874.270046</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>425237.235382</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>293444.126259</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>5078027.475269</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>1697235.157787</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>555549.363764</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>95543.001261</v>
+      </c>
+      <c r="AJ107" t="n">
         <v>416486.228957</v>
       </c>
-      <c r="W107" t="n">
+      <c r="AK107" t="n">
         <v>186539.408157</v>
       </c>
-      <c r="X107" t="n">
+      <c r="AL107" t="n">
         <v>-178148.843794</v>
       </c>
-      <c r="Y107" t="n">
+      <c r="AM107" t="n">
         <v>2701749.62893</v>
       </c>
     </row>
@@ -6441,21 +9619,63 @@
         <v>385389.759365</v>
       </c>
       <c r="T108" t="n">
+        <v>98210.17276099999</v>
+      </c>
+      <c r="U108" t="n">
+        <v>1666459.310668</v>
+      </c>
+      <c r="V108" t="n">
+        <v>355518.02438</v>
+      </c>
+      <c r="W108" t="n">
+        <v>255295.277219</v>
+      </c>
+      <c r="X108" t="n">
+        <v>3843332.363747</v>
+      </c>
+      <c r="Y108" t="n">
         <v>1358595.762714</v>
       </c>
-      <c r="U108" t="n">
+      <c r="Z108" t="n">
+        <v>1186383.928467</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>468983.429956</v>
+      </c>
+      <c r="AB108" t="n">
         <v>694538.699255</v>
       </c>
-      <c r="V108" t="n">
+      <c r="AC108" t="n">
+        <v>2045234.773836</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>475688.990369</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>310704.894215</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>5468817.760841</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1837413.908058</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>618666.652598</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>109046.021426</v>
+      </c>
+      <c r="AJ108" t="n">
         <v>430000.675393</v>
       </c>
-      <c r="W108" t="n">
+      <c r="AK108" t="n">
         <v>202481.939951</v>
       </c>
-      <c r="X108" t="n">
+      <c r="AL108" t="n">
         <v>-198481.639057</v>
       </c>
-      <c r="Y108" t="n">
+      <c r="AM108" t="n">
         <v>2736354.224655</v>
       </c>
     </row>
@@ -6518,21 +9738,63 @@
         <v>419542.508327</v>
       </c>
       <c r="T109" t="n">
+        <v>98567.926359</v>
+      </c>
+      <c r="U109" t="n">
+        <v>1873174.429787</v>
+      </c>
+      <c r="V109" t="n">
+        <v>399226.709329</v>
+      </c>
+      <c r="W109" t="n">
+        <v>266702.38551</v>
+      </c>
+      <c r="X109" t="n">
+        <v>4243956.029336</v>
+      </c>
+      <c r="Y109" t="n">
         <v>1536293.593047</v>
       </c>
-      <c r="U109" t="n">
+      <c r="Z109" t="n">
+        <v>1319541.681482</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>518049.264185</v>
+      </c>
+      <c r="AB109" t="n">
         <v>827381.614615</v>
       </c>
-      <c r="V109" t="n">
+      <c r="AC109" t="n">
+        <v>2151220.257407</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>512019.079662</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>331050.232317</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>5686952.129157</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1861552.755658</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>637228.441953</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>107284.083082</v>
+      </c>
+      <c r="AJ109" t="n">
         <v>464821.924534</v>
       </c>
-      <c r="W109" t="n">
+      <c r="AK109" t="n">
         <v>213695.130917</v>
       </c>
-      <c r="X109" t="n">
+      <c r="AL109" t="n">
         <v>-10934.733317</v>
       </c>
-      <c r="Y109" t="n">
+      <c r="AM109" t="n">
         <v>2685291.9968</v>
       </c>
     </row>
@@ -6595,21 +9857,63 @@
         <v>407959.513403</v>
       </c>
       <c r="T110" t="n">
+        <v>110675.717028</v>
+      </c>
+      <c r="U110" t="n">
+        <v>1823961.366237</v>
+      </c>
+      <c r="V110" t="n">
+        <v>434452.880787</v>
+      </c>
+      <c r="W110" t="n">
+        <v>275784.220661</v>
+      </c>
+      <c r="X110" t="n">
+        <v>4525562.093778</v>
+      </c>
+      <c r="Y110" t="n">
         <v>1561912.01242</v>
       </c>
-      <c r="U110" t="n">
+      <c r="Z110" t="n">
+        <v>1366111.972022</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>560948.3451180001</v>
+      </c>
+      <c r="AB110" t="n">
         <v>888982.869571</v>
       </c>
-      <c r="V110" t="n">
+      <c r="AC110" t="n">
+        <v>2058618.808786</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>548966.951853</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>327945.492261</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>5881773.901588</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1877191.394168</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>680187.415916</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>122121.038635</v>
+      </c>
+      <c r="AJ110" t="n">
         <v>425176.76744</v>
       </c>
-      <c r="W110" t="n">
+      <c r="AK110" t="n">
         <v>214150.158935</v>
       </c>
-      <c r="X110" t="n">
+      <c r="AL110" t="n">
         <v>-100523.573392</v>
       </c>
-      <c r="Y110" t="n">
+      <c r="AM110" t="n">
         <v>2535545.559863</v>
       </c>
     </row>
@@ -6672,21 +9976,63 @@
         <v>541148.52357</v>
       </c>
       <c r="T111" t="n">
+        <v>135401.746672</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2060284.571935</v>
+      </c>
+      <c r="V111" t="n">
+        <v>517921.716662</v>
+      </c>
+      <c r="W111" t="n">
+        <v>326132.61062</v>
+      </c>
+      <c r="X111" t="n">
+        <v>5067392.311779</v>
+      </c>
+      <c r="Y111" t="n">
         <v>1917688.743234</v>
       </c>
-      <c r="U111" t="n">
+      <c r="Z111" t="n">
+        <v>1571247.768297</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>636283.087879</v>
+      </c>
+      <c r="AB111" t="n">
         <v>1088491.816165</v>
       </c>
-      <c r="V111" t="n">
+      <c r="AC111" t="n">
+        <v>2214485.801508</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>649156.774066</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>360981.600827</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>6326036.939285</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>2030313.758574</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>757900.749597</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>133399.111183</v>
+      </c>
+      <c r="AJ111" t="n">
         <v>567566.954073</v>
       </c>
-      <c r="W111" t="n">
+      <c r="AK111" t="n">
         <v>225503.290319</v>
       </c>
-      <c r="X111" t="n">
+      <c r="AL111" t="n">
         <v>1856.549183</v>
       </c>
-      <c r="Y111" t="n">
+      <c r="AM111" t="n">
         <v>3090053.431327</v>
       </c>
     </row>
@@ -6749,21 +10095,63 @@
         <v>566280.6773400001</v>
       </c>
       <c r="T112" t="n">
+        <v>151487.405068</v>
+      </c>
+      <c r="U112" t="n">
+        <v>2201830.4626</v>
+      </c>
+      <c r="V112" t="n">
+        <v>490550.922538</v>
+      </c>
+      <c r="W112" t="n">
+        <v>335334.442373</v>
+      </c>
+      <c r="X112" t="n">
+        <v>5535493.501562</v>
+      </c>
+      <c r="Y112" t="n">
         <v>1924101.257312</v>
       </c>
-      <c r="U112" t="n">
+      <c r="Z112" t="n">
+        <v>1704663.450075</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>692889.382198</v>
+      </c>
+      <c r="AB112" t="n">
         <v>1062692.651013</v>
       </c>
-      <c r="V112" t="n">
+      <c r="AC112" t="n">
+        <v>2297191.779168</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>615619.526011</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>365609.843692</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>6652995.990549</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>2093913.327682</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>806878.3604</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>133388.051836</v>
+      </c>
+      <c r="AJ112" t="n">
         <v>581077.498858</v>
       </c>
-      <c r="W112" t="n">
+      <c r="AK112" t="n">
         <v>240891.353344</v>
       </c>
-      <c r="X112" t="n">
+      <c r="AL112" t="n">
         <v>178559.06557</v>
       </c>
-      <c r="Y112" t="n">
+      <c r="AM112" t="n">
         <v>2952647.187364</v>
       </c>
     </row>
@@ -6826,21 +10214,63 @@
         <v>599950.799134</v>
       </c>
       <c r="T113" t="n">
+        <v>131766.526766</v>
+      </c>
+      <c r="U113" t="n">
+        <v>2359065.564875</v>
+      </c>
+      <c r="V113" t="n">
+        <v>602389.8362960001</v>
+      </c>
+      <c r="W113" t="n">
+        <v>379746.927868</v>
+      </c>
+      <c r="X113" t="n">
+        <v>6139146.607226</v>
+      </c>
+      <c r="Y113" t="n">
         <v>2204382.537859</v>
       </c>
-      <c r="U113" t="n">
+      <c r="Z113" t="n">
+        <v>1878583.229632</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>769803.681312</v>
+      </c>
+      <c r="AB113" t="n">
         <v>1297704.709371</v>
       </c>
-      <c r="V113" t="n">
+      <c r="AC113" t="n">
+        <v>2427619.431025</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>730639.597316</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>387840.160893</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>7144044.921843</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>2245452.864049</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>883974.155032</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>128010.571564</v>
+      </c>
+      <c r="AJ113" t="n">
         <v>615144.652383</v>
       </c>
-      <c r="W113" t="n">
+      <c r="AK113" t="n">
         <v>245086.689609</v>
       </c>
-      <c r="X113" t="n">
+      <c r="AL113" t="n">
         <v>-42228.645394</v>
       </c>
-      <c r="Y113" t="n">
+      <c r="AM113" t="n">
         <v>3038020.103159</v>
       </c>
     </row>
@@ -6903,21 +10333,63 @@
         <v>687636.105337</v>
       </c>
       <c r="T114" t="n">
+        <v>126453.489293</v>
+      </c>
+      <c r="U114" t="n">
+        <v>2462478.070267</v>
+      </c>
+      <c r="V114" t="n">
+        <v>718309.529091</v>
+      </c>
+      <c r="W114" t="n">
+        <v>401382.416262</v>
+      </c>
+      <c r="X114" t="n">
+        <v>6838846.913572</v>
+      </c>
+      <c r="Y114" t="n">
         <v>2504476.267709</v>
       </c>
-      <c r="U114" t="n">
+      <c r="Z114" t="n">
+        <v>2078127.39872</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>892657.838974</v>
+      </c>
+      <c r="AB114" t="n">
         <v>1492103.634338</v>
       </c>
-      <c r="V114" t="n">
+      <c r="AC114" t="n">
+        <v>2538760.398175</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>845198.337914</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>409649.528624</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>7684933.195282</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>2381082.16762</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>1006838.764597</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>130910.481915</v>
+      </c>
+      <c r="AJ114" t="n">
         <v>713708.803832</v>
       </c>
-      <c r="W114" t="n">
+      <c r="AK114" t="n">
         <v>248611.853283</v>
       </c>
-      <c r="X114" t="n">
+      <c r="AL114" t="n">
         <v>-18218.399854</v>
       </c>
-      <c r="Y114" t="n">
+      <c r="AM114" t="n">
         <v>3154534.053166</v>
       </c>
     </row>
@@ -6980,21 +10452,63 @@
         <v>727528.75674</v>
       </c>
       <c r="T115" t="n">
+        <v>143880.453629</v>
+      </c>
+      <c r="U115" t="n">
+        <v>2717316.005286</v>
+      </c>
+      <c r="V115" t="n">
+        <v>813122.948371</v>
+      </c>
+      <c r="W115" t="n">
+        <v>426063.26107</v>
+      </c>
+      <c r="X115" t="n">
+        <v>7485745.668073</v>
+      </c>
+      <c r="Y115" t="n">
         <v>2755231.402731</v>
       </c>
-      <c r="U115" t="n">
+      <c r="Z115" t="n">
+        <v>2252323.696536</v>
+      </c>
+      <c r="AA115" t="n">
+        <v>1005738.644225</v>
+      </c>
+      <c r="AB115" t="n">
         <v>1681421.737679</v>
       </c>
-      <c r="V115" t="n">
+      <c r="AC115" t="n">
+        <v>2732859.621118</v>
+      </c>
+      <c r="AD115" t="n">
+        <v>908065.069533</v>
+      </c>
+      <c r="AE115" t="n">
+        <v>428436.570842</v>
+      </c>
+      <c r="AF115" t="n">
+        <v>8201168.559007</v>
+      </c>
+      <c r="AG115" t="n">
+        <v>2506535.193324</v>
+      </c>
+      <c r="AH115" t="n">
+        <v>1092038.20034</v>
+      </c>
+      <c r="AI115" t="n">
+        <v>149510.569676</v>
+      </c>
+      <c r="AJ115" t="n">
         <v>780330.664261</v>
       </c>
-      <c r="W115" t="n">
+      <c r="AK115" t="n">
         <v>233515.309858</v>
       </c>
-      <c r="X115" t="n">
+      <c r="AL115" t="n">
         <v>6863.551006</v>
       </c>
-      <c r="Y115" t="n">
+      <c r="AM115" t="n">
         <v>3612662.387647</v>
       </c>
     </row>
@@ -7057,21 +10571,63 @@
         <v>883983.41546</v>
       </c>
       <c r="T116" t="n">
+        <v>119626.469493</v>
+      </c>
+      <c r="U116" t="n">
+        <v>2778794.816104</v>
+      </c>
+      <c r="V116" t="n">
+        <v>908750.80026</v>
+      </c>
+      <c r="W116" t="n">
+        <v>443279.152464</v>
+      </c>
+      <c r="X116" t="n">
+        <v>8160337.053527</v>
+      </c>
+      <c r="Y116" t="n">
         <v>3100015.356274</v>
       </c>
-      <c r="U116" t="n">
+      <c r="Z116" t="n">
+        <v>2427159.611945</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>1087980.507633</v>
+      </c>
+      <c r="AB116" t="n">
         <v>1891221.596751</v>
       </c>
-      <c r="V116" t="n">
+      <c r="AC116" t="n">
+        <v>2874284.387831</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>1011750.883648</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>458765.980367</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>8809173.735735999</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>2670293.978079</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>1171993.684796</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>148588.707145</v>
+      </c>
+      <c r="AJ116" t="n">
         <v>894029.744085</v>
       </c>
-      <c r="W116" t="n">
+      <c r="AK116" t="n">
         <v>248904.025416</v>
       </c>
-      <c r="X116" t="n">
+      <c r="AL116" t="n">
         <v>-125424.624524</v>
       </c>
-      <c r="Y116" t="n">
+      <c r="AM116" t="n">
         <v>3793934.339868</v>
       </c>
     </row>
@@ -7134,21 +10690,63 @@
         <v>1220272.037326</v>
       </c>
       <c r="T117" t="n">
+        <v>125897.525951</v>
+      </c>
+      <c r="U117" t="n">
+        <v>2964479.411301</v>
+      </c>
+      <c r="V117" t="n">
+        <v>1026381.841669</v>
+      </c>
+      <c r="W117" t="n">
+        <v>466221.738563</v>
+      </c>
+      <c r="X117" t="n">
+        <v>9005122.427606</v>
+      </c>
+      <c r="Y117" t="n">
         <v>3782584.487048</v>
       </c>
-      <c r="U117" t="n">
+      <c r="Z117" t="n">
+        <v>2668595.57114</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>1193651.481523</v>
+      </c>
+      <c r="AB117" t="n">
         <v>2214527.28802</v>
       </c>
-      <c r="V117" t="n">
+      <c r="AC117" t="n">
+        <v>3070939.377446</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>1133124.059135</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>500471.779842</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>9529249.159802999</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>2861060.496261</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1275687.044813</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>156806.535862</v>
+      </c>
+      <c r="AJ117" t="n">
         <v>1204858.109605</v>
       </c>
-      <c r="W117" t="n">
+      <c r="AK117" t="n">
         <v>281928.369233</v>
       </c>
-      <c r="X117" t="n">
+      <c r="AL117" t="n">
         <v>-58265.75757</v>
       </c>
-      <c r="Y117" t="n">
+      <c r="AM117" t="n">
         <v>4036260.615459</v>
       </c>
     </row>
@@ -7211,21 +10809,63 @@
         <v>1388078.584121</v>
       </c>
       <c r="T118" t="n">
+        <v>148093.882525</v>
+      </c>
+      <c r="U118" t="n">
+        <v>3228580.414857</v>
+      </c>
+      <c r="V118" t="n">
+        <v>1106154.397106</v>
+      </c>
+      <c r="W118" t="n">
+        <v>505119.167941</v>
+      </c>
+      <c r="X118" t="n">
+        <v>9882747.035254</v>
+      </c>
+      <c r="Y118" t="n">
         <v>4245610.147898</v>
       </c>
-      <c r="U118" t="n">
+      <c r="Z118" t="n">
+        <v>2926501.504771</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>1326582.520502</v>
+      </c>
+      <c r="AB118" t="n">
         <v>2421829.516435</v>
       </c>
-      <c r="V118" t="n">
+      <c r="AC118" t="n">
+        <v>3317641.432608</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>1201714.033207</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>523160.631105</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>10230262.208914</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>3057552.347338</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>1382520.584516</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>160065.486217</v>
+      </c>
+      <c r="AJ118" t="n">
         <v>1393962.824097</v>
       </c>
-      <c r="W118" t="n">
+      <c r="AK118" t="n">
         <v>326781.657199</v>
       </c>
-      <c r="X118" t="n">
+      <c r="AL118" t="n">
         <v>-15471.546119</v>
       </c>
-      <c r="Y118" t="n">
+      <c r="AM118" t="n">
         <v>4892869.683927</v>
       </c>
     </row>
@@ -7288,21 +10928,63 @@
         <v>1527020.103857</v>
       </c>
       <c r="T119" t="n">
+        <v>163322.488586</v>
+      </c>
+      <c r="U119" t="n">
+        <v>3488331.181025</v>
+      </c>
+      <c r="V119" t="n">
+        <v>1373841.417788</v>
+      </c>
+      <c r="W119" t="n">
+        <v>557030.201917</v>
+      </c>
+      <c r="X119" t="n">
+        <v>10920048.472266</v>
+      </c>
+      <c r="Y119" t="n">
         <v>4983346.471415</v>
       </c>
-      <c r="U119" t="n">
+      <c r="Z119" t="n">
+        <v>3237304.499115</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>1498146.707611</v>
+      </c>
+      <c r="AB119" t="n">
         <v>2939785.849495</v>
       </c>
-      <c r="V119" t="n">
+      <c r="AC119" t="n">
+        <v>3488331.181025</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>1373841.417788</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>557030.201917</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>10920048.472266</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>3237304.499115</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1498146.707611</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>163322.488586</v>
+      </c>
+      <c r="AJ119" t="n">
         <v>1527020.103857</v>
       </c>
-      <c r="W119" t="n">
+      <c r="AK119" t="n">
         <v>397760.164699</v>
       </c>
-      <c r="X119" t="n">
+      <c r="AL119" t="n">
         <v>-26943.784996</v>
       </c>
-      <c r="Y119" t="n">
+      <c r="AM119" t="n">
         <v>5518572.505292</v>
       </c>
     </row>
@@ -7365,21 +11047,63 @@
         <v>1424524.97497</v>
       </c>
       <c r="T120" t="n">
+        <v>161656.373074</v>
+      </c>
+      <c r="U120" t="n">
+        <v>3614016.234103</v>
+      </c>
+      <c r="V120" t="n">
+        <v>1535727.401128</v>
+      </c>
+      <c r="W120" t="n">
+        <v>607881.483</v>
+      </c>
+      <c r="X120" t="n">
+        <v>11877042.960118</v>
+      </c>
+      <c r="Y120" t="n">
         <v>5300100.183172</v>
       </c>
-      <c r="U120" t="n">
+      <c r="Z120" t="n">
+        <v>3517653.082856</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>1681870.098086</v>
+      </c>
+      <c r="AB120" t="n">
         <v>3290529.09461</v>
       </c>
-      <c r="V120" t="n">
+      <c r="AC120" t="n">
+        <v>3620455.937586</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>1507243.747752</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>591311.995951</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>11711026.767278</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>3489299.398624</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1676448.101505</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>168857.015598</v>
+      </c>
+      <c r="AJ120" t="n">
         <v>1451964.55455</v>
       </c>
-      <c r="W120" t="n">
+      <c r="AK120" t="n">
         <v>418118.77176</v>
       </c>
-      <c r="X120" t="n">
+      <c r="AL120" t="n">
         <v>-148526.29995</v>
       </c>
-      <c r="Y120" t="n">
+      <c r="AM120" t="n">
         <v>5539739.492234</v>
       </c>
     </row>
@@ -7442,21 +11166,63 @@
         <v>1001577.58086</v>
       </c>
       <c r="T121" t="n">
+        <v>137060.315324</v>
+      </c>
+      <c r="U121" t="n">
+        <v>3169921.002857</v>
+      </c>
+      <c r="V121" t="n">
+        <v>1180199.434098</v>
+      </c>
+      <c r="W121" t="n">
+        <v>611051.346824</v>
+      </c>
+      <c r="X121" t="n">
+        <v>11024917.867682</v>
+      </c>
+      <c r="Y121" t="n">
         <v>3824091.246522</v>
       </c>
-      <c r="U121" t="n">
+      <c r="Z121" t="n">
+        <v>3317370.680859</v>
+      </c>
+      <c r="AA121" t="n">
+        <v>1823978.721646</v>
+      </c>
+      <c r="AB121" t="n">
         <v>2331973.079895</v>
       </c>
-      <c r="V121" t="n">
+      <c r="AC121" t="n">
+        <v>3266301.602731</v>
+      </c>
+      <c r="AD121" t="n">
+        <v>1122308.049266</v>
+      </c>
+      <c r="AE121" t="n">
+        <v>589213.035861</v>
+      </c>
+      <c r="AF121" t="n">
+        <v>10642137.00229</v>
+      </c>
+      <c r="AG121" t="n">
+        <v>3275536.813015</v>
+      </c>
+      <c r="AH121" t="n">
+        <v>1769952.497323</v>
+      </c>
+      <c r="AI121" t="n">
+        <v>137493.025133</v>
+      </c>
+      <c r="AJ121" t="n">
         <v>943928.0143170001</v>
       </c>
-      <c r="W121" t="n">
+      <c r="AK121" t="n">
         <v>421946.176072</v>
       </c>
-      <c r="X121" t="n">
+      <c r="AL121" t="n">
         <v>-695464.3206419999</v>
       </c>
-      <c r="Y121" t="n">
+      <c r="AM121" t="n">
         <v>4524306.240468</v>
       </c>
     </row>
@@ -7519,21 +11285,63 @@
         <v>1123295.80764</v>
       </c>
       <c r="T122" t="n">
+        <v>185284.019599</v>
+      </c>
+      <c r="U122" t="n">
+        <v>3423403.860882</v>
+      </c>
+      <c r="V122" t="n">
+        <v>1347446.263728</v>
+      </c>
+      <c r="W122" t="n">
+        <v>650876.387725</v>
+      </c>
+      <c r="X122" t="n">
+        <v>11849212.879295</v>
+      </c>
+      <c r="Y122" t="n">
         <v>4327283.232211</v>
       </c>
-      <c r="U122" t="n">
+      <c r="Z122" t="n">
+        <v>3503236.479549</v>
+      </c>
+      <c r="AA122" t="n">
+        <v>1961921.522176</v>
+      </c>
+      <c r="AB122" t="n">
         <v>2682152.780755</v>
       </c>
-      <c r="V122" t="n">
+      <c r="AC122" t="n">
+        <v>3554736.921931</v>
+      </c>
+      <c r="AD122" t="n">
+        <v>1234810.889054</v>
+      </c>
+      <c r="AE122" t="n">
+        <v>615505.4213019999</v>
+      </c>
+      <c r="AF122" t="n">
+        <v>11213211.486369</v>
+      </c>
+      <c r="AG122" t="n">
+        <v>3414326.328215</v>
+      </c>
+      <c r="AH122" t="n">
+        <v>1853154.422339</v>
+      </c>
+      <c r="AI122" t="n">
+        <v>144431.036201</v>
+      </c>
+      <c r="AJ122" t="n">
         <v>1072946.774528</v>
       </c>
-      <c r="W122" t="n">
+      <c r="AK122" t="n">
         <v>427892.17056</v>
       </c>
-      <c r="X122" t="n">
+      <c r="AL122" t="n">
         <v>-216438.322977</v>
       </c>
-      <c r="Y122" t="n">
+      <c r="AM122" t="n">
         <v>4996723.533584</v>
       </c>
     </row>
@@ -7565,6 +11373,20 @@
       <c r="W123" t="inlineStr"/>
       <c r="X123" t="inlineStr"/>
       <c r="Y123" t="inlineStr"/>
+      <c r="Z123" t="inlineStr"/>
+      <c r="AA123" t="inlineStr"/>
+      <c r="AB123" t="inlineStr"/>
+      <c r="AC123" t="inlineStr"/>
+      <c r="AD123" t="inlineStr"/>
+      <c r="AE123" t="inlineStr"/>
+      <c r="AF123" t="inlineStr"/>
+      <c r="AG123" t="inlineStr"/>
+      <c r="AH123" t="inlineStr"/>
+      <c r="AI123" t="inlineStr"/>
+      <c r="AJ123" t="inlineStr"/>
+      <c r="AK123" t="inlineStr"/>
+      <c r="AL123" t="inlineStr"/>
+      <c r="AM123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7594,6 +11416,20 @@
       <c r="W124" t="inlineStr"/>
       <c r="X124" t="inlineStr"/>
       <c r="Y124" t="inlineStr"/>
+      <c r="Z124" t="inlineStr"/>
+      <c r="AA124" t="inlineStr"/>
+      <c r="AB124" t="inlineStr"/>
+      <c r="AC124" t="inlineStr"/>
+      <c r="AD124" t="inlineStr"/>
+      <c r="AE124" t="inlineStr"/>
+      <c r="AF124" t="inlineStr"/>
+      <c r="AG124" t="inlineStr"/>
+      <c r="AH124" t="inlineStr"/>
+      <c r="AI124" t="inlineStr"/>
+      <c r="AJ124" t="inlineStr"/>
+      <c r="AK124" t="inlineStr"/>
+      <c r="AL124" t="inlineStr"/>
+      <c r="AM124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7623,6 +11459,20 @@
       <c r="W125" t="inlineStr"/>
       <c r="X125" t="inlineStr"/>
       <c r="Y125" t="inlineStr"/>
+      <c r="Z125" t="inlineStr"/>
+      <c r="AA125" t="inlineStr"/>
+      <c r="AB125" t="inlineStr"/>
+      <c r="AC125" t="inlineStr"/>
+      <c r="AD125" t="inlineStr"/>
+      <c r="AE125" t="inlineStr"/>
+      <c r="AF125" t="inlineStr"/>
+      <c r="AG125" t="inlineStr"/>
+      <c r="AH125" t="inlineStr"/>
+      <c r="AI125" t="inlineStr"/>
+      <c r="AJ125" t="inlineStr"/>
+      <c r="AK125" t="inlineStr"/>
+      <c r="AL125" t="inlineStr"/>
+      <c r="AM125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7652,6 +11502,20 @@
       <c r="W126" t="inlineStr"/>
       <c r="X126" t="inlineStr"/>
       <c r="Y126" t="inlineStr"/>
+      <c r="Z126" t="inlineStr"/>
+      <c r="AA126" t="inlineStr"/>
+      <c r="AB126" t="inlineStr"/>
+      <c r="AC126" t="inlineStr"/>
+      <c r="AD126" t="inlineStr"/>
+      <c r="AE126" t="inlineStr"/>
+      <c r="AF126" t="inlineStr"/>
+      <c r="AG126" t="inlineStr"/>
+      <c r="AH126" t="inlineStr"/>
+      <c r="AI126" t="inlineStr"/>
+      <c r="AJ126" t="inlineStr"/>
+      <c r="AK126" t="inlineStr"/>
+      <c r="AL126" t="inlineStr"/>
+      <c r="AM126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7681,6 +11545,20 @@
       <c r="W127" t="inlineStr"/>
       <c r="X127" t="inlineStr"/>
       <c r="Y127" t="inlineStr"/>
+      <c r="Z127" t="inlineStr"/>
+      <c r="AA127" t="inlineStr"/>
+      <c r="AB127" t="inlineStr"/>
+      <c r="AC127" t="inlineStr"/>
+      <c r="AD127" t="inlineStr"/>
+      <c r="AE127" t="inlineStr"/>
+      <c r="AF127" t="inlineStr"/>
+      <c r="AG127" t="inlineStr"/>
+      <c r="AH127" t="inlineStr"/>
+      <c r="AI127" t="inlineStr"/>
+      <c r="AJ127" t="inlineStr"/>
+      <c r="AK127" t="inlineStr"/>
+      <c r="AL127" t="inlineStr"/>
+      <c r="AM127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7710,6 +11588,20 @@
       <c r="W128" t="inlineStr"/>
       <c r="X128" t="inlineStr"/>
       <c r="Y128" t="inlineStr"/>
+      <c r="Z128" t="inlineStr"/>
+      <c r="AA128" t="inlineStr"/>
+      <c r="AB128" t="inlineStr"/>
+      <c r="AC128" t="inlineStr"/>
+      <c r="AD128" t="inlineStr"/>
+      <c r="AE128" t="inlineStr"/>
+      <c r="AF128" t="inlineStr"/>
+      <c r="AG128" t="inlineStr"/>
+      <c r="AH128" t="inlineStr"/>
+      <c r="AI128" t="inlineStr"/>
+      <c r="AJ128" t="inlineStr"/>
+      <c r="AK128" t="inlineStr"/>
+      <c r="AL128" t="inlineStr"/>
+      <c r="AM128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7739,6 +11631,20 @@
       <c r="W129" t="inlineStr"/>
       <c r="X129" t="inlineStr"/>
       <c r="Y129" t="inlineStr"/>
+      <c r="Z129" t="inlineStr"/>
+      <c r="AA129" t="inlineStr"/>
+      <c r="AB129" t="inlineStr"/>
+      <c r="AC129" t="inlineStr"/>
+      <c r="AD129" t="inlineStr"/>
+      <c r="AE129" t="inlineStr"/>
+      <c r="AF129" t="inlineStr"/>
+      <c r="AG129" t="inlineStr"/>
+      <c r="AH129" t="inlineStr"/>
+      <c r="AI129" t="inlineStr"/>
+      <c r="AJ129" t="inlineStr"/>
+      <c r="AK129" t="inlineStr"/>
+      <c r="AL129" t="inlineStr"/>
+      <c r="AM129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7768,6 +11674,20 @@
       <c r="W130" t="inlineStr"/>
       <c r="X130" t="inlineStr"/>
       <c r="Y130" t="inlineStr"/>
+      <c r="Z130" t="inlineStr"/>
+      <c r="AA130" t="inlineStr"/>
+      <c r="AB130" t="inlineStr"/>
+      <c r="AC130" t="inlineStr"/>
+      <c r="AD130" t="inlineStr"/>
+      <c r="AE130" t="inlineStr"/>
+      <c r="AF130" t="inlineStr"/>
+      <c r="AG130" t="inlineStr"/>
+      <c r="AH130" t="inlineStr"/>
+      <c r="AI130" t="inlineStr"/>
+      <c r="AJ130" t="inlineStr"/>
+      <c r="AK130" t="inlineStr"/>
+      <c r="AL130" t="inlineStr"/>
+      <c r="AM130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7797,6 +11717,20 @@
       <c r="W131" t="inlineStr"/>
       <c r="X131" t="inlineStr"/>
       <c r="Y131" t="inlineStr"/>
+      <c r="Z131" t="inlineStr"/>
+      <c r="AA131" t="inlineStr"/>
+      <c r="AB131" t="inlineStr"/>
+      <c r="AC131" t="inlineStr"/>
+      <c r="AD131" t="inlineStr"/>
+      <c r="AE131" t="inlineStr"/>
+      <c r="AF131" t="inlineStr"/>
+      <c r="AG131" t="inlineStr"/>
+      <c r="AH131" t="inlineStr"/>
+      <c r="AI131" t="inlineStr"/>
+      <c r="AJ131" t="inlineStr"/>
+      <c r="AK131" t="inlineStr"/>
+      <c r="AL131" t="inlineStr"/>
+      <c r="AM131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7826,6 +11760,20 @@
       <c r="W132" t="inlineStr"/>
       <c r="X132" t="inlineStr"/>
       <c r="Y132" t="inlineStr"/>
+      <c r="Z132" t="inlineStr"/>
+      <c r="AA132" t="inlineStr"/>
+      <c r="AB132" t="inlineStr"/>
+      <c r="AC132" t="inlineStr"/>
+      <c r="AD132" t="inlineStr"/>
+      <c r="AE132" t="inlineStr"/>
+      <c r="AF132" t="inlineStr"/>
+      <c r="AG132" t="inlineStr"/>
+      <c r="AH132" t="inlineStr"/>
+      <c r="AI132" t="inlineStr"/>
+      <c r="AJ132" t="inlineStr"/>
+      <c r="AK132" t="inlineStr"/>
+      <c r="AL132" t="inlineStr"/>
+      <c r="AM132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7855,6 +11803,20 @@
       <c r="W133" t="inlineStr"/>
       <c r="X133" t="inlineStr"/>
       <c r="Y133" t="inlineStr"/>
+      <c r="Z133" t="inlineStr"/>
+      <c r="AA133" t="inlineStr"/>
+      <c r="AB133" t="inlineStr"/>
+      <c r="AC133" t="inlineStr"/>
+      <c r="AD133" t="inlineStr"/>
+      <c r="AE133" t="inlineStr"/>
+      <c r="AF133" t="inlineStr"/>
+      <c r="AG133" t="inlineStr"/>
+      <c r="AH133" t="inlineStr"/>
+      <c r="AI133" t="inlineStr"/>
+      <c r="AJ133" t="inlineStr"/>
+      <c r="AK133" t="inlineStr"/>
+      <c r="AL133" t="inlineStr"/>
+      <c r="AM133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7884,6 +11846,20 @@
       <c r="W134" t="inlineStr"/>
       <c r="X134" t="inlineStr"/>
       <c r="Y134" t="inlineStr"/>
+      <c r="Z134" t="inlineStr"/>
+      <c r="AA134" t="inlineStr"/>
+      <c r="AB134" t="inlineStr"/>
+      <c r="AC134" t="inlineStr"/>
+      <c r="AD134" t="inlineStr"/>
+      <c r="AE134" t="inlineStr"/>
+      <c r="AF134" t="inlineStr"/>
+      <c r="AG134" t="inlineStr"/>
+      <c r="AH134" t="inlineStr"/>
+      <c r="AI134" t="inlineStr"/>
+      <c r="AJ134" t="inlineStr"/>
+      <c r="AK134" t="inlineStr"/>
+      <c r="AL134" t="inlineStr"/>
+      <c r="AM134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7913,6 +11889,20 @@
       <c r="W135" t="inlineStr"/>
       <c r="X135" t="inlineStr"/>
       <c r="Y135" t="inlineStr"/>
+      <c r="Z135" t="inlineStr"/>
+      <c r="AA135" t="inlineStr"/>
+      <c r="AB135" t="inlineStr"/>
+      <c r="AC135" t="inlineStr"/>
+      <c r="AD135" t="inlineStr"/>
+      <c r="AE135" t="inlineStr"/>
+      <c r="AF135" t="inlineStr"/>
+      <c r="AG135" t="inlineStr"/>
+      <c r="AH135" t="inlineStr"/>
+      <c r="AI135" t="inlineStr"/>
+      <c r="AJ135" t="inlineStr"/>
+      <c r="AK135" t="inlineStr"/>
+      <c r="AL135" t="inlineStr"/>
+      <c r="AM135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7942,6 +11932,20 @@
       <c r="W136" t="inlineStr"/>
       <c r="X136" t="inlineStr"/>
       <c r="Y136" t="inlineStr"/>
+      <c r="Z136" t="inlineStr"/>
+      <c r="AA136" t="inlineStr"/>
+      <c r="AB136" t="inlineStr"/>
+      <c r="AC136" t="inlineStr"/>
+      <c r="AD136" t="inlineStr"/>
+      <c r="AE136" t="inlineStr"/>
+      <c r="AF136" t="inlineStr"/>
+      <c r="AG136" t="inlineStr"/>
+      <c r="AH136" t="inlineStr"/>
+      <c r="AI136" t="inlineStr"/>
+      <c r="AJ136" t="inlineStr"/>
+      <c r="AK136" t="inlineStr"/>
+      <c r="AL136" t="inlineStr"/>
+      <c r="AM136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7971,6 +11975,20 @@
       <c r="W137" t="inlineStr"/>
       <c r="X137" t="inlineStr"/>
       <c r="Y137" t="inlineStr"/>
+      <c r="Z137" t="inlineStr"/>
+      <c r="AA137" t="inlineStr"/>
+      <c r="AB137" t="inlineStr"/>
+      <c r="AC137" t="inlineStr"/>
+      <c r="AD137" t="inlineStr"/>
+      <c r="AE137" t="inlineStr"/>
+      <c r="AF137" t="inlineStr"/>
+      <c r="AG137" t="inlineStr"/>
+      <c r="AH137" t="inlineStr"/>
+      <c r="AI137" t="inlineStr"/>
+      <c r="AJ137" t="inlineStr"/>
+      <c r="AK137" t="inlineStr"/>
+      <c r="AL137" t="inlineStr"/>
+      <c r="AM137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -8000,6 +12018,20 @@
       <c r="W138" t="inlineStr"/>
       <c r="X138" t="inlineStr"/>
       <c r="Y138" t="inlineStr"/>
+      <c r="Z138" t="inlineStr"/>
+      <c r="AA138" t="inlineStr"/>
+      <c r="AB138" t="inlineStr"/>
+      <c r="AC138" t="inlineStr"/>
+      <c r="AD138" t="inlineStr"/>
+      <c r="AE138" t="inlineStr"/>
+      <c r="AF138" t="inlineStr"/>
+      <c r="AG138" t="inlineStr"/>
+      <c r="AH138" t="inlineStr"/>
+      <c r="AI138" t="inlineStr"/>
+      <c r="AJ138" t="inlineStr"/>
+      <c r="AK138" t="inlineStr"/>
+      <c r="AL138" t="inlineStr"/>
+      <c r="AM138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -8029,6 +12061,20 @@
       <c r="W139" t="inlineStr"/>
       <c r="X139" t="inlineStr"/>
       <c r="Y139" t="inlineStr"/>
+      <c r="Z139" t="inlineStr"/>
+      <c r="AA139" t="inlineStr"/>
+      <c r="AB139" t="inlineStr"/>
+      <c r="AC139" t="inlineStr"/>
+      <c r="AD139" t="inlineStr"/>
+      <c r="AE139" t="inlineStr"/>
+      <c r="AF139" t="inlineStr"/>
+      <c r="AG139" t="inlineStr"/>
+      <c r="AH139" t="inlineStr"/>
+      <c r="AI139" t="inlineStr"/>
+      <c r="AJ139" t="inlineStr"/>
+      <c r="AK139" t="inlineStr"/>
+      <c r="AL139" t="inlineStr"/>
+      <c r="AM139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -8058,6 +12104,20 @@
       <c r="W140" t="inlineStr"/>
       <c r="X140" t="inlineStr"/>
       <c r="Y140" t="inlineStr"/>
+      <c r="Z140" t="inlineStr"/>
+      <c r="AA140" t="inlineStr"/>
+      <c r="AB140" t="inlineStr"/>
+      <c r="AC140" t="inlineStr"/>
+      <c r="AD140" t="inlineStr"/>
+      <c r="AE140" t="inlineStr"/>
+      <c r="AF140" t="inlineStr"/>
+      <c r="AG140" t="inlineStr"/>
+      <c r="AH140" t="inlineStr"/>
+      <c r="AI140" t="inlineStr"/>
+      <c r="AJ140" t="inlineStr"/>
+      <c r="AK140" t="inlineStr"/>
+      <c r="AL140" t="inlineStr"/>
+      <c r="AM140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -8087,6 +12147,20 @@
       <c r="W141" t="inlineStr"/>
       <c r="X141" t="inlineStr"/>
       <c r="Y141" t="inlineStr"/>
+      <c r="Z141" t="inlineStr"/>
+      <c r="AA141" t="inlineStr"/>
+      <c r="AB141" t="inlineStr"/>
+      <c r="AC141" t="inlineStr"/>
+      <c r="AD141" t="inlineStr"/>
+      <c r="AE141" t="inlineStr"/>
+      <c r="AF141" t="inlineStr"/>
+      <c r="AG141" t="inlineStr"/>
+      <c r="AH141" t="inlineStr"/>
+      <c r="AI141" t="inlineStr"/>
+      <c r="AJ141" t="inlineStr"/>
+      <c r="AK141" t="inlineStr"/>
+      <c r="AL141" t="inlineStr"/>
+      <c r="AM141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -8116,6 +12190,20 @@
       <c r="W142" t="inlineStr"/>
       <c r="X142" t="inlineStr"/>
       <c r="Y142" t="inlineStr"/>
+      <c r="Z142" t="inlineStr"/>
+      <c r="AA142" t="inlineStr"/>
+      <c r="AB142" t="inlineStr"/>
+      <c r="AC142" t="inlineStr"/>
+      <c r="AD142" t="inlineStr"/>
+      <c r="AE142" t="inlineStr"/>
+      <c r="AF142" t="inlineStr"/>
+      <c r="AG142" t="inlineStr"/>
+      <c r="AH142" t="inlineStr"/>
+      <c r="AI142" t="inlineStr"/>
+      <c r="AJ142" t="inlineStr"/>
+      <c r="AK142" t="inlineStr"/>
+      <c r="AL142" t="inlineStr"/>
+      <c r="AM142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8145,6 +12233,20 @@
       <c r="W143" t="inlineStr"/>
       <c r="X143" t="inlineStr"/>
       <c r="Y143" t="inlineStr"/>
+      <c r="Z143" t="inlineStr"/>
+      <c r="AA143" t="inlineStr"/>
+      <c r="AB143" t="inlineStr"/>
+      <c r="AC143" t="inlineStr"/>
+      <c r="AD143" t="inlineStr"/>
+      <c r="AE143" t="inlineStr"/>
+      <c r="AF143" t="inlineStr"/>
+      <c r="AG143" t="inlineStr"/>
+      <c r="AH143" t="inlineStr"/>
+      <c r="AI143" t="inlineStr"/>
+      <c r="AJ143" t="inlineStr"/>
+      <c r="AK143" t="inlineStr"/>
+      <c r="AL143" t="inlineStr"/>
+      <c r="AM143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8174,6 +12276,20 @@
       <c r="W144" t="inlineStr"/>
       <c r="X144" t="inlineStr"/>
       <c r="Y144" t="inlineStr"/>
+      <c r="Z144" t="inlineStr"/>
+      <c r="AA144" t="inlineStr"/>
+      <c r="AB144" t="inlineStr"/>
+      <c r="AC144" t="inlineStr"/>
+      <c r="AD144" t="inlineStr"/>
+      <c r="AE144" t="inlineStr"/>
+      <c r="AF144" t="inlineStr"/>
+      <c r="AG144" t="inlineStr"/>
+      <c r="AH144" t="inlineStr"/>
+      <c r="AI144" t="inlineStr"/>
+      <c r="AJ144" t="inlineStr"/>
+      <c r="AK144" t="inlineStr"/>
+      <c r="AL144" t="inlineStr"/>
+      <c r="AM144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8203,6 +12319,20 @@
       <c r="W145" t="inlineStr"/>
       <c r="X145" t="inlineStr"/>
       <c r="Y145" t="inlineStr"/>
+      <c r="Z145" t="inlineStr"/>
+      <c r="AA145" t="inlineStr"/>
+      <c r="AB145" t="inlineStr"/>
+      <c r="AC145" t="inlineStr"/>
+      <c r="AD145" t="inlineStr"/>
+      <c r="AE145" t="inlineStr"/>
+      <c r="AF145" t="inlineStr"/>
+      <c r="AG145" t="inlineStr"/>
+      <c r="AH145" t="inlineStr"/>
+      <c r="AI145" t="inlineStr"/>
+      <c r="AJ145" t="inlineStr"/>
+      <c r="AK145" t="inlineStr"/>
+      <c r="AL145" t="inlineStr"/>
+      <c r="AM145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -8232,6 +12362,20 @@
       <c r="W146" t="inlineStr"/>
       <c r="X146" t="inlineStr"/>
       <c r="Y146" t="inlineStr"/>
+      <c r="Z146" t="inlineStr"/>
+      <c r="AA146" t="inlineStr"/>
+      <c r="AB146" t="inlineStr"/>
+      <c r="AC146" t="inlineStr"/>
+      <c r="AD146" t="inlineStr"/>
+      <c r="AE146" t="inlineStr"/>
+      <c r="AF146" t="inlineStr"/>
+      <c r="AG146" t="inlineStr"/>
+      <c r="AH146" t="inlineStr"/>
+      <c r="AI146" t="inlineStr"/>
+      <c r="AJ146" t="inlineStr"/>
+      <c r="AK146" t="inlineStr"/>
+      <c r="AL146" t="inlineStr"/>
+      <c r="AM146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -8261,6 +12405,20 @@
       <c r="W147" t="inlineStr"/>
       <c r="X147" t="inlineStr"/>
       <c r="Y147" t="inlineStr"/>
+      <c r="Z147" t="inlineStr"/>
+      <c r="AA147" t="inlineStr"/>
+      <c r="AB147" t="inlineStr"/>
+      <c r="AC147" t="inlineStr"/>
+      <c r="AD147" t="inlineStr"/>
+      <c r="AE147" t="inlineStr"/>
+      <c r="AF147" t="inlineStr"/>
+      <c r="AG147" t="inlineStr"/>
+      <c r="AH147" t="inlineStr"/>
+      <c r="AI147" t="inlineStr"/>
+      <c r="AJ147" t="inlineStr"/>
+      <c r="AK147" t="inlineStr"/>
+      <c r="AL147" t="inlineStr"/>
+      <c r="AM147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -8290,6 +12448,20 @@
       <c r="W148" t="inlineStr"/>
       <c r="X148" t="inlineStr"/>
       <c r="Y148" t="inlineStr"/>
+      <c r="Z148" t="inlineStr"/>
+      <c r="AA148" t="inlineStr"/>
+      <c r="AB148" t="inlineStr"/>
+      <c r="AC148" t="inlineStr"/>
+      <c r="AD148" t="inlineStr"/>
+      <c r="AE148" t="inlineStr"/>
+      <c r="AF148" t="inlineStr"/>
+      <c r="AG148" t="inlineStr"/>
+      <c r="AH148" t="inlineStr"/>
+      <c r="AI148" t="inlineStr"/>
+      <c r="AJ148" t="inlineStr"/>
+      <c r="AK148" t="inlineStr"/>
+      <c r="AL148" t="inlineStr"/>
+      <c r="AM148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -8319,6 +12491,20 @@
       <c r="W149" t="inlineStr"/>
       <c r="X149" t="inlineStr"/>
       <c r="Y149" t="inlineStr"/>
+      <c r="Z149" t="inlineStr"/>
+      <c r="AA149" t="inlineStr"/>
+      <c r="AB149" t="inlineStr"/>
+      <c r="AC149" t="inlineStr"/>
+      <c r="AD149" t="inlineStr"/>
+      <c r="AE149" t="inlineStr"/>
+      <c r="AF149" t="inlineStr"/>
+      <c r="AG149" t="inlineStr"/>
+      <c r="AH149" t="inlineStr"/>
+      <c r="AI149" t="inlineStr"/>
+      <c r="AJ149" t="inlineStr"/>
+      <c r="AK149" t="inlineStr"/>
+      <c r="AL149" t="inlineStr"/>
+      <c r="AM149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -8348,6 +12534,20 @@
       <c r="W150" t="inlineStr"/>
       <c r="X150" t="inlineStr"/>
       <c r="Y150" t="inlineStr"/>
+      <c r="Z150" t="inlineStr"/>
+      <c r="AA150" t="inlineStr"/>
+      <c r="AB150" t="inlineStr"/>
+      <c r="AC150" t="inlineStr"/>
+      <c r="AD150" t="inlineStr"/>
+      <c r="AE150" t="inlineStr"/>
+      <c r="AF150" t="inlineStr"/>
+      <c r="AG150" t="inlineStr"/>
+      <c r="AH150" t="inlineStr"/>
+      <c r="AI150" t="inlineStr"/>
+      <c r="AJ150" t="inlineStr"/>
+      <c r="AK150" t="inlineStr"/>
+      <c r="AL150" t="inlineStr"/>
+      <c r="AM150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -8377,6 +12577,20 @@
       <c r="W151" t="inlineStr"/>
       <c r="X151" t="inlineStr"/>
       <c r="Y151" t="inlineStr"/>
+      <c r="Z151" t="inlineStr"/>
+      <c r="AA151" t="inlineStr"/>
+      <c r="AB151" t="inlineStr"/>
+      <c r="AC151" t="inlineStr"/>
+      <c r="AD151" t="inlineStr"/>
+      <c r="AE151" t="inlineStr"/>
+      <c r="AF151" t="inlineStr"/>
+      <c r="AG151" t="inlineStr"/>
+      <c r="AH151" t="inlineStr"/>
+      <c r="AI151" t="inlineStr"/>
+      <c r="AJ151" t="inlineStr"/>
+      <c r="AK151" t="inlineStr"/>
+      <c r="AL151" t="inlineStr"/>
+      <c r="AM151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -8406,6 +12620,20 @@
       <c r="W152" t="inlineStr"/>
       <c r="X152" t="inlineStr"/>
       <c r="Y152" t="inlineStr"/>
+      <c r="Z152" t="inlineStr"/>
+      <c r="AA152" t="inlineStr"/>
+      <c r="AB152" t="inlineStr"/>
+      <c r="AC152" t="inlineStr"/>
+      <c r="AD152" t="inlineStr"/>
+      <c r="AE152" t="inlineStr"/>
+      <c r="AF152" t="inlineStr"/>
+      <c r="AG152" t="inlineStr"/>
+      <c r="AH152" t="inlineStr"/>
+      <c r="AI152" t="inlineStr"/>
+      <c r="AJ152" t="inlineStr"/>
+      <c r="AK152" t="inlineStr"/>
+      <c r="AL152" t="inlineStr"/>
+      <c r="AM152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -8435,6 +12663,20 @@
       <c r="W153" t="inlineStr"/>
       <c r="X153" t="inlineStr"/>
       <c r="Y153" t="inlineStr"/>
+      <c r="Z153" t="inlineStr"/>
+      <c r="AA153" t="inlineStr"/>
+      <c r="AB153" t="inlineStr"/>
+      <c r="AC153" t="inlineStr"/>
+      <c r="AD153" t="inlineStr"/>
+      <c r="AE153" t="inlineStr"/>
+      <c r="AF153" t="inlineStr"/>
+      <c r="AG153" t="inlineStr"/>
+      <c r="AH153" t="inlineStr"/>
+      <c r="AI153" t="inlineStr"/>
+      <c r="AJ153" t="inlineStr"/>
+      <c r="AK153" t="inlineStr"/>
+      <c r="AL153" t="inlineStr"/>
+      <c r="AM153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -8464,6 +12706,20 @@
       <c r="W154" t="inlineStr"/>
       <c r="X154" t="inlineStr"/>
       <c r="Y154" t="inlineStr"/>
+      <c r="Z154" t="inlineStr"/>
+      <c r="AA154" t="inlineStr"/>
+      <c r="AB154" t="inlineStr"/>
+      <c r="AC154" t="inlineStr"/>
+      <c r="AD154" t="inlineStr"/>
+      <c r="AE154" t="inlineStr"/>
+      <c r="AF154" t="inlineStr"/>
+      <c r="AG154" t="inlineStr"/>
+      <c r="AH154" t="inlineStr"/>
+      <c r="AI154" t="inlineStr"/>
+      <c r="AJ154" t="inlineStr"/>
+      <c r="AK154" t="inlineStr"/>
+      <c r="AL154" t="inlineStr"/>
+      <c r="AM154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -8493,6 +12749,20 @@
       <c r="W155" t="inlineStr"/>
       <c r="X155" t="inlineStr"/>
       <c r="Y155" t="inlineStr"/>
+      <c r="Z155" t="inlineStr"/>
+      <c r="AA155" t="inlineStr"/>
+      <c r="AB155" t="inlineStr"/>
+      <c r="AC155" t="inlineStr"/>
+      <c r="AD155" t="inlineStr"/>
+      <c r="AE155" t="inlineStr"/>
+      <c r="AF155" t="inlineStr"/>
+      <c r="AG155" t="inlineStr"/>
+      <c r="AH155" t="inlineStr"/>
+      <c r="AI155" t="inlineStr"/>
+      <c r="AJ155" t="inlineStr"/>
+      <c r="AK155" t="inlineStr"/>
+      <c r="AL155" t="inlineStr"/>
+      <c r="AM155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -8522,6 +12792,20 @@
       <c r="W156" t="inlineStr"/>
       <c r="X156" t="inlineStr"/>
       <c r="Y156" t="inlineStr"/>
+      <c r="Z156" t="inlineStr"/>
+      <c r="AA156" t="inlineStr"/>
+      <c r="AB156" t="inlineStr"/>
+      <c r="AC156" t="inlineStr"/>
+      <c r="AD156" t="inlineStr"/>
+      <c r="AE156" t="inlineStr"/>
+      <c r="AF156" t="inlineStr"/>
+      <c r="AG156" t="inlineStr"/>
+      <c r="AH156" t="inlineStr"/>
+      <c r="AI156" t="inlineStr"/>
+      <c r="AJ156" t="inlineStr"/>
+      <c r="AK156" t="inlineStr"/>
+      <c r="AL156" t="inlineStr"/>
+      <c r="AM156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -8551,6 +12835,20 @@
       <c r="W157" t="inlineStr"/>
       <c r="X157" t="inlineStr"/>
       <c r="Y157" t="inlineStr"/>
+      <c r="Z157" t="inlineStr"/>
+      <c r="AA157" t="inlineStr"/>
+      <c r="AB157" t="inlineStr"/>
+      <c r="AC157" t="inlineStr"/>
+      <c r="AD157" t="inlineStr"/>
+      <c r="AE157" t="inlineStr"/>
+      <c r="AF157" t="inlineStr"/>
+      <c r="AG157" t="inlineStr"/>
+      <c r="AH157" t="inlineStr"/>
+      <c r="AI157" t="inlineStr"/>
+      <c r="AJ157" t="inlineStr"/>
+      <c r="AK157" t="inlineStr"/>
+      <c r="AL157" t="inlineStr"/>
+      <c r="AM157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -8580,6 +12878,20 @@
       <c r="W158" t="inlineStr"/>
       <c r="X158" t="inlineStr"/>
       <c r="Y158" t="inlineStr"/>
+      <c r="Z158" t="inlineStr"/>
+      <c r="AA158" t="inlineStr"/>
+      <c r="AB158" t="inlineStr"/>
+      <c r="AC158" t="inlineStr"/>
+      <c r="AD158" t="inlineStr"/>
+      <c r="AE158" t="inlineStr"/>
+      <c r="AF158" t="inlineStr"/>
+      <c r="AG158" t="inlineStr"/>
+      <c r="AH158" t="inlineStr"/>
+      <c r="AI158" t="inlineStr"/>
+      <c r="AJ158" t="inlineStr"/>
+      <c r="AK158" t="inlineStr"/>
+      <c r="AL158" t="inlineStr"/>
+      <c r="AM158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -8609,6 +12921,20 @@
       <c r="W159" t="inlineStr"/>
       <c r="X159" t="inlineStr"/>
       <c r="Y159" t="inlineStr"/>
+      <c r="Z159" t="inlineStr"/>
+      <c r="AA159" t="inlineStr"/>
+      <c r="AB159" t="inlineStr"/>
+      <c r="AC159" t="inlineStr"/>
+      <c r="AD159" t="inlineStr"/>
+      <c r="AE159" t="inlineStr"/>
+      <c r="AF159" t="inlineStr"/>
+      <c r="AG159" t="inlineStr"/>
+      <c r="AH159" t="inlineStr"/>
+      <c r="AI159" t="inlineStr"/>
+      <c r="AJ159" t="inlineStr"/>
+      <c r="AK159" t="inlineStr"/>
+      <c r="AL159" t="inlineStr"/>
+      <c r="AM159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -8638,6 +12964,20 @@
       <c r="W160" t="inlineStr"/>
       <c r="X160" t="inlineStr"/>
       <c r="Y160" t="inlineStr"/>
+      <c r="Z160" t="inlineStr"/>
+      <c r="AA160" t="inlineStr"/>
+      <c r="AB160" t="inlineStr"/>
+      <c r="AC160" t="inlineStr"/>
+      <c r="AD160" t="inlineStr"/>
+      <c r="AE160" t="inlineStr"/>
+      <c r="AF160" t="inlineStr"/>
+      <c r="AG160" t="inlineStr"/>
+      <c r="AH160" t="inlineStr"/>
+      <c r="AI160" t="inlineStr"/>
+      <c r="AJ160" t="inlineStr"/>
+      <c r="AK160" t="inlineStr"/>
+      <c r="AL160" t="inlineStr"/>
+      <c r="AM160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -8667,6 +13007,20 @@
       <c r="W161" t="inlineStr"/>
       <c r="X161" t="inlineStr"/>
       <c r="Y161" t="inlineStr"/>
+      <c r="Z161" t="inlineStr"/>
+      <c r="AA161" t="inlineStr"/>
+      <c r="AB161" t="inlineStr"/>
+      <c r="AC161" t="inlineStr"/>
+      <c r="AD161" t="inlineStr"/>
+      <c r="AE161" t="inlineStr"/>
+      <c r="AF161" t="inlineStr"/>
+      <c r="AG161" t="inlineStr"/>
+      <c r="AH161" t="inlineStr"/>
+      <c r="AI161" t="inlineStr"/>
+      <c r="AJ161" t="inlineStr"/>
+      <c r="AK161" t="inlineStr"/>
+      <c r="AL161" t="inlineStr"/>
+      <c r="AM161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -8696,6 +13050,20 @@
       <c r="W162" t="inlineStr"/>
       <c r="X162" t="inlineStr"/>
       <c r="Y162" t="inlineStr"/>
+      <c r="Z162" t="inlineStr"/>
+      <c r="AA162" t="inlineStr"/>
+      <c r="AB162" t="inlineStr"/>
+      <c r="AC162" t="inlineStr"/>
+      <c r="AD162" t="inlineStr"/>
+      <c r="AE162" t="inlineStr"/>
+      <c r="AF162" t="inlineStr"/>
+      <c r="AG162" t="inlineStr"/>
+      <c r="AH162" t="inlineStr"/>
+      <c r="AI162" t="inlineStr"/>
+      <c r="AJ162" t="inlineStr"/>
+      <c r="AK162" t="inlineStr"/>
+      <c r="AL162" t="inlineStr"/>
+      <c r="AM162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -8725,6 +13093,20 @@
       <c r="W163" t="inlineStr"/>
       <c r="X163" t="inlineStr"/>
       <c r="Y163" t="inlineStr"/>
+      <c r="Z163" t="inlineStr"/>
+      <c r="AA163" t="inlineStr"/>
+      <c r="AB163" t="inlineStr"/>
+      <c r="AC163" t="inlineStr"/>
+      <c r="AD163" t="inlineStr"/>
+      <c r="AE163" t="inlineStr"/>
+      <c r="AF163" t="inlineStr"/>
+      <c r="AG163" t="inlineStr"/>
+      <c r="AH163" t="inlineStr"/>
+      <c r="AI163" t="inlineStr"/>
+      <c r="AJ163" t="inlineStr"/>
+      <c r="AK163" t="inlineStr"/>
+      <c r="AL163" t="inlineStr"/>
+      <c r="AM163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -8754,6 +13136,20 @@
       <c r="W164" t="inlineStr"/>
       <c r="X164" t="inlineStr"/>
       <c r="Y164" t="inlineStr"/>
+      <c r="Z164" t="inlineStr"/>
+      <c r="AA164" t="inlineStr"/>
+      <c r="AB164" t="inlineStr"/>
+      <c r="AC164" t="inlineStr"/>
+      <c r="AD164" t="inlineStr"/>
+      <c r="AE164" t="inlineStr"/>
+      <c r="AF164" t="inlineStr"/>
+      <c r="AG164" t="inlineStr"/>
+      <c r="AH164" t="inlineStr"/>
+      <c r="AI164" t="inlineStr"/>
+      <c r="AJ164" t="inlineStr"/>
+      <c r="AK164" t="inlineStr"/>
+      <c r="AL164" t="inlineStr"/>
+      <c r="AM164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -8783,6 +13179,20 @@
       <c r="W165" t="inlineStr"/>
       <c r="X165" t="inlineStr"/>
       <c r="Y165" t="inlineStr"/>
+      <c r="Z165" t="inlineStr"/>
+      <c r="AA165" t="inlineStr"/>
+      <c r="AB165" t="inlineStr"/>
+      <c r="AC165" t="inlineStr"/>
+      <c r="AD165" t="inlineStr"/>
+      <c r="AE165" t="inlineStr"/>
+      <c r="AF165" t="inlineStr"/>
+      <c r="AG165" t="inlineStr"/>
+      <c r="AH165" t="inlineStr"/>
+      <c r="AI165" t="inlineStr"/>
+      <c r="AJ165" t="inlineStr"/>
+      <c r="AK165" t="inlineStr"/>
+      <c r="AL165" t="inlineStr"/>
+      <c r="AM165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -8812,6 +13222,20 @@
       <c r="W166" t="inlineStr"/>
       <c r="X166" t="inlineStr"/>
       <c r="Y166" t="inlineStr"/>
+      <c r="Z166" t="inlineStr"/>
+      <c r="AA166" t="inlineStr"/>
+      <c r="AB166" t="inlineStr"/>
+      <c r="AC166" t="inlineStr"/>
+      <c r="AD166" t="inlineStr"/>
+      <c r="AE166" t="inlineStr"/>
+      <c r="AF166" t="inlineStr"/>
+      <c r="AG166" t="inlineStr"/>
+      <c r="AH166" t="inlineStr"/>
+      <c r="AI166" t="inlineStr"/>
+      <c r="AJ166" t="inlineStr"/>
+      <c r="AK166" t="inlineStr"/>
+      <c r="AL166" t="inlineStr"/>
+      <c r="AM166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -8841,6 +13265,20 @@
       <c r="W167" t="inlineStr"/>
       <c r="X167" t="inlineStr"/>
       <c r="Y167" t="inlineStr"/>
+      <c r="Z167" t="inlineStr"/>
+      <c r="AA167" t="inlineStr"/>
+      <c r="AB167" t="inlineStr"/>
+      <c r="AC167" t="inlineStr"/>
+      <c r="AD167" t="inlineStr"/>
+      <c r="AE167" t="inlineStr"/>
+      <c r="AF167" t="inlineStr"/>
+      <c r="AG167" t="inlineStr"/>
+      <c r="AH167" t="inlineStr"/>
+      <c r="AI167" t="inlineStr"/>
+      <c r="AJ167" t="inlineStr"/>
+      <c r="AK167" t="inlineStr"/>
+      <c r="AL167" t="inlineStr"/>
+      <c r="AM167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -8870,6 +13308,20 @@
       <c r="W168" t="inlineStr"/>
       <c r="X168" t="inlineStr"/>
       <c r="Y168" t="inlineStr"/>
+      <c r="Z168" t="inlineStr"/>
+      <c r="AA168" t="inlineStr"/>
+      <c r="AB168" t="inlineStr"/>
+      <c r="AC168" t="inlineStr"/>
+      <c r="AD168" t="inlineStr"/>
+      <c r="AE168" t="inlineStr"/>
+      <c r="AF168" t="inlineStr"/>
+      <c r="AG168" t="inlineStr"/>
+      <c r="AH168" t="inlineStr"/>
+      <c r="AI168" t="inlineStr"/>
+      <c r="AJ168" t="inlineStr"/>
+      <c r="AK168" t="inlineStr"/>
+      <c r="AL168" t="inlineStr"/>
+      <c r="AM168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -8899,6 +13351,20 @@
       <c r="W169" t="inlineStr"/>
       <c r="X169" t="inlineStr"/>
       <c r="Y169" t="inlineStr"/>
+      <c r="Z169" t="inlineStr"/>
+      <c r="AA169" t="inlineStr"/>
+      <c r="AB169" t="inlineStr"/>
+      <c r="AC169" t="inlineStr"/>
+      <c r="AD169" t="inlineStr"/>
+      <c r="AE169" t="inlineStr"/>
+      <c r="AF169" t="inlineStr"/>
+      <c r="AG169" t="inlineStr"/>
+      <c r="AH169" t="inlineStr"/>
+      <c r="AI169" t="inlineStr"/>
+      <c r="AJ169" t="inlineStr"/>
+      <c r="AK169" t="inlineStr"/>
+      <c r="AL169" t="inlineStr"/>
+      <c r="AM169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -8928,6 +13394,20 @@
       <c r="W170" t="inlineStr"/>
       <c r="X170" t="inlineStr"/>
       <c r="Y170" t="inlineStr"/>
+      <c r="Z170" t="inlineStr"/>
+      <c r="AA170" t="inlineStr"/>
+      <c r="AB170" t="inlineStr"/>
+      <c r="AC170" t="inlineStr"/>
+      <c r="AD170" t="inlineStr"/>
+      <c r="AE170" t="inlineStr"/>
+      <c r="AF170" t="inlineStr"/>
+      <c r="AG170" t="inlineStr"/>
+      <c r="AH170" t="inlineStr"/>
+      <c r="AI170" t="inlineStr"/>
+      <c r="AJ170" t="inlineStr"/>
+      <c r="AK170" t="inlineStr"/>
+      <c r="AL170" t="inlineStr"/>
+      <c r="AM170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8957,6 +13437,20 @@
       <c r="W171" t="inlineStr"/>
       <c r="X171" t="inlineStr"/>
       <c r="Y171" t="inlineStr"/>
+      <c r="Z171" t="inlineStr"/>
+      <c r="AA171" t="inlineStr"/>
+      <c r="AB171" t="inlineStr"/>
+      <c r="AC171" t="inlineStr"/>
+      <c r="AD171" t="inlineStr"/>
+      <c r="AE171" t="inlineStr"/>
+      <c r="AF171" t="inlineStr"/>
+      <c r="AG171" t="inlineStr"/>
+      <c r="AH171" t="inlineStr"/>
+      <c r="AI171" t="inlineStr"/>
+      <c r="AJ171" t="inlineStr"/>
+      <c r="AK171" t="inlineStr"/>
+      <c r="AL171" t="inlineStr"/>
+      <c r="AM171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -8986,6 +13480,20 @@
       <c r="W172" t="inlineStr"/>
       <c r="X172" t="inlineStr"/>
       <c r="Y172" t="inlineStr"/>
+      <c r="Z172" t="inlineStr"/>
+      <c r="AA172" t="inlineStr"/>
+      <c r="AB172" t="inlineStr"/>
+      <c r="AC172" t="inlineStr"/>
+      <c r="AD172" t="inlineStr"/>
+      <c r="AE172" t="inlineStr"/>
+      <c r="AF172" t="inlineStr"/>
+      <c r="AG172" t="inlineStr"/>
+      <c r="AH172" t="inlineStr"/>
+      <c r="AI172" t="inlineStr"/>
+      <c r="AJ172" t="inlineStr"/>
+      <c r="AK172" t="inlineStr"/>
+      <c r="AL172" t="inlineStr"/>
+      <c r="AM172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -9015,6 +13523,20 @@
       <c r="W173" t="inlineStr"/>
       <c r="X173" t="inlineStr"/>
       <c r="Y173" t="inlineStr"/>
+      <c r="Z173" t="inlineStr"/>
+      <c r="AA173" t="inlineStr"/>
+      <c r="AB173" t="inlineStr"/>
+      <c r="AC173" t="inlineStr"/>
+      <c r="AD173" t="inlineStr"/>
+      <c r="AE173" t="inlineStr"/>
+      <c r="AF173" t="inlineStr"/>
+      <c r="AG173" t="inlineStr"/>
+      <c r="AH173" t="inlineStr"/>
+      <c r="AI173" t="inlineStr"/>
+      <c r="AJ173" t="inlineStr"/>
+      <c r="AK173" t="inlineStr"/>
+      <c r="AL173" t="inlineStr"/>
+      <c r="AM173" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/INTLINE/output/INTLINE_databasetest.xlsx
+++ b/INTLINE/output/INTLINE_databasetest.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="610">
   <si>
     <t>data001</t>
   </si>
@@ -111,6 +111,36 @@
   </si>
   <si>
     <t>data032</t>
+  </si>
+  <si>
+    <t>data033</t>
+  </si>
+  <si>
+    <t>data034</t>
+  </si>
+  <si>
+    <t>data035</t>
+  </si>
+  <si>
+    <t>data036</t>
+  </si>
+  <si>
+    <t>data037</t>
+  </si>
+  <si>
+    <t>data038</t>
+  </si>
+  <si>
+    <t>data039</t>
+  </si>
+  <si>
+    <t>data040</t>
+  </si>
+  <si>
+    <t>data041</t>
+  </si>
+  <si>
+    <t>data042</t>
   </si>
   <si>
     <t>1901-Q1</t>
@@ -3959,13 +3989,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG569"/>
+  <dimension ref="A1:AQ569"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:33">
+    <row r="1" spans="1:43">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4062,1370 +4092,1400 @@
       <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="2" spans="1:33">
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:43">
       <c r="A2" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:43">
       <c r="A3" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:43">
       <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43">
       <c r="A5" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:43">
       <c r="A6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:33">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:43">
       <c r="A7" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:33">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:43">
       <c r="A8" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:33">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:43">
       <c r="A9" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:33">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:43">
       <c r="A10" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:33">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:43">
       <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43">
       <c r="A12" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43">
       <c r="A13" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43">
       <c r="A14" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43">
       <c r="A15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43">
       <c r="A16" s="1" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="1" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="1" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="1" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="1" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="1" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="1" t="s">
-        <v>54</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
-        <v>56</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="1" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>68</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="1" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="1" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="1" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="1" t="s">
-        <v>65</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="1" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="1" t="s">
-        <v>67</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="1" t="s">
-        <v>68</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="1" t="s">
-        <v>69</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="1" t="s">
-        <v>70</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="1" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="1" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="1" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="1" t="s">
-        <v>74</v>
+        <v>84</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="1" t="s">
-        <v>75</v>
+        <v>85</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="1" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="1" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="1" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="1" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="1" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="1" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
     </row>
     <row r="53" spans="1:1">
       <c r="A53" s="1" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" s="1" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" s="1" t="s">
-        <v>85</v>
+        <v>95</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" s="1" t="s">
-        <v>86</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" s="1" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" s="1" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="1" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" s="1" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" s="1" t="s">
-        <v>91</v>
+        <v>101</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" s="1" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" s="1" t="s">
-        <v>93</v>
+        <v>103</v>
       </c>
     </row>
     <row r="64" spans="1:1">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" s="1" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="1" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" s="1" t="s">
-        <v>97</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:1">
       <c r="A68" s="1" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:1">
       <c r="A69" s="1" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:1">
       <c r="A70" s="1" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="1" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1">
       <c r="A72" s="1" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1">
       <c r="A73" s="1" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
     </row>
     <row r="74" spans="1:1">
       <c r="A74" s="1" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="75" spans="1:1">
       <c r="A75" s="1" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:1">
       <c r="A76" s="1" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
     </row>
     <row r="77" spans="1:1">
       <c r="A77" s="1" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
     </row>
     <row r="78" spans="1:1">
       <c r="A78" s="1" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="1" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="80" spans="1:1">
       <c r="A80" s="1" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="81" spans="1:1">
       <c r="A81" s="1" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:1">
       <c r="A82" s="1" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:1">
       <c r="A83" s="1" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:1">
       <c r="A84" s="1" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
     </row>
     <row r="85" spans="1:1">
       <c r="A85" s="1" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
     </row>
     <row r="86" spans="1:1">
       <c r="A86" s="1" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="87" spans="1:1">
       <c r="A87" s="1" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:1">
       <c r="A88" s="1" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
     </row>
     <row r="89" spans="1:1">
       <c r="A89" s="1" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="1" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
     </row>
     <row r="91" spans="1:1">
       <c r="A91" s="1" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="92" spans="1:1">
       <c r="A92" s="1" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="93" spans="1:1">
       <c r="A93" s="1" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94" spans="1:1">
       <c r="A94" s="1" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
     </row>
     <row r="95" spans="1:1">
       <c r="A95" s="1" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
     </row>
     <row r="96" spans="1:1">
       <c r="A96" s="1" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
     </row>
     <row r="97" spans="1:1">
       <c r="A97" s="1" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
     </row>
     <row r="98" spans="1:1">
       <c r="A98" s="1" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
     </row>
     <row r="99" spans="1:1">
       <c r="A99" s="1" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
     </row>
     <row r="100" spans="1:1">
       <c r="A100" s="1" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:1">
       <c r="A101" s="1" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="102" spans="1:1">
       <c r="A102" s="1" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="103" spans="1:1">
       <c r="A103" s="1" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
     </row>
     <row r="104" spans="1:1">
       <c r="A104" s="1" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
     </row>
     <row r="105" spans="1:1">
       <c r="A105" s="1" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
     </row>
     <row r="106" spans="1:1">
       <c r="A106" s="1" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:1">
       <c r="A107" s="1" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:1">
       <c r="A108" s="1" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109" spans="1:1">
       <c r="A109" s="1" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
     </row>
     <row r="110" spans="1:1">
       <c r="A110" s="1" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
     </row>
     <row r="111" spans="1:1">
       <c r="A111" s="1" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:1">
       <c r="A112" s="1" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:1">
       <c r="A113" s="1" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
     </row>
     <row r="114" spans="1:1">
       <c r="A114" s="1" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:1">
       <c r="A115" s="1" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
     </row>
     <row r="116" spans="1:1">
       <c r="A116" s="1" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
     </row>
     <row r="117" spans="1:1">
       <c r="A117" s="1" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
     </row>
     <row r="118" spans="1:1">
       <c r="A118" s="1" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
     </row>
     <row r="119" spans="1:1">
       <c r="A119" s="1" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
     </row>
     <row r="120" spans="1:1">
       <c r="A120" s="1" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="1" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
     </row>
     <row r="122" spans="1:1">
       <c r="A122" s="1" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:1">
       <c r="A123" s="1" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="1" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
     </row>
     <row r="125" spans="1:1">
       <c r="A125" s="1" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
     </row>
     <row r="126" spans="1:1">
       <c r="A126" s="1" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:1">
       <c r="A127" s="1" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
     </row>
     <row r="128" spans="1:1">
       <c r="A128" s="1" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
     </row>
     <row r="129" spans="1:1">
       <c r="A129" s="1" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:1">
       <c r="A130" s="1" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="1" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
     </row>
     <row r="132" spans="1:1">
       <c r="A132" s="1" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
     </row>
     <row r="133" spans="1:1">
       <c r="A133" s="1" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
     </row>
     <row r="134" spans="1:1">
       <c r="A134" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:1">
       <c r="A135" s="1" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136" spans="1:1">
       <c r="A136" s="1" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
     </row>
     <row r="137" spans="1:1">
       <c r="A137" s="1" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
     </row>
     <row r="138" spans="1:1">
       <c r="A138" s="1" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
     </row>
     <row r="139" spans="1:1">
       <c r="A139" s="1" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
     </row>
     <row r="140" spans="1:1">
       <c r="A140" s="1" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="141" spans="1:1">
       <c r="A141" s="1" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
     </row>
     <row r="142" spans="1:1">
       <c r="A142" s="1" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
     </row>
     <row r="143" spans="1:1">
       <c r="A143" s="1" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
     </row>
     <row r="144" spans="1:1">
       <c r="A144" s="1" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
     </row>
     <row r="145" spans="1:1">
       <c r="A145" s="1" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
     </row>
     <row r="146" spans="1:1">
       <c r="A146" s="1" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
     </row>
     <row r="147" spans="1:1">
       <c r="A147" s="1" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:1">
       <c r="A148" s="1" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
     </row>
     <row r="149" spans="1:1">
       <c r="A149" s="1" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
     </row>
     <row r="150" spans="1:1">
       <c r="A150" s="1" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
     </row>
     <row r="151" spans="1:1">
       <c r="A151" s="1" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
     </row>
     <row r="152" spans="1:1">
       <c r="A152" s="1" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
     </row>
     <row r="153" spans="1:1">
       <c r="A153" s="1" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
     </row>
     <row r="154" spans="1:1">
       <c r="A154" s="1" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
     </row>
     <row r="155" spans="1:1">
       <c r="A155" s="1" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="156" spans="1:1">
       <c r="A156" s="1" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
     </row>
     <row r="157" spans="1:1">
       <c r="A157" s="1" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="158" spans="1:1">
       <c r="A158" s="1" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
     </row>
     <row r="159" spans="1:1">
       <c r="A159" s="1" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
     </row>
     <row r="160" spans="1:1">
       <c r="A160" s="1" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
     </row>
     <row r="161" spans="1:1">
       <c r="A161" s="1" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
     </row>
     <row r="162" spans="1:1">
       <c r="A162" s="1" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
     </row>
     <row r="163" spans="1:1">
       <c r="A163" s="1" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
     </row>
     <row r="164" spans="1:1">
       <c r="A164" s="1" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
     </row>
     <row r="165" spans="1:1">
       <c r="A165" s="1" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
     </row>
     <row r="166" spans="1:1">
       <c r="A166" s="1" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
     </row>
     <row r="167" spans="1:1">
       <c r="A167" s="1" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
     </row>
     <row r="168" spans="1:1">
       <c r="A168" s="1" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="169" spans="1:1">
       <c r="A169" s="1" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
     </row>
     <row r="170" spans="1:1">
       <c r="A170" s="1" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
     </row>
     <row r="171" spans="1:1">
       <c r="A171" s="1" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
     </row>
     <row r="172" spans="1:1">
       <c r="A172" s="1" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
     </row>
     <row r="173" spans="1:1">
       <c r="A173" s="1" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
     </row>
     <row r="174" spans="1:1">
       <c r="A174" s="1" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
     </row>
     <row r="175" spans="1:1">
       <c r="A175" s="1" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="176" spans="1:1">
       <c r="A176" s="1" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
     </row>
     <row r="177" spans="1:1">
       <c r="A177" s="1" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
     </row>
     <row r="178" spans="1:1">
       <c r="A178" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
     </row>
     <row r="179" spans="1:1">
       <c r="A179" s="1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="180" spans="1:1">
       <c r="A180" s="1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
     </row>
     <row r="181" spans="1:1">
       <c r="A181" s="1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="182" spans="1:1">
       <c r="A182" s="1" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
     </row>
     <row r="183" spans="1:1">
       <c r="A183" s="1" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="184" spans="1:1">
       <c r="A184" s="1" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
     </row>
     <row r="185" spans="1:1">
       <c r="A185" s="1" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="186" spans="1:1">
       <c r="A186" s="1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
     </row>
     <row r="187" spans="1:1">
       <c r="A187" s="1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
     <row r="188" spans="1:1">
       <c r="A188" s="1" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
     </row>
     <row r="189" spans="1:1">
       <c r="A189" s="1" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
     </row>
     <row r="190" spans="1:1">
       <c r="A190" s="1" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
     </row>
     <row r="191" spans="1:1">
       <c r="A191" s="1" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
     </row>
     <row r="192" spans="1:1">
       <c r="A192" s="1" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
     </row>
     <row r="193" spans="1:1">
       <c r="A193" s="1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="194" spans="1:1">
       <c r="A194" s="1" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="195" spans="1:1">
       <c r="A195" s="1" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="196" spans="1:1">
       <c r="A196" s="1" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="197" spans="1:1">
       <c r="A197" s="1" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="198" spans="1:1">
       <c r="A198" s="1" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
     <row r="199" spans="1:1">
       <c r="A199" s="1" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
     </row>
     <row r="200" spans="1:1">
       <c r="A200" s="1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
     </row>
     <row r="201" spans="1:1">
       <c r="A201" s="1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="202" spans="1:1">
       <c r="A202" s="1" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="203" spans="1:1">
       <c r="A203" s="1" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
     </row>
     <row r="204" spans="1:1">
       <c r="A204" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
     <row r="205" spans="1:1">
       <c r="A205" s="1" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
     </row>
     <row r="206" spans="1:1">
       <c r="A206" s="1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="207" spans="1:1">
       <c r="A207" s="1" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="208" spans="1:1">
       <c r="A208" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="209" spans="1:1">
       <c r="A209" s="1" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="210" spans="1:1">
       <c r="A210" s="1" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
     <row r="211" spans="1:1">
       <c r="A211" s="1" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
     </row>
     <row r="212" spans="1:1">
       <c r="A212" s="1" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
     </row>
     <row r="213" spans="1:1">
       <c r="A213" s="1" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
     </row>
     <row r="214" spans="1:1">
       <c r="A214" s="1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="215" spans="1:1">
       <c r="A215" s="1" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="216" spans="1:1">
       <c r="A216" s="1" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
     <row r="217" spans="1:1">
       <c r="A217" s="1" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
     </row>
     <row r="218" spans="1:1">
       <c r="A218" s="1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
     </row>
     <row r="219" spans="1:1">
       <c r="A219" s="1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="220" spans="1:1">
       <c r="A220" s="1" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
     </row>
     <row r="221" spans="1:1">
       <c r="A221" s="1" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="222" spans="1:1">
       <c r="A222" s="1" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
     </row>
     <row r="223" spans="1:1">
       <c r="A223" s="1" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:1">
       <c r="A224" s="1" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
     </row>
     <row r="225" spans="1:1">
       <c r="A225" s="1" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="226" spans="1:1">
       <c r="A226" s="1" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
     </row>
     <row r="227" spans="1:1">
       <c r="A227" s="1" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
     <row r="228" spans="1:1">
       <c r="A228" s="1" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
     </row>
     <row r="229" spans="1:1">
       <c r="A229" s="1" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
     </row>
     <row r="230" spans="1:1">
       <c r="A230" s="1" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
     </row>
     <row r="231" spans="1:1">
       <c r="A231" s="1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232" spans="1:1">
       <c r="A232" s="1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
     <row r="233" spans="1:1">
       <c r="A233" s="1" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
     </row>
     <row r="234" spans="1:1">
       <c r="A234" s="1" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
     </row>
     <row r="235" spans="1:1">
       <c r="A235" s="1" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
     </row>
     <row r="236" spans="1:1">
       <c r="A236" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
     </row>
     <row r="237" spans="1:1">
       <c r="A237" s="1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
     </row>
     <row r="238" spans="1:1">
       <c r="A238" s="1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
     <row r="239" spans="1:1">
       <c r="A239" s="1" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
     </row>
     <row r="240" spans="1:1">
       <c r="A240" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
     </row>
     <row r="241" spans="1:1">
       <c r="A241" s="1" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
     </row>
     <row r="242" spans="1:1">
       <c r="A242" s="1" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="243" spans="1:1">
       <c r="A243" s="1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
     </row>
     <row r="244" spans="1:1">
       <c r="A244" s="1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="245" spans="1:1">
       <c r="A245" s="1" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
     <row r="246" spans="1:1">
       <c r="A246" s="1" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
     <row r="247" spans="1:1">
       <c r="A247" s="1" t="s">
-        <v>277</v>
+        <v>287</v>
       </c>
     </row>
     <row r="248" spans="1:1">
       <c r="A248" s="1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
     </row>
     <row r="249" spans="1:1">
       <c r="A249" s="1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="250" spans="1:1">
       <c r="A250" s="1" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
     </row>
     <row r="251" spans="1:1">
       <c r="A251" s="1" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
     <row r="252" spans="1:1">
       <c r="A252" s="1" t="s">
-        <v>282</v>
+        <v>292</v>
       </c>
     </row>
     <row r="253" spans="1:1">
       <c r="A253" s="1" t="s">
-        <v>283</v>
+        <v>293</v>
       </c>
     </row>
     <row r="254" spans="1:1">
       <c r="A254" s="1" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
     </row>
     <row r="255" spans="1:1">
       <c r="A255" s="1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
     </row>
     <row r="256" spans="1:1">
       <c r="A256" s="1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="257" spans="1:1">
       <c r="A257" s="1" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
     </row>
     <row r="258" spans="1:1">
       <c r="A258" s="1" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="259" spans="1:1">
       <c r="A259" s="1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
     </row>
     <row r="260" spans="1:1">
       <c r="A260" s="1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="261" spans="1:1">
       <c r="A261" s="1" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
     </row>
     <row r="262" spans="1:1">
       <c r="A262" s="1" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="263" spans="1:1">
       <c r="A263" s="1" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
     </row>
     <row r="264" spans="1:1">
       <c r="A264" s="1" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="265" spans="1:1">
       <c r="A265" s="1" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
     </row>
     <row r="266" spans="1:1">
       <c r="A266" s="1" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="267" spans="1:1">
       <c r="A267" s="1" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
     </row>
     <row r="268" spans="1:1">
       <c r="A268" s="1" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
     <row r="269" spans="1:1">
       <c r="A269" s="1" t="s">
-        <v>299</v>
+        <v>309</v>
       </c>
     </row>
     <row r="270" spans="1:1">
       <c r="A270" s="1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
     </row>
     <row r="271" spans="1:1">
       <c r="A271" s="1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="272" spans="1:1">
       <c r="A272" s="1" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="273" spans="1:32">
       <c r="A273" s="1" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="274" spans="1:32">
       <c r="A274" s="1" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="AF274">
         <v>2332.9</v>
@@ -5433,7 +5493,7 @@
     </row>
     <row r="275" spans="1:32">
       <c r="A275" s="1" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
       <c r="AF275">
         <v>2441.8</v>
@@ -5441,7 +5501,7 @@
     </row>
     <row r="276" spans="1:32">
       <c r="A276" s="1" t="s">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AF276">
         <v>2761.7</v>
@@ -5449,7 +5509,7 @@
     </row>
     <row r="277" spans="1:32">
       <c r="A277" s="1" t="s">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AF277">
         <v>2199.9</v>
@@ -5457,7 +5517,7 @@
     </row>
     <row r="278" spans="1:32">
       <c r="A278" s="1" t="s">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="AF278">
         <v>2498.3</v>
@@ -5465,7 +5525,7 @@
     </row>
     <row r="279" spans="1:32">
       <c r="A279" s="1" t="s">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="AF279">
         <v>2527.1</v>
@@ -5473,7 +5533,7 @@
     </row>
     <row r="280" spans="1:32">
       <c r="A280" s="1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="AF280">
         <v>2838.2</v>
@@ -5481,7 +5541,7 @@
     </row>
     <row r="281" spans="1:32">
       <c r="A281" s="1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="AF281">
         <v>2231.2</v>
@@ -5489,7 +5549,7 @@
     </row>
     <row r="282" spans="1:32">
       <c r="A282" s="1" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="AF282">
         <v>2384.4</v>
@@ -5497,7 +5557,7 @@
     </row>
     <row r="283" spans="1:32">
       <c r="A283" s="1" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="AF283">
         <v>2484.4</v>
@@ -5505,7 +5565,7 @@
     </row>
     <row r="284" spans="1:32">
       <c r="A284" s="1" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="AF284">
         <v>2484.6</v>
@@ -5513,7 +5573,7 @@
     </row>
     <row r="285" spans="1:32">
       <c r="A285" s="1" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
       <c r="AF285">
         <v>2546.2</v>
@@ -5521,7 +5581,7 @@
     </row>
     <row r="286" spans="1:32">
       <c r="A286" s="1" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="AF286">
         <v>2781.9</v>
@@ -5529,7 +5589,7 @@
     </row>
     <row r="287" spans="1:32">
       <c r="A287" s="1" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="AF287">
         <v>2573.1</v>
@@ -5537,7 +5597,7 @@
     </row>
     <row r="288" spans="1:32">
       <c r="A288" s="1" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AF288">
         <v>2820.8</v>
@@ -5545,7 +5605,7 @@
     </row>
     <row r="289" spans="1:32">
       <c r="A289" s="1" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="AF289">
         <v>3147</v>
@@ -5553,7 +5613,7 @@
     </row>
     <row r="290" spans="1:32">
       <c r="A290" s="1" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="AF290">
         <v>3076.3</v>
@@ -5561,7 +5621,7 @@
     </row>
     <row r="291" spans="1:32">
       <c r="A291" s="1" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
       <c r="AF291">
         <v>2975.4</v>
@@ -5569,7 +5629,7 @@
     </row>
     <row r="292" spans="1:32">
       <c r="A292" s="1" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="AF292">
         <v>3058</v>
@@ -5577,7 +5637,7 @@
     </row>
     <row r="293" spans="1:32">
       <c r="A293" s="1" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="AF293">
         <v>3613.4</v>
@@ -5585,7 +5645,7 @@
     </row>
     <row r="294" spans="1:32">
       <c r="A294" s="1" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="AF294">
         <v>3950.8</v>
@@ -5593,7 +5653,7 @@
     </row>
     <row r="295" spans="1:32">
       <c r="A295" s="1" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
       <c r="AF295">
         <v>3880.4</v>
@@ -5601,7 +5661,7 @@
     </row>
     <row r="296" spans="1:32">
       <c r="A296" s="1" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="AF296">
         <v>3936.3</v>
@@ -5609,7 +5669,7 @@
     </row>
     <row r="297" spans="1:32">
       <c r="A297" s="1" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
       <c r="AF297">
         <v>4353.7</v>
@@ -5617,7 +5677,7 @@
     </row>
     <row r="298" spans="1:32">
       <c r="A298" s="1" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="AF298">
         <v>4476.7</v>
@@ -5625,7 +5685,7 @@
     </row>
     <row r="299" spans="1:32">
       <c r="A299" s="1" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
       <c r="AF299">
         <v>4007.8</v>
@@ -5633,7 +5693,7 @@
     </row>
     <row r="300" spans="1:32">
       <c r="A300" s="1" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="AF300">
         <v>3967.6</v>
@@ -5641,7 +5701,7 @@
     </row>
     <row r="301" spans="1:32">
       <c r="A301" s="1" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="AF301">
         <v>4099.5</v>
@@ -5649,7 +5709,7 @@
     </row>
     <row r="302" spans="1:32">
       <c r="A302" s="1" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="AF302">
         <v>3930.8</v>
@@ -5657,7 +5717,7 @@
     </row>
     <row r="303" spans="1:32">
       <c r="A303" s="1" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
       <c r="AF303">
         <v>3328</v>
@@ -5665,7 +5725,7 @@
     </row>
     <row r="304" spans="1:32">
       <c r="A304" s="1" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="AF304">
         <v>3490.1</v>
@@ -5673,7 +5733,7 @@
     </row>
     <row r="305" spans="1:32">
       <c r="A305" s="1" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
       <c r="AF305">
         <v>3244.4</v>
@@ -5681,7 +5741,7 @@
     </row>
     <row r="306" spans="1:32">
       <c r="A306" s="1" t="s">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="AF306">
         <v>3550.9</v>
@@ -5689,7 +5749,7 @@
     </row>
     <row r="307" spans="1:32">
       <c r="A307" s="1" t="s">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AF307">
         <v>3327.4</v>
@@ -5697,7 +5757,7 @@
     </row>
     <row r="308" spans="1:32">
       <c r="A308" s="1" t="s">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AF308">
         <v>3758.5</v>
@@ -5705,7 +5765,7 @@
     </row>
     <row r="309" spans="1:32">
       <c r="A309" s="1" t="s">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AF309">
         <v>4134.9</v>
@@ -5713,7 +5773,7 @@
     </row>
     <row r="310" spans="1:32">
       <c r="A310" s="1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="AF310">
         <v>5021.6</v>
@@ -5721,7 +5781,7 @@
     </row>
     <row r="311" spans="1:32">
       <c r="A311" s="1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
       <c r="AF311">
         <v>5188.1</v>
@@ -5729,7 +5789,7 @@
     </row>
     <row r="312" spans="1:32">
       <c r="A312" s="1" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="AF312">
         <v>5668.7</v>
@@ -5737,7 +5797,7 @@
     </row>
     <row r="313" spans="1:32">
       <c r="A313" s="1" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
       <c r="AF313">
         <v>6245.5</v>
@@ -5745,7 +5805,7 @@
     </row>
     <row r="314" spans="1:32">
       <c r="A314" s="1" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="AF314">
         <v>6801.1</v>
@@ -5753,7 +5813,7 @@
     </row>
     <row r="315" spans="1:32">
       <c r="A315" s="1" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="AF315">
         <v>6828.2</v>
@@ -5761,7 +5821,7 @@
     </row>
     <row r="316" spans="1:32">
       <c r="A316" s="1" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AF316">
         <v>7189.5</v>
@@ -5769,7 +5829,7 @@
     </row>
     <row r="317" spans="1:32">
       <c r="A317" s="1" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="AF317">
         <v>8344.799999999999</v>
@@ -5777,7 +5837,7 @@
     </row>
     <row r="318" spans="1:32">
       <c r="A318" s="1" t="s">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AF318">
         <v>11214</v>
@@ -5785,7 +5845,7 @@
     </row>
     <row r="319" spans="1:32">
       <c r="A319" s="1" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="AF319">
         <v>10017</v>
@@ -5793,7 +5853,7 @@
     </row>
     <row r="320" spans="1:32">
       <c r="A320" s="1" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="AF320">
         <v>10323</v>
@@ -5801,7 +5861,7 @@
     </row>
     <row r="321" spans="1:32">
       <c r="A321" s="1" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="AF321">
         <v>11974.8</v>
@@ -5809,7 +5869,7 @@
     </row>
     <row r="322" spans="1:32">
       <c r="A322" s="1" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="AF322">
         <v>12172.3</v>
@@ -5817,7 +5877,7 @@
     </row>
     <row r="323" spans="1:32">
       <c r="A323" s="1" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="AF323">
         <v>11595.8</v>
@@ -5825,7 +5885,7 @@
     </row>
     <row r="324" spans="1:32">
       <c r="A324" s="1" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
       <c r="AF324">
         <v>13147.5</v>
@@ -5833,7 +5893,7 @@
     </row>
     <row r="325" spans="1:32">
       <c r="A325" s="1" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="AF325">
         <v>14483.4</v>
@@ -5841,7 +5901,7 @@
     </row>
     <row r="326" spans="1:32">
       <c r="A326" s="1" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
       <c r="AF326">
         <v>15154.2</v>
@@ -5849,7 +5909,7 @@
     </row>
     <row r="327" spans="1:32">
       <c r="A327" s="1" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="AF327">
         <v>13625.4</v>
@@ -5857,7 +5917,7 @@
     </row>
     <row r="328" spans="1:32">
       <c r="A328" s="1" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
       <c r="AF328">
         <v>14821.7</v>
@@ -5865,7 +5925,7 @@
     </row>
     <row r="329" spans="1:32">
       <c r="A329" s="1" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="AF329">
         <v>15667.7</v>
@@ -5873,7 +5933,7 @@
     </row>
     <row r="330" spans="1:32">
       <c r="A330" s="1" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="AF330">
         <v>17037.9</v>
@@ -5881,7 +5941,7 @@
     </row>
     <row r="331" spans="1:32">
       <c r="A331" s="1" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="AF331">
         <v>15302.7</v>
@@ -5889,7 +5949,7 @@
     </row>
     <row r="332" spans="1:32">
       <c r="A332" s="1" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
       <c r="AF332">
         <v>16379.6</v>
@@ -5897,7 +5957,7 @@
     </row>
     <row r="333" spans="1:32">
       <c r="A333" s="1" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AF333">
         <v>18416.4</v>
@@ -5905,7 +5965,7 @@
     </row>
     <row r="334" spans="1:32">
       <c r="A334" s="1" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
       <c r="AF334">
         <v>18767.4</v>
@@ -5913,7 +5973,7 @@
     </row>
     <row r="335" spans="1:32">
       <c r="A335" s="1" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="AF335">
         <v>17505.8</v>
@@ -5921,7 +5981,7 @@
     </row>
     <row r="336" spans="1:32">
       <c r="A336" s="1" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
       <c r="AF336">
         <v>16828.9</v>
@@ -5929,7 +5989,7 @@
     </row>
     <row r="337" spans="1:32">
       <c r="A337" s="1" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="AF337">
         <v>19639.5</v>
@@ -5937,7 +5997,7 @@
     </row>
     <row r="338" spans="1:32">
       <c r="A338" s="1" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
       <c r="D338">
         <v>-315</v>
@@ -5957,7 +6017,7 @@
     </row>
     <row r="339" spans="1:32">
       <c r="A339" s="1" t="s">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="D339">
         <v>6745</v>
@@ -5977,7 +6037,7 @@
     </row>
     <row r="340" spans="1:32">
       <c r="A340" s="1" t="s">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="D340">
         <v>613</v>
@@ -5997,7 +6057,7 @@
     </row>
     <row r="341" spans="1:32">
       <c r="A341" s="1" t="s">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="D341">
         <v>-3295</v>
@@ -6017,7 +6077,7 @@
     </row>
     <row r="342" spans="1:32">
       <c r="A342" s="1" t="s">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="D342">
         <v>2361</v>
@@ -6037,7 +6097,7 @@
     </row>
     <row r="343" spans="1:32">
       <c r="A343" s="1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="D343">
         <v>4612</v>
@@ -6057,7 +6117,7 @@
     </row>
     <row r="344" spans="1:32">
       <c r="A344" s="1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="D344">
         <v>5747</v>
@@ -6077,7 +6137,7 @@
     </row>
     <row r="345" spans="1:32">
       <c r="A345" s="1" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="D345">
         <v>3721</v>
@@ -6097,7 +6157,7 @@
     </row>
     <row r="346" spans="1:32">
       <c r="A346" s="1" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="D346">
         <v>202</v>
@@ -6117,7 +6177,7 @@
     </row>
     <row r="347" spans="1:32">
       <c r="A347" s="1" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="D347">
         <v>1450</v>
@@ -6137,7 +6197,7 @@
     </row>
     <row r="348" spans="1:32">
       <c r="A348" s="1" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="D348">
         <v>3978</v>
@@ -6157,7 +6217,7 @@
     </row>
     <row r="349" spans="1:32">
       <c r="A349" s="1" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="D349">
         <v>533</v>
@@ -6177,7 +6237,7 @@
     </row>
     <row r="350" spans="1:32">
       <c r="A350" s="1" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="D350">
         <v>493</v>
@@ -6197,7 +6257,7 @@
     </row>
     <row r="351" spans="1:32">
       <c r="A351" s="1" t="s">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="D351">
         <v>8172</v>
@@ -6217,7 +6277,7 @@
     </row>
     <row r="352" spans="1:32">
       <c r="A352" s="1" t="s">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="D352">
         <v>-1519</v>
@@ -6237,7 +6297,7 @@
     </row>
     <row r="353" spans="1:33">
       <c r="A353" s="1" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
       <c r="D353">
         <v>1718</v>
@@ -6257,7 +6317,7 @@
     </row>
     <row r="354" spans="1:33">
       <c r="A354" s="1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="D354">
         <v>10100</v>
@@ -6277,7 +6337,7 @@
     </row>
     <row r="355" spans="1:33">
       <c r="A355" s="1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="D355">
         <v>-4533</v>
@@ -6297,7 +6357,7 @@
     </row>
     <row r="356" spans="1:33">
       <c r="A356" s="1" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="D356">
         <v>7835</v>
@@ -6317,7 +6377,7 @@
     </row>
     <row r="357" spans="1:33">
       <c r="A357" s="1" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D357">
         <v>9326</v>
@@ -6337,7 +6397,7 @@
     </row>
     <row r="358" spans="1:33">
       <c r="A358" s="1" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B358">
         <v>-24955</v>
@@ -6426,7 +6486,7 @@
     </row>
     <row r="359" spans="1:33">
       <c r="A359" s="1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
       <c r="B359">
         <v>-45784</v>
@@ -6515,7 +6575,7 @@
     </row>
     <row r="360" spans="1:33">
       <c r="A360" s="1" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B360">
         <v>-47797</v>
@@ -6604,7 +6664,7 @@
     </row>
     <row r="361" spans="1:33">
       <c r="A361" s="1" t="s">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="B361">
         <v>-67648</v>
@@ -6693,7 +6753,7 @@
     </row>
     <row r="362" spans="1:33">
       <c r="A362" s="1" t="s">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B362">
         <v>-55581</v>
@@ -6782,7 +6842,7 @@
     </row>
     <row r="363" spans="1:33">
       <c r="A363" s="1" t="s">
-        <v>393</v>
+        <v>403</v>
       </c>
       <c r="B363">
         <v>-71738</v>
@@ -6871,7 +6931,7 @@
     </row>
     <row r="364" spans="1:33">
       <c r="A364" s="1" t="s">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B364">
         <v>-45339</v>
@@ -6960,7 +7020,7 @@
     </row>
     <row r="365" spans="1:33">
       <c r="A365" s="1" t="s">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="B365">
         <v>-20605</v>
@@ -7049,7 +7109,7 @@
     </row>
     <row r="366" spans="1:33">
       <c r="A366" s="1" t="s">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B366">
         <v>-24999</v>
@@ -7138,7 +7198,7 @@
     </row>
     <row r="367" spans="1:33">
       <c r="A367" s="1" t="s">
-        <v>397</v>
+        <v>407</v>
       </c>
       <c r="B367">
         <v>-49189</v>
@@ -7227,7 +7287,7 @@
     </row>
     <row r="368" spans="1:33">
       <c r="A368" s="1" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B368">
         <v>-45992</v>
@@ -7316,7 +7376,7 @@
     </row>
     <row r="369" spans="1:33">
       <c r="A369" s="1" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
       <c r="B369">
         <v>-39894</v>
@@ -7405,7 +7465,7 @@
     </row>
     <row r="370" spans="1:33">
       <c r="A370" s="1" t="s">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="B370">
         <v>-38044</v>
@@ -7494,7 +7554,7 @@
     </row>
     <row r="371" spans="1:33">
       <c r="A371" s="1" t="s">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="B371">
         <v>-58218</v>
@@ -7583,7 +7643,7 @@
     </row>
     <row r="372" spans="1:33">
       <c r="A372" s="1" t="s">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="B372">
         <v>-17151</v>
@@ -7672,7 +7732,7 @@
     </row>
     <row r="373" spans="1:33">
       <c r="A373" s="1" t="s">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="B373">
         <v>-47716</v>
@@ -7761,7 +7821,7 @@
     </row>
     <row r="374" spans="1:33">
       <c r="A374" s="1" t="s">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B374">
         <v>-29757</v>
@@ -7850,7 +7910,7 @@
     </row>
     <row r="375" spans="1:33">
       <c r="A375" s="1" t="s">
-        <v>405</v>
+        <v>415</v>
       </c>
       <c r="B375">
         <v>-69268</v>
@@ -7939,7 +7999,7 @@
     </row>
     <row r="376" spans="1:33">
       <c r="A376" s="1" t="s">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B376">
         <v>-48371</v>
@@ -8028,7 +8088,7 @@
     </row>
     <row r="377" spans="1:33">
       <c r="A377" s="1" t="s">
-        <v>407</v>
+        <v>417</v>
       </c>
       <c r="B377">
         <v>-55757</v>
@@ -8117,7 +8177,7 @@
     </row>
     <row r="378" spans="1:33">
       <c r="A378" s="1" t="s">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B378">
         <v>-61192</v>
@@ -8206,7 +8266,7 @@
     </row>
     <row r="379" spans="1:33">
       <c r="A379" s="1" t="s">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="B379">
         <v>-98369</v>
@@ -8295,7 +8355,7 @@
     </row>
     <row r="380" spans="1:33">
       <c r="A380" s="1" t="s">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B380">
         <v>-75536</v>
@@ -8384,7 +8444,7 @@
     </row>
     <row r="381" spans="1:33">
       <c r="A381" s="1" t="s">
-        <v>411</v>
+        <v>421</v>
       </c>
       <c r="B381">
         <v>-103244</v>
@@ -8473,7 +8533,7 @@
     </row>
     <row r="382" spans="1:33">
       <c r="A382" s="1" t="s">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B382">
         <v>-86365</v>
@@ -8562,7 +8622,7 @@
     </row>
     <row r="383" spans="1:33">
       <c r="A383" s="1" t="s">
-        <v>413</v>
+        <v>423</v>
       </c>
       <c r="B383">
         <v>-123667</v>
@@ -8651,7 +8711,7 @@
     </row>
     <row r="384" spans="1:33">
       <c r="A384" s="1" t="s">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B384">
         <v>-91884</v>
@@ -8738,9 +8798,9 @@
         <v>19677</v>
       </c>
     </row>
-    <row r="385" spans="1:33">
+    <row r="385" spans="1:43">
       <c r="A385" s="1" t="s">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="B385">
         <v>-70243</v>
@@ -8827,9 +8887,9 @@
         <v>13213</v>
       </c>
     </row>
-    <row r="386" spans="1:33">
+    <row r="386" spans="1:43">
       <c r="A386" s="1" t="s">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B386">
         <v>-54248</v>
@@ -8915,10 +8975,13 @@
       <c r="AG386">
         <v>12233</v>
       </c>
-    </row>
-    <row r="387" spans="1:33">
+      <c r="AQ386">
+        <v>5385.51</v>
+      </c>
+    </row>
+    <row r="387" spans="1:43">
       <c r="A387" s="1" t="s">
-        <v>417</v>
+        <v>427</v>
       </c>
       <c r="B387">
         <v>-81174</v>
@@ -9004,10 +9067,13 @@
       <c r="AG387">
         <v>22109</v>
       </c>
-    </row>
-    <row r="388" spans="1:33">
+      <c r="AQ387">
+        <v>5765.29</v>
+      </c>
+    </row>
+    <row r="388" spans="1:43">
       <c r="A388" s="1" t="s">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B388">
         <v>-22994</v>
@@ -9093,10 +9159,13 @@
       <c r="AG388">
         <v>16028</v>
       </c>
-    </row>
-    <row r="389" spans="1:33">
+      <c r="AQ388">
+        <v>5765.29</v>
+      </c>
+    </row>
+    <row r="389" spans="1:43">
       <c r="A389" s="1" t="s">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="B389">
         <v>118194</v>
@@ -9182,10 +9251,13 @@
       <c r="AG389">
         <v>24593</v>
       </c>
-    </row>
-    <row r="390" spans="1:33">
+      <c r="AQ389">
+        <v>5765.29</v>
+      </c>
+    </row>
+    <row r="390" spans="1:43">
       <c r="A390" s="1" t="s">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B390">
         <v>197007</v>
@@ -9271,10 +9343,13 @@
       <c r="AG390">
         <v>31990</v>
       </c>
-    </row>
-    <row r="391" spans="1:33">
+      <c r="AQ390">
+        <v>5580.4</v>
+      </c>
+    </row>
+    <row r="391" spans="1:43">
       <c r="A391" s="1" t="s">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="B391">
         <v>112899</v>
@@ -9360,10 +9435,13 @@
       <c r="AG391">
         <v>24830</v>
       </c>
-    </row>
-    <row r="392" spans="1:33">
+      <c r="AQ391">
+        <v>5938.2</v>
+      </c>
+    </row>
+    <row r="392" spans="1:43">
       <c r="A392" s="1" t="s">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B392">
         <v>139846</v>
@@ -9449,10 +9527,13 @@
       <c r="AG392">
         <v>24947</v>
       </c>
-    </row>
-    <row r="393" spans="1:33">
+      <c r="AQ392">
+        <v>5938.2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:43">
       <c r="A393" s="1" t="s">
-        <v>423</v>
+        <v>433</v>
       </c>
       <c r="B393">
         <v>142418</v>
@@ -9538,10 +9619,13 @@
       <c r="AG393">
         <v>28392</v>
       </c>
-    </row>
-    <row r="394" spans="1:33">
+      <c r="AQ393">
+        <v>5938.2</v>
+      </c>
+    </row>
+    <row r="394" spans="1:43">
       <c r="A394" s="1" t="s">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B394">
         <v>146551</v>
@@ -9627,10 +9711,40 @@
       <c r="AG394">
         <v>35503</v>
       </c>
-    </row>
-    <row r="395" spans="1:33">
+      <c r="AH394">
+        <v>8218</v>
+      </c>
+      <c r="AI394">
+        <v>0</v>
+      </c>
+      <c r="AJ394">
+        <v>8218</v>
+      </c>
+      <c r="AK394">
+        <v>3762</v>
+      </c>
+      <c r="AL394">
+        <v>683</v>
+      </c>
+      <c r="AM394">
+        <v>266</v>
+      </c>
+      <c r="AN394">
+        <v>417</v>
+      </c>
+      <c r="AO394">
+        <v>21.7</v>
+      </c>
+      <c r="AP394">
+        <v>3.9</v>
+      </c>
+      <c r="AQ394">
+        <v>5647.24</v>
+      </c>
+    </row>
+    <row r="395" spans="1:43">
       <c r="A395" s="1" t="s">
-        <v>425</v>
+        <v>435</v>
       </c>
       <c r="B395">
         <v>82476</v>
@@ -9716,10 +9830,40 @@
       <c r="AG395">
         <v>18717</v>
       </c>
-    </row>
-    <row r="396" spans="1:33">
+      <c r="AH395">
+        <v>8265</v>
+      </c>
+      <c r="AI395">
+        <v>0</v>
+      </c>
+      <c r="AJ395">
+        <v>8265</v>
+      </c>
+      <c r="AK395">
+        <v>3293</v>
+      </c>
+      <c r="AL395">
+        <v>624</v>
+      </c>
+      <c r="AM395">
+        <v>269</v>
+      </c>
+      <c r="AN395">
+        <v>355</v>
+      </c>
+      <c r="AO395">
+        <v>19.1</v>
+      </c>
+      <c r="AP395">
+        <v>3.6</v>
+      </c>
+      <c r="AQ395">
+        <v>5869</v>
+      </c>
+    </row>
+    <row r="396" spans="1:43">
       <c r="A396" s="1" t="s">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B396">
         <v>114912</v>
@@ -9805,10 +9949,40 @@
       <c r="AG396">
         <v>28140</v>
       </c>
-    </row>
-    <row r="397" spans="1:33">
+      <c r="AH396">
+        <v>8374</v>
+      </c>
+      <c r="AI396">
+        <v>0</v>
+      </c>
+      <c r="AJ396">
+        <v>8374</v>
+      </c>
+      <c r="AK396">
+        <v>4471</v>
+      </c>
+      <c r="AL396">
+        <v>997</v>
+      </c>
+      <c r="AM396">
+        <v>608</v>
+      </c>
+      <c r="AN396">
+        <v>389</v>
+      </c>
+      <c r="AO396">
+        <v>24.2</v>
+      </c>
+      <c r="AP396">
+        <v>5.4</v>
+      </c>
+      <c r="AQ396">
+        <v>5998.3</v>
+      </c>
+    </row>
+    <row r="397" spans="1:43">
       <c r="A397" s="1" t="s">
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="B397">
         <v>126049</v>
@@ -9894,10 +10068,40 @@
       <c r="AG397">
         <v>31788</v>
       </c>
-    </row>
-    <row r="398" spans="1:33">
+      <c r="AH397">
+        <v>8888</v>
+      </c>
+      <c r="AI397">
+        <v>0</v>
+      </c>
+      <c r="AJ397">
+        <v>8888</v>
+      </c>
+      <c r="AK397">
+        <v>2610</v>
+      </c>
+      <c r="AL397">
+        <v>573</v>
+      </c>
+      <c r="AM397">
+        <v>230</v>
+      </c>
+      <c r="AN397">
+        <v>343</v>
+      </c>
+      <c r="AO397">
+        <v>13.1</v>
+      </c>
+      <c r="AP397">
+        <v>2.9</v>
+      </c>
+      <c r="AQ397">
+        <v>6056.3</v>
+      </c>
+    </row>
+    <row r="398" spans="1:43">
       <c r="A398" s="1" t="s">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B398">
         <v>123949</v>
@@ -9983,10 +10187,40 @@
       <c r="AG398">
         <v>27621</v>
       </c>
-    </row>
-    <row r="399" spans="1:33">
+      <c r="AH398">
+        <v>8789</v>
+      </c>
+      <c r="AI398">
+        <v>0</v>
+      </c>
+      <c r="AJ398">
+        <v>8789</v>
+      </c>
+      <c r="AK398">
+        <v>3265</v>
+      </c>
+      <c r="AL398">
+        <v>1005</v>
+      </c>
+      <c r="AM398">
+        <v>546</v>
+      </c>
+      <c r="AN398">
+        <v>459</v>
+      </c>
+      <c r="AO398">
+        <v>16.1</v>
+      </c>
+      <c r="AP398">
+        <v>5</v>
+      </c>
+      <c r="AQ398">
+        <v>5516</v>
+      </c>
+    </row>
+    <row r="399" spans="1:43">
       <c r="A399" s="1" t="s">
-        <v>429</v>
+        <v>439</v>
       </c>
       <c r="B399">
         <v>64702</v>
@@ -10072,10 +10306,40 @@
       <c r="AG399">
         <v>30197</v>
       </c>
-    </row>
-    <row r="400" spans="1:33">
+      <c r="AH399">
+        <v>8862</v>
+      </c>
+      <c r="AI399">
+        <v>94</v>
+      </c>
+      <c r="AJ399">
+        <v>8768</v>
+      </c>
+      <c r="AK399">
+        <v>2977</v>
+      </c>
+      <c r="AL399">
+        <v>677</v>
+      </c>
+      <c r="AM399">
+        <v>262</v>
+      </c>
+      <c r="AN399">
+        <v>415</v>
+      </c>
+      <c r="AO399">
+        <v>15.3</v>
+      </c>
+      <c r="AP399">
+        <v>3.5</v>
+      </c>
+      <c r="AQ399">
+        <v>5968.4</v>
+      </c>
+    </row>
+    <row r="400" spans="1:43">
       <c r="A400" s="1" t="s">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B400">
         <v>88256</v>
@@ -10161,10 +10425,40 @@
       <c r="AG400">
         <v>30674</v>
       </c>
-    </row>
-    <row r="401" spans="1:33">
+      <c r="AH400">
+        <v>8896</v>
+      </c>
+      <c r="AI400">
+        <v>0</v>
+      </c>
+      <c r="AJ400">
+        <v>8896</v>
+      </c>
+      <c r="AK400">
+        <v>3679</v>
+      </c>
+      <c r="AL400">
+        <v>828</v>
+      </c>
+      <c r="AM400">
+        <v>411</v>
+      </c>
+      <c r="AN400">
+        <v>417</v>
+      </c>
+      <c r="AO400">
+        <v>16.9</v>
+      </c>
+      <c r="AP400">
+        <v>3.8</v>
+      </c>
+      <c r="AQ400">
+        <v>5846.4</v>
+      </c>
+    </row>
+    <row r="401" spans="1:43">
       <c r="A401" s="1" t="s">
-        <v>431</v>
+        <v>441</v>
       </c>
       <c r="B401">
         <v>94605</v>
@@ -10250,10 +10544,40 @@
       <c r="AG401">
         <v>42626</v>
       </c>
-    </row>
-    <row r="402" spans="1:33">
+      <c r="AH401">
+        <v>8886</v>
+      </c>
+      <c r="AI401">
+        <v>26</v>
+      </c>
+      <c r="AJ401">
+        <v>8860</v>
+      </c>
+      <c r="AK401">
+        <v>2972</v>
+      </c>
+      <c r="AL401">
+        <v>845</v>
+      </c>
+      <c r="AM401">
+        <v>463</v>
+      </c>
+      <c r="AN401">
+        <v>382</v>
+      </c>
+      <c r="AO401">
+        <v>13.6</v>
+      </c>
+      <c r="AP401">
+        <v>3.9</v>
+      </c>
+      <c r="AQ401">
+        <v>6052</v>
+      </c>
+    </row>
+    <row r="402" spans="1:43">
       <c r="A402" s="1" t="s">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B402">
         <v>47253</v>
@@ -10339,10 +10663,40 @@
       <c r="AG402">
         <v>32839</v>
       </c>
-    </row>
-    <row r="403" spans="1:33">
+      <c r="AH402">
+        <v>8575</v>
+      </c>
+      <c r="AI402">
+        <v>24</v>
+      </c>
+      <c r="AJ402">
+        <v>8551</v>
+      </c>
+      <c r="AK402">
+        <v>4148</v>
+      </c>
+      <c r="AL402">
+        <v>1341</v>
+      </c>
+      <c r="AM402">
+        <v>904</v>
+      </c>
+      <c r="AN402">
+        <v>437</v>
+      </c>
+      <c r="AO402">
+        <v>21.1</v>
+      </c>
+      <c r="AP402">
+        <v>6.8</v>
+      </c>
+      <c r="AQ402">
+        <v>6014.85</v>
+      </c>
+    </row>
+    <row r="403" spans="1:43">
       <c r="A403" s="1" t="s">
-        <v>433</v>
+        <v>443</v>
       </c>
       <c r="B403">
         <v>33541</v>
@@ -10428,10 +10782,40 @@
       <c r="AG403">
         <v>34187</v>
       </c>
-    </row>
-    <row r="404" spans="1:33">
+      <c r="AH403">
+        <v>8771</v>
+      </c>
+      <c r="AI403">
+        <v>150</v>
+      </c>
+      <c r="AJ403">
+        <v>8621</v>
+      </c>
+      <c r="AK403">
+        <v>3225</v>
+      </c>
+      <c r="AL403">
+        <v>1406</v>
+      </c>
+      <c r="AM403">
+        <v>1025</v>
+      </c>
+      <c r="AN403">
+        <v>381</v>
+      </c>
+      <c r="AO403">
+        <v>17</v>
+      </c>
+      <c r="AP403">
+        <v>7.4</v>
+      </c>
+      <c r="AQ403">
+        <v>6126.98</v>
+      </c>
+    </row>
+    <row r="404" spans="1:43">
       <c r="A404" s="1" t="s">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B404">
         <v>61391</v>
@@ -10517,10 +10901,40 @@
       <c r="AG404">
         <v>34372</v>
       </c>
-    </row>
-    <row r="405" spans="1:33">
+      <c r="AH404">
+        <v>8883</v>
+      </c>
+      <c r="AI404">
+        <v>70</v>
+      </c>
+      <c r="AJ404">
+        <v>8813</v>
+      </c>
+      <c r="AK404">
+        <v>4681</v>
+      </c>
+      <c r="AL404">
+        <v>1762</v>
+      </c>
+      <c r="AM404">
+        <v>1418</v>
+      </c>
+      <c r="AN404">
+        <v>344</v>
+      </c>
+      <c r="AO404">
+        <v>24.1</v>
+      </c>
+      <c r="AP404">
+        <v>9.1</v>
+      </c>
+      <c r="AQ404">
+        <v>6108.54</v>
+      </c>
+    </row>
+    <row r="405" spans="1:43">
       <c r="A405" s="1" t="s">
-        <v>435</v>
+        <v>445</v>
       </c>
       <c r="B405">
         <v>84155</v>
@@ -10606,10 +11020,40 @@
       <c r="AG405">
         <v>34407</v>
       </c>
-    </row>
-    <row r="406" spans="1:33">
+      <c r="AH405">
+        <v>8734</v>
+      </c>
+      <c r="AI405">
+        <v>147</v>
+      </c>
+      <c r="AJ405">
+        <v>8587</v>
+      </c>
+      <c r="AK405">
+        <v>4027</v>
+      </c>
+      <c r="AL405">
+        <v>1724</v>
+      </c>
+      <c r="AM405">
+        <v>1413</v>
+      </c>
+      <c r="AN405">
+        <v>311</v>
+      </c>
+      <c r="AO405">
+        <v>20.8</v>
+      </c>
+      <c r="AP405">
+        <v>8.9</v>
+      </c>
+      <c r="AQ405">
+        <v>6408.32259491455</v>
+      </c>
+    </row>
+    <row r="406" spans="1:43">
       <c r="A406" s="1" t="s">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B406">
         <v>55981</v>
@@ -10695,10 +11139,40 @@
       <c r="AG406">
         <v>33401</v>
       </c>
-    </row>
-    <row r="407" spans="1:33">
+      <c r="AH406">
+        <v>8444</v>
+      </c>
+      <c r="AI406">
+        <v>197</v>
+      </c>
+      <c r="AJ406">
+        <v>8247</v>
+      </c>
+      <c r="AK406">
+        <v>4667</v>
+      </c>
+      <c r="AL406">
+        <v>1983</v>
+      </c>
+      <c r="AM406">
+        <v>1711</v>
+      </c>
+      <c r="AN406">
+        <v>272</v>
+      </c>
+      <c r="AO406">
+        <v>24.5</v>
+      </c>
+      <c r="AP406">
+        <v>10.4</v>
+      </c>
+      <c r="AQ406">
+        <v>5868.53858009089</v>
+      </c>
+    </row>
+    <row r="407" spans="1:43">
       <c r="A407" s="1" t="s">
-        <v>437</v>
+        <v>447</v>
       </c>
       <c r="B407">
         <v>6328</v>
@@ -10784,10 +11258,40 @@
       <c r="AG407">
         <v>31964</v>
       </c>
-    </row>
-    <row r="408" spans="1:33">
+      <c r="AH407">
+        <v>8819</v>
+      </c>
+      <c r="AI407">
+        <v>250</v>
+      </c>
+      <c r="AJ407">
+        <v>8569</v>
+      </c>
+      <c r="AK407">
+        <v>3279</v>
+      </c>
+      <c r="AL407">
+        <v>1461</v>
+      </c>
+      <c r="AM407">
+        <v>1200</v>
+      </c>
+      <c r="AN407">
+        <v>261</v>
+      </c>
+      <c r="AO407">
+        <v>16.5</v>
+      </c>
+      <c r="AP407">
+        <v>7.4</v>
+      </c>
+      <c r="AQ407">
+        <v>6100.29797567961</v>
+      </c>
+    </row>
+    <row r="408" spans="1:43">
       <c r="A408" s="1" t="s">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B408">
         <v>48583</v>
@@ -10873,10 +11377,40 @@
       <c r="AG408">
         <v>36513</v>
       </c>
-    </row>
-    <row r="409" spans="1:33">
+      <c r="AH408">
+        <v>8059</v>
+      </c>
+      <c r="AI408">
+        <v>868</v>
+      </c>
+      <c r="AJ408">
+        <v>7191</v>
+      </c>
+      <c r="AK408">
+        <v>4106</v>
+      </c>
+      <c r="AL408">
+        <v>1857</v>
+      </c>
+      <c r="AM408">
+        <v>1578</v>
+      </c>
+      <c r="AN408">
+        <v>279</v>
+      </c>
+      <c r="AO408">
+        <v>18.8</v>
+      </c>
+      <c r="AP408">
+        <v>8.5</v>
+      </c>
+      <c r="AQ408">
+        <v>6107.87705546588</v>
+      </c>
+    </row>
+    <row r="409" spans="1:43">
       <c r="A409" s="1" t="s">
-        <v>439</v>
+        <v>449</v>
       </c>
       <c r="B409">
         <v>91332</v>
@@ -10962,10 +11496,40 @@
       <c r="AG409">
         <v>38327</v>
       </c>
-    </row>
-    <row r="410" spans="1:33">
+      <c r="AH409">
+        <v>7612</v>
+      </c>
+      <c r="AI409">
+        <v>362</v>
+      </c>
+      <c r="AJ409">
+        <v>7250</v>
+      </c>
+      <c r="AK409">
+        <v>4221</v>
+      </c>
+      <c r="AL409">
+        <v>1275</v>
+      </c>
+      <c r="AM409">
+        <v>1045</v>
+      </c>
+      <c r="AN409">
+        <v>230</v>
+      </c>
+      <c r="AO409">
+        <v>19</v>
+      </c>
+      <c r="AP409">
+        <v>5.7</v>
+      </c>
+      <c r="AQ409">
+        <v>6089.68006543434</v>
+      </c>
+    </row>
+    <row r="410" spans="1:43">
       <c r="A410" s="1" t="s">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B410">
         <v>70445</v>
@@ -11051,10 +11615,40 @@
       <c r="AG410">
         <v>37952</v>
       </c>
-    </row>
-    <row r="411" spans="1:33">
+      <c r="AH410">
+        <v>7617</v>
+      </c>
+      <c r="AI410">
+        <v>541</v>
+      </c>
+      <c r="AJ410">
+        <v>7076</v>
+      </c>
+      <c r="AK410">
+        <v>5222</v>
+      </c>
+      <c r="AL410">
+        <v>3621</v>
+      </c>
+      <c r="AM410">
+        <v>3427</v>
+      </c>
+      <c r="AN410">
+        <v>194</v>
+      </c>
+      <c r="AO410">
+        <v>23.2</v>
+      </c>
+      <c r="AP410">
+        <v>16.1</v>
+      </c>
+      <c r="AQ410">
+        <v>6082.73771318134</v>
+      </c>
+    </row>
+    <row r="411" spans="1:43">
       <c r="A411" s="1" t="s">
-        <v>441</v>
+        <v>451</v>
       </c>
       <c r="B411">
         <v>19450</v>
@@ -11140,10 +11734,40 @@
       <c r="AG411">
         <v>26356</v>
       </c>
-    </row>
-    <row r="412" spans="1:33">
+      <c r="AH411">
+        <v>7625</v>
+      </c>
+      <c r="AI411">
+        <v>849</v>
+      </c>
+      <c r="AJ411">
+        <v>6776</v>
+      </c>
+      <c r="AK411">
+        <v>2723</v>
+      </c>
+      <c r="AL411">
+        <v>783</v>
+      </c>
+      <c r="AM411">
+        <v>594</v>
+      </c>
+      <c r="AN411">
+        <v>189</v>
+      </c>
+      <c r="AO411">
+        <v>12.4</v>
+      </c>
+      <c r="AP411">
+        <v>3.6</v>
+      </c>
+      <c r="AQ411">
+        <v>6155.4388671269</v>
+      </c>
+    </row>
+    <row r="412" spans="1:43">
       <c r="A412" s="1" t="s">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B412">
         <v>42099</v>
@@ -11229,10 +11853,40 @@
       <c r="AG412">
         <v>40079</v>
       </c>
-    </row>
-    <row r="413" spans="1:33">
+      <c r="AH412">
+        <v>7039</v>
+      </c>
+      <c r="AI412">
+        <v>208</v>
+      </c>
+      <c r="AJ412">
+        <v>6831</v>
+      </c>
+      <c r="AK412">
+        <v>4522</v>
+      </c>
+      <c r="AL412">
+        <v>2380</v>
+      </c>
+      <c r="AM412">
+        <v>2200</v>
+      </c>
+      <c r="AN412">
+        <v>180</v>
+      </c>
+      <c r="AO412">
+        <v>18.7</v>
+      </c>
+      <c r="AP412">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AQ412">
+        <v>6298.84350969817</v>
+      </c>
+    </row>
+    <row r="413" spans="1:43">
       <c r="A413" s="1" t="s">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="B413">
         <v>65281</v>
@@ -11318,10 +11972,40 @@
       <c r="AG413">
         <v>40521</v>
       </c>
-    </row>
-    <row r="414" spans="1:33">
+      <c r="AH413">
+        <v>7306</v>
+      </c>
+      <c r="AI413">
+        <v>385</v>
+      </c>
+      <c r="AJ413">
+        <v>6921</v>
+      </c>
+      <c r="AK413">
+        <v>2818</v>
+      </c>
+      <c r="AL413">
+        <v>436</v>
+      </c>
+      <c r="AM413">
+        <v>262</v>
+      </c>
+      <c r="AN413">
+        <v>174</v>
+      </c>
+      <c r="AO413">
+        <v>10.5</v>
+      </c>
+      <c r="AP413">
+        <v>1.6</v>
+      </c>
+      <c r="AQ413">
+        <v>6212.00767102885</v>
+      </c>
+    </row>
+    <row r="414" spans="1:43">
       <c r="A414" s="1" t="s">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B414">
         <v>43788</v>
@@ -11407,10 +12091,40 @@
       <c r="AG414">
         <v>41370</v>
       </c>
-    </row>
-    <row r="415" spans="1:33">
+      <c r="AH414">
+        <v>7135</v>
+      </c>
+      <c r="AI414">
+        <v>206</v>
+      </c>
+      <c r="AJ414">
+        <v>6929</v>
+      </c>
+      <c r="AK414">
+        <v>2808</v>
+      </c>
+      <c r="AL414">
+        <v>593</v>
+      </c>
+      <c r="AM414">
+        <v>440</v>
+      </c>
+      <c r="AN414">
+        <v>153</v>
+      </c>
+      <c r="AO414">
+        <v>10.2</v>
+      </c>
+      <c r="AP414">
+        <v>2.2</v>
+      </c>
+      <c r="AQ414">
+        <v>6077.45521926725</v>
+      </c>
+    </row>
+    <row r="415" spans="1:43">
       <c r="A415" s="1" t="s">
-        <v>445</v>
+        <v>455</v>
       </c>
       <c r="B415">
         <v>-16936</v>
@@ -11496,10 +12210,40 @@
       <c r="AG415">
         <v>38448</v>
       </c>
-    </row>
-    <row r="416" spans="1:33">
+      <c r="AH415">
+        <v>6646</v>
+      </c>
+      <c r="AI415">
+        <v>191</v>
+      </c>
+      <c r="AJ415">
+        <v>6455</v>
+      </c>
+      <c r="AK415">
+        <v>2193</v>
+      </c>
+      <c r="AL415">
+        <v>699</v>
+      </c>
+      <c r="AM415">
+        <v>514</v>
+      </c>
+      <c r="AN415">
+        <v>185</v>
+      </c>
+      <c r="AO415">
+        <v>7.8</v>
+      </c>
+      <c r="AP415">
+        <v>2.5</v>
+      </c>
+      <c r="AQ415">
+        <v>6039.82462292787</v>
+      </c>
+    </row>
+    <row r="416" spans="1:43">
       <c r="A416" s="1" t="s">
-        <v>446</v>
+        <v>456</v>
       </c>
       <c r="B416">
         <v>10867</v>
@@ -11585,10 +12329,40 @@
       <c r="AG416">
         <v>45079</v>
       </c>
-    </row>
-    <row r="417" spans="1:33">
+      <c r="AH416">
+        <v>6124</v>
+      </c>
+      <c r="AI416">
+        <v>220</v>
+      </c>
+      <c r="AJ416">
+        <v>5904</v>
+      </c>
+      <c r="AK416">
+        <v>2852</v>
+      </c>
+      <c r="AL416">
+        <v>478</v>
+      </c>
+      <c r="AM416">
+        <v>355</v>
+      </c>
+      <c r="AN416">
+        <v>123</v>
+      </c>
+      <c r="AO416">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AP416">
+        <v>1.6</v>
+      </c>
+      <c r="AQ416">
+        <v>6186.1174430714</v>
+      </c>
+    </row>
+    <row r="417" spans="1:43">
       <c r="A417" s="1" t="s">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="B417">
         <v>72410</v>
@@ -11674,10 +12448,40 @@
       <c r="AG417">
         <v>50122</v>
       </c>
-    </row>
-    <row r="418" spans="1:33">
+      <c r="AH417">
+        <v>5779</v>
+      </c>
+      <c r="AI417">
+        <v>288</v>
+      </c>
+      <c r="AJ417">
+        <v>5491</v>
+      </c>
+      <c r="AK417">
+        <v>2008</v>
+      </c>
+      <c r="AL417">
+        <v>452</v>
+      </c>
+      <c r="AM417">
+        <v>309</v>
+      </c>
+      <c r="AN417">
+        <v>143</v>
+      </c>
+      <c r="AO417">
+        <v>6.5</v>
+      </c>
+      <c r="AP417">
+        <v>1.5</v>
+      </c>
+      <c r="AQ417">
+        <v>6347.14047825861</v>
+      </c>
+    </row>
+    <row r="418" spans="1:43">
       <c r="A418" s="1" t="s">
-        <v>448</v>
+        <v>458</v>
       </c>
       <c r="B418">
         <v>-91199.53</v>
@@ -11775,10 +12579,40 @@
       <c r="AG418">
         <v>43161.57</v>
       </c>
-    </row>
-    <row r="419" spans="1:33">
+      <c r="AH418">
+        <v>5582.78</v>
+      </c>
+      <c r="AI418">
+        <v>287</v>
+      </c>
+      <c r="AJ418">
+        <v>5295.78</v>
+      </c>
+      <c r="AK418">
+        <v>3991.44</v>
+      </c>
+      <c r="AL418">
+        <v>126.81</v>
+      </c>
+      <c r="AM418">
+        <v>87.56999999999999</v>
+      </c>
+      <c r="AN418">
+        <v>39.24</v>
+      </c>
+      <c r="AO418">
+        <v>13.31</v>
+      </c>
+      <c r="AP418">
+        <v>1.46</v>
+      </c>
+      <c r="AQ418">
+        <v>6419.97722399476</v>
+      </c>
+    </row>
+    <row r="419" spans="1:43">
       <c r="A419" s="1" t="s">
-        <v>449</v>
+        <v>459</v>
       </c>
       <c r="B419">
         <v>-217377.29</v>
@@ -11876,10 +12710,40 @@
       <c r="AG419">
         <v>43358.71</v>
       </c>
-    </row>
-    <row r="420" spans="1:33">
+      <c r="AH419">
+        <v>4909.23</v>
+      </c>
+      <c r="AI419">
+        <v>781.08</v>
+      </c>
+      <c r="AJ419">
+        <v>4128.15</v>
+      </c>
+      <c r="AK419">
+        <v>2680.79</v>
+      </c>
+      <c r="AL419">
+        <v>130.03</v>
+      </c>
+      <c r="AM419">
+        <v>44.94</v>
+      </c>
+      <c r="AN419">
+        <v>85.09</v>
+      </c>
+      <c r="AO419">
+        <v>8.57</v>
+      </c>
+      <c r="AP419">
+        <v>1.09</v>
+      </c>
+      <c r="AQ419">
+        <v>6391.27251824248</v>
+      </c>
+    </row>
+    <row r="420" spans="1:43">
       <c r="A420" s="1" t="s">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="B420">
         <v>7652.22</v>
@@ -11977,10 +12841,40 @@
       <c r="AG420">
         <v>48420.68</v>
       </c>
-    </row>
-    <row r="421" spans="1:33">
+      <c r="AH420">
+        <v>4281.15</v>
+      </c>
+      <c r="AI420">
+        <v>14.16</v>
+      </c>
+      <c r="AJ420">
+        <v>4266.99</v>
+      </c>
+      <c r="AK420">
+        <v>3365.52</v>
+      </c>
+      <c r="AL420">
+        <v>74.59</v>
+      </c>
+      <c r="AM420">
+        <v>42.86</v>
+      </c>
+      <c r="AN420">
+        <v>31.73</v>
+      </c>
+      <c r="AO420">
+        <v>9.640000000000001</v>
+      </c>
+      <c r="AP420">
+        <v>1.07</v>
+      </c>
+      <c r="AQ420">
+        <v>6597.27073248069</v>
+      </c>
+    </row>
+    <row r="421" spans="1:43">
       <c r="A421" s="1" t="s">
-        <v>451</v>
+        <v>461</v>
       </c>
       <c r="B421">
         <v>-1568.34</v>
@@ -12078,10 +12972,40 @@
       <c r="AG421">
         <v>51290.44</v>
       </c>
-    </row>
-    <row r="422" spans="1:33">
+      <c r="AH421">
+        <v>4518.65</v>
+      </c>
+      <c r="AI421">
+        <v>71.17</v>
+      </c>
+      <c r="AJ421">
+        <v>4447.48</v>
+      </c>
+      <c r="AK421">
+        <v>4543.85</v>
+      </c>
+      <c r="AL421">
+        <v>146.89</v>
+      </c>
+      <c r="AM421">
+        <v>46.26</v>
+      </c>
+      <c r="AN421">
+        <v>100.63</v>
+      </c>
+      <c r="AO421">
+        <v>13.25</v>
+      </c>
+      <c r="AP421">
+        <v>1.06</v>
+      </c>
+      <c r="AQ421">
+        <v>6615.5571827639</v>
+      </c>
+    </row>
+    <row r="422" spans="1:43">
       <c r="A422" s="1" t="s">
-        <v>452</v>
+        <v>462</v>
       </c>
       <c r="B422">
         <v>29555.29</v>
@@ -12179,10 +13103,40 @@
       <c r="AG422">
         <v>50299.25</v>
       </c>
-    </row>
-    <row r="423" spans="1:33">
+      <c r="AH422">
+        <v>4661.32</v>
+      </c>
+      <c r="AI422">
+        <v>83.36</v>
+      </c>
+      <c r="AJ422">
+        <v>4577.96</v>
+      </c>
+      <c r="AK422">
+        <v>4318.38</v>
+      </c>
+      <c r="AL422">
+        <v>78.68000000000001</v>
+      </c>
+      <c r="AM422">
+        <v>49.44</v>
+      </c>
+      <c r="AN422">
+        <v>29.24</v>
+      </c>
+      <c r="AO422">
+        <v>12.21</v>
+      </c>
+      <c r="AP422">
+        <v>1.18</v>
+      </c>
+      <c r="AQ422">
+        <v>6723.27569787657</v>
+      </c>
+    </row>
+    <row r="423" spans="1:43">
       <c r="A423" s="1" t="s">
-        <v>453</v>
+        <v>463</v>
       </c>
       <c r="B423">
         <v>-86390.61</v>
@@ -12280,10 +13234,40 @@
       <c r="AG423">
         <v>48311.58</v>
       </c>
-    </row>
-    <row r="424" spans="1:33">
+      <c r="AH423">
+        <v>4483.23</v>
+      </c>
+      <c r="AI423">
+        <v>126.75</v>
+      </c>
+      <c r="AJ423">
+        <v>4356.48</v>
+      </c>
+      <c r="AK423">
+        <v>3415.46</v>
+      </c>
+      <c r="AL423">
+        <v>140.57</v>
+      </c>
+      <c r="AM423">
+        <v>53.62</v>
+      </c>
+      <c r="AN423">
+        <v>86.95</v>
+      </c>
+      <c r="AO423">
+        <v>9.35</v>
+      </c>
+      <c r="AP423">
+        <v>1.61</v>
+      </c>
+      <c r="AQ423">
+        <v>6752.80542600164</v>
+      </c>
+    </row>
+    <row r="424" spans="1:43">
       <c r="A424" s="1" t="s">
-        <v>454</v>
+        <v>464</v>
       </c>
       <c r="B424">
         <v>46427.57</v>
@@ -12381,10 +13365,40 @@
       <c r="AG424">
         <v>51377.57</v>
       </c>
-    </row>
-    <row r="425" spans="1:33">
+      <c r="AH424">
+        <v>4270.09</v>
+      </c>
+      <c r="AI424">
+        <v>42.54</v>
+      </c>
+      <c r="AJ424">
+        <v>4227.55</v>
+      </c>
+      <c r="AK424">
+        <v>4800.66</v>
+      </c>
+      <c r="AL424">
+        <v>65.31999999999999</v>
+      </c>
+      <c r="AM424">
+        <v>46.38</v>
+      </c>
+      <c r="AN424">
+        <v>18.94</v>
+      </c>
+      <c r="AO424">
+        <v>11.79</v>
+      </c>
+      <c r="AP424">
+        <v>1.08</v>
+      </c>
+      <c r="AQ424">
+        <v>6716.00648291808</v>
+      </c>
+    </row>
+    <row r="425" spans="1:43">
       <c r="A425" s="1" t="s">
-        <v>455</v>
+        <v>465</v>
       </c>
       <c r="B425">
         <v>94940.52</v>
@@ -12482,10 +13496,40 @@
       <c r="AG425">
         <v>53440.46</v>
       </c>
-    </row>
-    <row r="426" spans="1:33">
+      <c r="AH425">
+        <v>4140.26</v>
+      </c>
+      <c r="AI425">
+        <v>0</v>
+      </c>
+      <c r="AJ425">
+        <v>4140.26</v>
+      </c>
+      <c r="AK425">
+        <v>4805.44</v>
+      </c>
+      <c r="AL425">
+        <v>95.56999999999999</v>
+      </c>
+      <c r="AM425">
+        <v>45.48</v>
+      </c>
+      <c r="AN425">
+        <v>50.09</v>
+      </c>
+      <c r="AO425">
+        <v>11.64</v>
+      </c>
+      <c r="AP425">
+        <v>1.24</v>
+      </c>
+      <c r="AQ425">
+        <v>6941.57719436089</v>
+      </c>
+    </row>
+    <row r="426" spans="1:43">
       <c r="A426" s="1" t="s">
-        <v>456</v>
+        <v>466</v>
       </c>
       <c r="B426">
         <v>157082.38</v>
@@ -12583,10 +13627,40 @@
       <c r="AG426">
         <v>53571.73</v>
       </c>
-    </row>
-    <row r="427" spans="1:33">
+      <c r="AH426">
+        <v>3219.99</v>
+      </c>
+      <c r="AI426">
+        <v>0</v>
+      </c>
+      <c r="AJ426">
+        <v>3219.99</v>
+      </c>
+      <c r="AK426">
+        <v>7802.26</v>
+      </c>
+      <c r="AL426">
+        <v>83.25</v>
+      </c>
+      <c r="AM426">
+        <v>42.9</v>
+      </c>
+      <c r="AN426">
+        <v>40.35</v>
+      </c>
+      <c r="AO426">
+        <v>18.69</v>
+      </c>
+      <c r="AP426">
+        <v>0.89</v>
+      </c>
+      <c r="AQ426">
+        <v>6737.54834979535</v>
+      </c>
+    </row>
+    <row r="427" spans="1:43">
       <c r="A427" s="1" t="s">
-        <v>457</v>
+        <v>467</v>
       </c>
       <c r="B427">
         <v>32350.82</v>
@@ -12684,10 +13758,40 @@
       <c r="AG427">
         <v>50364.2</v>
       </c>
-    </row>
-    <row r="428" spans="1:33">
+      <c r="AH427">
+        <v>2222.58</v>
+      </c>
+      <c r="AI427">
+        <v>3.33</v>
+      </c>
+      <c r="AJ427">
+        <v>2219.25</v>
+      </c>
+      <c r="AK427">
+        <v>4323.25</v>
+      </c>
+      <c r="AL427">
+        <v>373</v>
+      </c>
+      <c r="AM427">
+        <v>322.08</v>
+      </c>
+      <c r="AN427">
+        <v>50.92</v>
+      </c>
+      <c r="AO427">
+        <v>10.08</v>
+      </c>
+      <c r="AP427">
+        <v>1.39</v>
+      </c>
+      <c r="AQ427">
+        <v>6884.26784241691</v>
+      </c>
+    </row>
+    <row r="428" spans="1:43">
       <c r="A428" s="1" t="s">
-        <v>458</v>
+        <v>468</v>
       </c>
       <c r="B428">
         <v>121845.2</v>
@@ -12785,10 +13889,40 @@
       <c r="AG428">
         <v>55754.8</v>
       </c>
-    </row>
-    <row r="429" spans="1:33">
+      <c r="AH428">
+        <v>2200.66</v>
+      </c>
+      <c r="AI428">
+        <v>3.36</v>
+      </c>
+      <c r="AJ428">
+        <v>2197.3</v>
+      </c>
+      <c r="AK428">
+        <v>4504.6</v>
+      </c>
+      <c r="AL428">
+        <v>40.66</v>
+      </c>
+      <c r="AM428">
+        <v>22.25</v>
+      </c>
+      <c r="AN428">
+        <v>18.41</v>
+      </c>
+      <c r="AO428">
+        <v>9.66</v>
+      </c>
+      <c r="AP428">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AQ428">
+        <v>7123.45222018598</v>
+      </c>
+    </row>
+    <row r="429" spans="1:43">
       <c r="A429" s="1" t="s">
-        <v>459</v>
+        <v>469</v>
       </c>
       <c r="B429">
         <v>225043.63</v>
@@ -12886,10 +14020,40 @@
       <c r="AG429">
         <v>59913.82</v>
       </c>
-    </row>
-    <row r="430" spans="1:33">
+      <c r="AH429">
+        <v>2270.63</v>
+      </c>
+      <c r="AI429">
+        <v>3.41</v>
+      </c>
+      <c r="AJ429">
+        <v>2267.22</v>
+      </c>
+      <c r="AK429">
+        <v>5314.14</v>
+      </c>
+      <c r="AL429">
+        <v>230.64</v>
+      </c>
+      <c r="AM429">
+        <v>205.21</v>
+      </c>
+      <c r="AN429">
+        <v>25.43</v>
+      </c>
+      <c r="AO429">
+        <v>10.27</v>
+      </c>
+      <c r="AP429">
+        <v>0.93</v>
+      </c>
+      <c r="AQ429">
+        <v>7328.93898586973</v>
+      </c>
+    </row>
+    <row r="430" spans="1:43">
       <c r="A430" s="1" t="s">
-        <v>460</v>
+        <v>470</v>
       </c>
       <c r="B430">
         <v>112097.09</v>
@@ -12987,10 +14151,40 @@
       <c r="AG430">
         <v>62910.51</v>
       </c>
-    </row>
-    <row r="431" spans="1:33">
+      <c r="AH430">
+        <v>3039.07</v>
+      </c>
+      <c r="AI430">
+        <v>224.98</v>
+      </c>
+      <c r="AJ430">
+        <v>2814.09</v>
+      </c>
+      <c r="AK430">
+        <v>7028.66</v>
+      </c>
+      <c r="AL430">
+        <v>48.71</v>
+      </c>
+      <c r="AM430">
+        <v>24.03</v>
+      </c>
+      <c r="AN430">
+        <v>24.68</v>
+      </c>
+      <c r="AO430">
+        <v>13.57</v>
+      </c>
+      <c r="AP430">
+        <v>0.74</v>
+      </c>
+      <c r="AQ430">
+        <v>7873.30672294208</v>
+      </c>
+    </row>
+    <row r="431" spans="1:43">
       <c r="A431" s="1" t="s">
-        <v>461</v>
+        <v>471</v>
       </c>
       <c r="B431">
         <v>4022.06</v>
@@ -13088,10 +14282,40 @@
       <c r="AG431">
         <v>59220.64</v>
       </c>
-    </row>
-    <row r="432" spans="1:33">
+      <c r="AH431">
+        <v>3103.79</v>
+      </c>
+      <c r="AI431">
+        <v>59.88</v>
+      </c>
+      <c r="AJ431">
+        <v>3043.91</v>
+      </c>
+      <c r="AK431">
+        <v>3394.19</v>
+      </c>
+      <c r="AL431">
+        <v>136.35</v>
+      </c>
+      <c r="AM431">
+        <v>108.85</v>
+      </c>
+      <c r="AN431">
+        <v>27.5</v>
+      </c>
+      <c r="AO431">
+        <v>6.25</v>
+      </c>
+      <c r="AP431">
+        <v>0.79</v>
+      </c>
+      <c r="AQ431">
+        <v>7305.65356743132</v>
+      </c>
+    </row>
+    <row r="432" spans="1:43">
       <c r="A432" s="1" t="s">
-        <v>462</v>
+        <v>472</v>
       </c>
       <c r="B432">
         <v>-34321.22</v>
@@ -13189,10 +14413,40 @@
       <c r="AG432">
         <v>65633.98</v>
       </c>
-    </row>
-    <row r="433" spans="1:33">
+      <c r="AH432">
+        <v>2977.66</v>
+      </c>
+      <c r="AI432">
+        <v>46.47</v>
+      </c>
+      <c r="AJ432">
+        <v>2931.2</v>
+      </c>
+      <c r="AK432">
+        <v>3341.53</v>
+      </c>
+      <c r="AL432">
+        <v>32.65</v>
+      </c>
+      <c r="AM432">
+        <v>14.53</v>
+      </c>
+      <c r="AN432">
+        <v>18.12</v>
+      </c>
+      <c r="AO432">
+        <v>5.8</v>
+      </c>
+      <c r="AP432">
+        <v>0.6</v>
+      </c>
+      <c r="AQ432">
+        <v>7711.94067163525</v>
+      </c>
+    </row>
+    <row r="433" spans="1:43">
       <c r="A433" s="1" t="s">
-        <v>463</v>
+        <v>473</v>
       </c>
       <c r="B433">
         <v>-55275.99</v>
@@ -13290,10 +14544,40 @@
       <c r="AG433">
         <v>54376.74</v>
       </c>
-    </row>
-    <row r="434" spans="1:33">
+      <c r="AH433">
+        <v>2872.16</v>
+      </c>
+      <c r="AI433">
+        <v>4.09</v>
+      </c>
+      <c r="AJ433">
+        <v>2868.07</v>
+      </c>
+      <c r="AK433">
+        <v>3524.45</v>
+      </c>
+      <c r="AL433">
+        <v>43.5</v>
+      </c>
+      <c r="AM433">
+        <v>23.71</v>
+      </c>
+      <c r="AN433">
+        <v>19.8</v>
+      </c>
+      <c r="AO433">
+        <v>7.58</v>
+      </c>
+      <c r="AP433">
+        <v>0.55</v>
+      </c>
+      <c r="AQ433">
+        <v>7847.47189803617</v>
+      </c>
+    </row>
+    <row r="434" spans="1:43">
       <c r="A434" s="1" t="s">
-        <v>464</v>
+        <v>474</v>
       </c>
       <c r="B434">
         <v>354763.47</v>
@@ -13391,10 +14675,40 @@
       <c r="AG434">
         <v>50626.74</v>
       </c>
-    </row>
-    <row r="435" spans="1:33">
+      <c r="AH434">
+        <v>3613.69</v>
+      </c>
+      <c r="AI434">
+        <v>52.94</v>
+      </c>
+      <c r="AJ434">
+        <v>3560.75</v>
+      </c>
+      <c r="AK434">
+        <v>3159.51</v>
+      </c>
+      <c r="AL434">
+        <v>26.31</v>
+      </c>
+      <c r="AM434">
+        <v>15.72</v>
+      </c>
+      <c r="AN434">
+        <v>10.59</v>
+      </c>
+      <c r="AO434">
+        <v>7.48</v>
+      </c>
+      <c r="AP434">
+        <v>0.8</v>
+      </c>
+      <c r="AQ434">
+        <v>7518.67072730297</v>
+      </c>
+    </row>
+    <row r="435" spans="1:43">
       <c r="A435" s="1" t="s">
-        <v>465</v>
+        <v>475</v>
       </c>
       <c r="B435">
         <v>109913.6</v>
@@ -13492,10 +14806,40 @@
       <c r="AG435">
         <v>41990.29</v>
       </c>
-    </row>
-    <row r="436" spans="1:33">
+      <c r="AH435">
+        <v>2907.67</v>
+      </c>
+      <c r="AI435">
+        <v>10.65</v>
+      </c>
+      <c r="AJ435">
+        <v>2897.02</v>
+      </c>
+      <c r="AK435">
+        <v>3511.6</v>
+      </c>
+      <c r="AL435">
+        <v>30.81</v>
+      </c>
+      <c r="AM435">
+        <v>21.72</v>
+      </c>
+      <c r="AN435">
+        <v>9.08</v>
+      </c>
+      <c r="AO435">
+        <v>8.48</v>
+      </c>
+      <c r="AP435">
+        <v>0.67</v>
+      </c>
+      <c r="AQ435">
+        <v>7468.96</v>
+      </c>
+    </row>
+    <row r="436" spans="1:43">
       <c r="A436" s="1" t="s">
-        <v>466</v>
+        <v>476</v>
       </c>
       <c r="B436">
         <v>138231.51</v>
@@ -13593,10 +14937,40 @@
       <c r="AG436">
         <v>47121.88</v>
       </c>
-    </row>
-    <row r="437" spans="1:33">
+      <c r="AH436">
+        <v>3692.02</v>
+      </c>
+      <c r="AI436">
+        <v>244.16</v>
+      </c>
+      <c r="AJ436">
+        <v>3447.86</v>
+      </c>
+      <c r="AK436">
+        <v>3304.83</v>
+      </c>
+      <c r="AL436">
+        <v>25.51</v>
+      </c>
+      <c r="AM436">
+        <v>19.48</v>
+      </c>
+      <c r="AN436">
+        <v>6.03</v>
+      </c>
+      <c r="AO436">
+        <v>6.75</v>
+      </c>
+      <c r="AP436">
+        <v>0.79</v>
+      </c>
+      <c r="AQ436">
+        <v>7869.25</v>
+      </c>
+    </row>
+    <row r="437" spans="1:43">
       <c r="A437" s="1" t="s">
-        <v>467</v>
+        <v>477</v>
       </c>
       <c r="B437">
         <v>162367.79</v>
@@ -13694,10 +15068,40 @@
       <c r="AG437">
         <v>54220.8</v>
       </c>
-    </row>
-    <row r="438" spans="1:33">
+      <c r="AH437">
+        <v>3883</v>
+      </c>
+      <c r="AI437">
+        <v>364.09</v>
+      </c>
+      <c r="AJ437">
+        <v>3518.91</v>
+      </c>
+      <c r="AK437">
+        <v>3781.71</v>
+      </c>
+      <c r="AL437">
+        <v>31.74</v>
+      </c>
+      <c r="AM437">
+        <v>22.23</v>
+      </c>
+      <c r="AN437">
+        <v>9.51</v>
+      </c>
+      <c r="AO437">
+        <v>7.11</v>
+      </c>
+      <c r="AP437">
+        <v>0.54</v>
+      </c>
+      <c r="AQ437">
+        <v>7948.87</v>
+      </c>
+    </row>
+    <row r="438" spans="1:43">
       <c r="A438" s="1" t="s">
-        <v>468</v>
+        <v>478</v>
       </c>
       <c r="B438">
         <v>148923.72</v>
@@ -13795,10 +15199,40 @@
       <c r="AG438">
         <v>53313.96</v>
       </c>
-    </row>
-    <row r="439" spans="1:33">
+      <c r="AH438">
+        <v>4743.27</v>
+      </c>
+      <c r="AI438">
+        <v>233.82</v>
+      </c>
+      <c r="AJ438">
+        <v>4509.45</v>
+      </c>
+      <c r="AK438">
+        <v>3060.16</v>
+      </c>
+      <c r="AL438">
+        <v>24.81</v>
+      </c>
+      <c r="AM438">
+        <v>18.97</v>
+      </c>
+      <c r="AN438">
+        <v>5.84</v>
+      </c>
+      <c r="AO438">
+        <v>5.6</v>
+      </c>
+      <c r="AP438">
+        <v>0.74</v>
+      </c>
+      <c r="AQ438">
+        <v>7494.67</v>
+      </c>
+    </row>
+    <row r="439" spans="1:43">
       <c r="A439" s="1" t="s">
-        <v>469</v>
+        <v>479</v>
       </c>
       <c r="B439">
         <v>22262.94</v>
@@ -13896,10 +15330,40 @@
       <c r="AG439">
         <v>39420.6</v>
       </c>
-    </row>
-    <row r="440" spans="1:33">
+      <c r="AH439">
+        <v>5276.78</v>
+      </c>
+      <c r="AI439">
+        <v>99.34999999999999</v>
+      </c>
+      <c r="AJ439">
+        <v>5177.43</v>
+      </c>
+      <c r="AK439">
+        <v>2684.63</v>
+      </c>
+      <c r="AL439">
+        <v>60.46</v>
+      </c>
+      <c r="AM439">
+        <v>20.73</v>
+      </c>
+      <c r="AN439">
+        <v>39.74</v>
+      </c>
+      <c r="AO439">
+        <v>4.83</v>
+      </c>
+      <c r="AP439">
+        <v>0.71</v>
+      </c>
+      <c r="AQ439">
+        <v>7744.02</v>
+      </c>
+    </row>
+    <row r="440" spans="1:43">
       <c r="A440" s="1" t="s">
-        <v>470</v>
+        <v>480</v>
       </c>
       <c r="B440">
         <v>39857.94</v>
@@ -13997,10 +15461,40 @@
       <c r="AG440">
         <v>46053.16</v>
       </c>
-    </row>
-    <row r="441" spans="1:33">
+      <c r="AH440">
+        <v>7596.07</v>
+      </c>
+      <c r="AI440">
+        <v>351.54</v>
+      </c>
+      <c r="AJ440">
+        <v>7244.53</v>
+      </c>
+      <c r="AK440">
+        <v>2635.45</v>
+      </c>
+      <c r="AL440">
+        <v>66.69</v>
+      </c>
+      <c r="AM440">
+        <v>19.66</v>
+      </c>
+      <c r="AN440">
+        <v>47.03</v>
+      </c>
+      <c r="AO440">
+        <v>4.5</v>
+      </c>
+      <c r="AP440">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="AQ440">
+        <v>8331.049999999999</v>
+      </c>
+    </row>
+    <row r="441" spans="1:43">
       <c r="A441" s="1" t="s">
-        <v>471</v>
+        <v>481</v>
       </c>
       <c r="B441">
         <v>147625.66</v>
@@ -14098,10 +15592,40 @@
       <c r="AG441">
         <v>48425</v>
       </c>
-    </row>
-    <row r="442" spans="1:33">
+      <c r="AH441">
+        <v>7782.91</v>
+      </c>
+      <c r="AI441">
+        <v>194.53</v>
+      </c>
+      <c r="AJ441">
+        <v>7588.38</v>
+      </c>
+      <c r="AK441">
+        <v>2161.83</v>
+      </c>
+      <c r="AL441">
+        <v>122.7</v>
+      </c>
+      <c r="AM441">
+        <v>23.43</v>
+      </c>
+      <c r="AN441">
+        <v>99.27</v>
+      </c>
+      <c r="AO441">
+        <v>3.45</v>
+      </c>
+      <c r="AP441">
+        <v>0.64</v>
+      </c>
+      <c r="AQ441">
+        <v>8182.52</v>
+      </c>
+    </row>
+    <row r="442" spans="1:43">
       <c r="A442" s="1" t="s">
-        <v>472</v>
+        <v>482</v>
       </c>
       <c r="B442">
         <v>124170.11</v>
@@ -14199,10 +15723,40 @@
       <c r="AG442">
         <v>48403.52</v>
       </c>
-    </row>
-    <row r="443" spans="1:33">
+      <c r="AH442">
+        <v>8625.629999999999</v>
+      </c>
+      <c r="AI442">
+        <v>50.75</v>
+      </c>
+      <c r="AJ442">
+        <v>8574.879999999999</v>
+      </c>
+      <c r="AK442">
+        <v>2625.4</v>
+      </c>
+      <c r="AL442">
+        <v>71.76000000000001</v>
+      </c>
+      <c r="AM442">
+        <v>20.26</v>
+      </c>
+      <c r="AN442">
+        <v>51.5</v>
+      </c>
+      <c r="AO442">
+        <v>4.12</v>
+      </c>
+      <c r="AP442">
+        <v>0.61</v>
+      </c>
+      <c r="AQ442">
+        <v>8066.35</v>
+      </c>
+    </row>
+    <row r="443" spans="1:43">
       <c r="A443" s="1" t="s">
-        <v>473</v>
+        <v>483</v>
       </c>
       <c r="B443">
         <v>-12090.68</v>
@@ -14300,10 +15854,40 @@
       <c r="AG443">
         <v>41440.08</v>
       </c>
-    </row>
-    <row r="444" spans="1:33">
+      <c r="AH443">
+        <v>8702.540000000001</v>
+      </c>
+      <c r="AI443">
+        <v>0</v>
+      </c>
+      <c r="AJ443">
+        <v>8702.540000000001</v>
+      </c>
+      <c r="AK443">
+        <v>2014.46</v>
+      </c>
+      <c r="AL443">
+        <v>97.04000000000001</v>
+      </c>
+      <c r="AM443">
+        <v>21.49</v>
+      </c>
+      <c r="AN443">
+        <v>75.54000000000001</v>
+      </c>
+      <c r="AO443">
+        <v>3.17</v>
+      </c>
+      <c r="AP443">
+        <v>0.5</v>
+      </c>
+      <c r="AQ443">
+        <v>8092.26</v>
+      </c>
+    </row>
+    <row r="444" spans="1:43">
       <c r="A444" s="1" t="s">
-        <v>474</v>
+        <v>484</v>
       </c>
       <c r="B444">
         <v>-39290.01</v>
@@ -14401,10 +15985,40 @@
       <c r="AG444">
         <v>46564.55</v>
       </c>
-    </row>
-    <row r="445" spans="1:33">
+      <c r="AH444">
+        <v>10545.71</v>
+      </c>
+      <c r="AI444">
+        <v>0</v>
+      </c>
+      <c r="AJ444">
+        <v>10545.71</v>
+      </c>
+      <c r="AK444">
+        <v>2195.78</v>
+      </c>
+      <c r="AL444">
+        <v>95.89</v>
+      </c>
+      <c r="AM444">
+        <v>39.54</v>
+      </c>
+      <c r="AN444">
+        <v>56.36</v>
+      </c>
+      <c r="AO444">
+        <v>2.99</v>
+      </c>
+      <c r="AP444">
+        <v>0.6</v>
+      </c>
+      <c r="AQ444">
+        <v>8636.43</v>
+      </c>
+    </row>
+    <row r="445" spans="1:43">
       <c r="A445" s="1" t="s">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="B445">
         <v>220000.62</v>
@@ -14502,10 +16116,40 @@
       <c r="AG445">
         <v>41291.67</v>
       </c>
-    </row>
-    <row r="446" spans="1:33">
+      <c r="AH445">
+        <v>11008.37</v>
+      </c>
+      <c r="AI445">
+        <v>0</v>
+      </c>
+      <c r="AJ445">
+        <v>11008.37</v>
+      </c>
+      <c r="AK445">
+        <v>2202.65</v>
+      </c>
+      <c r="AL445">
+        <v>132.14</v>
+      </c>
+      <c r="AM445">
+        <v>43.24</v>
+      </c>
+      <c r="AN445">
+        <v>88.90000000000001</v>
+      </c>
+      <c r="AO445">
+        <v>3.68</v>
+      </c>
+      <c r="AP445">
+        <v>0.7</v>
+      </c>
+      <c r="AQ445">
+        <v>8649.43</v>
+      </c>
+    </row>
+    <row r="446" spans="1:43">
       <c r="A446" s="1" t="s">
-        <v>476</v>
+        <v>486</v>
       </c>
       <c r="B446">
         <v>-242.24</v>
@@ -14603,10 +16247,40 @@
       <c r="AG446">
         <v>46806.87</v>
       </c>
-    </row>
-    <row r="447" spans="1:33">
+      <c r="AH446">
+        <v>12161.31</v>
+      </c>
+      <c r="AI446">
+        <v>31.96</v>
+      </c>
+      <c r="AJ446">
+        <v>12129.35</v>
+      </c>
+      <c r="AK446">
+        <v>3049.78</v>
+      </c>
+      <c r="AL446">
+        <v>107.09</v>
+      </c>
+      <c r="AM446">
+        <v>92.23</v>
+      </c>
+      <c r="AN446">
+        <v>14.86</v>
+      </c>
+      <c r="AO446">
+        <v>4.51</v>
+      </c>
+      <c r="AP446">
+        <v>0.54</v>
+      </c>
+      <c r="AQ446">
+        <v>9395.889999999999</v>
+      </c>
+    </row>
+    <row r="447" spans="1:43">
       <c r="A447" s="1" t="s">
-        <v>477</v>
+        <v>487</v>
       </c>
       <c r="B447">
         <v>-109858.79</v>
@@ -14704,10 +16378,40 @@
       <c r="AG447">
         <v>42760.86</v>
       </c>
-    </row>
-    <row r="448" spans="1:33">
+      <c r="AH447">
+        <v>13815.5</v>
+      </c>
+      <c r="AI447">
+        <v>52.04</v>
+      </c>
+      <c r="AJ447">
+        <v>13763.46</v>
+      </c>
+      <c r="AK447">
+        <v>2670.5</v>
+      </c>
+      <c r="AL447">
+        <v>130.52</v>
+      </c>
+      <c r="AM447">
+        <v>113.41</v>
+      </c>
+      <c r="AN447">
+        <v>17.11</v>
+      </c>
+      <c r="AO447">
+        <v>3.9</v>
+      </c>
+      <c r="AP447">
+        <v>0.49</v>
+      </c>
+      <c r="AQ447">
+        <v>10565.16</v>
+      </c>
+    </row>
+    <row r="448" spans="1:43">
       <c r="A448" s="1" t="s">
-        <v>478</v>
+        <v>488</v>
       </c>
       <c r="B448">
         <v>11320.06</v>
@@ -14805,10 +16509,40 @@
       <c r="AG448">
         <v>46584.69</v>
       </c>
-    </row>
-    <row r="449" spans="1:33">
+      <c r="AH448">
+        <v>16430.92</v>
+      </c>
+      <c r="AI448">
+        <v>200.68</v>
+      </c>
+      <c r="AJ448">
+        <v>16230.24</v>
+      </c>
+      <c r="AK448">
+        <v>3128.26</v>
+      </c>
+      <c r="AL448">
+        <v>170.82</v>
+      </c>
+      <c r="AM448">
+        <v>154.58</v>
+      </c>
+      <c r="AN448">
+        <v>16.24</v>
+      </c>
+      <c r="AO448">
+        <v>4.35</v>
+      </c>
+      <c r="AP448">
+        <v>0.63</v>
+      </c>
+      <c r="AQ448">
+        <v>10305.35</v>
+      </c>
+    </row>
+    <row r="449" spans="1:43">
       <c r="A449" s="1" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="B449">
         <v>-52248.57</v>
@@ -14906,10 +16640,40 @@
       <c r="AG449">
         <v>47938.32</v>
       </c>
-    </row>
-    <row r="450" spans="1:33">
+      <c r="AH449">
+        <v>17767.94</v>
+      </c>
+      <c r="AI449">
+        <v>61.14</v>
+      </c>
+      <c r="AJ449">
+        <v>17706.8</v>
+      </c>
+      <c r="AK449">
+        <v>2849.58</v>
+      </c>
+      <c r="AL449">
+        <v>185.53</v>
+      </c>
+      <c r="AM449">
+        <v>166.8</v>
+      </c>
+      <c r="AN449">
+        <v>18.73</v>
+      </c>
+      <c r="AO449">
+        <v>3.97</v>
+      </c>
+      <c r="AP449">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ449">
+        <v>10348.33</v>
+      </c>
+    </row>
+    <row r="450" spans="1:43">
       <c r="A450" s="1" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="B450">
         <v>-122593.16</v>
@@ -15007,10 +16771,40 @@
       <c r="AG450">
         <v>47478.71</v>
       </c>
-    </row>
-    <row r="451" spans="1:33">
+      <c r="AH450">
+        <v>20712.97</v>
+      </c>
+      <c r="AI450">
+        <v>139.99</v>
+      </c>
+      <c r="AJ450">
+        <v>20572.98</v>
+      </c>
+      <c r="AK450">
+        <v>3502.04</v>
+      </c>
+      <c r="AL450">
+        <v>870.83</v>
+      </c>
+      <c r="AM450">
+        <v>855.1799999999999</v>
+      </c>
+      <c r="AN450">
+        <v>15.64</v>
+      </c>
+      <c r="AO450">
+        <v>4.82</v>
+      </c>
+      <c r="AP450">
+        <v>1.52</v>
+      </c>
+      <c r="AQ450">
+        <v>10962.02</v>
+      </c>
+    </row>
+    <row r="451" spans="1:43">
       <c r="A451" s="1" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="B451">
         <v>-203766.68</v>
@@ -15108,10 +16902,40 @@
       <c r="AG451">
         <v>41513.68</v>
       </c>
-    </row>
-    <row r="452" spans="1:33">
+      <c r="AH451">
+        <v>20833.42</v>
+      </c>
+      <c r="AI451">
+        <v>0</v>
+      </c>
+      <c r="AJ451">
+        <v>20833.42</v>
+      </c>
+      <c r="AK451">
+        <v>2390.65</v>
+      </c>
+      <c r="AL451">
+        <v>49.61</v>
+      </c>
+      <c r="AM451">
+        <v>29.4</v>
+      </c>
+      <c r="AN451">
+        <v>20.21</v>
+      </c>
+      <c r="AO451">
+        <v>3.42</v>
+      </c>
+      <c r="AP451">
+        <v>0.76</v>
+      </c>
+      <c r="AQ451">
+        <v>10974</v>
+      </c>
+    </row>
+    <row r="452" spans="1:43">
       <c r="A452" s="1" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="B452">
         <v>-10662.97</v>
@@ -15209,10 +17033,40 @@
       <c r="AG452">
         <v>51489.94</v>
       </c>
-    </row>
-    <row r="453" spans="1:33">
+      <c r="AH452">
+        <v>20458.38</v>
+      </c>
+      <c r="AI452">
+        <v>120.46</v>
+      </c>
+      <c r="AJ452">
+        <v>20337.92</v>
+      </c>
+      <c r="AK452">
+        <v>2706.93</v>
+      </c>
+      <c r="AL452">
+        <v>287.28</v>
+      </c>
+      <c r="AM452">
+        <v>271.99</v>
+      </c>
+      <c r="AN452">
+        <v>15.29</v>
+      </c>
+      <c r="AO452">
+        <v>3.69</v>
+      </c>
+      <c r="AP452">
+        <v>0.7</v>
+      </c>
+      <c r="AQ452">
+        <v>11301.81</v>
+      </c>
+    </row>
+    <row r="453" spans="1:43">
       <c r="A453" s="1" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="B453">
         <v>80348.22</v>
@@ -15310,10 +17164,40 @@
       <c r="AG453">
         <v>48506.93</v>
       </c>
-    </row>
-    <row r="454" spans="1:33">
+      <c r="AH453">
+        <v>20250.82</v>
+      </c>
+      <c r="AI453">
+        <v>0.58</v>
+      </c>
+      <c r="AJ453">
+        <v>20250.24</v>
+      </c>
+      <c r="AK453">
+        <v>2821.8</v>
+      </c>
+      <c r="AL453">
+        <v>125.16</v>
+      </c>
+      <c r="AM453">
+        <v>111.95</v>
+      </c>
+      <c r="AN453">
+        <v>13.21</v>
+      </c>
+      <c r="AO453">
+        <v>3.92</v>
+      </c>
+      <c r="AP453">
+        <v>0.47</v>
+      </c>
+      <c r="AQ453">
+        <v>11333.76</v>
+      </c>
+    </row>
+    <row r="454" spans="1:43">
       <c r="A454" s="1" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="B454">
         <v>186482.44</v>
@@ -15411,10 +17295,40 @@
       <c r="AG454">
         <v>48253.33</v>
       </c>
-    </row>
-    <row r="455" spans="1:33">
+      <c r="AH454">
+        <v>19733.83</v>
+      </c>
+      <c r="AI454">
+        <v>19.95</v>
+      </c>
+      <c r="AJ454">
+        <v>19713.88</v>
+      </c>
+      <c r="AK454">
+        <v>3433.55</v>
+      </c>
+      <c r="AL454">
+        <v>128.91</v>
+      </c>
+      <c r="AM454">
+        <v>113.11</v>
+      </c>
+      <c r="AN454">
+        <v>15.8</v>
+      </c>
+      <c r="AO454">
+        <v>4.85</v>
+      </c>
+      <c r="AP454">
+        <v>0.49</v>
+      </c>
+      <c r="AQ454">
+        <v>11659.63</v>
+      </c>
+    </row>
+    <row r="455" spans="1:43">
       <c r="A455" s="1" t="s">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="B455">
         <v>-25602.68</v>
@@ -15512,10 +17426,40 @@
       <c r="AG455">
         <v>40775.98</v>
       </c>
-    </row>
-    <row r="456" spans="1:33">
+      <c r="AH455">
+        <v>19219.02</v>
+      </c>
+      <c r="AI455">
+        <v>62.33</v>
+      </c>
+      <c r="AJ455">
+        <v>19156.68</v>
+      </c>
+      <c r="AK455">
+        <v>3445.87</v>
+      </c>
+      <c r="AL455">
+        <v>647.83</v>
+      </c>
+      <c r="AM455">
+        <v>637.52</v>
+      </c>
+      <c r="AN455">
+        <v>10.31</v>
+      </c>
+      <c r="AO455">
+        <v>5.05</v>
+      </c>
+      <c r="AP455">
+        <v>1.18</v>
+      </c>
+      <c r="AQ455">
+        <v>12093.84</v>
+      </c>
+    </row>
+    <row r="456" spans="1:43">
       <c r="A456" s="1" t="s">
-        <v>486</v>
+        <v>496</v>
       </c>
       <c r="B456">
         <v>-19161.81</v>
@@ -15613,10 +17557,40 @@
       <c r="AG456">
         <v>46613.28</v>
       </c>
-    </row>
-    <row r="457" spans="1:33">
+      <c r="AH456">
+        <v>21650.38</v>
+      </c>
+      <c r="AI456">
+        <v>0</v>
+      </c>
+      <c r="AJ456">
+        <v>21650.38</v>
+      </c>
+      <c r="AK456">
+        <v>3461.52</v>
+      </c>
+      <c r="AL456">
+        <v>132.55</v>
+      </c>
+      <c r="AM456">
+        <v>116.46</v>
+      </c>
+      <c r="AN456">
+        <v>16.09</v>
+      </c>
+      <c r="AO456">
+        <v>4.88</v>
+      </c>
+      <c r="AP456">
+        <v>0.49</v>
+      </c>
+      <c r="AQ456">
+        <v>12460.74</v>
+      </c>
+    </row>
+    <row r="457" spans="1:43">
       <c r="A457" s="1" t="s">
-        <v>487</v>
+        <v>497</v>
       </c>
       <c r="B457">
         <v>239448.76</v>
@@ -15714,10 +17688,40 @@
       <c r="AG457">
         <v>50313.64</v>
       </c>
-    </row>
-    <row r="458" spans="1:33">
+      <c r="AH457">
+        <v>22102.41</v>
+      </c>
+      <c r="AI457">
+        <v>0</v>
+      </c>
+      <c r="AJ457">
+        <v>22102.41</v>
+      </c>
+      <c r="AK457">
+        <v>3500.3</v>
+      </c>
+      <c r="AL457">
+        <v>246.39</v>
+      </c>
+      <c r="AM457">
+        <v>235.09</v>
+      </c>
+      <c r="AN457">
+        <v>11.3</v>
+      </c>
+      <c r="AO457">
+        <v>4.72</v>
+      </c>
+      <c r="AP457">
+        <v>0.57</v>
+      </c>
+      <c r="AQ457">
+        <v>12390.3</v>
+      </c>
+    </row>
+    <row r="458" spans="1:43">
       <c r="A458" s="1" t="s">
-        <v>488</v>
+        <v>498</v>
       </c>
       <c r="B458">
         <v>290861.9</v>
@@ -15815,10 +17819,40 @@
       <c r="AG458">
         <v>51602.98</v>
       </c>
-    </row>
-    <row r="459" spans="1:33">
+      <c r="AH458">
+        <v>22522.13</v>
+      </c>
+      <c r="AI458">
+        <v>0</v>
+      </c>
+      <c r="AJ458">
+        <v>22522.13</v>
+      </c>
+      <c r="AK458">
+        <v>3718</v>
+      </c>
+      <c r="AL458">
+        <v>141.39</v>
+      </c>
+      <c r="AM458">
+        <v>128.02</v>
+      </c>
+      <c r="AN458">
+        <v>13.37</v>
+      </c>
+      <c r="AO458">
+        <v>5.29</v>
+      </c>
+      <c r="AP458">
+        <v>0.47</v>
+      </c>
+      <c r="AQ458">
+        <v>12402.52</v>
+      </c>
+    </row>
+    <row r="459" spans="1:43">
       <c r="A459" s="1" t="s">
-        <v>489</v>
+        <v>499</v>
       </c>
       <c r="B459">
         <v>117864.85</v>
@@ -15916,10 +17950,40 @@
       <c r="AG459">
         <v>44700.09</v>
       </c>
-    </row>
-    <row r="460" spans="1:33">
+      <c r="AH459">
+        <v>20707.82</v>
+      </c>
+      <c r="AI459">
+        <v>56.81</v>
+      </c>
+      <c r="AJ459">
+        <v>20651.01</v>
+      </c>
+      <c r="AK459">
+        <v>5630.84</v>
+      </c>
+      <c r="AL459">
+        <v>310.57</v>
+      </c>
+      <c r="AM459">
+        <v>299.04</v>
+      </c>
+      <c r="AN459">
+        <v>11.53</v>
+      </c>
+      <c r="AO459">
+        <v>8.33</v>
+      </c>
+      <c r="AP459">
+        <v>1.15</v>
+      </c>
+      <c r="AQ459">
+        <v>12079.95</v>
+      </c>
+    </row>
+    <row r="460" spans="1:43">
       <c r="A460" s="1" t="s">
-        <v>490</v>
+        <v>500</v>
       </c>
       <c r="B460">
         <v>182344.29</v>
@@ -16017,10 +18081,40 @@
       <c r="AG460">
         <v>49666.53</v>
       </c>
-    </row>
-    <row r="461" spans="1:33">
+      <c r="AH460">
+        <v>18950.52</v>
+      </c>
+      <c r="AI460">
+        <v>150</v>
+      </c>
+      <c r="AJ460">
+        <v>18800.52</v>
+      </c>
+      <c r="AK460">
+        <v>3960.17</v>
+      </c>
+      <c r="AL460">
+        <v>179.27</v>
+      </c>
+      <c r="AM460">
+        <v>166.1</v>
+      </c>
+      <c r="AN460">
+        <v>13.17</v>
+      </c>
+      <c r="AO460">
+        <v>5.68</v>
+      </c>
+      <c r="AP460">
+        <v>0.7</v>
+      </c>
+      <c r="AQ460">
+        <v>12307.26</v>
+      </c>
+    </row>
+    <row r="461" spans="1:43">
       <c r="A461" s="1" t="s">
-        <v>491</v>
+        <v>501</v>
       </c>
       <c r="B461">
         <v>363000.71</v>
@@ -16118,10 +18212,40 @@
       <c r="AG461">
         <v>50463.66</v>
       </c>
-    </row>
-    <row r="462" spans="1:33">
+      <c r="AH461">
+        <v>18772.55</v>
+      </c>
+      <c r="AI461">
+        <v>100</v>
+      </c>
+      <c r="AJ461">
+        <v>18672.55</v>
+      </c>
+      <c r="AK461">
+        <v>4283.4</v>
+      </c>
+      <c r="AL461">
+        <v>178.2</v>
+      </c>
+      <c r="AM461">
+        <v>163.76</v>
+      </c>
+      <c r="AN461">
+        <v>14.43</v>
+      </c>
+      <c r="AO461">
+        <v>6.24</v>
+      </c>
+      <c r="AP461">
+        <v>0.43</v>
+      </c>
+      <c r="AQ461">
+        <v>12560.63</v>
+      </c>
+    </row>
+    <row r="462" spans="1:43">
       <c r="A462" s="1" t="s">
-        <v>492</v>
+        <v>502</v>
       </c>
       <c r="B462">
         <v>553593.01</v>
@@ -16219,10 +18343,40 @@
       <c r="AG462">
         <v>53182.26</v>
       </c>
-    </row>
-    <row r="463" spans="1:33">
+      <c r="AH462">
+        <v>19949.71</v>
+      </c>
+      <c r="AI462">
+        <v>400.86</v>
+      </c>
+      <c r="AJ462">
+        <v>19548.85</v>
+      </c>
+      <c r="AK462">
+        <v>3021.5</v>
+      </c>
+      <c r="AL462">
+        <v>191.07</v>
+      </c>
+      <c r="AM462">
+        <v>171.46</v>
+      </c>
+      <c r="AN462">
+        <v>19.6</v>
+      </c>
+      <c r="AO462">
+        <v>4.26</v>
+      </c>
+      <c r="AP462">
+        <v>0.53</v>
+      </c>
+      <c r="AQ462">
+        <v>12274.31</v>
+      </c>
+    </row>
+    <row r="463" spans="1:43">
       <c r="A463" s="1" t="s">
-        <v>493</v>
+        <v>503</v>
       </c>
       <c r="B463">
         <v>279422.03</v>
@@ -16320,10 +18474,40 @@
       <c r="AG463">
         <v>47063.81</v>
       </c>
-    </row>
-    <row r="464" spans="1:33">
+      <c r="AH463">
+        <v>20480.18</v>
+      </c>
+      <c r="AI463">
+        <v>280.33</v>
+      </c>
+      <c r="AJ463">
+        <v>20199.85</v>
+      </c>
+      <c r="AK463">
+        <v>3369.52</v>
+      </c>
+      <c r="AL463">
+        <v>247.26</v>
+      </c>
+      <c r="AM463">
+        <v>220.49</v>
+      </c>
+      <c r="AN463">
+        <v>26.77</v>
+      </c>
+      <c r="AO463">
+        <v>4.93</v>
+      </c>
+      <c r="AP463">
+        <v>0.63</v>
+      </c>
+      <c r="AQ463">
+        <v>12372.96</v>
+      </c>
+    </row>
+    <row r="464" spans="1:43">
       <c r="A464" s="1" t="s">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="B464">
         <v>365988.17</v>
@@ -16421,10 +18605,40 @@
       <c r="AG464">
         <v>50730.11</v>
       </c>
-    </row>
-    <row r="465" spans="1:33">
+      <c r="AH464">
+        <v>21933.6</v>
+      </c>
+      <c r="AI464">
+        <v>561.8</v>
+      </c>
+      <c r="AJ464">
+        <v>21371.79</v>
+      </c>
+      <c r="AK464">
+        <v>5284.21</v>
+      </c>
+      <c r="AL464">
+        <v>315.66</v>
+      </c>
+      <c r="AM464">
+        <v>292.33</v>
+      </c>
+      <c r="AN464">
+        <v>23.33</v>
+      </c>
+      <c r="AO464">
+        <v>7.26</v>
+      </c>
+      <c r="AP464">
+        <v>0.67</v>
+      </c>
+      <c r="AQ464">
+        <v>12637.79</v>
+      </c>
+    </row>
+    <row r="465" spans="1:43">
       <c r="A465" s="1" t="s">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="B465">
         <v>335612.57</v>
@@ -16522,10 +18736,40 @@
       <c r="AG465">
         <v>51123.09</v>
       </c>
-    </row>
-    <row r="466" spans="1:33">
+      <c r="AH465">
+        <v>19619.04</v>
+      </c>
+      <c r="AI465">
+        <v>305.8</v>
+      </c>
+      <c r="AJ465">
+        <v>19313.24</v>
+      </c>
+      <c r="AK465">
+        <v>4944.68</v>
+      </c>
+      <c r="AL465">
+        <v>604.63</v>
+      </c>
+      <c r="AM465">
+        <v>497.17</v>
+      </c>
+      <c r="AN465">
+        <v>107.46</v>
+      </c>
+      <c r="AO465">
+        <v>6.94</v>
+      </c>
+      <c r="AP465">
+        <v>1.34</v>
+      </c>
+      <c r="AQ465">
+        <v>12721.57</v>
+      </c>
+    </row>
+    <row r="466" spans="1:43">
       <c r="A466" s="1" t="s">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="B466">
         <v>482287.04</v>
@@ -16623,10 +18867,40 @@
       <c r="AG466">
         <v>59948.2</v>
       </c>
-    </row>
-    <row r="467" spans="1:33">
+      <c r="AH466">
+        <v>22000.84</v>
+      </c>
+      <c r="AI466">
+        <v>167.03</v>
+      </c>
+      <c r="AJ466">
+        <v>21833.81</v>
+      </c>
+      <c r="AK466">
+        <v>3653.72</v>
+      </c>
+      <c r="AL466">
+        <v>498.49</v>
+      </c>
+      <c r="AM466">
+        <v>347.6</v>
+      </c>
+      <c r="AN466">
+        <v>150.89</v>
+      </c>
+      <c r="AO466">
+        <v>4.83</v>
+      </c>
+      <c r="AP466">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ466">
+        <v>12188.02</v>
+      </c>
+    </row>
+    <row r="467" spans="1:43">
       <c r="A467" s="1" t="s">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="B467">
         <v>221333.39</v>
@@ -16724,10 +18998,40 @@
       <c r="AG467">
         <v>53816.38</v>
       </c>
-    </row>
-    <row r="468" spans="1:33">
+      <c r="AH467">
+        <v>23670</v>
+      </c>
+      <c r="AI467">
+        <v>150</v>
+      </c>
+      <c r="AJ467">
+        <v>23520</v>
+      </c>
+      <c r="AK467">
+        <v>3943.19</v>
+      </c>
+      <c r="AL467">
+        <v>377.09</v>
+      </c>
+      <c r="AM467">
+        <v>208.34</v>
+      </c>
+      <c r="AN467">
+        <v>168.75</v>
+      </c>
+      <c r="AO467">
+        <v>5.43</v>
+      </c>
+      <c r="AP467">
+        <v>1.25</v>
+      </c>
+      <c r="AQ467">
+        <v>12598.78</v>
+      </c>
+    </row>
+    <row r="468" spans="1:43">
       <c r="A468" s="1" t="s">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B468">
         <v>442316.87</v>
@@ -16825,10 +19129,40 @@
       <c r="AG468">
         <v>60268.87</v>
       </c>
-    </row>
-    <row r="469" spans="1:33">
+      <c r="AH468">
+        <v>25645.13</v>
+      </c>
+      <c r="AI468">
+        <v>453.87</v>
+      </c>
+      <c r="AJ468">
+        <v>25191.26</v>
+      </c>
+      <c r="AK468">
+        <v>6494.14</v>
+      </c>
+      <c r="AL468">
+        <v>450.12</v>
+      </c>
+      <c r="AM468">
+        <v>275.24</v>
+      </c>
+      <c r="AN468">
+        <v>174.88</v>
+      </c>
+      <c r="AO468">
+        <v>8.01</v>
+      </c>
+      <c r="AP468">
+        <v>1.88</v>
+      </c>
+      <c r="AQ468">
+        <v>12745.66</v>
+      </c>
+    </row>
+    <row r="469" spans="1:43">
       <c r="A469" s="1" t="s">
-        <v>499</v>
+        <v>509</v>
       </c>
       <c r="B469">
         <v>344661.85</v>
@@ -16926,10 +19260,40 @@
       <c r="AG469">
         <v>59045.12</v>
       </c>
-    </row>
-    <row r="470" spans="1:33">
+      <c r="AH469">
+        <v>25136.81</v>
+      </c>
+      <c r="AI469">
+        <v>386.39</v>
+      </c>
+      <c r="AJ469">
+        <v>24750.42</v>
+      </c>
+      <c r="AK469">
+        <v>3700.96</v>
+      </c>
+      <c r="AL469">
+        <v>537.8</v>
+      </c>
+      <c r="AM469">
+        <v>352.56</v>
+      </c>
+      <c r="AN469">
+        <v>185.24</v>
+      </c>
+      <c r="AO469">
+        <v>4.55</v>
+      </c>
+      <c r="AP469">
+        <v>0.95</v>
+      </c>
+      <c r="AQ469">
+        <v>12593.68</v>
+      </c>
+    </row>
+    <row r="470" spans="1:43">
       <c r="A470" s="1" t="s">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B470">
         <v>447298.91</v>
@@ -17027,10 +19391,40 @@
       <c r="AG470">
         <v>66941.66</v>
       </c>
-    </row>
-    <row r="471" spans="1:33">
+      <c r="AH470">
+        <v>25928.23</v>
+      </c>
+      <c r="AI470">
+        <v>144.72</v>
+      </c>
+      <c r="AJ470">
+        <v>25783.51</v>
+      </c>
+      <c r="AK470">
+        <v>5576.56</v>
+      </c>
+      <c r="AL470">
+        <v>636.78</v>
+      </c>
+      <c r="AM470">
+        <v>448.01</v>
+      </c>
+      <c r="AN470">
+        <v>188.77</v>
+      </c>
+      <c r="AO470">
+        <v>6.46</v>
+      </c>
+      <c r="AP470">
+        <v>1.59</v>
+      </c>
+      <c r="AQ470">
+        <v>12660.43</v>
+      </c>
+    </row>
+    <row r="471" spans="1:43">
       <c r="A471" s="1" t="s">
-        <v>501</v>
+        <v>511</v>
       </c>
       <c r="B471">
         <v>134814.64</v>
@@ -17128,10 +19522,40 @@
       <c r="AG471">
         <v>58083.78</v>
       </c>
-    </row>
-    <row r="472" spans="1:33">
+      <c r="AH471">
+        <v>24843.76</v>
+      </c>
+      <c r="AI471">
+        <v>47.92</v>
+      </c>
+      <c r="AJ471">
+        <v>24795.84</v>
+      </c>
+      <c r="AK471">
+        <v>4726.49</v>
+      </c>
+      <c r="AL471">
+        <v>689.16</v>
+      </c>
+      <c r="AM471">
+        <v>496.45</v>
+      </c>
+      <c r="AN471">
+        <v>192.71</v>
+      </c>
+      <c r="AO471">
+        <v>5.77</v>
+      </c>
+      <c r="AP471">
+        <v>1.18</v>
+      </c>
+      <c r="AQ471">
+        <v>12780.75</v>
+      </c>
+    </row>
+    <row r="472" spans="1:43">
       <c r="A472" s="1" t="s">
-        <v>502</v>
+        <v>512</v>
       </c>
       <c r="B472">
         <v>125834.31</v>
@@ -17229,10 +19653,40 @@
       <c r="AG472">
         <v>62270.28</v>
       </c>
-    </row>
-    <row r="473" spans="1:33">
+      <c r="AH472">
+        <v>28153.82</v>
+      </c>
+      <c r="AI472">
+        <v>31.24</v>
+      </c>
+      <c r="AJ472">
+        <v>28122.59</v>
+      </c>
+      <c r="AK472">
+        <v>5581.46</v>
+      </c>
+      <c r="AL472">
+        <v>401.55</v>
+      </c>
+      <c r="AM472">
+        <v>192.72</v>
+      </c>
+      <c r="AN472">
+        <v>208.83</v>
+      </c>
+      <c r="AO472">
+        <v>6.7</v>
+      </c>
+      <c r="AP472">
+        <v>0.77</v>
+      </c>
+      <c r="AQ472">
+        <v>12919.63</v>
+      </c>
+    </row>
+    <row r="473" spans="1:43">
       <c r="A473" s="1" t="s">
-        <v>503</v>
+        <v>513</v>
       </c>
       <c r="B473">
         <v>204182.82</v>
@@ -17330,10 +19784,40 @@
       <c r="AG473">
         <v>61160.96</v>
       </c>
-    </row>
-    <row r="474" spans="1:33">
+      <c r="AH473">
+        <v>30922.1</v>
+      </c>
+      <c r="AI473">
+        <v>68.29000000000001</v>
+      </c>
+      <c r="AJ473">
+        <v>30853.81</v>
+      </c>
+      <c r="AK473">
+        <v>4663.96</v>
+      </c>
+      <c r="AL473">
+        <v>249.16</v>
+      </c>
+      <c r="AM473">
+        <v>25.78</v>
+      </c>
+      <c r="AN473">
+        <v>223.38</v>
+      </c>
+      <c r="AO473">
+        <v>5.57</v>
+      </c>
+      <c r="AP473">
+        <v>0.51</v>
+      </c>
+      <c r="AQ473">
+        <v>12851.69</v>
+      </c>
+    </row>
+    <row r="474" spans="1:43">
       <c r="A474" s="1" t="s">
-        <v>504</v>
+        <v>514</v>
       </c>
       <c r="B474">
         <v>363701.75</v>
@@ -17431,10 +19915,40 @@
       <c r="AG474">
         <v>60636.38</v>
       </c>
-    </row>
-    <row r="475" spans="1:33">
+      <c r="AH474">
+        <v>31219.55</v>
+      </c>
+      <c r="AI474">
+        <v>60.1</v>
+      </c>
+      <c r="AJ474">
+        <v>31159.45</v>
+      </c>
+      <c r="AK474">
+        <v>4899.56</v>
+      </c>
+      <c r="AL474">
+        <v>982.9400000000001</v>
+      </c>
+      <c r="AM474">
+        <v>729.15</v>
+      </c>
+      <c r="AN474">
+        <v>253.79</v>
+      </c>
+      <c r="AO474">
+        <v>5.89</v>
+      </c>
+      <c r="AP474">
+        <v>1.4</v>
+      </c>
+      <c r="AQ474">
+        <v>13080</v>
+      </c>
+    </row>
+    <row r="475" spans="1:43">
       <c r="A475" s="1" t="s">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="B475">
         <v>134605.66</v>
@@ -17532,10 +20046,40 @@
       <c r="AG475">
         <v>52856.42</v>
       </c>
-    </row>
-    <row r="476" spans="1:33">
+      <c r="AH475">
+        <v>32962.63</v>
+      </c>
+      <c r="AI475">
+        <v>137.99</v>
+      </c>
+      <c r="AJ475">
+        <v>32824.64</v>
+      </c>
+      <c r="AK475">
+        <v>6179.03</v>
+      </c>
+      <c r="AL475">
+        <v>708.97</v>
+      </c>
+      <c r="AM475">
+        <v>465.96</v>
+      </c>
+      <c r="AN475">
+        <v>243.01</v>
+      </c>
+      <c r="AO475">
+        <v>7.79</v>
+      </c>
+      <c r="AP475">
+        <v>2.35</v>
+      </c>
+      <c r="AQ475">
+        <v>13290.79</v>
+      </c>
+    </row>
+    <row r="476" spans="1:43">
       <c r="A476" s="1" t="s">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="B476">
         <v>330791.35</v>
@@ -17633,10 +20177,40 @@
       <c r="AG476">
         <v>55759.97</v>
       </c>
-    </row>
-    <row r="477" spans="1:33">
+      <c r="AH476">
+        <v>33968.16</v>
+      </c>
+      <c r="AI476">
+        <v>0</v>
+      </c>
+      <c r="AJ476">
+        <v>33968.16</v>
+      </c>
+      <c r="AK476">
+        <v>5052.52</v>
+      </c>
+      <c r="AL476">
+        <v>1166.17</v>
+      </c>
+      <c r="AM476">
+        <v>891.59</v>
+      </c>
+      <c r="AN476">
+        <v>274.58</v>
+      </c>
+      <c r="AO476">
+        <v>5.91</v>
+      </c>
+      <c r="AP476">
+        <v>1.56</v>
+      </c>
+      <c r="AQ476">
+        <v>13350.35</v>
+      </c>
+    </row>
+    <row r="477" spans="1:43">
       <c r="A477" s="1" t="s">
-        <v>507</v>
+        <v>517</v>
       </c>
       <c r="B477">
         <v>345737.93</v>
@@ -17734,10 +20308,40 @@
       <c r="AG477">
         <v>54208.16</v>
       </c>
-    </row>
-    <row r="478" spans="1:33">
+      <c r="AH477">
+        <v>34227.93</v>
+      </c>
+      <c r="AI477">
+        <v>0</v>
+      </c>
+      <c r="AJ477">
+        <v>34227.93</v>
+      </c>
+      <c r="AK477">
+        <v>6190.47</v>
+      </c>
+      <c r="AL477">
+        <v>320.46</v>
+      </c>
+      <c r="AM477">
+        <v>55.14</v>
+      </c>
+      <c r="AN477">
+        <v>265.32</v>
+      </c>
+      <c r="AO477">
+        <v>7.43</v>
+      </c>
+      <c r="AP477">
+        <v>1.41</v>
+      </c>
+      <c r="AQ477">
+        <v>13098.24</v>
+      </c>
+    </row>
+    <row r="478" spans="1:43">
       <c r="A478" s="1" t="s">
-        <v>508</v>
+        <v>518</v>
       </c>
       <c r="B478">
         <v>348723.97</v>
@@ -17835,10 +20439,40 @@
       <c r="AG478">
         <v>48478.5</v>
       </c>
-    </row>
-    <row r="479" spans="1:33">
+      <c r="AH478">
+        <v>29739.64</v>
+      </c>
+      <c r="AI478">
+        <v>0</v>
+      </c>
+      <c r="AJ478">
+        <v>29739.64</v>
+      </c>
+      <c r="AK478">
+        <v>4397.63</v>
+      </c>
+      <c r="AL478">
+        <v>682.29</v>
+      </c>
+      <c r="AM478">
+        <v>434.04</v>
+      </c>
+      <c r="AN478">
+        <v>248.25</v>
+      </c>
+      <c r="AO478">
+        <v>5.58</v>
+      </c>
+      <c r="AP478">
+        <v>1.95</v>
+      </c>
+      <c r="AQ478">
+        <v>13462.29</v>
+      </c>
+    </row>
+    <row r="479" spans="1:43">
       <c r="A479" s="1" t="s">
-        <v>509</v>
+        <v>519</v>
       </c>
       <c r="B479">
         <v>48515.55</v>
@@ -17936,10 +20570,40 @@
       <c r="AG479">
         <v>17347.97</v>
       </c>
-    </row>
-    <row r="480" spans="1:33">
+      <c r="AH479">
+        <v>31063.68</v>
+      </c>
+      <c r="AI479">
+        <v>32.31</v>
+      </c>
+      <c r="AJ479">
+        <v>31031.38</v>
+      </c>
+      <c r="AK479">
+        <v>4622.56</v>
+      </c>
+      <c r="AL479">
+        <v>490.02</v>
+      </c>
+      <c r="AM479">
+        <v>297.05</v>
+      </c>
+      <c r="AN479">
+        <v>192.97</v>
+      </c>
+      <c r="AO479">
+        <v>8.19</v>
+      </c>
+      <c r="AP479">
+        <v>1.01</v>
+      </c>
+      <c r="AQ479">
+        <v>13316.57</v>
+      </c>
+    </row>
+    <row r="480" spans="1:43">
       <c r="A480" s="1" t="s">
-        <v>510</v>
+        <v>520</v>
       </c>
       <c r="B480">
         <v>251093.76</v>
@@ -18037,10 +20701,40 @@
       <c r="AG480">
         <v>17671.65</v>
       </c>
-    </row>
-    <row r="481" spans="1:33">
+      <c r="AH480">
+        <v>31483.63</v>
+      </c>
+      <c r="AI480">
+        <v>10.42</v>
+      </c>
+      <c r="AJ480">
+        <v>31473.22</v>
+      </c>
+      <c r="AK480">
+        <v>5680.72</v>
+      </c>
+      <c r="AL480">
+        <v>354.93</v>
+      </c>
+      <c r="AM480">
+        <v>146.31</v>
+      </c>
+      <c r="AN480">
+        <v>208.62</v>
+      </c>
+      <c r="AO480">
+        <v>8.73</v>
+      </c>
+      <c r="AP480">
+        <v>1.13</v>
+      </c>
+      <c r="AQ480">
+        <v>13779.35</v>
+      </c>
+    </row>
+    <row r="481" spans="1:43">
       <c r="A481" s="1" t="s">
-        <v>511</v>
+        <v>521</v>
       </c>
       <c r="B481">
         <v>13933.6</v>
@@ -18138,10 +20832,40 @@
       <c r="AG481">
         <v>20434.4</v>
       </c>
-    </row>
-    <row r="482" spans="1:33">
+      <c r="AH481">
+        <v>33886.26</v>
+      </c>
+      <c r="AI481">
+        <v>93.3</v>
+      </c>
+      <c r="AJ481">
+        <v>33792.97</v>
+      </c>
+      <c r="AK481">
+        <v>5091.37</v>
+      </c>
+      <c r="AL481">
+        <v>233.43</v>
+      </c>
+      <c r="AM481">
+        <v>28.13</v>
+      </c>
+      <c r="AN481">
+        <v>205.3</v>
+      </c>
+      <c r="AO481">
+        <v>7.81</v>
+      </c>
+      <c r="AP481">
+        <v>0.44</v>
+      </c>
+      <c r="AQ481">
+        <v>13677.67</v>
+      </c>
+    </row>
+    <row r="482" spans="1:43">
       <c r="A482" s="1" t="s">
-        <v>512</v>
+        <v>522</v>
       </c>
       <c r="B482">
         <v>-36942.06</v>
@@ -18239,10 +20963,40 @@
       <c r="AG482">
         <v>26160.06</v>
       </c>
-    </row>
-    <row r="483" spans="1:33">
+      <c r="AH482">
+        <v>31475.87</v>
+      </c>
+      <c r="AI482">
+        <v>36.5</v>
+      </c>
+      <c r="AJ482">
+        <v>31439.37</v>
+      </c>
+      <c r="AK482">
+        <v>5168.71</v>
+      </c>
+      <c r="AL482">
+        <v>381.69</v>
+      </c>
+      <c r="AM482">
+        <v>170.63</v>
+      </c>
+      <c r="AN482">
+        <v>211.06</v>
+      </c>
+      <c r="AO482">
+        <v>7.18</v>
+      </c>
+      <c r="AP482">
+        <v>0.61</v>
+      </c>
+      <c r="AQ482">
+        <v>13531</v>
+      </c>
+    </row>
+    <row r="483" spans="1:43">
       <c r="A483" s="1" t="s">
-        <v>513</v>
+        <v>523</v>
       </c>
       <c r="B483">
         <v>-77666.78999999999</v>
@@ -18340,10 +21094,40 @@
       <c r="AG483">
         <v>31941.66</v>
       </c>
-    </row>
-    <row r="484" spans="1:33">
+      <c r="AH483">
+        <v>33504.92</v>
+      </c>
+      <c r="AI483">
+        <v>305.89</v>
+      </c>
+      <c r="AJ483">
+        <v>33199.03</v>
+      </c>
+      <c r="AK483">
+        <v>3986.14</v>
+      </c>
+      <c r="AL483">
+        <v>310.59</v>
+      </c>
+      <c r="AM483">
+        <v>112.41</v>
+      </c>
+      <c r="AN483">
+        <v>198.18</v>
+      </c>
+      <c r="AO483">
+        <v>5.28</v>
+      </c>
+      <c r="AP483">
+        <v>1.78</v>
+      </c>
+      <c r="AQ483">
+        <v>13632.22</v>
+      </c>
+    </row>
+    <row r="484" spans="1:43">
       <c r="A484" s="1" t="s">
-        <v>514</v>
+        <v>524</v>
       </c>
       <c r="B484">
         <v>-170424.29</v>
@@ -18441,10 +21225,40 @@
       <c r="AG484">
         <v>36196.16</v>
       </c>
-    </row>
-    <row r="485" spans="1:33">
+      <c r="AH484">
+        <v>31973.84</v>
+      </c>
+      <c r="AI484">
+        <v>561.63</v>
+      </c>
+      <c r="AJ484">
+        <v>31412.21</v>
+      </c>
+      <c r="AK484">
+        <v>5047.96</v>
+      </c>
+      <c r="AL484">
+        <v>856.35</v>
+      </c>
+      <c r="AM484">
+        <v>651.02</v>
+      </c>
+      <c r="AN484">
+        <v>205.33</v>
+      </c>
+      <c r="AO484">
+        <v>6.71</v>
+      </c>
+      <c r="AP484">
+        <v>1.29</v>
+      </c>
+      <c r="AQ484">
+        <v>13469.51</v>
+      </c>
+    </row>
+    <row r="485" spans="1:43">
       <c r="A485" s="1" t="s">
-        <v>515</v>
+        <v>525</v>
       </c>
       <c r="B485">
         <v>-57509.54</v>
@@ -18542,425 +21356,455 @@
       <c r="AG485">
         <v>44786.86</v>
       </c>
-    </row>
-    <row r="486" spans="1:33">
+      <c r="AH485">
+        <v>33627.59</v>
+      </c>
+      <c r="AI485">
+        <v>863.73</v>
+      </c>
+      <c r="AJ485">
+        <v>32763.86</v>
+      </c>
+      <c r="AK485">
+        <v>4426.54</v>
+      </c>
+      <c r="AL485">
+        <v>893.35</v>
+      </c>
+      <c r="AM485">
+        <v>668.26</v>
+      </c>
+      <c r="AN485">
+        <v>225.09</v>
+      </c>
+      <c r="AO485">
+        <v>5.59</v>
+      </c>
+      <c r="AP485">
+        <v>1.19</v>
+      </c>
+      <c r="AQ485">
+        <v>13784.57</v>
+      </c>
+    </row>
+    <row r="486" spans="1:43">
       <c r="A486" s="1" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="487" spans="1:33">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="487" spans="1:43">
       <c r="A487" s="1" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="488" spans="1:33">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="488" spans="1:43">
       <c r="A488" s="1" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="489" spans="1:33">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="489" spans="1:43">
       <c r="A489" s="1" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="490" spans="1:33">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="490" spans="1:43">
       <c r="A490" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="491" spans="1:33">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="491" spans="1:43">
       <c r="A491" s="1" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="492" spans="1:33">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="492" spans="1:43">
       <c r="A492" s="1" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="493" spans="1:33">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="493" spans="1:43">
       <c r="A493" s="1" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="494" spans="1:33">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="494" spans="1:43">
       <c r="A494" s="1" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="495" spans="1:33">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="495" spans="1:43">
       <c r="A495" s="1" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="496" spans="1:33">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="496" spans="1:43">
       <c r="A496" s="1" t="s">
-        <v>526</v>
+        <v>536</v>
       </c>
     </row>
     <row r="497" spans="1:1">
       <c r="A497" s="1" t="s">
-        <v>527</v>
+        <v>537</v>
       </c>
     </row>
     <row r="498" spans="1:1">
       <c r="A498" s="1" t="s">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="499" spans="1:1">
       <c r="A499" s="1" t="s">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
     <row r="500" spans="1:1">
       <c r="A500" s="1" t="s">
-        <v>530</v>
+        <v>540</v>
       </c>
     </row>
     <row r="501" spans="1:1">
       <c r="A501" s="1" t="s">
-        <v>531</v>
+        <v>541</v>
       </c>
     </row>
     <row r="502" spans="1:1">
       <c r="A502" s="1" t="s">
-        <v>532</v>
+        <v>542</v>
       </c>
     </row>
     <row r="503" spans="1:1">
       <c r="A503" s="1" t="s">
-        <v>533</v>
+        <v>543</v>
       </c>
     </row>
     <row r="504" spans="1:1">
       <c r="A504" s="1" t="s">
-        <v>534</v>
+        <v>544</v>
       </c>
     </row>
     <row r="505" spans="1:1">
       <c r="A505" s="1" t="s">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="506" spans="1:1">
       <c r="A506" s="1" t="s">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
     <row r="507" spans="1:1">
       <c r="A507" s="1" t="s">
-        <v>537</v>
+        <v>547</v>
       </c>
     </row>
     <row r="508" spans="1:1">
       <c r="A508" s="1" t="s">
-        <v>538</v>
+        <v>548</v>
       </c>
     </row>
     <row r="509" spans="1:1">
       <c r="A509" s="1" t="s">
-        <v>539</v>
+        <v>549</v>
       </c>
     </row>
     <row r="510" spans="1:1">
       <c r="A510" s="1" t="s">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="511" spans="1:1">
       <c r="A511" s="1" t="s">
-        <v>541</v>
+        <v>551</v>
       </c>
     </row>
     <row r="512" spans="1:1">
       <c r="A512" s="1" t="s">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="513" spans="1:1">
       <c r="A513" s="1" t="s">
-        <v>543</v>
+        <v>553</v>
       </c>
     </row>
     <row r="514" spans="1:1">
       <c r="A514" s="1" t="s">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="515" spans="1:1">
       <c r="A515" s="1" t="s">
-        <v>545</v>
+        <v>555</v>
       </c>
     </row>
     <row r="516" spans="1:1">
       <c r="A516" s="1" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="517" spans="1:1">
       <c r="A517" s="1" t="s">
-        <v>547</v>
+        <v>557</v>
       </c>
     </row>
     <row r="518" spans="1:1">
       <c r="A518" s="1" t="s">
-        <v>548</v>
+        <v>558</v>
       </c>
     </row>
     <row r="519" spans="1:1">
       <c r="A519" s="1" t="s">
-        <v>549</v>
+        <v>559</v>
       </c>
     </row>
     <row r="520" spans="1:1">
       <c r="A520" s="1" t="s">
-        <v>550</v>
+        <v>560</v>
       </c>
     </row>
     <row r="521" spans="1:1">
       <c r="A521" s="1" t="s">
-        <v>551</v>
+        <v>561</v>
       </c>
     </row>
     <row r="522" spans="1:1">
       <c r="A522" s="1" t="s">
-        <v>552</v>
+        <v>562</v>
       </c>
     </row>
     <row r="523" spans="1:1">
       <c r="A523" s="1" t="s">
-        <v>553</v>
+        <v>563</v>
       </c>
     </row>
     <row r="524" spans="1:1">
       <c r="A524" s="1" t="s">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="525" spans="1:1">
       <c r="A525" s="1" t="s">
-        <v>555</v>
+        <v>565</v>
       </c>
     </row>
     <row r="526" spans="1:1">
       <c r="A526" s="1" t="s">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="527" spans="1:1">
       <c r="A527" s="1" t="s">
-        <v>557</v>
+        <v>567</v>
       </c>
     </row>
     <row r="528" spans="1:1">
       <c r="A528" s="1" t="s">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="529" spans="1:1">
       <c r="A529" s="1" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="530" spans="1:1">
       <c r="A530" s="1" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
     </row>
     <row r="531" spans="1:1">
       <c r="A531" s="1" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="532" spans="1:1">
       <c r="A532" s="1" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
     </row>
     <row r="533" spans="1:1">
       <c r="A533" s="1" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="534" spans="1:1">
       <c r="A534" s="1" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
     </row>
     <row r="535" spans="1:1">
       <c r="A535" s="1" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="536" spans="1:1">
       <c r="A536" s="1" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
     </row>
     <row r="537" spans="1:1">
       <c r="A537" s="1" t="s">
-        <v>567</v>
+        <v>577</v>
       </c>
     </row>
     <row r="538" spans="1:1">
       <c r="A538" s="1" t="s">
-        <v>568</v>
+        <v>578</v>
       </c>
     </row>
     <row r="539" spans="1:1">
       <c r="A539" s="1" t="s">
-        <v>569</v>
+        <v>579</v>
       </c>
     </row>
     <row r="540" spans="1:1">
       <c r="A540" s="1" t="s">
-        <v>570</v>
+        <v>580</v>
       </c>
     </row>
     <row r="541" spans="1:1">
       <c r="A541" s="1" t="s">
-        <v>571</v>
+        <v>581</v>
       </c>
     </row>
     <row r="542" spans="1:1">
       <c r="A542" s="1" t="s">
-        <v>572</v>
+        <v>582</v>
       </c>
     </row>
     <row r="543" spans="1:1">
       <c r="A543" s="1" t="s">
-        <v>573</v>
+        <v>583</v>
       </c>
     </row>
     <row r="544" spans="1:1">
       <c r="A544" s="1" t="s">
-        <v>574</v>
+        <v>584</v>
       </c>
     </row>
     <row r="545" spans="1:1">
       <c r="A545" s="1" t="s">
-        <v>575</v>
+        <v>585</v>
       </c>
     </row>
     <row r="546" spans="1:1">
       <c r="A546" s="1" t="s">
-        <v>576</v>
+        <v>586</v>
       </c>
     </row>
     <row r="547" spans="1:1">
       <c r="A547" s="1" t="s">
-        <v>577</v>
+        <v>587</v>
       </c>
     </row>
     <row r="548" spans="1:1">
       <c r="A548" s="1" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="549" spans="1:1">
       <c r="A549" s="1" t="s">
-        <v>579</v>
+        <v>589</v>
       </c>
     </row>
     <row r="550" spans="1:1">
       <c r="A550" s="1" t="s">
-        <v>580</v>
+        <v>590</v>
       </c>
     </row>
     <row r="551" spans="1:1">
       <c r="A551" s="1" t="s">
-        <v>581</v>
+        <v>591</v>
       </c>
     </row>
     <row r="552" spans="1:1">
       <c r="A552" s="1" t="s">
-        <v>582</v>
+        <v>592</v>
       </c>
     </row>
     <row r="553" spans="1:1">
       <c r="A553" s="1" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="554" spans="1:1">
       <c r="A554" s="1" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
     </row>
     <row r="555" spans="1:1">
       <c r="A555" s="1" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="556" spans="1:1">
       <c r="A556" s="1" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
     </row>
     <row r="557" spans="1:1">
       <c r="A557" s="1" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="558" spans="1:1">
       <c r="A558" s="1" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
     </row>
     <row r="559" spans="1:1">
       <c r="A559" s="1" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="560" spans="1:1">
       <c r="A560" s="1" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
     </row>
     <row r="561" spans="1:1">
       <c r="A561" s="1" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="562" spans="1:1">
       <c r="A562" s="1" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
     </row>
     <row r="563" spans="1:1">
       <c r="A563" s="1" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="564" spans="1:1">
       <c r="A564" s="1" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
     </row>
     <row r="565" spans="1:1">
       <c r="A565" s="1" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="566" spans="1:1">
       <c r="A566" s="1" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
     </row>
     <row r="567" spans="1:1">
       <c r="A567" s="1" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="568" spans="1:1">
       <c r="A568" s="1" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
     </row>
     <row r="569" spans="1:1">
       <c r="A569" s="1" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
   </sheetData>
